--- a/InputData/land/BLAPE/BAU LULUCF Anthro Pollutant Emis.xlsx
+++ b/InputData/land/BLAPE/BAU LULUCF Anthro Pollutant Emis.xlsx
@@ -1,28 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\land\BLAPE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\United States\NEW_US\InputData\land\BLAPE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2179FD-F64B-44FA-A408-E63036BE5F30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="90" windowWidth="19140" windowHeight="9270"/>
+    <workbookView xWindow="1470" yWindow="1680" windowWidth="13620" windowHeight="13320" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="data from RPEpUACE" sheetId="4" r:id="rId3"/>
-    <sheet name="BLAPE" sheetId="3" r:id="rId4"/>
+    <sheet name="Calcs" sheetId="2" r:id="rId2"/>
+    <sheet name="EPA Table 6-1" sheetId="5" r:id="rId3"/>
+    <sheet name="data from RPEpUACE" sheetId="4" r:id="rId4"/>
+    <sheet name="BLAPE" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Source:</t>
   </si>
@@ -144,9 +179,6 @@
     <t>F gases</t>
   </si>
   <si>
-    <t>CO2 Sequestration</t>
-  </si>
-  <si>
     <t>Rebound CH4 and N2O Emissions</t>
   </si>
   <si>
@@ -154,12 +186,45 @@
   </si>
   <si>
     <t>Projected pollutant emissions data for the land use sector until 2030, linearly extrapolated to 2050</t>
+  </si>
+  <si>
+    <t>Table 6-1</t>
+  </si>
+  <si>
+    <t>LULUCF Carbon Stock Change</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>Start Year Forecast</t>
+  </si>
+  <si>
+    <t>MMTCO2e</t>
+  </si>
+  <si>
+    <t>CO2 Sequestration Forecast</t>
+  </si>
+  <si>
+    <t>CO2 Sequestration Start Year</t>
+  </si>
+  <si>
+    <t>US EPA</t>
+  </si>
+  <si>
+    <t>https://www.epa.gov/sites/production/files/2021-02/documents/us-ghg-inventory-2021-main-text.pdf</t>
+  </si>
+  <si>
+    <t>Draft Inventory of US Greenhouse Gas Emissions Emissions and Sinks</t>
+  </si>
+  <si>
+    <t>Table 6-1, page 6-3 (467)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -193,7 +258,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,6 +274,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -235,7 +306,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -255,6 +326,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -349,6 +423,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -384,6 +475,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -559,109 +667,144 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.3984375" customWidth="1"/>
-    <col min="2" max="2" width="51.59765625" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="51.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="6">
         <v>2016</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="6">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B11" s="14" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>43</v>
-      </c>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{A4341B2F-D9AB-49A2-AA50-5B7AD476C902}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.3984375" customWidth="1"/>
+    <col min="1" max="1" width="63.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2015</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="15">
         <v>2020</v>
       </c>
       <c r="D3">
@@ -674,15 +817,16 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4">
         <v>-970</v>
       </c>
-      <c r="C4">
-        <v>-1191</v>
+      <c r="C4" s="15">
+        <f>G13</f>
+        <v>-818.39999999999986</v>
       </c>
       <c r="D4">
         <v>-1201</v>
@@ -692,18 +836,19 @@
       </c>
       <c r="F4" s="9">
         <f>TREND($B4:$E4,$B$3:$E$3,F$3)</f>
-        <v>-1369.7000000000007</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+        <v>-1481.4799999999959</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5">
         <v>-928</v>
       </c>
-      <c r="C5">
-        <v>-1044</v>
+      <c r="C5" s="15">
+        <f>G13</f>
+        <v>-818.39999999999986</v>
       </c>
       <c r="D5">
         <v>-908</v>
@@ -713,10 +858,10 @@
       </c>
       <c r="F5" s="9">
         <f>TREND($B5:$E5,$B$3:$E$3,F$3)</f>
-        <v>-423.09999999999854</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+        <v>-490.77999999999884</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -726,7 +871,7 @@
       </c>
       <c r="C7" s="7">
         <f t="shared" si="0"/>
-        <v>-1117.5</v>
+        <v>-818.39999999999986</v>
       </c>
       <c r="D7" s="7">
         <f t="shared" si="0"/>
@@ -738,17 +883,74 @@
       </c>
       <c r="F7" s="7">
         <f t="shared" si="0"/>
-        <v>-896.39999999999964</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+        <v>-986.12999999999738</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12">
+        <v>2015</v>
+      </c>
+      <c r="C12">
+        <v>2016</v>
+      </c>
+      <c r="D12">
+        <v>2017</v>
+      </c>
+      <c r="E12">
+        <v>2018</v>
+      </c>
+      <c r="F12">
+        <v>2019</v>
+      </c>
+      <c r="G12" s="15">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13">
+        <f>'EPA Table 6-1'!D2</f>
+        <v>-791.5</v>
+      </c>
+      <c r="C13">
+        <f>'EPA Table 6-1'!E2</f>
+        <v>-855.8</v>
+      </c>
+      <c r="D13">
+        <f>'EPA Table 6-1'!F2</f>
+        <v>-791.8</v>
+      </c>
+      <c r="E13">
+        <f>'EPA Table 6-1'!G2</f>
+        <v>-824.6</v>
+      </c>
+      <c r="F13">
+        <f>'EPA Table 6-1'!H2</f>
+        <v>-812.4</v>
+      </c>
+      <c r="G13" s="15" cm="1">
+        <f t="array" ref="G13">TREND(B13:F13,B12:F12,G12)</f>
+        <v>-818.39999999999986</v>
       </c>
     </row>
   </sheetData>
@@ -760,22 +962,93 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{748C1EED-5369-4626-8108-4C2C32A7C6AB}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1">
+        <v>1990</v>
+      </c>
+      <c r="C1">
+        <v>2005</v>
+      </c>
+      <c r="D1">
+        <v>2015</v>
+      </c>
+      <c r="E1">
+        <v>2016</v>
+      </c>
+      <c r="F1">
+        <v>2017</v>
+      </c>
+      <c r="G1">
+        <v>2018</v>
+      </c>
+      <c r="H1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2">
+        <v>-908.7</v>
+      </c>
+      <c r="C2">
+        <v>-804.8</v>
+      </c>
+      <c r="D2">
+        <v>-791.5</v>
+      </c>
+      <c r="E2">
+        <v>-855.8</v>
+      </c>
+      <c r="F2">
+        <v>-791.8</v>
+      </c>
+      <c r="G2">
+        <v>-824.6</v>
+      </c>
+      <c r="H2">
+        <v>-812.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -783,7 +1056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -791,7 +1064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -799,7 +1072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -807,7 +1080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -815,7 +1088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -823,7 +1096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -831,7 +1104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -839,7 +1112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -847,7 +1120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -855,7 +1128,7 @@
         <v>4.2997168577917945E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -863,7 +1136,7 @@
         <v>3.5003753313133949E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -876,22 +1149,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AK13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.73046875" customWidth="1"/>
-    <col min="2" max="17" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1004,156 +1279,156 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="4">
-        <f>TREND(Data!$B7:$C7,Data!$B3:$C3,BLAPE!B1)*10^12</f>
-        <v>-949000000000000</v>
+        <f>TREND(Calcs!$B7:$C7,Calcs!$B3:$C3,BLAPE!B1)*10^12</f>
+        <v>-948999999999992.75</v>
       </c>
       <c r="C2" s="4">
-        <f>TREND(Data!$B7:$C7,Data!$B3:$C3,BLAPE!C1)*10^12</f>
-        <v>-982700000000011.63</v>
+        <f>TREND(Calcs!$B7:$C7,Calcs!$B3:$C3,BLAPE!C1)*10^12</f>
+        <v>-922879999999997.38</v>
       </c>
       <c r="D2" s="4">
-        <f>TREND(Data!$B7:$C7,Data!$B3:$C3,BLAPE!D1)*10^12</f>
-        <v>-1016400000000008.8</v>
+        <f>TREND(Calcs!$B7:$C7,Calcs!$B3:$C3,BLAPE!D1)*10^12</f>
+        <v>-896759999999994.75</v>
       </c>
       <c r="E2" s="4">
-        <f>TREND(Data!$B7:$C7,Data!$B3:$C3,BLAPE!E1)*10^12</f>
-        <v>-1050100000000005.9</v>
+        <f>TREND(Calcs!$B7:$C7,Calcs!$B3:$C3,BLAPE!E1)*10^12</f>
+        <v>-870639999999992.13</v>
       </c>
       <c r="F2" s="4">
-        <f>TREND(Data!$B7:$C7,Data!$B3:$C3,BLAPE!F1)*10^12</f>
-        <v>-1083800000000002.9</v>
+        <f>TREND(Calcs!$B7:$C7,Calcs!$B3:$C3,BLAPE!F1)*10^12</f>
+        <v>-844519999999996.75</v>
       </c>
       <c r="G2" s="5">
-        <f>TREND(Data!$B7:$C7,Data!$B3:$C3,BLAPE!G1)*10^12</f>
-        <v>-1117500000000000</v>
+        <f>TREND(Calcs!$B7:$C7,Calcs!$B3:$C3,BLAPE!G1)*10^12</f>
+        <v>-818399999999994.13</v>
       </c>
       <c r="H2" s="4">
-        <f>TREND(Data!$C7:$D7,Data!$C3:$D3,BLAPE!H1)*10^12</f>
-        <v>-1104900000000001.5</v>
+        <f>TREND(Calcs!$C7:$D7,Calcs!$C3:$D3,BLAPE!H1)*10^12</f>
+        <v>-865619999999995.38</v>
       </c>
       <c r="I2" s="4">
-        <f>TREND(Data!$C7:$D7,Data!$C3:$D3,BLAPE!I1)*10^12</f>
-        <v>-1092299999999999.3</v>
+        <f>TREND(Calcs!$C7:$D7,Calcs!$C3:$D3,BLAPE!I1)*10^12</f>
+        <v>-912839999999996.5</v>
       </c>
       <c r="J2" s="4">
-        <f>TREND(Data!$C7:$D7,Data!$C3:$D3,BLAPE!J1)*10^12</f>
-        <v>-1079700000000000.8</v>
+        <f>TREND(Calcs!$C7:$D7,Calcs!$C3:$D3,BLAPE!J1)*10^12</f>
+        <v>-960059999999997.63</v>
       </c>
       <c r="K2" s="4">
-        <f>TREND(Data!$C7:$D7,Data!$C3:$D3,BLAPE!K1)*10^12</f>
-        <v>-1067100000000002.1</v>
+        <f>TREND(Calcs!$C7:$D7,Calcs!$C3:$D3,BLAPE!K1)*10^12</f>
+        <v>-1007279999999998.9</v>
       </c>
       <c r="L2" s="5">
-        <f>TREND(Data!$C7:$D7,Data!$C3:$D3,BLAPE!L1)*10^12</f>
+        <f>TREND(Calcs!$C7:$D7,Calcs!$C3:$D3,BLAPE!L1)*10^12</f>
         <v>-1054500000000000</v>
       </c>
       <c r="M2" s="4">
-        <f>TREND(Data!$D7:$E7,Data!$D3:$E3,BLAPE!M1)*10^12</f>
+        <f>TREND(Calcs!$D7:$E7,Calcs!$D3:$E3,BLAPE!M1)*10^12</f>
         <v>-1024300000000002.9</v>
       </c>
       <c r="N2" s="4">
-        <f>TREND(Data!$D7:$E7,Data!$D3:$E3,BLAPE!N1)*10^12</f>
+        <f>TREND(Calcs!$D7:$E7,Calcs!$D3:$E3,BLAPE!N1)*10^12</f>
         <v>-994099999999998.5</v>
       </c>
       <c r="O2" s="4">
-        <f>TREND(Data!$D7:$E7,Data!$D3:$E3,BLAPE!O1)*10^12</f>
+        <f>TREND(Calcs!$D7:$E7,Calcs!$D3:$E3,BLAPE!O1)*10^12</f>
         <v>-963900000000001.5</v>
       </c>
       <c r="P2" s="4">
-        <f>TREND(Data!$D7:$E7,Data!$D3:$E3,BLAPE!P1)*10^12</f>
+        <f>TREND(Calcs!$D7:$E7,Calcs!$D3:$E3,BLAPE!P1)*10^12</f>
         <v>-933700000000004.38</v>
       </c>
       <c r="Q2" s="5">
-        <f>TREND(Data!$D7:$E7,Data!$D3:$E3,BLAPE!Q1)*10^12</f>
+        <f>TREND(Calcs!$D7:$E7,Calcs!$D3:$E3,BLAPE!Q1)*10^12</f>
         <v>-903500000000000</v>
       </c>
       <c r="R2" s="4">
-        <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLAPE!R1)*10^12</f>
-        <v>-903144999999999.88</v>
+        <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!R1)*10^12</f>
+        <v>-907631500000001.38</v>
       </c>
       <c r="S2" s="4">
-        <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLAPE!S1)*10^12</f>
-        <v>-902789999999999.88</v>
+        <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!S1)*10^12</f>
+        <v>-911763000000000.88</v>
       </c>
       <c r="T2" s="4">
-        <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLAPE!T1)*10^12</f>
-        <v>-902434999999999.88</v>
+        <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!T1)*10^12</f>
+        <v>-915894500000000.38</v>
       </c>
       <c r="U2" s="4">
-        <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLAPE!U1)*10^12</f>
-        <v>-902079999999999.88</v>
+        <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!U1)*10^12</f>
+        <v>-920025999999999.88</v>
       </c>
       <c r="V2" s="11">
-        <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLAPE!V1)*10^12</f>
-        <v>-901724999999999.75</v>
+        <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!V1)*10^12</f>
+        <v>-924157499999999.38</v>
       </c>
       <c r="W2" s="11">
-        <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLAPE!W1)*10^12</f>
-        <v>-901369999999999.75</v>
+        <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!W1)*10^12</f>
+        <v>-928289000000000.63</v>
       </c>
       <c r="X2" s="4">
-        <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLAPE!X1)*10^12</f>
-        <v>-901014999999999.75</v>
+        <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!X1)*10^12</f>
+        <v>-932420500000000.13</v>
       </c>
       <c r="Y2" s="4">
-        <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLAPE!Y1)*10^12</f>
-        <v>-900659999999999.75</v>
+        <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!Y1)*10^12</f>
+        <v>-936551999999999.63</v>
       </c>
       <c r="Z2" s="4">
-        <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLAPE!Z1)*10^12</f>
-        <v>-900304999999999.75</v>
+        <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!Z1)*10^12</f>
+        <v>-940683499999999.13</v>
       </c>
       <c r="AA2" s="4">
-        <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLAPE!AA1)*10^12</f>
-        <v>-899949999999999.75</v>
+        <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!AA1)*10^12</f>
+        <v>-944814999999998.75</v>
       </c>
       <c r="AB2" s="4">
-        <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLAPE!AB1)*10^12</f>
-        <v>-899594999999999.63</v>
+        <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!AB1)*10^12</f>
+        <v>-948946500000000</v>
       </c>
       <c r="AC2" s="4">
-        <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLAPE!AC1)*10^12</f>
-        <v>-899239999999999.63</v>
+        <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!AC1)*10^12</f>
+        <v>-953077999999999.5</v>
       </c>
       <c r="AD2" s="4">
-        <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLAPE!AD1)*10^12</f>
-        <v>-898884999999999.63</v>
+        <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!AD1)*10^12</f>
+        <v>-957209499999999</v>
       </c>
       <c r="AE2" s="4">
-        <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLAPE!AE1)*10^12</f>
-        <v>-898529999999999.63</v>
+        <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!AE1)*10^12</f>
+        <v>-961340999999998.5</v>
       </c>
       <c r="AF2" s="4">
-        <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLAPE!AF1)*10^12</f>
-        <v>-898174999999999.63</v>
+        <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!AF1)*10^12</f>
+        <v>-965472499999998</v>
       </c>
       <c r="AG2" s="4">
-        <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLAPE!AG1)*10^12</f>
-        <v>-897819999999999.63</v>
+        <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!AG1)*10^12</f>
+        <v>-969603999999999.38</v>
       </c>
       <c r="AH2" s="4">
-        <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLAPE!AH1)*10^12</f>
-        <v>-897464999999999.63</v>
+        <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!AH1)*10^12</f>
+        <v>-973735499999998.88</v>
       </c>
       <c r="AI2" s="4">
-        <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLAPE!AI1)*10^12</f>
-        <v>-897109999999999.5</v>
+        <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!AI1)*10^12</f>
+        <v>-977866999999998.38</v>
       </c>
       <c r="AJ2" s="4">
-        <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLAPE!AJ1)*10^12</f>
-        <v>-896754999999999.5</v>
+        <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!AJ1)*10^12</f>
+        <v>-981998499999997.88</v>
       </c>
       <c r="AK2" s="4">
-        <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLAPE!AK1)*10^12</f>
-        <v>-896399999999999.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.45">
+        <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!AK1)*10^12</f>
+        <v>-986129999999997.38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1266,7 +1541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1379,7 +1654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1492,7 +1767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1605,7 +1880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1718,7 +1993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1831,7 +2106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1944,7 +2219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -2057,49 +2332,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="4">
         <f>B$2*-'data from RPEpUACE'!$B11</f>
-        <v>408043129804.44128</v>
+        <v>408043129804.43817</v>
       </c>
       <c r="C11" s="4">
         <f>C$2*-'data from RPEpUACE'!$B11</f>
-        <v>422533175615.20465</v>
+        <v>396812269371.888</v>
       </c>
       <c r="D11" s="4">
         <f>D$2*-'data from RPEpUACE'!$B11</f>
-        <v>437023221425.96173</v>
+        <v>385581408939.33472</v>
       </c>
       <c r="E11" s="4">
         <f>E$2*-'data from RPEpUACE'!$B11</f>
-        <v>451513267236.71887</v>
+        <v>374350548506.78143</v>
       </c>
       <c r="F11" s="4">
         <f>F$2*-'data from RPEpUACE'!$B11</f>
-        <v>466003313047.47595</v>
+        <v>363119688074.2312</v>
       </c>
       <c r="G11" s="4">
         <f>G$2*-'data from RPEpUACE'!$B11</f>
-        <v>480493358858.23303</v>
+        <v>351888827641.67792</v>
       </c>
       <c r="H11" s="4">
         <f>H$2*-'data from RPEpUACE'!$B11</f>
-        <v>475075715617.41602</v>
+        <v>372192090644.17133</v>
       </c>
       <c r="I11" s="4">
         <f>I$2*-'data from RPEpUACE'!$B11</f>
-        <v>469658072376.59741</v>
+        <v>392495353646.66467</v>
       </c>
       <c r="J11" s="4">
         <f>J$2*-'data from RPEpUACE'!$B11</f>
-        <v>464240429135.7804</v>
+        <v>412798616649.15802</v>
       </c>
       <c r="K11" s="4">
         <f>K$2*-'data from RPEpUACE'!$B11</f>
-        <v>458822785894.96332</v>
+        <v>433101879651.65137</v>
       </c>
       <c r="L11" s="4">
         <f>L$2*-'data from RPEpUACE'!$B11</f>
@@ -2127,128 +2402,128 @@
       </c>
       <c r="R11" s="4">
         <f>R$2*-'data from RPEpUACE'!$B11</f>
-        <v>388326778153.03699</v>
+        <v>390255846121.28589</v>
       </c>
       <c r="S11" s="4">
         <f>S$2*-'data from RPEpUACE'!$B11</f>
-        <v>388174138204.58539</v>
+        <v>392032274141.0824</v>
       </c>
       <c r="T11" s="4">
         <f>T$2*-'data from RPEpUACE'!$B11</f>
-        <v>388021498256.13373</v>
+        <v>393808702160.87885</v>
       </c>
       <c r="U11" s="4">
         <f>U$2*-'data from RPEpUACE'!$B11</f>
-        <v>387868858307.68213</v>
+        <v>395585130180.67529</v>
       </c>
       <c r="V11" s="4">
         <f>V$2*-'data from RPEpUACE'!$B11</f>
-        <v>387716218359.23047</v>
+        <v>397361558200.47174</v>
       </c>
       <c r="W11" s="4">
         <f>W$2*-'data from RPEpUACE'!$B11</f>
-        <v>387563578410.77887</v>
+        <v>399137986220.26898</v>
       </c>
       <c r="X11" s="4">
         <f>X$2*-'data from RPEpUACE'!$B11</f>
-        <v>387410938462.32727</v>
+        <v>400914414240.06543</v>
       </c>
       <c r="Y11" s="4">
         <f>Y$2*-'data from RPEpUACE'!$B11</f>
-        <v>387258298513.87567</v>
+        <v>402690842259.86194</v>
       </c>
       <c r="Z11" s="4">
         <f>Z$2*-'data from RPEpUACE'!$B11</f>
-        <v>387105658565.42407</v>
+        <v>404467270279.65839</v>
       </c>
       <c r="AA11" s="4">
         <f>AA$2*-'data from RPEpUACE'!$B11</f>
-        <v>386953018616.97241</v>
+        <v>406243698299.4549</v>
       </c>
       <c r="AB11" s="4">
         <f>AB$2*-'data from RPEpUACE'!$B11</f>
-        <v>386800378668.52075</v>
+        <v>408020126319.25214</v>
       </c>
       <c r="AC11" s="4">
         <f>AC$2*-'data from RPEpUACE'!$B11</f>
-        <v>386647738720.06915</v>
+        <v>409796554339.04858</v>
       </c>
       <c r="AD11" s="4">
         <f>AD$2*-'data from RPEpUACE'!$B11</f>
-        <v>386495098771.61755</v>
+        <v>411572982358.84503</v>
       </c>
       <c r="AE11" s="4">
         <f>AE$2*-'data from RPEpUACE'!$B11</f>
-        <v>386342458823.16595</v>
+        <v>413349410378.64148</v>
       </c>
       <c r="AF11" s="4">
         <f>AF$2*-'data from RPEpUACE'!$B11</f>
-        <v>386189818874.71436</v>
+        <v>415125838398.43799</v>
       </c>
       <c r="AG11" s="4">
         <f>AG$2*-'data from RPEpUACE'!$B11</f>
-        <v>386037178926.26276</v>
+        <v>416902266418.23523</v>
       </c>
       <c r="AH11" s="4">
         <f>AH$2*-'data from RPEpUACE'!$B11</f>
-        <v>385884538977.8111</v>
+        <v>418678694438.03168</v>
       </c>
       <c r="AI11" s="4">
         <f>AI$2*-'data from RPEpUACE'!$B11</f>
-        <v>385731899029.35944</v>
+        <v>420455122457.82819</v>
       </c>
       <c r="AJ11" s="4">
         <f>AJ$2*-'data from RPEpUACE'!$B11</f>
-        <v>385579259080.90784</v>
+        <v>422231550477.62463</v>
       </c>
       <c r="AK11" s="4">
         <f>AK$2*-'data from RPEpUACE'!$B11</f>
-        <v>385426619132.45624</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.45">
+        <v>424007978497.42108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="4">
         <f>B$2*-'data from RPEpUACE'!$B12</f>
-        <v>33218561894.164116</v>
+        <v>33218561894.163864</v>
       </c>
       <c r="C12" s="4">
         <f>C$2*-'data from RPEpUACE'!$B12</f>
-        <v>34398188380.817139</v>
+        <v>32304263857.624966</v>
       </c>
       <c r="D12" s="4">
         <f>D$2*-'data from RPEpUACE'!$B12</f>
-        <v>35577814867.46965</v>
+        <v>31389965821.085815</v>
       </c>
       <c r="E12" s="4">
         <f>E$2*-'data from RPEpUACE'!$B12</f>
-        <v>36757441354.122162</v>
+        <v>30475667784.546665</v>
       </c>
       <c r="F12" s="4">
         <f>F$2*-'data from RPEpUACE'!$B12</f>
-        <v>37937067840.774673</v>
+        <v>29561369748.007767</v>
       </c>
       <c r="G12" s="4">
         <f>G$2*-'data from RPEpUACE'!$B12</f>
-        <v>39116694327.427185</v>
+        <v>28647071711.468616</v>
       </c>
       <c r="H12" s="4">
         <f>H$2*-'data from RPEpUACE'!$B12</f>
-        <v>38675647035.681755</v>
+        <v>30299948942.914848</v>
       </c>
       <c r="I12" s="4">
         <f>I$2*-'data from RPEpUACE'!$B12</f>
-        <v>38234599743.936188</v>
+        <v>31952826174.361073</v>
       </c>
       <c r="J12" s="4">
         <f>J$2*-'data from RPEpUACE'!$B12</f>
-        <v>37793552452.19075</v>
+        <v>33605703405.807297</v>
       </c>
       <c r="K12" s="4">
         <f>K$2*-'data from RPEpUACE'!$B12</f>
-        <v>37352505160.445313</v>
+        <v>35258580637.253525</v>
       </c>
       <c r="L12" s="4">
         <f>L$2*-'data from RPEpUACE'!$B12</f>
@@ -2276,86 +2551,86 @@
       </c>
       <c r="R12" s="4">
         <f>R$2*-'data from RPEpUACE'!$B12</f>
-        <v>31613464785.990356</v>
+        <v>31770509125.229782</v>
       </c>
       <c r="S12" s="4">
         <f>S$2*-'data from RPEpUACE'!$B12</f>
-        <v>31601038453.564194</v>
+        <v>31915127132.04298</v>
       </c>
       <c r="T12" s="4">
         <f>T$2*-'data from RPEpUACE'!$B12</f>
-        <v>31588612121.138031</v>
+        <v>32059745138.856174</v>
       </c>
       <c r="U12" s="4">
         <f>U$2*-'data from RPEpUACE'!$B12</f>
-        <v>31576185788.711868</v>
+        <v>32204363145.669369</v>
       </c>
       <c r="V12" s="4">
         <f>V$2*-'data from RPEpUACE'!$B12</f>
-        <v>31563759456.285702</v>
+        <v>32348981152.482567</v>
       </c>
       <c r="W12" s="4">
         <f>W$2*-'data from RPEpUACE'!$B12</f>
-        <v>31551333123.859539</v>
+        <v>32493599159.295822</v>
       </c>
       <c r="X12" s="4">
         <f>X$2*-'data from RPEpUACE'!$B12</f>
-        <v>31538906791.433376</v>
+        <v>32638217166.109016</v>
       </c>
       <c r="Y12" s="4">
         <f>Y$2*-'data from RPEpUACE'!$B12</f>
-        <v>31526480459.007214</v>
+        <v>32782835172.922215</v>
       </c>
       <c r="Z12" s="4">
         <f>Z$2*-'data from RPEpUACE'!$B12</f>
-        <v>31514054126.581051</v>
+        <v>32927453179.735409</v>
       </c>
       <c r="AA12" s="4">
         <f>AA$2*-'data from RPEpUACE'!$B12</f>
-        <v>31501627794.154888</v>
+        <v>33072071186.548607</v>
       </c>
       <c r="AB12" s="4">
         <f>AB$2*-'data from RPEpUACE'!$B12</f>
-        <v>31489201461.728722</v>
+        <v>33216689193.361866</v>
       </c>
       <c r="AC12" s="4">
         <f>AC$2*-'data from RPEpUACE'!$B12</f>
-        <v>31476775129.302559</v>
+        <v>33361307200.17506</v>
       </c>
       <c r="AD12" s="4">
         <f>AD$2*-'data from RPEpUACE'!$B12</f>
-        <v>31464348796.876396</v>
+        <v>33505925206.988255</v>
       </c>
       <c r="AE12" s="4">
         <f>AE$2*-'data from RPEpUACE'!$B12</f>
-        <v>31451922464.450233</v>
+        <v>33650543213.801453</v>
       </c>
       <c r="AF12" s="4">
         <f>AF$2*-'data from RPEpUACE'!$B12</f>
-        <v>31439496132.024071</v>
+        <v>33795161220.614647</v>
       </c>
       <c r="AG12" s="4">
         <f>AG$2*-'data from RPEpUACE'!$B12</f>
-        <v>31427069799.597908</v>
+        <v>33939779227.427906</v>
       </c>
       <c r="AH12" s="4">
         <f>AH$2*-'data from RPEpUACE'!$B12</f>
-        <v>31414643467.171745</v>
+        <v>34084397234.241104</v>
       </c>
       <c r="AI12" s="4">
         <f>AI$2*-'data from RPEpUACE'!$B12</f>
-        <v>31402217134.745579</v>
+        <v>34229015241.054298</v>
       </c>
       <c r="AJ12" s="4">
         <f>AJ$2*-'data from RPEpUACE'!$B12</f>
-        <v>31389790802.319416</v>
+        <v>34373633247.867493</v>
       </c>
       <c r="AK12" s="4">
         <f>AK$2*-'data from RPEpUACE'!$B12</f>
-        <v>31377364469.893253</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.45">
+        <v>34518251254.680687</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>

--- a/InputData/land/BLAPE/BAU LULUCF Anthro Pollutant Emis.xlsx
+++ b/InputData/land/BLAPE/BAU LULUCF Anthro Pollutant Emis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\United States\NEW_US\InputData\land\BLAPE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\land\BLAPE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2179FD-F64B-44FA-A408-E63036BE5F30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B6FDE4-7C6E-4C9F-A4A8-79AB3428627D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1680" windowWidth="13620" windowHeight="13320" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Source:</t>
   </si>
@@ -86,21 +86,9 @@
     <t>Year</t>
   </si>
   <si>
-    <t>U.S. State Department</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>Page 34, Table 3</t>
-  </si>
-  <si>
-    <t>https://unfccc.int/files/national_reports/biennial_reports_and_iar/submitted_biennial_reports/application/pdf/2016_second_biennial_report_of_the_united_states_.pdf</t>
-  </si>
-  <si>
-    <t>Second Biennial Report of the United States of America</t>
-  </si>
-  <si>
     <t>BLAPE BAU LULUCF Anthropogenic Pollutant Emissions</t>
   </si>
   <si>
@@ -185,9 +173,6 @@
     <t>See land/RPEpUACE</t>
   </si>
   <si>
-    <t>Projected pollutant emissions data for the land use sector until 2030, linearly extrapolated to 2050</t>
-  </si>
-  <si>
     <t>Table 6-1</t>
   </si>
   <si>
@@ -203,9 +188,6 @@
     <t>MMTCO2e</t>
   </si>
   <si>
-    <t>CO2 Sequestration Forecast</t>
-  </si>
-  <si>
     <t>CO2 Sequestration Start Year</t>
   </si>
   <si>
@@ -219,6 +201,12 @@
   </si>
   <si>
     <t>Table 6-1, page 6-3 (467)</t>
+  </si>
+  <si>
+    <t>We project the previous 5 years of LULUCF emissions forward to 2050.</t>
+  </si>
+  <si>
+    <t>These are relatively constant.</t>
   </si>
 </sst>
 </file>
@@ -306,7 +294,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -318,7 +306,6 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -668,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,98 +669,74 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>48</v>
+      <c r="B3" s="12" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="6">
-        <v>2016</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="6">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>42</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{A4341B2F-D9AB-49A2-AA50-5B7AD476C902}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -782,7 +745,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,7 +767,7 @@
       <c r="B3">
         <v>2015</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>2020</v>
       </c>
       <c r="D3">
@@ -824,19 +787,21 @@
       <c r="B4">
         <v>-970</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <f>G13</f>
         <v>-818.39999999999986</v>
       </c>
-      <c r="D4">
-        <v>-1201</v>
-      </c>
-      <c r="E4">
-        <v>-1118</v>
-      </c>
-      <c r="F4" s="9">
-        <f>TREND($B4:$E4,$B$3:$E$3,F$3)</f>
-        <v>-1481.4799999999959</v>
+      <c r="D4" cm="1">
+        <f t="array" ref="D4">TREND($B$13:$F$13,$B$12:$F$12,D3)</f>
+        <v>-823.7</v>
+      </c>
+      <c r="E4" cm="1">
+        <f t="array" ref="E4">TREND($B$13:$F$13,$B$12:$F$12,E3)</f>
+        <v>-829.00000000000023</v>
+      </c>
+      <c r="F4" cm="1">
+        <f t="array" ref="F4">TREND($B$13:$F$13,$B$12:$F$12,F3)</f>
+        <v>-850.2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -846,19 +811,21 @@
       <c r="B5">
         <v>-928</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <f>G13</f>
         <v>-818.39999999999986</v>
       </c>
       <c r="D5">
-        <v>-908</v>
+        <f>D4</f>
+        <v>-823.7</v>
       </c>
       <c r="E5">
-        <v>-689</v>
-      </c>
-      <c r="F5" s="9">
-        <f>TREND($B5:$E5,$B$3:$E$3,F$3)</f>
-        <v>-490.77999999999884</v>
+        <f t="shared" ref="E5:F5" si="0">E4</f>
+        <v>-829.00000000000023</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>-850.2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -866,24 +833,24 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <f t="shared" ref="B7:F7" si="0">AVERAGE(B4:B5)</f>
+        <f t="shared" ref="B7:F7" si="1">AVERAGE(B4:B5)</f>
         <v>-949</v>
       </c>
       <c r="C7" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-818.39999999999986</v>
       </c>
       <c r="D7" s="7">
-        <f t="shared" si="0"/>
-        <v>-1054.5</v>
+        <f t="shared" si="1"/>
+        <v>-823.7</v>
       </c>
       <c r="E7" s="7">
-        <f t="shared" si="0"/>
-        <v>-903.5</v>
+        <f t="shared" si="1"/>
+        <v>-829.00000000000023</v>
       </c>
       <c r="F7" s="7">
-        <f t="shared" si="0"/>
-        <v>-986.12999999999738</v>
+        <f t="shared" si="1"/>
+        <v>-850.2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -897,13 +864,13 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G11" s="16" t="s">
-        <v>46</v>
+      <c r="G11" s="15" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B12">
         <v>2015</v>
@@ -920,13 +887,13 @@
       <c r="F12">
         <v>2019</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="14">
         <v>2020</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B13">
         <f>'EPA Table 6-1'!D2</f>
@@ -948,7 +915,7 @@
         <f>'EPA Table 6-1'!H2</f>
         <v>-812.4</v>
       </c>
-      <c r="G13" s="15" cm="1">
+      <c r="G13" s="14" cm="1">
         <f t="array" ref="G13">TREND(B13:F13,B12:F12,G12)</f>
         <v>-818.39999999999986</v>
       </c>
@@ -976,7 +943,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B1">
         <v>1990</v>
@@ -1002,7 +969,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>-908.7</v>
@@ -1044,13 +1011,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
-        <v>27</v>
+      <c r="B1" s="11" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1058,7 +1025,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1066,7 +1033,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1074,7 +1041,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1082,7 +1049,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1090,7 +1057,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1098,7 +1065,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1106,7 +1073,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1114,7 +1081,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1122,7 +1089,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B11" s="4">
         <v>4.2997168577917945E-4</v>
@@ -1130,7 +1097,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B12" s="4">
         <v>3.5003753313133949E-5</v>
@@ -1138,7 +1105,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1156,8 +1123,8 @@
   </sheetPr>
   <dimension ref="A1:AK13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AK2" sqref="AK2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1230,10 +1197,10 @@
       <c r="U1">
         <v>2034</v>
       </c>
-      <c r="V1" s="10">
+      <c r="V1" s="9">
         <v>2035</v>
       </c>
-      <c r="W1" s="10">
+      <c r="W1" s="9">
         <v>2036</v>
       </c>
       <c r="X1">
@@ -1281,7 +1248,7 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B2" s="4">
         <f>TREND(Calcs!$B7:$C7,Calcs!$B3:$C3,BLAPE!B1)*10^12</f>
@@ -1309,128 +1276,128 @@
       </c>
       <c r="H2" s="4">
         <f>TREND(Calcs!$C7:$D7,Calcs!$C3:$D3,BLAPE!H1)*10^12</f>
-        <v>-865619999999995.38</v>
+        <v>-819460000000000.25</v>
       </c>
       <c r="I2" s="4">
         <f>TREND(Calcs!$C7:$D7,Calcs!$C3:$D3,BLAPE!I1)*10^12</f>
-        <v>-912839999999996.5</v>
+        <v>-820520000000000.25</v>
       </c>
       <c r="J2" s="4">
         <f>TREND(Calcs!$C7:$D7,Calcs!$C3:$D3,BLAPE!J1)*10^12</f>
-        <v>-960059999999997.63</v>
+        <v>-821580000000000.13</v>
       </c>
       <c r="K2" s="4">
         <f>TREND(Calcs!$C7:$D7,Calcs!$C3:$D3,BLAPE!K1)*10^12</f>
-        <v>-1007279999999998.9</v>
+        <v>-822640000000000.13</v>
       </c>
       <c r="L2" s="5">
         <f>TREND(Calcs!$C7:$D7,Calcs!$C3:$D3,BLAPE!L1)*10^12</f>
-        <v>-1054500000000000</v>
+        <v>-823700000000000</v>
       </c>
       <c r="M2" s="4">
         <f>TREND(Calcs!$D7:$E7,Calcs!$D3:$E3,BLAPE!M1)*10^12</f>
-        <v>-1024300000000002.9</v>
+        <v>-824760000000000.5</v>
       </c>
       <c r="N2" s="4">
         <f>TREND(Calcs!$D7:$E7,Calcs!$D3:$E3,BLAPE!N1)*10^12</f>
-        <v>-994099999999998.5</v>
+        <v>-825820000000000.38</v>
       </c>
       <c r="O2" s="4">
         <f>TREND(Calcs!$D7:$E7,Calcs!$D3:$E3,BLAPE!O1)*10^12</f>
-        <v>-963900000000001.5</v>
+        <v>-826880000000000.38</v>
       </c>
       <c r="P2" s="4">
         <f>TREND(Calcs!$D7:$E7,Calcs!$D3:$E3,BLAPE!P1)*10^12</f>
-        <v>-933700000000004.38</v>
+        <v>-827940000000000.25</v>
       </c>
       <c r="Q2" s="5">
         <f>TREND(Calcs!$D7:$E7,Calcs!$D3:$E3,BLAPE!Q1)*10^12</f>
-        <v>-903500000000000</v>
+        <v>-829000000000000.25</v>
       </c>
       <c r="R2" s="4">
         <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!R1)*10^12</f>
-        <v>-907631500000001.38</v>
+        <v>-830060000000000.13</v>
       </c>
       <c r="S2" s="4">
         <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!S1)*10^12</f>
-        <v>-911763000000000.88</v>
+        <v>-831120000000000.13</v>
       </c>
       <c r="T2" s="4">
         <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!T1)*10^12</f>
-        <v>-915894500000000.38</v>
+        <v>-832180000000000.5</v>
       </c>
       <c r="U2" s="4">
         <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!U1)*10^12</f>
-        <v>-920025999999999.88</v>
-      </c>
-      <c r="V2" s="11">
+        <v>-833240000000000.5</v>
+      </c>
+      <c r="V2" s="10">
         <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!V1)*10^12</f>
-        <v>-924157499999999.38</v>
-      </c>
-      <c r="W2" s="11">
+        <v>-834300000000000.38</v>
+      </c>
+      <c r="W2" s="10">
         <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!W1)*10^12</f>
-        <v>-928289000000000.63</v>
+        <v>-835360000000000.38</v>
       </c>
       <c r="X2" s="4">
         <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!X1)*10^12</f>
-        <v>-932420500000000.13</v>
+        <v>-836420000000000.25</v>
       </c>
       <c r="Y2" s="4">
         <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!Y1)*10^12</f>
-        <v>-936551999999999.63</v>
+        <v>-837480000000000.25</v>
       </c>
       <c r="Z2" s="4">
         <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!Z1)*10^12</f>
-        <v>-940683499999999.13</v>
+        <v>-838540000000000.25</v>
       </c>
       <c r="AA2" s="4">
         <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!AA1)*10^12</f>
-        <v>-944814999999998.75</v>
+        <v>-839600000000000.13</v>
       </c>
       <c r="AB2" s="4">
         <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!AB1)*10^12</f>
-        <v>-948946500000000</v>
+        <v>-840660000000000.13</v>
       </c>
       <c r="AC2" s="4">
         <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!AC1)*10^12</f>
-        <v>-953077999999999.5</v>
+        <v>-841720000000000</v>
       </c>
       <c r="AD2" s="4">
         <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!AD1)*10^12</f>
-        <v>-957209499999999</v>
+        <v>-842780000000000.38</v>
       </c>
       <c r="AE2" s="4">
         <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!AE1)*10^12</f>
-        <v>-961340999999998.5</v>
+        <v>-843840000000000.38</v>
       </c>
       <c r="AF2" s="4">
         <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!AF1)*10^12</f>
-        <v>-965472499999998</v>
+        <v>-844900000000000.38</v>
       </c>
       <c r="AG2" s="4">
         <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!AG1)*10^12</f>
-        <v>-969603999999999.38</v>
+        <v>-845960000000000.25</v>
       </c>
       <c r="AH2" s="4">
         <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!AH1)*10^12</f>
-        <v>-973735499999998.88</v>
+        <v>-847020000000000.25</v>
       </c>
       <c r="AI2" s="4">
         <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!AI1)*10^12</f>
-        <v>-977866999999998.38</v>
+        <v>-848080000000000.13</v>
       </c>
       <c r="AJ2" s="4">
         <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!AJ1)*10^12</f>
-        <v>-981998499999997.88</v>
+        <v>-849140000000000.13</v>
       </c>
       <c r="AK2" s="4">
         <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!AK1)*10^12</f>
-        <v>-986129999999997.38</v>
+        <v>-850200000000000</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1543,7 +1510,7 @@
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1656,7 +1623,7 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1769,7 +1736,7 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1882,7 +1849,7 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1995,7 +1962,7 @@
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2108,7 +2075,7 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2221,7 +2188,7 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2334,7 +2301,7 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B11" s="4">
         <f>B$2*-'data from RPEpUACE'!$B11</f>
@@ -2362,128 +2329,128 @@
       </c>
       <c r="H11" s="4">
         <f>H$2*-'data from RPEpUACE'!$B11</f>
-        <v>372192090644.17133</v>
+        <v>352344597628.60651</v>
       </c>
       <c r="I11" s="4">
         <f>I$2*-'data from RPEpUACE'!$B11</f>
-        <v>392495353646.66467</v>
+        <v>352800367615.53241</v>
       </c>
       <c r="J11" s="4">
         <f>J$2*-'data from RPEpUACE'!$B11</f>
-        <v>412798616649.15802</v>
+        <v>353256137602.45831</v>
       </c>
       <c r="K11" s="4">
         <f>K$2*-'data from RPEpUACE'!$B11</f>
-        <v>433101879651.65137</v>
+        <v>353711907589.38422</v>
       </c>
       <c r="L11" s="4">
         <f>L$2*-'data from RPEpUACE'!$B11</f>
-        <v>453405142654.14471</v>
+        <v>354167677576.31012</v>
       </c>
       <c r="M11" s="4">
         <f>M$2*-'data from RPEpUACE'!$B11</f>
-        <v>440419997743.61475</v>
+        <v>354623447563.23627</v>
       </c>
       <c r="N11" s="4">
         <f>N$2*-'data from RPEpUACE'!$B11</f>
-        <v>427434852833.08167</v>
+        <v>355079217550.16211</v>
       </c>
       <c r="O11" s="4">
         <f>O$2*-'data from RPEpUACE'!$B11</f>
-        <v>414449707922.5517</v>
+        <v>355534987537.08807</v>
       </c>
       <c r="P11" s="4">
         <f>P$2*-'data from RPEpUACE'!$B11</f>
-        <v>401464563012.02173</v>
+        <v>355990757524.01392</v>
       </c>
       <c r="Q11" s="4">
         <f>Q$2*-'data from RPEpUACE'!$B11</f>
-        <v>388479418101.48865</v>
+        <v>356446527510.93988</v>
       </c>
       <c r="R11" s="4">
         <f>R$2*-'data from RPEpUACE'!$B11</f>
-        <v>390255846121.28589</v>
+        <v>356902297497.86572</v>
       </c>
       <c r="S11" s="4">
         <f>S$2*-'data from RPEpUACE'!$B11</f>
-        <v>392032274141.0824</v>
+        <v>357358067484.79169</v>
       </c>
       <c r="T11" s="4">
         <f>T$2*-'data from RPEpUACE'!$B11</f>
-        <v>393808702160.87885</v>
+        <v>357813837471.71777</v>
       </c>
       <c r="U11" s="4">
         <f>U$2*-'data from RPEpUACE'!$B11</f>
-        <v>395585130180.67529</v>
+        <v>358269607458.64368</v>
       </c>
       <c r="V11" s="4">
         <f>V$2*-'data from RPEpUACE'!$B11</f>
-        <v>397361558200.47174</v>
+        <v>358725377445.56958</v>
       </c>
       <c r="W11" s="4">
         <f>W$2*-'data from RPEpUACE'!$B11</f>
-        <v>399137986220.26898</v>
+        <v>359181147432.49548</v>
       </c>
       <c r="X11" s="4">
         <f>X$2*-'data from RPEpUACE'!$B11</f>
-        <v>400914414240.06543</v>
+        <v>359636917419.42139</v>
       </c>
       <c r="Y11" s="4">
         <f>Y$2*-'data from RPEpUACE'!$B11</f>
-        <v>402690842259.86194</v>
+        <v>360092687406.34729</v>
       </c>
       <c r="Z11" s="4">
         <f>Z$2*-'data from RPEpUACE'!$B11</f>
-        <v>404467270279.65839</v>
+        <v>360548457393.27325</v>
       </c>
       <c r="AA11" s="4">
         <f>AA$2*-'data from RPEpUACE'!$B11</f>
-        <v>406243698299.4549</v>
+        <v>361004227380.1991</v>
       </c>
       <c r="AB11" s="4">
         <f>AB$2*-'data from RPEpUACE'!$B11</f>
-        <v>408020126319.25214</v>
+        <v>361459997367.12506</v>
       </c>
       <c r="AC11" s="4">
         <f>AC$2*-'data from RPEpUACE'!$B11</f>
-        <v>409796554339.04858</v>
+        <v>361915767354.0509</v>
       </c>
       <c r="AD11" s="4">
         <f>AD$2*-'data from RPEpUACE'!$B11</f>
-        <v>411572982358.84503</v>
+        <v>362371537340.97699</v>
       </c>
       <c r="AE11" s="4">
         <f>AE$2*-'data from RPEpUACE'!$B11</f>
-        <v>413349410378.64148</v>
+        <v>362827307327.90295</v>
       </c>
       <c r="AF11" s="4">
         <f>AF$2*-'data from RPEpUACE'!$B11</f>
-        <v>415125838398.43799</v>
+        <v>363283077314.82886</v>
       </c>
       <c r="AG11" s="4">
         <f>AG$2*-'data from RPEpUACE'!$B11</f>
-        <v>416902266418.23523</v>
+        <v>363738847301.75476</v>
       </c>
       <c r="AH11" s="4">
         <f>AH$2*-'data from RPEpUACE'!$B11</f>
-        <v>418678694438.03168</v>
+        <v>364194617288.68066</v>
       </c>
       <c r="AI11" s="4">
         <f>AI$2*-'data from RPEpUACE'!$B11</f>
-        <v>420455122457.82819</v>
+        <v>364650387275.60657</v>
       </c>
       <c r="AJ11" s="4">
         <f>AJ$2*-'data from RPEpUACE'!$B11</f>
-        <v>422231550477.62463</v>
+        <v>365106157262.53247</v>
       </c>
       <c r="AK11" s="4">
         <f>AK$2*-'data from RPEpUACE'!$B11</f>
-        <v>424007978497.42108</v>
+        <v>365561927249.45837</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B12" s="4">
         <f>B$2*-'data from RPEpUACE'!$B12</f>
@@ -2511,128 +2478,128 @@
       </c>
       <c r="H12" s="4">
         <f>H$2*-'data from RPEpUACE'!$B12</f>
-        <v>30299948942.914848</v>
+        <v>28684175689.980755</v>
       </c>
       <c r="I12" s="4">
         <f>I$2*-'data from RPEpUACE'!$B12</f>
-        <v>31952826174.361073</v>
+        <v>28721279668.492676</v>
       </c>
       <c r="J12" s="4">
         <f>J$2*-'data from RPEpUACE'!$B12</f>
-        <v>33605703405.807297</v>
+        <v>28758383647.004593</v>
       </c>
       <c r="K12" s="4">
         <f>K$2*-'data from RPEpUACE'!$B12</f>
-        <v>35258580637.253525</v>
+        <v>28795487625.516518</v>
       </c>
       <c r="L12" s="4">
         <f>L$2*-'data from RPEpUACE'!$B12</f>
-        <v>36911457868.699745</v>
+        <v>28832591604.028435</v>
       </c>
       <c r="M12" s="4">
         <f>M$2*-'data from RPEpUACE'!$B12</f>
-        <v>35854344518.643204</v>
+        <v>28869695582.540375</v>
       </c>
       <c r="N12" s="4">
         <f>N$2*-'data from RPEpUACE'!$B12</f>
-        <v>34797231168.586403</v>
+        <v>28906799561.052292</v>
       </c>
       <c r="O12" s="4">
         <f>O$2*-'data from RPEpUACE'!$B12</f>
-        <v>33740117818.529865</v>
+        <v>28943903539.564213</v>
       </c>
       <c r="P12" s="4">
         <f>P$2*-'data from RPEpUACE'!$B12</f>
-        <v>32683004468.47332</v>
+        <v>28981007518.07613</v>
       </c>
       <c r="Q12" s="4">
         <f>Q$2*-'data from RPEpUACE'!$B12</f>
-        <v>31625891118.416523</v>
+        <v>29018111496.588051</v>
       </c>
       <c r="R12" s="4">
         <f>R$2*-'data from RPEpUACE'!$B12</f>
-        <v>31770509125.229782</v>
+        <v>29055215475.099968</v>
       </c>
       <c r="S12" s="4">
         <f>S$2*-'data from RPEpUACE'!$B12</f>
-        <v>31915127132.04298</v>
+        <v>29092319453.611893</v>
       </c>
       <c r="T12" s="4">
         <f>T$2*-'data from RPEpUACE'!$B12</f>
-        <v>32059745138.856174</v>
+        <v>29129423432.123825</v>
       </c>
       <c r="U12" s="4">
         <f>U$2*-'data from RPEpUACE'!$B12</f>
-        <v>32204363145.669369</v>
+        <v>29166527410.63575</v>
       </c>
       <c r="V12" s="4">
         <f>V$2*-'data from RPEpUACE'!$B12</f>
-        <v>32348981152.482567</v>
+        <v>29203631389.147667</v>
       </c>
       <c r="W12" s="4">
         <f>W$2*-'data from RPEpUACE'!$B12</f>
-        <v>32493599159.295822</v>
+        <v>29240735367.659588</v>
       </c>
       <c r="X12" s="4">
         <f>X$2*-'data from RPEpUACE'!$B12</f>
-        <v>32638217166.109016</v>
+        <v>29277839346.171505</v>
       </c>
       <c r="Y12" s="4">
         <f>Y$2*-'data from RPEpUACE'!$B12</f>
-        <v>32782835172.922215</v>
+        <v>29314943324.68343</v>
       </c>
       <c r="Z12" s="4">
         <f>Z$2*-'data from RPEpUACE'!$B12</f>
-        <v>32927453179.735409</v>
+        <v>29352047303.195351</v>
       </c>
       <c r="AA12" s="4">
         <f>AA$2*-'data from RPEpUACE'!$B12</f>
-        <v>33072071186.548607</v>
+        <v>29389151281.707268</v>
       </c>
       <c r="AB12" s="4">
         <f>AB$2*-'data from RPEpUACE'!$B12</f>
-        <v>33216689193.361866</v>
+        <v>29426255260.219189</v>
       </c>
       <c r="AC12" s="4">
         <f>AC$2*-'data from RPEpUACE'!$B12</f>
-        <v>33361307200.17506</v>
+        <v>29463359238.731106</v>
       </c>
       <c r="AD12" s="4">
         <f>AD$2*-'data from RPEpUACE'!$B12</f>
-        <v>33505925206.988255</v>
+        <v>29500463217.243042</v>
       </c>
       <c r="AE12" s="4">
         <f>AE$2*-'data from RPEpUACE'!$B12</f>
-        <v>33650543213.801453</v>
+        <v>29537567195.754963</v>
       </c>
       <c r="AF12" s="4">
         <f>AF$2*-'data from RPEpUACE'!$B12</f>
-        <v>33795161220.614647</v>
+        <v>29574671174.266888</v>
       </c>
       <c r="AG12" s="4">
         <f>AG$2*-'data from RPEpUACE'!$B12</f>
-        <v>33939779227.427906</v>
+        <v>29611775152.778805</v>
       </c>
       <c r="AH12" s="4">
         <f>AH$2*-'data from RPEpUACE'!$B12</f>
-        <v>34084397234.241104</v>
+        <v>29648879131.290726</v>
       </c>
       <c r="AI12" s="4">
         <f>AI$2*-'data from RPEpUACE'!$B12</f>
-        <v>34229015241.054298</v>
+        <v>29685983109.802643</v>
       </c>
       <c r="AJ12" s="4">
         <f>AJ$2*-'data from RPEpUACE'!$B12</f>
-        <v>34373633247.867493</v>
+        <v>29723087088.314564</v>
       </c>
       <c r="AK12" s="4">
         <f>AK$2*-'data from RPEpUACE'!$B12</f>
-        <v>34518251254.680687</v>
+        <v>29760191066.826485</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>0</v>

--- a/InputData/land/BLAPE/BAU LULUCF Anthro Pollutant Emis.xlsx
+++ b/InputData/land/BLAPE/BAU LULUCF Anthro Pollutant Emis.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\land\BLAPE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-us\InputData\land\BLAPE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B6FDE4-7C6E-4C9F-A4A8-79AB3428627D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="data from RPEpUACE" sheetId="4" r:id="rId4"/>
     <sheet name="BLAPE" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,14 +34,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -57,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Source:</t>
   </si>
@@ -207,12 +206,27 @@
   </si>
   <si>
     <t>These are relatively constant.</t>
+  </si>
+  <si>
+    <t>CO2 Sequestration</t>
+  </si>
+  <si>
+    <t>U.S. State Department</t>
+  </si>
+  <si>
+    <t>Second Biennial Report of the United States of America</t>
+  </si>
+  <si>
+    <t>https://unfccc.int/files/national_reports/biennial_reports_and_iar/submitted_biennial_reports/application/pdf/2016_second_biennial_report_of_the_united_states_.pdf</t>
+  </si>
+  <si>
+    <t>Page 34, Table 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -410,23 +424,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -462,23 +459,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,25 +634,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="2" width="51.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.3984375" customWidth="1"/>
+    <col min="2" max="2" width="51.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -680,57 +660,87 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" s="6">
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B10" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B12" s="6">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B14" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B17" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="13" t="s">
+    <row r="18" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="19" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="20" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B20"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
         <v>49</v>
       </c>
     </row>
@@ -741,29 +751,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="63.28515625" customWidth="1"/>
+    <col min="1" max="1" width="63.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>2015</v>
       </c>
@@ -780,7 +790,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -804,7 +814,7 @@
         <v>-850.2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -828,7 +838,7 @@
         <v>-850.2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -853,22 +863,22 @@
         <v>-850.2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G11" s="15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -891,7 +901,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -929,19 +939,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{748C1EED-5369-4626-8108-4C2C32A7C6AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -967,7 +977,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -1000,22 +1010,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B1" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1023,7 +1035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1031,7 +1043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1039,7 +1051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1047,7 +1059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1055,7 +1067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1063,7 +1075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1071,7 +1083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1079,7 +1091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1087,23 +1099,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="4">
-        <v>4.2997168577917945E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6.6417418588509813E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="4">
-        <v>3.5003753313133949E-5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.8529345186784264E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -1117,7 +1129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -1127,13 +1139,13 @@
       <selection activeCell="AK2" sqref="AK2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.73046875" customWidth="1"/>
+    <col min="2" max="17" width="11.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1246,7 +1258,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1395,7 +1407,7 @@
         <v>-850200000000000</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1508,7 +1520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1621,7 +1633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1734,7 +1746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1847,7 +1859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1960,7 +1972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -2073,7 +2085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2186,7 +2198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2299,305 +2311,305 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="4">
         <f>B$2*-'data from RPEpUACE'!$B11</f>
-        <v>408043129804.43817</v>
+        <v>630301302404.95325</v>
       </c>
       <c r="C11" s="4">
         <f>C$2*-'data from RPEpUACE'!$B11</f>
-        <v>396812269371.888</v>
+        <v>612953072669.63757</v>
       </c>
       <c r="D11" s="4">
         <f>D$2*-'data from RPEpUACE'!$B11</f>
-        <v>385581408939.33472</v>
+        <v>595604842934.31714</v>
       </c>
       <c r="E11" s="4">
         <f>E$2*-'data from RPEpUACE'!$B11</f>
-        <v>374350548506.78143</v>
+        <v>578256613198.99658</v>
       </c>
       <c r="F11" s="4">
         <f>F$2*-'data from RPEpUACE'!$B11</f>
-        <v>363119688074.2312</v>
+        <v>560908383463.68091</v>
       </c>
       <c r="G11" s="4">
         <f>G$2*-'data from RPEpUACE'!$B11</f>
-        <v>351888827641.67792</v>
+        <v>543560153728.36041</v>
       </c>
       <c r="H11" s="4">
         <f>H$2*-'data from RPEpUACE'!$B11</f>
-        <v>352344597628.60651</v>
+        <v>544264178365.40265</v>
       </c>
       <c r="I11" s="4">
         <f>I$2*-'data from RPEpUACE'!$B11</f>
-        <v>352800367615.53241</v>
+        <v>544968203002.44086</v>
       </c>
       <c r="J11" s="4">
         <f>J$2*-'data from RPEpUACE'!$B11</f>
-        <v>353256137602.45831</v>
+        <v>545672227639.479</v>
       </c>
       <c r="K11" s="4">
         <f>K$2*-'data from RPEpUACE'!$B11</f>
-        <v>353711907589.38422</v>
+        <v>546376252276.51721</v>
       </c>
       <c r="L11" s="4">
         <f>L$2*-'data from RPEpUACE'!$B11</f>
-        <v>354167677576.31012</v>
+        <v>547080276913.5553</v>
       </c>
       <c r="M11" s="4">
         <f>M$2*-'data from RPEpUACE'!$B11</f>
-        <v>354623447563.23627</v>
+        <v>547784301550.59387</v>
       </c>
       <c r="N11" s="4">
         <f>N$2*-'data from RPEpUACE'!$B11</f>
-        <v>355079217550.16211</v>
+        <v>548488326187.63196</v>
       </c>
       <c r="O11" s="4">
         <f>O$2*-'data from RPEpUACE'!$B11</f>
-        <v>355534987537.08807</v>
+        <v>549192350824.67017</v>
       </c>
       <c r="P11" s="4">
         <f>P$2*-'data from RPEpUACE'!$B11</f>
-        <v>355990757524.01392</v>
+        <v>549896375461.70825</v>
       </c>
       <c r="Q11" s="4">
         <f>Q$2*-'data from RPEpUACE'!$B11</f>
-        <v>356446527510.93988</v>
+        <v>550600400098.74646</v>
       </c>
       <c r="R11" s="4">
         <f>R$2*-'data from RPEpUACE'!$B11</f>
-        <v>356902297497.86572</v>
+        <v>551304424735.78467</v>
       </c>
       <c r="S11" s="4">
         <f>S$2*-'data from RPEpUACE'!$B11</f>
-        <v>357358067484.79169</v>
+        <v>552008449372.82288</v>
       </c>
       <c r="T11" s="4">
         <f>T$2*-'data from RPEpUACE'!$B11</f>
-        <v>357813837471.71777</v>
+        <v>552712474009.86133</v>
       </c>
       <c r="U11" s="4">
         <f>U$2*-'data from RPEpUACE'!$B11</f>
-        <v>358269607458.64368</v>
+        <v>553416498646.89954</v>
       </c>
       <c r="V11" s="4">
         <f>V$2*-'data from RPEpUACE'!$B11</f>
-        <v>358725377445.56958</v>
+        <v>554120523283.93762</v>
       </c>
       <c r="W11" s="4">
         <f>W$2*-'data from RPEpUACE'!$B11</f>
-        <v>359181147432.49548</v>
+        <v>554824547920.97583</v>
       </c>
       <c r="X11" s="4">
         <f>X$2*-'data from RPEpUACE'!$B11</f>
-        <v>359636917419.42139</v>
+        <v>555528572558.01392</v>
       </c>
       <c r="Y11" s="4">
         <f>Y$2*-'data from RPEpUACE'!$B11</f>
-        <v>360092687406.34729</v>
+        <v>556232597195.05212</v>
       </c>
       <c r="Z11" s="4">
         <f>Z$2*-'data from RPEpUACE'!$B11</f>
-        <v>360548457393.27325</v>
+        <v>556936621832.09033</v>
       </c>
       <c r="AA11" s="4">
         <f>AA$2*-'data from RPEpUACE'!$B11</f>
-        <v>361004227380.1991</v>
+        <v>557640646469.12842</v>
       </c>
       <c r="AB11" s="4">
         <f>AB$2*-'data from RPEpUACE'!$B11</f>
-        <v>361459997367.12506</v>
+        <v>558344671106.16663</v>
       </c>
       <c r="AC11" s="4">
         <f>AC$2*-'data from RPEpUACE'!$B11</f>
-        <v>361915767354.0509</v>
+        <v>559048695743.20483</v>
       </c>
       <c r="AD11" s="4">
         <f>AD$2*-'data from RPEpUACE'!$B11</f>
-        <v>362371537340.97699</v>
+        <v>559752720380.24329</v>
       </c>
       <c r="AE11" s="4">
         <f>AE$2*-'data from RPEpUACE'!$B11</f>
-        <v>362827307327.90295</v>
+        <v>560456745017.28149</v>
       </c>
       <c r="AF11" s="4">
         <f>AF$2*-'data from RPEpUACE'!$B11</f>
-        <v>363283077314.82886</v>
+        <v>561160769654.3197</v>
       </c>
       <c r="AG11" s="4">
         <f>AG$2*-'data from RPEpUACE'!$B11</f>
-        <v>363738847301.75476</v>
+        <v>561864794291.35779</v>
       </c>
       <c r="AH11" s="4">
         <f>AH$2*-'data from RPEpUACE'!$B11</f>
-        <v>364194617288.68066</v>
+        <v>562568818928.396</v>
       </c>
       <c r="AI11" s="4">
         <f>AI$2*-'data from RPEpUACE'!$B11</f>
-        <v>364650387275.60657</v>
+        <v>563272843565.43408</v>
       </c>
       <c r="AJ11" s="4">
         <f>AJ$2*-'data from RPEpUACE'!$B11</f>
-        <v>365106157262.53247</v>
+        <v>563976868202.47229</v>
       </c>
       <c r="AK11" s="4">
         <f>AK$2*-'data from RPEpUACE'!$B11</f>
-        <v>365561927249.45837</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+        <v>564680892839.51038</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="4">
         <f>B$2*-'data from RPEpUACE'!$B12</f>
-        <v>33218561894.163864</v>
+        <v>36564348582.257988</v>
       </c>
       <c r="C12" s="4">
         <f>C$2*-'data from RPEpUACE'!$B12</f>
-        <v>32304263857.624966</v>
+        <v>35557962085.979362</v>
       </c>
       <c r="D12" s="4">
         <f>D$2*-'data from RPEpUACE'!$B12</f>
-        <v>31389965821.085815</v>
+        <v>34551575589.700455</v>
       </c>
       <c r="E12" s="4">
         <f>E$2*-'data from RPEpUACE'!$B12</f>
-        <v>30475667784.546665</v>
+        <v>33545189093.421547</v>
       </c>
       <c r="F12" s="4">
         <f>F$2*-'data from RPEpUACE'!$B12</f>
-        <v>29561369748.007767</v>
+        <v>32538802597.142921</v>
       </c>
       <c r="G12" s="4">
         <f>G$2*-'data from RPEpUACE'!$B12</f>
-        <v>28647071711.468616</v>
+        <v>31532416100.864014</v>
       </c>
       <c r="H12" s="4">
         <f>H$2*-'data from RPEpUACE'!$B12</f>
-        <v>28684175689.980755</v>
+        <v>31573257206.762241</v>
       </c>
       <c r="I12" s="4">
         <f>I$2*-'data from RPEpUACE'!$B12</f>
-        <v>28721279668.492676</v>
+        <v>31614098312.660233</v>
       </c>
       <c r="J12" s="4">
         <f>J$2*-'data from RPEpUACE'!$B12</f>
-        <v>28758383647.004593</v>
+        <v>31654939418.55822</v>
       </c>
       <c r="K12" s="4">
         <f>K$2*-'data from RPEpUACE'!$B12</f>
-        <v>28795487625.516518</v>
+        <v>31695780524.456211</v>
       </c>
       <c r="L12" s="4">
         <f>L$2*-'data from RPEpUACE'!$B12</f>
-        <v>28832591604.028435</v>
+        <v>31736621630.354198</v>
       </c>
       <c r="M12" s="4">
         <f>M$2*-'data from RPEpUACE'!$B12</f>
-        <v>28869695582.540375</v>
+        <v>31777462736.252209</v>
       </c>
       <c r="N12" s="4">
         <f>N$2*-'data from RPEpUACE'!$B12</f>
-        <v>28906799561.052292</v>
+        <v>31818303842.150196</v>
       </c>
       <c r="O12" s="4">
         <f>O$2*-'data from RPEpUACE'!$B12</f>
-        <v>28943903539.564213</v>
+        <v>31859144948.048187</v>
       </c>
       <c r="P12" s="4">
         <f>P$2*-'data from RPEpUACE'!$B12</f>
-        <v>28981007518.07613</v>
+        <v>31899986053.946175</v>
       </c>
       <c r="Q12" s="4">
         <f>Q$2*-'data from RPEpUACE'!$B12</f>
-        <v>29018111496.588051</v>
+        <v>31940827159.844166</v>
       </c>
       <c r="R12" s="4">
         <f>R$2*-'data from RPEpUACE'!$B12</f>
-        <v>29055215475.099968</v>
+        <v>31981668265.742149</v>
       </c>
       <c r="S12" s="4">
         <f>S$2*-'data from RPEpUACE'!$B12</f>
-        <v>29092319453.611893</v>
+        <v>32022509371.640141</v>
       </c>
       <c r="T12" s="4">
         <f>T$2*-'data from RPEpUACE'!$B12</f>
-        <v>29129423432.123825</v>
+        <v>32063350477.538147</v>
       </c>
       <c r="U12" s="4">
         <f>U$2*-'data from RPEpUACE'!$B12</f>
-        <v>29166527410.63575</v>
+        <v>32104191583.436138</v>
       </c>
       <c r="V12" s="4">
         <f>V$2*-'data from RPEpUACE'!$B12</f>
-        <v>29203631389.147667</v>
+        <v>32145032689.334126</v>
       </c>
       <c r="W12" s="4">
         <f>W$2*-'data from RPEpUACE'!$B12</f>
-        <v>29240735367.659588</v>
+        <v>32185873795.232117</v>
       </c>
       <c r="X12" s="4">
         <f>X$2*-'data from RPEpUACE'!$B12</f>
-        <v>29277839346.171505</v>
+        <v>32226714901.130104</v>
       </c>
       <c r="Y12" s="4">
         <f>Y$2*-'data from RPEpUACE'!$B12</f>
-        <v>29314943324.68343</v>
+        <v>32267556007.028095</v>
       </c>
       <c r="Z12" s="4">
         <f>Z$2*-'data from RPEpUACE'!$B12</f>
-        <v>29352047303.195351</v>
+        <v>32308397112.926086</v>
       </c>
       <c r="AA12" s="4">
         <f>AA$2*-'data from RPEpUACE'!$B12</f>
-        <v>29389151281.707268</v>
+        <v>32349238218.824074</v>
       </c>
       <c r="AB12" s="4">
         <f>AB$2*-'data from RPEpUACE'!$B12</f>
-        <v>29426255260.219189</v>
+        <v>32390079324.722065</v>
       </c>
       <c r="AC12" s="4">
         <f>AC$2*-'data from RPEpUACE'!$B12</f>
-        <v>29463359238.731106</v>
+        <v>32430920430.620049</v>
       </c>
       <c r="AD12" s="4">
         <f>AD$2*-'data from RPEpUACE'!$B12</f>
-        <v>29500463217.243042</v>
+        <v>32471761536.518055</v>
       </c>
       <c r="AE12" s="4">
         <f>AE$2*-'data from RPEpUACE'!$B12</f>
-        <v>29537567195.754963</v>
+        <v>32512602642.416046</v>
       </c>
       <c r="AF12" s="4">
         <f>AF$2*-'data from RPEpUACE'!$B12</f>
-        <v>29574671174.266888</v>
+        <v>32553443748.314037</v>
       </c>
       <c r="AG12" s="4">
         <f>AG$2*-'data from RPEpUACE'!$B12</f>
-        <v>29611775152.778805</v>
+        <v>32594284854.212025</v>
       </c>
       <c r="AH12" s="4">
         <f>AH$2*-'data from RPEpUACE'!$B12</f>
-        <v>29648879131.290726</v>
+        <v>32635125960.110016</v>
       </c>
       <c r="AI12" s="4">
         <f>AI$2*-'data from RPEpUACE'!$B12</f>
-        <v>29685983109.802643</v>
+        <v>32675967066.008003</v>
       </c>
       <c r="AJ12" s="4">
         <f>AJ$2*-'data from RPEpUACE'!$B12</f>
-        <v>29723087088.314564</v>
+        <v>32716808171.905994</v>
       </c>
       <c r="AK12" s="4">
         <f>AK$2*-'data from RPEpUACE'!$B12</f>
-        <v>29760191066.826485</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+        <v>32757649277.803982</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>11</v>
       </c>

--- a/InputData/land/BLAPE/BAU LULUCF Anthro Pollutant Emis.xlsx
+++ b/InputData/land/BLAPE/BAU LULUCF Anthro Pollutant Emis.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\land\BLAPE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82106062-5648-432E-8E5F-031925C3BBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45043320-7D98-4F01-B7CB-25637269A096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Calcs" sheetId="2" r:id="rId2"/>
     <sheet name="EPA Table 6-1" sheetId="5" r:id="rId3"/>
-    <sheet name="BLAPE" sheetId="3" r:id="rId4"/>
+    <sheet name="Inflation Reduction Act" sheetId="6" r:id="rId4"/>
+    <sheet name="BLAPE" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="135">
   <si>
     <t>Source:</t>
   </si>
@@ -318,13 +319,161 @@
   </si>
   <si>
     <t>N2O GWP</t>
+  </si>
+  <si>
+    <t>Methodology:</t>
+  </si>
+  <si>
+    <t>Policy Settings:</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Forest Management</t>
+  </si>
+  <si>
+    <t>Afforestation and Reforestation</t>
+  </si>
+  <si>
+    <t>*found through calibration</t>
+  </si>
+  <si>
+    <t>Implementation Schedule, Afforestation and Reforestation, Avoided Deforestation</t>
+  </si>
+  <si>
+    <t>Implementation Schedule, Forest Management</t>
+  </si>
+  <si>
+    <t>Government Subsidy (millions)</t>
+  </si>
+  <si>
+    <t>Subsidy Implementation Schedule</t>
+  </si>
+  <si>
+    <t>Calculations:</t>
+  </si>
+  <si>
+    <t>Forestry Funding in Inflation Reduction Act of 2022 (Billion USD)</t>
+  </si>
+  <si>
+    <t>hazardous fuels reduction</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>vegetation management</t>
+  </si>
+  <si>
+    <t>environmental reviews</t>
+  </si>
+  <si>
+    <t>protection of old-growth forests</t>
+  </si>
+  <si>
+    <t>forest management</t>
+  </si>
+  <si>
+    <t>competitive grants for climate mitigation</t>
+  </si>
+  <si>
+    <t>wood innovation grant program</t>
+  </si>
+  <si>
+    <t>tree planting</t>
+  </si>
+  <si>
+    <t>afforestation and reforestation</t>
+  </si>
+  <si>
+    <t>admin costs</t>
+  </si>
+  <si>
+    <t>Forest Management Only</t>
+  </si>
+  <si>
+    <t>Time (Time)</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Total spending in EPS (2012 USD)</t>
+  </si>
+  <si>
+    <t>Calibrated Value Used</t>
+  </si>
+  <si>
+    <t>Afforestation and Reforestation Only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We sum IRA forestry funding that aligns with the scope of the Energy Policy Simulator's LULUCF sector, then assign it to either the model's 'forest management' or 'afforestation and reforestation' levers. We then find the policy setting that matches total government spend over the period of 2023-2031. For Section 23001, we only include the protection of old-growth forests funding and exclude hazardous fuels reduction and vegetation management, which are outside the scope of the model.
+The EPS assumes forest management practices need to be consistently implemented in every year in order to maintain emissions reductions. To be conservative, we phase out forest management practices incentivized by the IRA over a period of 4 years rather than assume permanent reductions. </t>
+  </si>
+  <si>
+    <t>2022 to 2012 USD</t>
+  </si>
+  <si>
+    <t>Total Target Spend by EPS Policy</t>
+  </si>
+  <si>
+    <t>Settings Calibrated by Enabling Policy in EPS</t>
+  </si>
+  <si>
+    <t>Change in Forest Expenses by Entity[government] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Change in Forest Expenses by Entity[nonenergy industries] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Change in Forest Expenses by Entity[labor and consumers] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Change in Forest Expenses by Entity[foreign entities] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Change in Forest Expenses by Entity[electricity suppliers] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Change in Forest Expenses by Entity[coal suppliers] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Change in Forest Expenses by Entity[natural gas and petroleum suppliers] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Change in Forest Expenses by Entity[biomass and biofuel suppliers] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Change in Forest Expenses by Entity[other energy suppliers] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Change in CO2 Emissions with Both Policies Enabled</t>
+  </si>
+  <si>
+    <t>Change in LULUCF Emissions[CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>We also adjust BAU LULUCF emissions by our calculated forestry impacts</t>
+  </si>
+  <si>
+    <t>of the Inflation Reduction Act (see tab for explanation of methodology).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,8 +497,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,6 +546,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE2F3"/>
+        <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -372,11 +562,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -387,10 +578,36 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1770,24 +1987,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.36328125" customWidth="1"/>
-    <col min="2" max="2" width="51.6328125" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="51.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1795,27 +2012,27 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="4">
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>85</v>
       </c>
@@ -1823,7 +2040,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>86</v>
       </c>
@@ -1831,14 +2048,24 @@
         <v>265</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1855,22 +2082,22 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.26953125" customWidth="1"/>
+    <col min="1" max="1" width="63.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B3" s="6">
         <v>2020</v>
       </c>
@@ -1965,7 +2192,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>81</v>
       </c>
@@ -2094,7 +2321,7 @@
         <v>-684.7127016129034</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -2223,7 +2450,7 @@
         <v>37.909677419354864</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -2352,28 +2579,28 @@
         <v>17.299596774193503</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="AF11" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -2471,7 +2698,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -2600,7 +2827,7 @@
         <v>-812.2</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -2729,7 +2956,7 @@
         <v>38.1</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -2872,18 +3099,18 @@
       <selection activeCell="W3" sqref="W3:AF43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="19" width="42.453125" customWidth="1"/>
-    <col min="20" max="23" width="9.7265625" customWidth="1"/>
+    <col min="1" max="19" width="42.42578125" customWidth="1"/>
+    <col min="20" max="23" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -2981,7 +3208,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -3079,7 +3306,7 @@
         <v>-642.20000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -3177,7 +3404,7 @@
         <v>-668.1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -3275,7 +3502,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -3373,7 +3600,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -3471,7 +3698,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -3569,7 +3796,7 @@
         <v>-99.5</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -3667,7 +3894,7 @@
         <v>-99.5</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -3765,7 +3992,7 @@
         <v>-23.3</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -3863,7 +4090,7 @@
         <v>-23.3</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -3961,7 +4188,7 @@
         <v>54.4</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -4059,7 +4286,7 @@
         <v>54.4</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -4157,7 +4384,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -4255,7 +4482,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -4353,7 +4580,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -4451,7 +4678,7 @@
         <v>-24.1</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -4549,7 +4776,7 @@
         <v>-24.1</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -4647,7 +4874,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -4745,7 +4972,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -4843,7 +5070,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -4941,7 +5168,7 @@
         <v>-8.8000000000000007</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -5039,7 +5266,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -5137,7 +5364,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -5235,7 +5462,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -5333,7 +5560,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -5431,7 +5658,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -5529,7 +5756,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -5627,7 +5854,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -5725,7 +5952,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>59</v>
       </c>
@@ -5823,7 +6050,7 @@
         <v>-123.7</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>60</v>
       </c>
@@ -5921,7 +6148,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -6019,7 +6246,7 @@
         <v>-129.80000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>62</v>
       </c>
@@ -6117,7 +6344,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>63</v>
       </c>
@@ -6215,7 +6442,7 @@
         <v>-12.2</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>64</v>
       </c>
@@ -6313,7 +6540,7 @@
         <v>77.900000000000006</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -6411,7 +6638,7 @@
         <v>77.900000000000006</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>65</v>
       </c>
@@ -6509,7 +6736,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -6607,7 +6834,7 @@
         <v>38.1</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -6705,7 +6932,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>66</v>
       </c>
@@ -6803,7 +7030,7 @@
         <v>-812.2</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>67</v>
       </c>
@@ -6901,67 +7128,67 @@
         <v>-758.9</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>80</v>
       </c>
@@ -6973,23 +7200,4605 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA05FA0-E3E7-47BD-9447-13EDD33DA751}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:BL86"/>
+  <sheetViews>
+    <sheetView topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="73.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="10"/>
+      <c r="AN1" s="10"/>
+      <c r="AO1" s="10"/>
+      <c r="AP1" s="10"/>
+      <c r="AQ1" s="10"/>
+      <c r="AR1" s="10"/>
+      <c r="AS1" s="10"/>
+      <c r="AT1" s="10"/>
+      <c r="AU1" s="10"/>
+      <c r="AV1" s="10"/>
+      <c r="AW1" s="10"/>
+      <c r="AX1" s="10"/>
+      <c r="AY1" s="10"/>
+      <c r="AZ1" s="10"/>
+      <c r="BA1" s="10"/>
+      <c r="BB1" s="10"/>
+      <c r="BC1" s="10"/>
+      <c r="BD1" s="10"/>
+      <c r="BE1" s="10"/>
+      <c r="BF1" s="10"/>
+      <c r="BG1" s="10"/>
+      <c r="BH1" s="10"/>
+      <c r="BI1" s="10"/>
+      <c r="BJ1" s="10"/>
+      <c r="BK1" s="10"/>
+      <c r="BL1" s="10"/>
+    </row>
+    <row r="2" spans="1:64" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="12"/>
+    </row>
+    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+    </row>
+    <row r="4" spans="1:64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="9"/>
+      <c r="AI4" s="9"/>
+      <c r="AJ4" s="9"/>
+      <c r="AK4" s="9"/>
+      <c r="AL4" s="9"/>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="10"/>
+      <c r="AO4" s="10"/>
+      <c r="AP4" s="10"/>
+      <c r="AQ4" s="10"/>
+      <c r="AR4" s="10"/>
+      <c r="AS4" s="10"/>
+      <c r="AT4" s="10"/>
+      <c r="AU4" s="10"/>
+      <c r="AV4" s="10"/>
+      <c r="AW4" s="10"/>
+      <c r="AX4" s="10"/>
+      <c r="AY4" s="10"/>
+      <c r="AZ4" s="10"/>
+      <c r="BA4" s="10"/>
+      <c r="BB4" s="10"/>
+      <c r="BC4" s="10"/>
+      <c r="BD4" s="10"/>
+      <c r="BE4" s="10"/>
+      <c r="BF4" s="10"/>
+      <c r="BG4" s="10"/>
+      <c r="BH4" s="10"/>
+      <c r="BI4" s="10"/>
+      <c r="BJ4" s="10"/>
+      <c r="BK4" s="10"/>
+      <c r="BL4" s="10"/>
+    </row>
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="12">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="C7" s="12">
+        <f t="shared" ref="C7:D8" si="0">B7</f>
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D7" s="12">
+        <f t="shared" si="0"/>
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="12">
+        <v>0.37</v>
+      </c>
+      <c r="C8" s="12">
+        <f t="shared" si="0"/>
+        <v>0.37</v>
+      </c>
+      <c r="D8" s="12">
+        <f t="shared" si="0"/>
+        <v>0.37</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="14">
+        <v>2020</v>
+      </c>
+      <c r="C11" s="14">
+        <v>2022</v>
+      </c>
+      <c r="D11" s="14">
+        <v>2031</v>
+      </c>
+      <c r="E11" s="14">
+        <v>2033</v>
+      </c>
+      <c r="F11" s="14">
+        <v>2050</v>
+      </c>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14">
+        <v>0</v>
+      </c>
+      <c r="C12" s="14">
+        <v>0</v>
+      </c>
+      <c r="D12" s="14">
+        <v>1</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0</v>
+      </c>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="1:64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="14"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="14"/>
+      <c r="AI13" s="14"/>
+      <c r="AJ13" s="14"/>
+      <c r="AK13" s="14"/>
+      <c r="AL13" s="14"/>
+      <c r="AM13" s="10"/>
+      <c r="AN13" s="10"/>
+      <c r="AO13" s="10"/>
+      <c r="AP13" s="10"/>
+      <c r="AQ13" s="10"/>
+      <c r="AR13" s="10"/>
+      <c r="AS13" s="10"/>
+      <c r="AT13" s="10"/>
+      <c r="AU13" s="10"/>
+      <c r="AV13" s="10"/>
+      <c r="AW13" s="10"/>
+      <c r="AX13" s="10"/>
+      <c r="AY13" s="10"/>
+      <c r="AZ13" s="10"/>
+      <c r="BA13" s="10"/>
+      <c r="BB13" s="10"/>
+      <c r="BC13" s="10"/>
+      <c r="BD13" s="10"/>
+      <c r="BE13" s="10"/>
+      <c r="BF13" s="10"/>
+      <c r="BG13" s="10"/>
+      <c r="BH13" s="10"/>
+      <c r="BI13" s="10"/>
+      <c r="BJ13" s="10"/>
+      <c r="BK13" s="10"/>
+      <c r="BL13" s="10"/>
+    </row>
+    <row r="14" spans="1:64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="14">
+        <v>2020</v>
+      </c>
+      <c r="C14" s="14">
+        <v>2022</v>
+      </c>
+      <c r="D14" s="14">
+        <v>2031</v>
+      </c>
+      <c r="E14" s="14">
+        <v>2035</v>
+      </c>
+      <c r="F14" s="14">
+        <v>2050</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="14"/>
+      <c r="AF14" s="14"/>
+      <c r="AG14" s="14"/>
+      <c r="AH14" s="14"/>
+      <c r="AI14" s="14"/>
+      <c r="AJ14" s="14"/>
+      <c r="AK14" s="14"/>
+      <c r="AL14" s="10"/>
+      <c r="AM14" s="10"/>
+      <c r="AN14" s="10"/>
+      <c r="AO14" s="10"/>
+      <c r="AP14" s="10"/>
+      <c r="AQ14" s="10"/>
+      <c r="AR14" s="10"/>
+      <c r="AS14" s="10"/>
+      <c r="AT14" s="10"/>
+      <c r="AU14" s="10"/>
+      <c r="AV14" s="10"/>
+      <c r="AW14" s="10"/>
+      <c r="AX14" s="10"/>
+      <c r="AY14" s="10"/>
+      <c r="AZ14" s="10"/>
+      <c r="BA14" s="10"/>
+      <c r="BB14" s="10"/>
+      <c r="BC14" s="10"/>
+      <c r="BD14" s="10"/>
+      <c r="BE14" s="10"/>
+      <c r="BF14" s="10"/>
+      <c r="BG14" s="10"/>
+      <c r="BH14" s="10"/>
+      <c r="BI14" s="10"/>
+      <c r="BJ14" s="10"/>
+      <c r="BK14" s="10"/>
+    </row>
+    <row r="15" spans="1:64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="14">
+        <v>0</v>
+      </c>
+      <c r="C15" s="14">
+        <v>0</v>
+      </c>
+      <c r="D15" s="14">
+        <v>1</v>
+      </c>
+      <c r="E15" s="14">
+        <v>0</v>
+      </c>
+      <c r="F15" s="14">
+        <v>0</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="14"/>
+      <c r="AF15" s="14"/>
+      <c r="AG15" s="14"/>
+      <c r="AH15" s="14"/>
+      <c r="AI15" s="14"/>
+      <c r="AJ15" s="14"/>
+      <c r="AK15" s="14"/>
+      <c r="AL15" s="10"/>
+      <c r="AM15" s="10"/>
+      <c r="AN15" s="10"/>
+      <c r="AO15" s="10"/>
+      <c r="AP15" s="10"/>
+      <c r="AQ15" s="10"/>
+      <c r="AR15" s="10"/>
+      <c r="AS15" s="10"/>
+      <c r="AT15" s="10"/>
+      <c r="AU15" s="10"/>
+      <c r="AV15" s="10"/>
+      <c r="AW15" s="10"/>
+      <c r="AX15" s="10"/>
+      <c r="AY15" s="10"/>
+      <c r="AZ15" s="10"/>
+      <c r="BA15" s="10"/>
+      <c r="BB15" s="10"/>
+      <c r="BC15" s="10"/>
+      <c r="BD15" s="10"/>
+      <c r="BE15" s="10"/>
+      <c r="BF15" s="10"/>
+      <c r="BG15" s="10"/>
+      <c r="BH15" s="10"/>
+      <c r="BI15" s="10"/>
+      <c r="BJ15" s="10"/>
+      <c r="BK15" s="10"/>
+    </row>
+    <row r="16" spans="1:64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="14"/>
+      <c r="AF16" s="14"/>
+      <c r="AG16" s="14"/>
+      <c r="AH16" s="14"/>
+      <c r="AI16" s="14"/>
+      <c r="AJ16" s="14"/>
+      <c r="AK16" s="14"/>
+      <c r="AL16" s="14"/>
+      <c r="AM16" s="10"/>
+      <c r="AN16" s="10"/>
+      <c r="AO16" s="10"/>
+      <c r="AP16" s="10"/>
+      <c r="AQ16" s="10"/>
+      <c r="AR16" s="10"/>
+      <c r="AS16" s="10"/>
+      <c r="AT16" s="10"/>
+      <c r="AU16" s="10"/>
+      <c r="AV16" s="10"/>
+      <c r="AW16" s="10"/>
+      <c r="AX16" s="10"/>
+      <c r="AY16" s="10"/>
+      <c r="AZ16" s="10"/>
+      <c r="BA16" s="10"/>
+      <c r="BB16" s="10"/>
+      <c r="BC16" s="10"/>
+      <c r="BD16" s="10"/>
+      <c r="BE16" s="10"/>
+      <c r="BF16" s="10"/>
+      <c r="BG16" s="10"/>
+      <c r="BH16" s="10"/>
+      <c r="BI16" s="10"/>
+      <c r="BJ16" s="10"/>
+      <c r="BK16" s="10"/>
+      <c r="BL16" s="10"/>
+    </row>
+    <row r="17" spans="1:64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="14"/>
+      <c r="AF17" s="14"/>
+      <c r="AG17" s="14"/>
+      <c r="AH17" s="14"/>
+      <c r="AI17" s="14"/>
+      <c r="AJ17" s="14"/>
+      <c r="AK17" s="14"/>
+      <c r="AL17" s="14"/>
+      <c r="AM17" s="10"/>
+      <c r="AN17" s="10"/>
+      <c r="AO17" s="10"/>
+      <c r="AP17" s="10"/>
+      <c r="AQ17" s="10"/>
+      <c r="AR17" s="10"/>
+      <c r="AS17" s="10"/>
+      <c r="AT17" s="10"/>
+      <c r="AU17" s="10"/>
+      <c r="AV17" s="10"/>
+      <c r="AW17" s="10"/>
+      <c r="AX17" s="10"/>
+      <c r="AY17" s="10"/>
+      <c r="AZ17" s="10"/>
+      <c r="BA17" s="10"/>
+      <c r="BB17" s="10"/>
+      <c r="BC17" s="10"/>
+      <c r="BD17" s="10"/>
+      <c r="BE17" s="10"/>
+      <c r="BF17" s="10"/>
+      <c r="BG17" s="10"/>
+      <c r="BH17" s="10"/>
+      <c r="BI17" s="10"/>
+      <c r="BJ17" s="10"/>
+      <c r="BK17" s="10"/>
+      <c r="BL17" s="10"/>
+    </row>
+    <row r="18" spans="1:64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="16">
+        <f>SUM(B42:B43)*10^3/9</f>
+        <v>311.11111111111109</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="14"/>
+      <c r="AE18" s="14"/>
+      <c r="AF18" s="14"/>
+      <c r="AG18" s="14"/>
+      <c r="AH18" s="14"/>
+      <c r="AI18" s="14"/>
+      <c r="AJ18" s="14"/>
+      <c r="AK18" s="14"/>
+      <c r="AL18" s="14"/>
+      <c r="AM18" s="10"/>
+      <c r="AN18" s="10"/>
+      <c r="AO18" s="10"/>
+      <c r="AP18" s="10"/>
+      <c r="AQ18" s="10"/>
+      <c r="AR18" s="10"/>
+      <c r="AS18" s="10"/>
+      <c r="AT18" s="10"/>
+      <c r="AU18" s="10"/>
+      <c r="AV18" s="10"/>
+      <c r="AW18" s="10"/>
+      <c r="AX18" s="10"/>
+      <c r="AY18" s="10"/>
+      <c r="AZ18" s="10"/>
+      <c r="BA18" s="10"/>
+      <c r="BB18" s="10"/>
+      <c r="BC18" s="10"/>
+      <c r="BD18" s="10"/>
+      <c r="BE18" s="10"/>
+      <c r="BF18" s="10"/>
+      <c r="BG18" s="10"/>
+      <c r="BH18" s="10"/>
+      <c r="BI18" s="10"/>
+      <c r="BJ18" s="10"/>
+      <c r="BK18" s="10"/>
+      <c r="BL18" s="10"/>
+    </row>
+    <row r="19" spans="1:64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="14"/>
+      <c r="AG19" s="14"/>
+      <c r="AH19" s="14"/>
+      <c r="AI19" s="14"/>
+      <c r="AJ19" s="14"/>
+      <c r="AK19" s="14"/>
+      <c r="AL19" s="14"/>
+      <c r="AM19" s="10"/>
+      <c r="AN19" s="10"/>
+      <c r="AO19" s="10"/>
+      <c r="AP19" s="10"/>
+      <c r="AQ19" s="10"/>
+      <c r="AR19" s="10"/>
+      <c r="AS19" s="10"/>
+      <c r="AT19" s="10"/>
+      <c r="AU19" s="10"/>
+      <c r="AV19" s="10"/>
+      <c r="AW19" s="10"/>
+      <c r="AX19" s="10"/>
+      <c r="AY19" s="10"/>
+      <c r="AZ19" s="10"/>
+      <c r="BA19" s="10"/>
+      <c r="BB19" s="10"/>
+      <c r="BC19" s="10"/>
+      <c r="BD19" s="10"/>
+      <c r="BE19" s="10"/>
+      <c r="BF19" s="10"/>
+      <c r="BG19" s="10"/>
+      <c r="BH19" s="10"/>
+      <c r="BI19" s="10"/>
+      <c r="BJ19" s="10"/>
+      <c r="BK19" s="10"/>
+      <c r="BL19" s="10"/>
+    </row>
+    <row r="20" spans="1:64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14"/>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="14"/>
+      <c r="AE20" s="14"/>
+      <c r="AF20" s="14"/>
+      <c r="AG20" s="14"/>
+      <c r="AH20" s="14"/>
+      <c r="AI20" s="14"/>
+      <c r="AJ20" s="14"/>
+      <c r="AK20" s="14"/>
+      <c r="AL20" s="14"/>
+      <c r="AM20" s="10"/>
+      <c r="AN20" s="10"/>
+      <c r="AO20" s="10"/>
+      <c r="AP20" s="10"/>
+      <c r="AQ20" s="10"/>
+      <c r="AR20" s="10"/>
+      <c r="AS20" s="10"/>
+      <c r="AT20" s="10"/>
+      <c r="AU20" s="10"/>
+      <c r="AV20" s="10"/>
+      <c r="AW20" s="10"/>
+      <c r="AX20" s="10"/>
+      <c r="AY20" s="10"/>
+      <c r="AZ20" s="10"/>
+      <c r="BA20" s="10"/>
+      <c r="BB20" s="10"/>
+      <c r="BC20" s="10"/>
+      <c r="BD20" s="10"/>
+      <c r="BE20" s="10"/>
+      <c r="BF20" s="10"/>
+      <c r="BG20" s="10"/>
+      <c r="BH20" s="10"/>
+      <c r="BI20" s="10"/>
+      <c r="BJ20" s="10"/>
+      <c r="BK20" s="10"/>
+      <c r="BL20" s="10"/>
+    </row>
+    <row r="21" spans="1:64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="17">
+        <v>2021</v>
+      </c>
+      <c r="C21" s="17">
+        <v>2022</v>
+      </c>
+      <c r="D21" s="17">
+        <v>2023</v>
+      </c>
+      <c r="E21" s="17">
+        <v>2024</v>
+      </c>
+      <c r="F21" s="17">
+        <v>2025</v>
+      </c>
+      <c r="G21" s="17">
+        <v>2026</v>
+      </c>
+      <c r="H21" s="17">
+        <v>2027</v>
+      </c>
+      <c r="I21" s="17">
+        <v>2028</v>
+      </c>
+      <c r="J21" s="17">
+        <v>2029</v>
+      </c>
+      <c r="K21" s="17">
+        <v>2030</v>
+      </c>
+      <c r="L21" s="17">
+        <v>2031</v>
+      </c>
+      <c r="M21" s="17">
+        <v>2032</v>
+      </c>
+      <c r="N21" s="17">
+        <v>2033</v>
+      </c>
+      <c r="O21" s="17">
+        <v>2034</v>
+      </c>
+      <c r="P21" s="17">
+        <v>2035</v>
+      </c>
+      <c r="Q21" s="17">
+        <v>2036</v>
+      </c>
+      <c r="R21" s="17">
+        <v>2037</v>
+      </c>
+      <c r="S21" s="17">
+        <v>2038</v>
+      </c>
+      <c r="T21" s="17">
+        <v>2039</v>
+      </c>
+      <c r="U21" s="17">
+        <v>2040</v>
+      </c>
+      <c r="V21" s="17">
+        <v>2041</v>
+      </c>
+      <c r="W21" s="17">
+        <v>2042</v>
+      </c>
+      <c r="X21" s="17">
+        <v>2043</v>
+      </c>
+      <c r="Y21" s="17">
+        <v>2044</v>
+      </c>
+      <c r="Z21" s="17">
+        <v>2045</v>
+      </c>
+      <c r="AA21" s="17">
+        <v>2046</v>
+      </c>
+      <c r="AB21" s="17">
+        <v>2047</v>
+      </c>
+      <c r="AC21" s="17">
+        <v>2048</v>
+      </c>
+      <c r="AD21" s="17">
+        <v>2049</v>
+      </c>
+      <c r="AE21" s="17">
+        <v>2050</v>
+      </c>
+      <c r="AF21" s="17"/>
+      <c r="AG21" s="17"/>
+      <c r="AH21" s="17"/>
+      <c r="AI21" s="17"/>
+      <c r="AJ21" s="15"/>
+      <c r="AK21" s="15"/>
+      <c r="AL21" s="15"/>
+      <c r="AM21" s="15"/>
+      <c r="AN21" s="15"/>
+      <c r="AO21" s="15"/>
+      <c r="AP21" s="15"/>
+      <c r="AQ21" s="15"/>
+      <c r="AR21" s="15"/>
+      <c r="AS21" s="15"/>
+      <c r="AT21" s="15"/>
+      <c r="AU21" s="15"/>
+      <c r="AV21" s="15"/>
+      <c r="AW21" s="15"/>
+      <c r="AX21" s="15"/>
+      <c r="AY21" s="15"/>
+      <c r="AZ21" s="15"/>
+      <c r="BA21" s="15"/>
+      <c r="BB21" s="15"/>
+      <c r="BC21" s="15"/>
+      <c r="BD21" s="15"/>
+      <c r="BE21" s="15"/>
+      <c r="BF21" s="15"/>
+      <c r="BG21" s="15"/>
+      <c r="BH21" s="15"/>
+      <c r="BI21" s="15"/>
+      <c r="BJ21" s="15"/>
+      <c r="BK21" s="15"/>
+      <c r="BL21" s="15"/>
+    </row>
+    <row r="22" spans="1:64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
+        <v>0</v>
+      </c>
+      <c r="B22" s="18">
+        <v>0</v>
+      </c>
+      <c r="C22" s="18">
+        <v>0</v>
+      </c>
+      <c r="D22" s="18">
+        <f>1/9</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E22" s="18">
+        <f t="shared" ref="E22:L22" si="1">D22+1/9</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="F22" s="18">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G22" s="18">
+        <f t="shared" si="1"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="H22" s="18">
+        <f t="shared" si="1"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="I22" s="18">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="J22" s="18">
+        <f t="shared" si="1"/>
+        <v>0.7777777777777779</v>
+      </c>
+      <c r="K22" s="18">
+        <f t="shared" si="1"/>
+        <v>0.88888888888888906</v>
+      </c>
+      <c r="L22" s="18">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="M22" s="18">
+        <v>0</v>
+      </c>
+      <c r="N22" s="18">
+        <v>0</v>
+      </c>
+      <c r="O22" s="18">
+        <v>0</v>
+      </c>
+      <c r="P22" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="18">
+        <v>0</v>
+      </c>
+      <c r="R22" s="18">
+        <v>0</v>
+      </c>
+      <c r="S22" s="18">
+        <v>0</v>
+      </c>
+      <c r="T22" s="18">
+        <v>0</v>
+      </c>
+      <c r="U22" s="18">
+        <v>0</v>
+      </c>
+      <c r="V22" s="18">
+        <v>0</v>
+      </c>
+      <c r="W22" s="18">
+        <v>0</v>
+      </c>
+      <c r="X22" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="14"/>
+      <c r="AG22" s="14"/>
+      <c r="AH22" s="14"/>
+      <c r="AI22" s="14"/>
+      <c r="AJ22" s="14"/>
+      <c r="AK22" s="14"/>
+      <c r="AL22" s="14"/>
+      <c r="AM22" s="10"/>
+      <c r="AN22" s="10"/>
+      <c r="AO22" s="10"/>
+      <c r="AP22" s="10"/>
+      <c r="AQ22" s="10"/>
+      <c r="AR22" s="10"/>
+      <c r="AS22" s="10"/>
+      <c r="AT22" s="10"/>
+      <c r="AU22" s="10"/>
+      <c r="AV22" s="10"/>
+      <c r="AW22" s="10"/>
+      <c r="AX22" s="10"/>
+      <c r="AY22" s="10"/>
+      <c r="AZ22" s="10"/>
+      <c r="BA22" s="10"/>
+      <c r="BB22" s="10"/>
+      <c r="BC22" s="10"/>
+      <c r="BD22" s="10"/>
+      <c r="BE22" s="10"/>
+      <c r="BF22" s="10"/>
+      <c r="BG22" s="10"/>
+      <c r="BH22" s="10"/>
+      <c r="BI22" s="10"/>
+      <c r="BJ22" s="10"/>
+      <c r="BK22" s="10"/>
+      <c r="BL22" s="10"/>
+    </row>
+    <row r="23" spans="1:64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="14"/>
+      <c r="AE23" s="14"/>
+      <c r="AF23" s="14"/>
+      <c r="AG23" s="14"/>
+      <c r="AH23" s="14"/>
+      <c r="AI23" s="14"/>
+      <c r="AJ23" s="14"/>
+      <c r="AK23" s="14"/>
+      <c r="AL23" s="14"/>
+      <c r="AM23" s="10"/>
+      <c r="AN23" s="10"/>
+      <c r="AO23" s="10"/>
+      <c r="AP23" s="10"/>
+      <c r="AQ23" s="10"/>
+      <c r="AR23" s="10"/>
+      <c r="AS23" s="10"/>
+      <c r="AT23" s="10"/>
+      <c r="AU23" s="10"/>
+      <c r="AV23" s="10"/>
+      <c r="AW23" s="10"/>
+      <c r="AX23" s="10"/>
+      <c r="AY23" s="10"/>
+      <c r="AZ23" s="10"/>
+      <c r="BA23" s="10"/>
+      <c r="BB23" s="10"/>
+      <c r="BC23" s="10"/>
+      <c r="BD23" s="10"/>
+      <c r="BE23" s="10"/>
+      <c r="BF23" s="10"/>
+      <c r="BG23" s="10"/>
+      <c r="BH23" s="10"/>
+      <c r="BI23" s="10"/>
+      <c r="BJ23" s="10"/>
+      <c r="BK23" s="10"/>
+      <c r="BL23" s="10"/>
+    </row>
+    <row r="24" spans="1:64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="9"/>
+      <c r="AB24" s="9"/>
+      <c r="AC24" s="9"/>
+      <c r="AD24" s="9"/>
+      <c r="AE24" s="9"/>
+      <c r="AF24" s="9"/>
+      <c r="AG24" s="9"/>
+      <c r="AH24" s="9"/>
+      <c r="AI24" s="9"/>
+      <c r="AJ24" s="9"/>
+      <c r="AK24" s="9"/>
+      <c r="AL24" s="9"/>
+      <c r="AM24" s="10"/>
+      <c r="AN24" s="10"/>
+      <c r="AO24" s="10"/>
+      <c r="AP24" s="10"/>
+      <c r="AQ24" s="10"/>
+      <c r="AR24" s="10"/>
+      <c r="AS24" s="10"/>
+      <c r="AT24" s="10"/>
+      <c r="AU24" s="10"/>
+      <c r="AV24" s="10"/>
+      <c r="AW24" s="10"/>
+      <c r="AX24" s="10"/>
+      <c r="AY24" s="10"/>
+      <c r="AZ24" s="10"/>
+      <c r="BA24" s="10"/>
+      <c r="BB24" s="10"/>
+      <c r="BC24" s="10"/>
+      <c r="BD24" s="10"/>
+      <c r="BE24" s="10"/>
+      <c r="BF24" s="10"/>
+      <c r="BG24" s="10"/>
+      <c r="BH24" s="10"/>
+      <c r="BI24" s="10"/>
+      <c r="BJ24" s="10"/>
+      <c r="BK24" s="10"/>
+      <c r="BL24" s="10"/>
+    </row>
+    <row r="25" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="12">
+        <v>0.78500000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+    </row>
+    <row r="27" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" s="14"/>
+    </row>
+    <row r="42" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42" s="14">
+        <f>SUM(B31:B37)</f>
+        <v>1.2999999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" s="14">
+        <f>B38</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
+      <c r="V47" s="12"/>
+      <c r="W47" s="12"/>
+      <c r="X47" s="12"/>
+      <c r="Y47" s="12"/>
+      <c r="Z47" s="12"/>
+      <c r="AA47" s="12"/>
+      <c r="AB47" s="12"/>
+      <c r="AC47" s="12"/>
+      <c r="AD47" s="12"/>
+      <c r="AE47" s="12"/>
+      <c r="AF47" s="12"/>
+      <c r="AG47" s="12"/>
+      <c r="AH47" s="12"/>
+      <c r="AI47" s="12"/>
+      <c r="AJ47" s="12"/>
+      <c r="AK47" s="12"/>
+      <c r="AL47" s="12"/>
+      <c r="AM47" s="12"/>
+      <c r="AN47" s="12"/>
+      <c r="AO47" s="12"/>
+      <c r="AP47" s="12"/>
+      <c r="AQ47" s="12"/>
+      <c r="AR47" s="12"/>
+      <c r="AS47" s="12"/>
+      <c r="AT47" s="12"/>
+      <c r="AU47" s="12"/>
+      <c r="AV47" s="12"/>
+      <c r="AW47" s="12"/>
+      <c r="AX47" s="12"/>
+      <c r="AY47" s="12"/>
+      <c r="AZ47" s="12"/>
+      <c r="BA47" s="12"/>
+      <c r="BB47" s="12"/>
+      <c r="BC47" s="12"/>
+      <c r="BD47" s="12"/>
+      <c r="BE47" s="12"/>
+      <c r="BF47" s="12"/>
+      <c r="BG47" s="12"/>
+      <c r="BH47" s="12"/>
+      <c r="BI47" s="12"/>
+      <c r="BJ47" s="12"/>
+      <c r="BK47" s="12"/>
+      <c r="BL47" s="12"/>
+    </row>
+    <row r="48" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48" s="12">
+        <v>2020</v>
+      </c>
+      <c r="C48" s="12">
+        <v>2021</v>
+      </c>
+      <c r="D48" s="19">
+        <v>2022</v>
+      </c>
+      <c r="E48" s="12">
+        <v>2023</v>
+      </c>
+      <c r="F48" s="12">
+        <v>2024</v>
+      </c>
+      <c r="G48" s="12">
+        <v>2025</v>
+      </c>
+      <c r="H48" s="12">
+        <v>2026</v>
+      </c>
+      <c r="I48" s="12">
+        <v>2027</v>
+      </c>
+      <c r="J48" s="12">
+        <v>2028</v>
+      </c>
+      <c r="K48" s="12">
+        <v>2029</v>
+      </c>
+      <c r="L48" s="12">
+        <v>2030</v>
+      </c>
+      <c r="M48" s="12">
+        <v>2031</v>
+      </c>
+      <c r="N48" s="12">
+        <v>2032</v>
+      </c>
+      <c r="O48" s="12">
+        <v>2033</v>
+      </c>
+      <c r="P48" s="12">
+        <v>2034</v>
+      </c>
+      <c r="Q48" s="12">
+        <v>2035</v>
+      </c>
+      <c r="R48" s="12">
+        <v>2036</v>
+      </c>
+      <c r="S48" s="12">
+        <v>2037</v>
+      </c>
+      <c r="T48" s="12">
+        <v>2038</v>
+      </c>
+      <c r="U48" s="12">
+        <v>2039</v>
+      </c>
+      <c r="V48" s="12">
+        <v>2040</v>
+      </c>
+      <c r="W48" s="12">
+        <v>2041</v>
+      </c>
+      <c r="X48" s="12">
+        <v>2042</v>
+      </c>
+      <c r="Y48" s="12">
+        <v>2043</v>
+      </c>
+      <c r="Z48" s="12">
+        <v>2044</v>
+      </c>
+      <c r="AA48" s="12">
+        <v>2045</v>
+      </c>
+      <c r="AB48" s="12">
+        <v>2046</v>
+      </c>
+      <c r="AC48" s="12">
+        <v>2047</v>
+      </c>
+      <c r="AD48" s="12">
+        <v>2048</v>
+      </c>
+      <c r="AE48" s="12">
+        <v>2049</v>
+      </c>
+      <c r="AF48" s="12">
+        <v>2050</v>
+      </c>
+      <c r="AG48" s="12"/>
+      <c r="AH48" s="12"/>
+      <c r="AI48" s="12"/>
+      <c r="AJ48" s="12"/>
+      <c r="AK48" s="12"/>
+      <c r="AL48" s="12"/>
+      <c r="AM48" s="12"/>
+      <c r="AN48" s="12"/>
+      <c r="AO48" s="12"/>
+      <c r="AP48" s="12"/>
+      <c r="AQ48" s="12"/>
+      <c r="AR48" s="12"/>
+      <c r="AS48" s="12"/>
+      <c r="AT48" s="12"/>
+      <c r="AU48" s="12"/>
+      <c r="AV48" s="12"/>
+      <c r="AW48" s="12"/>
+      <c r="AX48" s="12"/>
+      <c r="AY48" s="12"/>
+      <c r="AZ48" s="12"/>
+      <c r="BA48" s="12"/>
+      <c r="BB48" s="12"/>
+      <c r="BC48" s="12"/>
+      <c r="BD48" s="12"/>
+      <c r="BE48" s="12"/>
+      <c r="BF48" s="12"/>
+      <c r="BG48" s="12"/>
+      <c r="BH48" s="12"/>
+      <c r="BI48" s="12"/>
+      <c r="BJ48" s="12"/>
+      <c r="BK48" s="12"/>
+      <c r="BL48" s="12"/>
+    </row>
+    <row r="49" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A49" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49" s="12">
+        <v>0</v>
+      </c>
+      <c r="C49" s="12">
+        <v>0</v>
+      </c>
+      <c r="D49" s="20">
+        <v>0</v>
+      </c>
+      <c r="E49" s="20">
+        <v>9810960</v>
+      </c>
+      <c r="F49" s="20">
+        <v>19621900</v>
+      </c>
+      <c r="G49" s="20">
+        <v>29432900</v>
+      </c>
+      <c r="H49" s="20">
+        <v>39243800</v>
+      </c>
+      <c r="I49" s="20">
+        <v>49054900</v>
+      </c>
+      <c r="J49" s="20">
+        <v>58865800</v>
+      </c>
+      <c r="K49" s="20">
+        <v>68676800</v>
+      </c>
+      <c r="L49" s="20">
+        <v>78487700</v>
+      </c>
+      <c r="M49" s="20">
+        <v>88298700</v>
+      </c>
+      <c r="N49" s="20">
+        <v>66224000</v>
+      </c>
+      <c r="O49" s="20">
+        <v>44149300</v>
+      </c>
+      <c r="P49" s="20">
+        <v>22074700</v>
+      </c>
+      <c r="Q49" s="20">
+        <v>0</v>
+      </c>
+      <c r="R49" s="20">
+        <v>0</v>
+      </c>
+      <c r="S49" s="20">
+        <v>0</v>
+      </c>
+      <c r="T49" s="20">
+        <v>0</v>
+      </c>
+      <c r="U49" s="20">
+        <v>0</v>
+      </c>
+      <c r="V49" s="20">
+        <v>0</v>
+      </c>
+      <c r="W49" s="20">
+        <v>0</v>
+      </c>
+      <c r="X49" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="20">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="20">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="20">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="20"/>
+      <c r="AH49" s="20"/>
+      <c r="AI49" s="20"/>
+      <c r="AJ49" s="20"/>
+      <c r="AK49" s="20"/>
+      <c r="AL49" s="20"/>
+      <c r="AM49" s="20"/>
+      <c r="AN49" s="20"/>
+      <c r="AO49" s="20"/>
+      <c r="AP49" s="20"/>
+      <c r="AQ49" s="20"/>
+      <c r="AR49" s="20"/>
+      <c r="AS49" s="20"/>
+      <c r="AT49" s="20"/>
+      <c r="AU49" s="20"/>
+      <c r="AV49" s="20"/>
+      <c r="AW49" s="20"/>
+      <c r="AX49" s="20"/>
+      <c r="AY49" s="20"/>
+      <c r="AZ49" s="20"/>
+      <c r="BA49" s="20"/>
+      <c r="BB49" s="20"/>
+      <c r="BC49" s="20"/>
+      <c r="BD49" s="20"/>
+      <c r="BE49" s="20"/>
+      <c r="BF49" s="20"/>
+      <c r="BG49" s="20"/>
+      <c r="BH49" s="20"/>
+      <c r="BI49" s="20"/>
+      <c r="BJ49" s="20"/>
+      <c r="BK49" s="20"/>
+      <c r="BL49" s="20"/>
+    </row>
+    <row r="50" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B50" s="12">
+        <v>0</v>
+      </c>
+      <c r="C50" s="12">
+        <v>0</v>
+      </c>
+      <c r="D50" s="20">
+        <v>0</v>
+      </c>
+      <c r="E50" s="20">
+        <v>12217400</v>
+      </c>
+      <c r="F50" s="20">
+        <v>24434800</v>
+      </c>
+      <c r="G50" s="20">
+        <v>36652300</v>
+      </c>
+      <c r="H50" s="20">
+        <v>48869700</v>
+      </c>
+      <c r="I50" s="20">
+        <v>61087200</v>
+      </c>
+      <c r="J50" s="20">
+        <v>73304600</v>
+      </c>
+      <c r="K50" s="20">
+        <v>85522000</v>
+      </c>
+      <c r="L50" s="20">
+        <v>97739400</v>
+      </c>
+      <c r="M50" s="20">
+        <v>109957000</v>
+      </c>
+      <c r="N50" s="20">
+        <v>82467600</v>
+      </c>
+      <c r="O50" s="20">
+        <v>54978400</v>
+      </c>
+      <c r="P50" s="20">
+        <v>27489200</v>
+      </c>
+      <c r="Q50" s="20">
+        <v>0</v>
+      </c>
+      <c r="R50" s="20">
+        <v>0</v>
+      </c>
+      <c r="S50" s="20">
+        <v>0</v>
+      </c>
+      <c r="T50" s="20">
+        <v>0</v>
+      </c>
+      <c r="U50" s="20">
+        <v>0</v>
+      </c>
+      <c r="V50" s="20">
+        <v>0</v>
+      </c>
+      <c r="W50" s="20">
+        <v>0</v>
+      </c>
+      <c r="X50" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="20">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="20">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="20">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="12"/>
+      <c r="AH50" s="12"/>
+      <c r="AI50" s="12"/>
+      <c r="AJ50" s="12"/>
+      <c r="AK50" s="12"/>
+      <c r="AL50" s="12"/>
+      <c r="AM50" s="12"/>
+      <c r="AN50" s="12"/>
+      <c r="AO50" s="12"/>
+      <c r="AP50" s="12"/>
+      <c r="AQ50" s="12"/>
+      <c r="AR50" s="12"/>
+      <c r="AS50" s="12"/>
+      <c r="AT50" s="12"/>
+      <c r="AU50" s="12"/>
+      <c r="AV50" s="12"/>
+      <c r="AW50" s="12"/>
+      <c r="AX50" s="12"/>
+      <c r="AY50" s="12"/>
+      <c r="AZ50" s="12"/>
+      <c r="BA50" s="12"/>
+      <c r="BB50" s="12"/>
+      <c r="BC50" s="12"/>
+      <c r="BD50" s="12"/>
+      <c r="BE50" s="12"/>
+      <c r="BF50" s="12"/>
+      <c r="BG50" s="12"/>
+      <c r="BH50" s="12"/>
+      <c r="BI50" s="12"/>
+      <c r="BJ50" s="12"/>
+      <c r="BK50" s="12"/>
+      <c r="BL50" s="12"/>
+    </row>
+    <row r="51" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B51" s="12">
+        <v>0</v>
+      </c>
+      <c r="C51" s="12">
+        <v>0</v>
+      </c>
+      <c r="D51" s="20">
+        <v>0</v>
+      </c>
+      <c r="E51" s="20">
+        <v>1110670</v>
+      </c>
+      <c r="F51" s="20">
+        <v>2221350</v>
+      </c>
+      <c r="G51" s="20">
+        <v>3332020</v>
+      </c>
+      <c r="H51" s="20">
+        <v>4442700</v>
+      </c>
+      <c r="I51" s="20">
+        <v>5553380</v>
+      </c>
+      <c r="J51" s="20">
+        <v>6664060</v>
+      </c>
+      <c r="K51" s="20">
+        <v>7774730</v>
+      </c>
+      <c r="L51" s="20">
+        <v>8885410</v>
+      </c>
+      <c r="M51" s="20">
+        <v>9996080</v>
+      </c>
+      <c r="N51" s="20">
+        <v>7497060</v>
+      </c>
+      <c r="O51" s="20">
+        <v>4998040</v>
+      </c>
+      <c r="P51" s="20">
+        <v>2499020</v>
+      </c>
+      <c r="Q51" s="20">
+        <v>0</v>
+      </c>
+      <c r="R51" s="20">
+        <v>0</v>
+      </c>
+      <c r="S51" s="20">
+        <v>0</v>
+      </c>
+      <c r="T51" s="20">
+        <v>0</v>
+      </c>
+      <c r="U51" s="20">
+        <v>0</v>
+      </c>
+      <c r="V51" s="20">
+        <v>0</v>
+      </c>
+      <c r="W51" s="20">
+        <v>0</v>
+      </c>
+      <c r="X51" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="20">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="20">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="20">
+        <v>0</v>
+      </c>
+      <c r="AG51" s="12"/>
+      <c r="AH51" s="12"/>
+      <c r="AI51" s="12"/>
+      <c r="AJ51" s="12"/>
+      <c r="AK51" s="12"/>
+      <c r="AL51" s="12"/>
+      <c r="AM51" s="12"/>
+      <c r="AN51" s="12"/>
+      <c r="AO51" s="12"/>
+      <c r="AP51" s="12"/>
+      <c r="AQ51" s="12"/>
+      <c r="AR51" s="12"/>
+      <c r="AS51" s="12"/>
+      <c r="AT51" s="12"/>
+      <c r="AU51" s="12"/>
+      <c r="AV51" s="12"/>
+      <c r="AW51" s="12"/>
+      <c r="AX51" s="12"/>
+      <c r="AY51" s="12"/>
+      <c r="AZ51" s="12"/>
+      <c r="BA51" s="12"/>
+      <c r="BB51" s="12"/>
+      <c r="BC51" s="12"/>
+      <c r="BD51" s="12"/>
+      <c r="BE51" s="12"/>
+      <c r="BF51" s="12"/>
+      <c r="BG51" s="12"/>
+      <c r="BH51" s="12"/>
+      <c r="BI51" s="12"/>
+      <c r="BJ51" s="12"/>
+      <c r="BK51" s="12"/>
+      <c r="BL51" s="12"/>
+    </row>
+    <row r="52" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A52" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B52" s="12">
+        <v>0</v>
+      </c>
+      <c r="C52" s="12">
+        <v>0</v>
+      </c>
+      <c r="D52" s="12">
+        <v>0</v>
+      </c>
+      <c r="E52" s="12">
+        <v>0</v>
+      </c>
+      <c r="F52" s="12">
+        <v>0</v>
+      </c>
+      <c r="G52" s="12">
+        <v>0</v>
+      </c>
+      <c r="H52" s="12">
+        <v>0</v>
+      </c>
+      <c r="I52" s="12">
+        <v>0</v>
+      </c>
+      <c r="J52" s="12">
+        <v>0</v>
+      </c>
+      <c r="K52" s="12">
+        <v>0</v>
+      </c>
+      <c r="L52" s="12">
+        <v>0</v>
+      </c>
+      <c r="M52" s="12">
+        <v>0</v>
+      </c>
+      <c r="N52" s="12">
+        <v>0</v>
+      </c>
+      <c r="O52" s="12">
+        <v>0</v>
+      </c>
+      <c r="P52" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="12">
+        <v>0</v>
+      </c>
+      <c r="R52" s="12">
+        <v>0</v>
+      </c>
+      <c r="S52" s="12">
+        <v>0</v>
+      </c>
+      <c r="T52" s="12">
+        <v>0</v>
+      </c>
+      <c r="U52" s="12">
+        <v>0</v>
+      </c>
+      <c r="V52" s="12">
+        <v>0</v>
+      </c>
+      <c r="W52" s="12">
+        <v>0</v>
+      </c>
+      <c r="X52" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="12"/>
+      <c r="AH52" s="12"/>
+      <c r="AI52" s="12"/>
+      <c r="AJ52" s="12"/>
+      <c r="AK52" s="12"/>
+      <c r="AL52" s="12"/>
+      <c r="AM52" s="12"/>
+      <c r="AN52" s="12"/>
+      <c r="AO52" s="12"/>
+      <c r="AP52" s="12"/>
+      <c r="AQ52" s="12"/>
+      <c r="AR52" s="12"/>
+      <c r="AS52" s="12"/>
+      <c r="AT52" s="12"/>
+      <c r="AU52" s="12"/>
+      <c r="AV52" s="12"/>
+      <c r="AW52" s="12"/>
+      <c r="AX52" s="12"/>
+      <c r="AY52" s="12"/>
+      <c r="AZ52" s="12"/>
+      <c r="BA52" s="12"/>
+      <c r="BB52" s="12"/>
+      <c r="BC52" s="12"/>
+      <c r="BD52" s="12"/>
+      <c r="BE52" s="12"/>
+      <c r="BF52" s="12"/>
+      <c r="BG52" s="12"/>
+      <c r="BH52" s="12"/>
+      <c r="BI52" s="12"/>
+      <c r="BJ52" s="12"/>
+      <c r="BK52" s="12"/>
+      <c r="BL52" s="12"/>
+    </row>
+    <row r="53" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A53" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B53" s="12">
+        <v>0</v>
+      </c>
+      <c r="C53" s="12">
+        <v>0</v>
+      </c>
+      <c r="D53" s="12">
+        <v>0</v>
+      </c>
+      <c r="E53" s="12">
+        <v>0</v>
+      </c>
+      <c r="F53" s="12">
+        <v>0</v>
+      </c>
+      <c r="G53" s="12">
+        <v>0</v>
+      </c>
+      <c r="H53" s="12">
+        <v>0</v>
+      </c>
+      <c r="I53" s="12">
+        <v>0</v>
+      </c>
+      <c r="J53" s="12">
+        <v>0</v>
+      </c>
+      <c r="K53" s="12">
+        <v>0</v>
+      </c>
+      <c r="L53" s="12">
+        <v>0</v>
+      </c>
+      <c r="M53" s="12">
+        <v>0</v>
+      </c>
+      <c r="N53" s="12">
+        <v>0</v>
+      </c>
+      <c r="O53" s="12">
+        <v>0</v>
+      </c>
+      <c r="P53" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="12">
+        <v>0</v>
+      </c>
+      <c r="R53" s="12">
+        <v>0</v>
+      </c>
+      <c r="S53" s="12">
+        <v>0</v>
+      </c>
+      <c r="T53" s="12">
+        <v>0</v>
+      </c>
+      <c r="U53" s="12">
+        <v>0</v>
+      </c>
+      <c r="V53" s="12">
+        <v>0</v>
+      </c>
+      <c r="W53" s="12">
+        <v>0</v>
+      </c>
+      <c r="X53" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="12"/>
+      <c r="AH53" s="12"/>
+      <c r="AI53" s="12"/>
+      <c r="AJ53" s="12"/>
+      <c r="AK53" s="12"/>
+      <c r="AL53" s="12"/>
+      <c r="AM53" s="12"/>
+      <c r="AN53" s="12"/>
+      <c r="AO53" s="12"/>
+      <c r="AP53" s="12"/>
+      <c r="AQ53" s="12"/>
+      <c r="AR53" s="12"/>
+      <c r="AS53" s="12"/>
+      <c r="AT53" s="12"/>
+      <c r="AU53" s="12"/>
+      <c r="AV53" s="12"/>
+      <c r="AW53" s="12"/>
+      <c r="AX53" s="12"/>
+      <c r="AY53" s="12"/>
+      <c r="AZ53" s="12"/>
+      <c r="BA53" s="12"/>
+      <c r="BB53" s="12"/>
+      <c r="BC53" s="12"/>
+      <c r="BD53" s="12"/>
+      <c r="BE53" s="12"/>
+      <c r="BF53" s="12"/>
+      <c r="BG53" s="12"/>
+      <c r="BH53" s="12"/>
+      <c r="BI53" s="12"/>
+      <c r="BJ53" s="12"/>
+      <c r="BK53" s="12"/>
+      <c r="BL53" s="12"/>
+    </row>
+    <row r="54" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A54" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B54" s="12">
+        <v>0</v>
+      </c>
+      <c r="C54" s="12">
+        <v>0</v>
+      </c>
+      <c r="D54" s="12">
+        <v>0</v>
+      </c>
+      <c r="E54" s="12">
+        <v>0</v>
+      </c>
+      <c r="F54" s="12">
+        <v>0</v>
+      </c>
+      <c r="G54" s="12">
+        <v>0</v>
+      </c>
+      <c r="H54" s="12">
+        <v>0</v>
+      </c>
+      <c r="I54" s="12">
+        <v>0</v>
+      </c>
+      <c r="J54" s="12">
+        <v>0</v>
+      </c>
+      <c r="K54" s="12">
+        <v>0</v>
+      </c>
+      <c r="L54" s="12">
+        <v>0</v>
+      </c>
+      <c r="M54" s="12">
+        <v>0</v>
+      </c>
+      <c r="N54" s="12">
+        <v>0</v>
+      </c>
+      <c r="O54" s="12">
+        <v>0</v>
+      </c>
+      <c r="P54" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="12">
+        <v>0</v>
+      </c>
+      <c r="R54" s="12">
+        <v>0</v>
+      </c>
+      <c r="S54" s="12">
+        <v>0</v>
+      </c>
+      <c r="T54" s="12">
+        <v>0</v>
+      </c>
+      <c r="U54" s="12">
+        <v>0</v>
+      </c>
+      <c r="V54" s="12">
+        <v>0</v>
+      </c>
+      <c r="W54" s="12">
+        <v>0</v>
+      </c>
+      <c r="X54" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF54" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG54" s="12"/>
+      <c r="AH54" s="12"/>
+      <c r="AI54" s="12"/>
+      <c r="AJ54" s="12"/>
+      <c r="AK54" s="12"/>
+      <c r="AL54" s="12"/>
+      <c r="AM54" s="12"/>
+      <c r="AN54" s="12"/>
+      <c r="AO54" s="12"/>
+      <c r="AP54" s="12"/>
+      <c r="AQ54" s="12"/>
+      <c r="AR54" s="12"/>
+      <c r="AS54" s="12"/>
+      <c r="AT54" s="12"/>
+      <c r="AU54" s="12"/>
+      <c r="AV54" s="12"/>
+      <c r="AW54" s="12"/>
+      <c r="AX54" s="12"/>
+      <c r="AY54" s="12"/>
+      <c r="AZ54" s="12"/>
+      <c r="BA54" s="12"/>
+      <c r="BB54" s="12"/>
+      <c r="BC54" s="12"/>
+      <c r="BD54" s="12"/>
+      <c r="BE54" s="12"/>
+      <c r="BF54" s="12"/>
+      <c r="BG54" s="12"/>
+      <c r="BH54" s="12"/>
+      <c r="BI54" s="12"/>
+      <c r="BJ54" s="12"/>
+      <c r="BK54" s="12"/>
+      <c r="BL54" s="12"/>
+    </row>
+    <row r="55" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A55" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B55" s="12">
+        <v>0</v>
+      </c>
+      <c r="C55" s="12">
+        <v>0</v>
+      </c>
+      <c r="D55" s="12">
+        <v>0</v>
+      </c>
+      <c r="E55" s="12">
+        <v>0</v>
+      </c>
+      <c r="F55" s="12">
+        <v>0</v>
+      </c>
+      <c r="G55" s="12">
+        <v>0</v>
+      </c>
+      <c r="H55" s="12">
+        <v>0</v>
+      </c>
+      <c r="I55" s="12">
+        <v>0</v>
+      </c>
+      <c r="J55" s="12">
+        <v>0</v>
+      </c>
+      <c r="K55" s="12">
+        <v>0</v>
+      </c>
+      <c r="L55" s="12">
+        <v>0</v>
+      </c>
+      <c r="M55" s="12">
+        <v>0</v>
+      </c>
+      <c r="N55" s="12">
+        <v>0</v>
+      </c>
+      <c r="O55" s="12">
+        <v>0</v>
+      </c>
+      <c r="P55" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="12">
+        <v>0</v>
+      </c>
+      <c r="R55" s="12">
+        <v>0</v>
+      </c>
+      <c r="S55" s="12">
+        <v>0</v>
+      </c>
+      <c r="T55" s="12">
+        <v>0</v>
+      </c>
+      <c r="U55" s="12">
+        <v>0</v>
+      </c>
+      <c r="V55" s="12">
+        <v>0</v>
+      </c>
+      <c r="W55" s="12">
+        <v>0</v>
+      </c>
+      <c r="X55" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE55" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF55" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG55" s="12"/>
+      <c r="AH55" s="12"/>
+      <c r="AI55" s="12"/>
+      <c r="AJ55" s="12"/>
+      <c r="AK55" s="12"/>
+      <c r="AL55" s="12"/>
+      <c r="AM55" s="12"/>
+      <c r="AN55" s="12"/>
+      <c r="AO55" s="12"/>
+      <c r="AP55" s="12"/>
+      <c r="AQ55" s="12"/>
+      <c r="AR55" s="12"/>
+      <c r="AS55" s="12"/>
+      <c r="AT55" s="12"/>
+      <c r="AU55" s="12"/>
+      <c r="AV55" s="12"/>
+      <c r="AW55" s="12"/>
+      <c r="AX55" s="12"/>
+      <c r="AY55" s="12"/>
+      <c r="AZ55" s="12"/>
+      <c r="BA55" s="12"/>
+      <c r="BB55" s="12"/>
+      <c r="BC55" s="12"/>
+      <c r="BD55" s="12"/>
+      <c r="BE55" s="12"/>
+      <c r="BF55" s="12"/>
+      <c r="BG55" s="12"/>
+      <c r="BH55" s="12"/>
+      <c r="BI55" s="12"/>
+      <c r="BJ55" s="12"/>
+      <c r="BK55" s="12"/>
+      <c r="BL55" s="12"/>
+    </row>
+    <row r="56" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A56" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B56" s="12">
+        <v>0</v>
+      </c>
+      <c r="C56" s="12">
+        <v>0</v>
+      </c>
+      <c r="D56" s="12">
+        <v>0</v>
+      </c>
+      <c r="E56" s="12">
+        <v>0</v>
+      </c>
+      <c r="F56" s="12">
+        <v>0</v>
+      </c>
+      <c r="G56" s="12">
+        <v>0</v>
+      </c>
+      <c r="H56" s="12">
+        <v>0</v>
+      </c>
+      <c r="I56" s="12">
+        <v>0</v>
+      </c>
+      <c r="J56" s="12">
+        <v>0</v>
+      </c>
+      <c r="K56" s="12">
+        <v>0</v>
+      </c>
+      <c r="L56" s="12">
+        <v>0</v>
+      </c>
+      <c r="M56" s="12">
+        <v>0</v>
+      </c>
+      <c r="N56" s="12">
+        <v>0</v>
+      </c>
+      <c r="O56" s="12">
+        <v>0</v>
+      </c>
+      <c r="P56" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="12">
+        <v>0</v>
+      </c>
+      <c r="R56" s="12">
+        <v>0</v>
+      </c>
+      <c r="S56" s="12">
+        <v>0</v>
+      </c>
+      <c r="T56" s="12">
+        <v>0</v>
+      </c>
+      <c r="U56" s="12">
+        <v>0</v>
+      </c>
+      <c r="V56" s="12">
+        <v>0</v>
+      </c>
+      <c r="W56" s="12">
+        <v>0</v>
+      </c>
+      <c r="X56" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD56" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE56" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF56" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG56" s="12"/>
+      <c r="AH56" s="12"/>
+      <c r="AI56" s="12"/>
+      <c r="AJ56" s="12"/>
+      <c r="AK56" s="12"/>
+      <c r="AL56" s="12"/>
+      <c r="AM56" s="12"/>
+      <c r="AN56" s="12"/>
+      <c r="AO56" s="12"/>
+      <c r="AP56" s="12"/>
+      <c r="AQ56" s="12"/>
+      <c r="AR56" s="12"/>
+      <c r="AS56" s="12"/>
+      <c r="AT56" s="12"/>
+      <c r="AU56" s="12"/>
+      <c r="AV56" s="12"/>
+      <c r="AW56" s="12"/>
+      <c r="AX56" s="12"/>
+      <c r="AY56" s="12"/>
+      <c r="AZ56" s="12"/>
+      <c r="BA56" s="12"/>
+      <c r="BB56" s="12"/>
+      <c r="BC56" s="12"/>
+      <c r="BD56" s="12"/>
+      <c r="BE56" s="12"/>
+      <c r="BF56" s="12"/>
+      <c r="BG56" s="12"/>
+      <c r="BH56" s="12"/>
+      <c r="BI56" s="12"/>
+      <c r="BJ56" s="12"/>
+      <c r="BK56" s="12"/>
+      <c r="BL56" s="12"/>
+    </row>
+    <row r="57" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A57" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B57" s="12">
+        <v>0</v>
+      </c>
+      <c r="C57" s="12">
+        <v>0</v>
+      </c>
+      <c r="D57" s="12">
+        <v>0</v>
+      </c>
+      <c r="E57" s="12">
+        <v>0</v>
+      </c>
+      <c r="F57" s="12">
+        <v>0</v>
+      </c>
+      <c r="G57" s="12">
+        <v>0</v>
+      </c>
+      <c r="H57" s="12">
+        <v>0</v>
+      </c>
+      <c r="I57" s="12">
+        <v>0</v>
+      </c>
+      <c r="J57" s="12">
+        <v>0</v>
+      </c>
+      <c r="K57" s="12">
+        <v>0</v>
+      </c>
+      <c r="L57" s="12">
+        <v>0</v>
+      </c>
+      <c r="M57" s="12">
+        <v>0</v>
+      </c>
+      <c r="N57" s="12">
+        <v>0</v>
+      </c>
+      <c r="O57" s="12">
+        <v>0</v>
+      </c>
+      <c r="P57" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="12">
+        <v>0</v>
+      </c>
+      <c r="R57" s="12">
+        <v>0</v>
+      </c>
+      <c r="S57" s="12">
+        <v>0</v>
+      </c>
+      <c r="T57" s="12">
+        <v>0</v>
+      </c>
+      <c r="U57" s="12">
+        <v>0</v>
+      </c>
+      <c r="V57" s="12">
+        <v>0</v>
+      </c>
+      <c r="W57" s="12">
+        <v>0</v>
+      </c>
+      <c r="X57" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG57" s="12"/>
+      <c r="AH57" s="12"/>
+      <c r="AI57" s="12"/>
+      <c r="AJ57" s="12"/>
+      <c r="AK57" s="12"/>
+      <c r="AL57" s="12"/>
+      <c r="AM57" s="12"/>
+      <c r="AN57" s="12"/>
+      <c r="AO57" s="12"/>
+      <c r="AP57" s="12"/>
+      <c r="AQ57" s="12"/>
+      <c r="AR57" s="12"/>
+      <c r="AS57" s="12"/>
+      <c r="AT57" s="12"/>
+      <c r="AU57" s="12"/>
+      <c r="AV57" s="12"/>
+      <c r="AW57" s="12"/>
+      <c r="AX57" s="12"/>
+      <c r="AY57" s="12"/>
+      <c r="AZ57" s="12"/>
+      <c r="BA57" s="12"/>
+      <c r="BB57" s="12"/>
+      <c r="BC57" s="12"/>
+      <c r="BD57" s="12"/>
+      <c r="BE57" s="12"/>
+      <c r="BF57" s="12"/>
+      <c r="BG57" s="12"/>
+      <c r="BH57" s="12"/>
+      <c r="BI57" s="12"/>
+      <c r="BJ57" s="12"/>
+      <c r="BK57" s="12"/>
+      <c r="BL57" s="12"/>
+    </row>
+    <row r="59" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A59" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" s="20">
+        <f>B42*B25*10^9</f>
+        <v>1020500000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B60" s="20">
+        <f>SUM(E49:M51)</f>
+        <v>1041258260</v>
+      </c>
+      <c r="D60" s="19"/>
+    </row>
+    <row r="62" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A62" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B62" s="22">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A63" s="13"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="12"/>
+      <c r="R63" s="12"/>
+      <c r="S63" s="12"/>
+      <c r="T63" s="12"/>
+      <c r="U63" s="12"/>
+      <c r="V63" s="12"/>
+      <c r="W63" s="12"/>
+      <c r="X63" s="12"/>
+      <c r="Y63" s="12"/>
+      <c r="Z63" s="12"/>
+      <c r="AA63" s="12"/>
+      <c r="AB63" s="12"/>
+      <c r="AC63" s="12"/>
+      <c r="AD63" s="12"/>
+      <c r="AE63" s="12"/>
+      <c r="AF63" s="12"/>
+      <c r="AG63" s="12"/>
+      <c r="AH63" s="12"/>
+      <c r="AI63" s="12"/>
+      <c r="AJ63" s="12"/>
+      <c r="AK63" s="12"/>
+      <c r="AL63" s="12"/>
+      <c r="AM63" s="12"/>
+      <c r="AN63" s="12"/>
+      <c r="AO63" s="12"/>
+      <c r="AP63" s="12"/>
+      <c r="AQ63" s="12"/>
+      <c r="AR63" s="12"/>
+      <c r="AS63" s="12"/>
+      <c r="AT63" s="12"/>
+      <c r="AU63" s="12"/>
+      <c r="AV63" s="12"/>
+      <c r="AW63" s="12"/>
+      <c r="AX63" s="12"/>
+      <c r="AY63" s="12"/>
+      <c r="AZ63" s="12"/>
+      <c r="BA63" s="12"/>
+      <c r="BB63" s="12"/>
+      <c r="BC63" s="12"/>
+      <c r="BD63" s="12"/>
+      <c r="BE63" s="12"/>
+      <c r="BF63" s="12"/>
+      <c r="BG63" s="12"/>
+      <c r="BH63" s="12"/>
+      <c r="BI63" s="12"/>
+      <c r="BJ63" s="12"/>
+      <c r="BK63" s="12"/>
+      <c r="BL63" s="12"/>
+    </row>
+    <row r="64" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A64" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="12"/>
+      <c r="R64" s="12"/>
+      <c r="S64" s="12"/>
+      <c r="T64" s="12"/>
+      <c r="U64" s="12"/>
+      <c r="V64" s="12"/>
+      <c r="W64" s="12"/>
+      <c r="X64" s="12"/>
+      <c r="Y64" s="12"/>
+      <c r="Z64" s="12"/>
+      <c r="AA64" s="12"/>
+      <c r="AB64" s="12"/>
+      <c r="AC64" s="12"/>
+      <c r="AD64" s="12"/>
+      <c r="AE64" s="12"/>
+      <c r="AF64" s="12"/>
+      <c r="AG64" s="12"/>
+      <c r="AH64" s="12"/>
+      <c r="AI64" s="12"/>
+      <c r="AJ64" s="12"/>
+      <c r="AK64" s="12"/>
+      <c r="AL64" s="12"/>
+      <c r="AM64" s="12"/>
+      <c r="AN64" s="12"/>
+      <c r="AO64" s="12"/>
+      <c r="AP64" s="12"/>
+      <c r="AQ64" s="12"/>
+      <c r="AR64" s="12"/>
+      <c r="AS64" s="12"/>
+      <c r="AT64" s="12"/>
+      <c r="AU64" s="12"/>
+      <c r="AV64" s="12"/>
+      <c r="AW64" s="12"/>
+      <c r="AX64" s="12"/>
+      <c r="AY64" s="12"/>
+      <c r="AZ64" s="12"/>
+      <c r="BA64" s="12"/>
+      <c r="BB64" s="12"/>
+      <c r="BC64" s="12"/>
+      <c r="BD64" s="12"/>
+      <c r="BE64" s="12"/>
+      <c r="BF64" s="12"/>
+      <c r="BG64" s="12"/>
+      <c r="BH64" s="12"/>
+      <c r="BI64" s="12"/>
+      <c r="BJ64" s="12"/>
+      <c r="BK64" s="12"/>
+      <c r="BL64" s="12"/>
+    </row>
+    <row r="65" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A65" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B65" s="12">
+        <v>2020</v>
+      </c>
+      <c r="C65" s="12">
+        <v>2021</v>
+      </c>
+      <c r="D65" s="19">
+        <v>2022</v>
+      </c>
+      <c r="E65" s="12">
+        <v>2023</v>
+      </c>
+      <c r="F65" s="12">
+        <v>2024</v>
+      </c>
+      <c r="G65" s="12">
+        <v>2025</v>
+      </c>
+      <c r="H65" s="12">
+        <v>2026</v>
+      </c>
+      <c r="I65" s="12">
+        <v>2027</v>
+      </c>
+      <c r="J65" s="12">
+        <v>2028</v>
+      </c>
+      <c r="K65" s="12">
+        <v>2029</v>
+      </c>
+      <c r="L65" s="12">
+        <v>2030</v>
+      </c>
+      <c r="M65" s="12">
+        <v>2031</v>
+      </c>
+      <c r="N65" s="12">
+        <v>2032</v>
+      </c>
+      <c r="O65" s="12">
+        <v>2033</v>
+      </c>
+      <c r="P65" s="12">
+        <v>2034</v>
+      </c>
+      <c r="Q65" s="12">
+        <v>2035</v>
+      </c>
+      <c r="R65" s="12">
+        <v>2036</v>
+      </c>
+      <c r="S65" s="12">
+        <v>2037</v>
+      </c>
+      <c r="T65" s="12">
+        <v>2038</v>
+      </c>
+      <c r="U65" s="12">
+        <v>2039</v>
+      </c>
+      <c r="V65" s="12">
+        <v>2040</v>
+      </c>
+      <c r="W65" s="12">
+        <v>2041</v>
+      </c>
+      <c r="X65" s="12">
+        <v>2042</v>
+      </c>
+      <c r="Y65" s="12">
+        <v>2043</v>
+      </c>
+      <c r="Z65" s="12">
+        <v>2044</v>
+      </c>
+      <c r="AA65" s="12">
+        <v>2045</v>
+      </c>
+      <c r="AB65" s="12">
+        <v>2046</v>
+      </c>
+      <c r="AC65" s="12">
+        <v>2047</v>
+      </c>
+      <c r="AD65" s="12">
+        <v>2048</v>
+      </c>
+      <c r="AE65" s="12">
+        <v>2049</v>
+      </c>
+      <c r="AF65" s="12">
+        <v>2050</v>
+      </c>
+      <c r="AG65" s="12"/>
+      <c r="AH65" s="12"/>
+      <c r="AI65" s="12"/>
+      <c r="AJ65" s="12"/>
+      <c r="AK65" s="12"/>
+      <c r="AL65" s="12"/>
+      <c r="AM65" s="12"/>
+      <c r="AN65" s="12"/>
+      <c r="AO65" s="12"/>
+      <c r="AP65" s="12"/>
+      <c r="AQ65" s="12"/>
+      <c r="AR65" s="12"/>
+      <c r="AS65" s="12"/>
+      <c r="AT65" s="12"/>
+      <c r="AU65" s="12"/>
+      <c r="AV65" s="12"/>
+      <c r="AW65" s="12"/>
+      <c r="AX65" s="12"/>
+      <c r="AY65" s="12"/>
+      <c r="AZ65" s="12"/>
+      <c r="BA65" s="12"/>
+      <c r="BB65" s="12"/>
+      <c r="BC65" s="12"/>
+      <c r="BD65" s="12"/>
+      <c r="BE65" s="12"/>
+      <c r="BF65" s="12"/>
+      <c r="BG65" s="12"/>
+      <c r="BH65" s="12"/>
+      <c r="BI65" s="12"/>
+      <c r="BJ65" s="12"/>
+      <c r="BK65" s="12"/>
+      <c r="BL65" s="12"/>
+    </row>
+    <row r="66" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A66" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B66" s="12">
+        <v>0</v>
+      </c>
+      <c r="C66" s="12">
+        <v>0</v>
+      </c>
+      <c r="D66" s="20">
+        <v>0</v>
+      </c>
+      <c r="E66" s="20">
+        <v>55641300</v>
+      </c>
+      <c r="F66" s="20">
+        <v>55641300</v>
+      </c>
+      <c r="G66" s="20">
+        <v>55641300</v>
+      </c>
+      <c r="H66" s="20">
+        <v>55641300</v>
+      </c>
+      <c r="I66" s="20">
+        <v>55641300</v>
+      </c>
+      <c r="J66" s="20">
+        <v>55641300</v>
+      </c>
+      <c r="K66" s="20">
+        <v>55641300</v>
+      </c>
+      <c r="L66" s="20">
+        <v>55641300</v>
+      </c>
+      <c r="M66" s="20">
+        <v>55641300</v>
+      </c>
+      <c r="N66" s="20">
+        <v>0</v>
+      </c>
+      <c r="O66" s="20">
+        <v>0</v>
+      </c>
+      <c r="P66" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="20">
+        <v>0</v>
+      </c>
+      <c r="R66" s="20">
+        <v>0</v>
+      </c>
+      <c r="S66" s="20">
+        <v>0</v>
+      </c>
+      <c r="T66" s="20">
+        <v>0</v>
+      </c>
+      <c r="U66" s="20">
+        <v>0</v>
+      </c>
+      <c r="V66" s="20">
+        <v>0</v>
+      </c>
+      <c r="W66" s="20">
+        <v>0</v>
+      </c>
+      <c r="X66" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC66" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD66" s="20">
+        <v>0</v>
+      </c>
+      <c r="AE66" s="20">
+        <v>0</v>
+      </c>
+      <c r="AF66" s="20">
+        <v>0</v>
+      </c>
+      <c r="AG66" s="20"/>
+      <c r="AH66" s="20"/>
+      <c r="AI66" s="20"/>
+      <c r="AJ66" s="20"/>
+      <c r="AK66" s="20"/>
+      <c r="AL66" s="20"/>
+      <c r="AM66" s="20"/>
+      <c r="AN66" s="20"/>
+      <c r="AO66" s="20"/>
+      <c r="AP66" s="20"/>
+      <c r="AQ66" s="20"/>
+      <c r="AR66" s="20"/>
+      <c r="AS66" s="20"/>
+      <c r="AT66" s="20"/>
+      <c r="AU66" s="20"/>
+      <c r="AV66" s="20"/>
+      <c r="AW66" s="20"/>
+      <c r="AX66" s="20"/>
+      <c r="AY66" s="20"/>
+      <c r="AZ66" s="20"/>
+      <c r="BA66" s="20"/>
+      <c r="BB66" s="20"/>
+      <c r="BC66" s="20"/>
+      <c r="BD66" s="20"/>
+      <c r="BE66" s="20"/>
+      <c r="BF66" s="20"/>
+      <c r="BG66" s="20"/>
+      <c r="BH66" s="20"/>
+      <c r="BI66" s="20"/>
+      <c r="BJ66" s="20"/>
+      <c r="BK66" s="20"/>
+      <c r="BL66" s="20"/>
+    </row>
+    <row r="67" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A67" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B67" s="12">
+        <v>0</v>
+      </c>
+      <c r="C67" s="12">
+        <v>0</v>
+      </c>
+      <c r="D67" s="20">
+        <v>0</v>
+      </c>
+      <c r="E67" s="20">
+        <v>69289100</v>
+      </c>
+      <c r="F67" s="20">
+        <v>69289100</v>
+      </c>
+      <c r="G67" s="20">
+        <v>69289100</v>
+      </c>
+      <c r="H67" s="20">
+        <v>69289100</v>
+      </c>
+      <c r="I67" s="20">
+        <v>69289100</v>
+      </c>
+      <c r="J67" s="20">
+        <v>69289100</v>
+      </c>
+      <c r="K67" s="20">
+        <v>69289100</v>
+      </c>
+      <c r="L67" s="20">
+        <v>69289100</v>
+      </c>
+      <c r="M67" s="20">
+        <v>69289100</v>
+      </c>
+      <c r="N67" s="20">
+        <v>0</v>
+      </c>
+      <c r="O67" s="20">
+        <v>0</v>
+      </c>
+      <c r="P67" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="20">
+        <v>0</v>
+      </c>
+      <c r="R67" s="20">
+        <v>0</v>
+      </c>
+      <c r="S67" s="20">
+        <v>0</v>
+      </c>
+      <c r="T67" s="20">
+        <v>0</v>
+      </c>
+      <c r="U67" s="20">
+        <v>0</v>
+      </c>
+      <c r="V67" s="20">
+        <v>0</v>
+      </c>
+      <c r="W67" s="20">
+        <v>0</v>
+      </c>
+      <c r="X67" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC67" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD67" s="20">
+        <v>0</v>
+      </c>
+      <c r="AE67" s="20">
+        <v>0</v>
+      </c>
+      <c r="AF67" s="20">
+        <v>0</v>
+      </c>
+      <c r="AG67" s="12"/>
+      <c r="AH67" s="12"/>
+      <c r="AI67" s="12"/>
+      <c r="AJ67" s="12"/>
+      <c r="AK67" s="12"/>
+      <c r="AL67" s="12"/>
+      <c r="AM67" s="12"/>
+      <c r="AN67" s="12"/>
+      <c r="AO67" s="12"/>
+      <c r="AP67" s="12"/>
+      <c r="AQ67" s="12"/>
+      <c r="AR67" s="12"/>
+      <c r="AS67" s="12"/>
+      <c r="AT67" s="12"/>
+      <c r="AU67" s="12"/>
+      <c r="AV67" s="12"/>
+      <c r="AW67" s="12"/>
+      <c r="AX67" s="12"/>
+      <c r="AY67" s="12"/>
+      <c r="AZ67" s="12"/>
+      <c r="BA67" s="12"/>
+      <c r="BB67" s="12"/>
+      <c r="BC67" s="12"/>
+      <c r="BD67" s="12"/>
+      <c r="BE67" s="12"/>
+      <c r="BF67" s="12"/>
+      <c r="BG67" s="12"/>
+      <c r="BH67" s="12"/>
+      <c r="BI67" s="12"/>
+      <c r="BJ67" s="12"/>
+      <c r="BK67" s="12"/>
+      <c r="BL67" s="12"/>
+    </row>
+    <row r="68" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A68" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B68" s="12">
+        <v>0</v>
+      </c>
+      <c r="C68" s="12">
+        <v>0</v>
+      </c>
+      <c r="D68" s="20">
+        <v>0</v>
+      </c>
+      <c r="E68" s="20">
+        <v>6299010</v>
+      </c>
+      <c r="F68" s="20">
+        <v>6299010</v>
+      </c>
+      <c r="G68" s="20">
+        <v>6299010</v>
+      </c>
+      <c r="H68" s="20">
+        <v>6299010</v>
+      </c>
+      <c r="I68" s="20">
+        <v>6299010</v>
+      </c>
+      <c r="J68" s="20">
+        <v>6299010</v>
+      </c>
+      <c r="K68" s="20">
+        <v>6299010</v>
+      </c>
+      <c r="L68" s="20">
+        <v>6299010</v>
+      </c>
+      <c r="M68" s="20">
+        <v>6299010</v>
+      </c>
+      <c r="N68" s="20">
+        <v>0</v>
+      </c>
+      <c r="O68" s="20">
+        <v>0</v>
+      </c>
+      <c r="P68" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="20">
+        <v>0</v>
+      </c>
+      <c r="R68" s="20">
+        <v>0</v>
+      </c>
+      <c r="S68" s="20">
+        <v>0</v>
+      </c>
+      <c r="T68" s="20">
+        <v>0</v>
+      </c>
+      <c r="U68" s="20">
+        <v>0</v>
+      </c>
+      <c r="V68" s="20">
+        <v>0</v>
+      </c>
+      <c r="W68" s="20">
+        <v>0</v>
+      </c>
+      <c r="X68" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="20">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="20">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="20">
+        <v>0</v>
+      </c>
+      <c r="AG68" s="12"/>
+      <c r="AH68" s="12"/>
+      <c r="AI68" s="12"/>
+      <c r="AJ68" s="12"/>
+      <c r="AK68" s="12"/>
+      <c r="AL68" s="12"/>
+      <c r="AM68" s="12"/>
+      <c r="AN68" s="12"/>
+      <c r="AO68" s="12"/>
+      <c r="AP68" s="12"/>
+      <c r="AQ68" s="12"/>
+      <c r="AR68" s="12"/>
+      <c r="AS68" s="12"/>
+      <c r="AT68" s="12"/>
+      <c r="AU68" s="12"/>
+      <c r="AV68" s="12"/>
+      <c r="AW68" s="12"/>
+      <c r="AX68" s="12"/>
+      <c r="AY68" s="12"/>
+      <c r="AZ68" s="12"/>
+      <c r="BA68" s="12"/>
+      <c r="BB68" s="12"/>
+      <c r="BC68" s="12"/>
+      <c r="BD68" s="12"/>
+      <c r="BE68" s="12"/>
+      <c r="BF68" s="12"/>
+      <c r="BG68" s="12"/>
+      <c r="BH68" s="12"/>
+      <c r="BI68" s="12"/>
+      <c r="BJ68" s="12"/>
+      <c r="BK68" s="12"/>
+      <c r="BL68" s="12"/>
+    </row>
+    <row r="69" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A69" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B69" s="12">
+        <v>0</v>
+      </c>
+      <c r="C69" s="12">
+        <v>0</v>
+      </c>
+      <c r="D69" s="12">
+        <v>0</v>
+      </c>
+      <c r="E69" s="12">
+        <v>0</v>
+      </c>
+      <c r="F69" s="12">
+        <v>0</v>
+      </c>
+      <c r="G69" s="12">
+        <v>0</v>
+      </c>
+      <c r="H69" s="12">
+        <v>0</v>
+      </c>
+      <c r="I69" s="12">
+        <v>0</v>
+      </c>
+      <c r="J69" s="12">
+        <v>0</v>
+      </c>
+      <c r="K69" s="12">
+        <v>0</v>
+      </c>
+      <c r="L69" s="12">
+        <v>0</v>
+      </c>
+      <c r="M69" s="12">
+        <v>0</v>
+      </c>
+      <c r="N69" s="12">
+        <v>0</v>
+      </c>
+      <c r="O69" s="12">
+        <v>0</v>
+      </c>
+      <c r="P69" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="12">
+        <v>0</v>
+      </c>
+      <c r="R69" s="12">
+        <v>0</v>
+      </c>
+      <c r="S69" s="12">
+        <v>0</v>
+      </c>
+      <c r="T69" s="12">
+        <v>0</v>
+      </c>
+      <c r="U69" s="12">
+        <v>0</v>
+      </c>
+      <c r="V69" s="12">
+        <v>0</v>
+      </c>
+      <c r="W69" s="12">
+        <v>0</v>
+      </c>
+      <c r="X69" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF69" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG69" s="12"/>
+      <c r="AH69" s="12"/>
+      <c r="AI69" s="12"/>
+      <c r="AJ69" s="12"/>
+      <c r="AK69" s="12"/>
+      <c r="AL69" s="12"/>
+      <c r="AM69" s="12"/>
+      <c r="AN69" s="12"/>
+      <c r="AO69" s="12"/>
+      <c r="AP69" s="12"/>
+      <c r="AQ69" s="12"/>
+      <c r="AR69" s="12"/>
+      <c r="AS69" s="12"/>
+      <c r="AT69" s="12"/>
+      <c r="AU69" s="12"/>
+      <c r="AV69" s="12"/>
+      <c r="AW69" s="12"/>
+      <c r="AX69" s="12"/>
+      <c r="AY69" s="12"/>
+      <c r="AZ69" s="12"/>
+      <c r="BA69" s="12"/>
+      <c r="BB69" s="12"/>
+      <c r="BC69" s="12"/>
+      <c r="BD69" s="12"/>
+      <c r="BE69" s="12"/>
+      <c r="BF69" s="12"/>
+      <c r="BG69" s="12"/>
+      <c r="BH69" s="12"/>
+      <c r="BI69" s="12"/>
+      <c r="BJ69" s="12"/>
+      <c r="BK69" s="12"/>
+      <c r="BL69" s="12"/>
+    </row>
+    <row r="70" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A70" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B70" s="12">
+        <v>0</v>
+      </c>
+      <c r="C70" s="12">
+        <v>0</v>
+      </c>
+      <c r="D70" s="12">
+        <v>0</v>
+      </c>
+      <c r="E70" s="12">
+        <v>0</v>
+      </c>
+      <c r="F70" s="12">
+        <v>0</v>
+      </c>
+      <c r="G70" s="12">
+        <v>0</v>
+      </c>
+      <c r="H70" s="12">
+        <v>0</v>
+      </c>
+      <c r="I70" s="12">
+        <v>0</v>
+      </c>
+      <c r="J70" s="12">
+        <v>0</v>
+      </c>
+      <c r="K70" s="12">
+        <v>0</v>
+      </c>
+      <c r="L70" s="12">
+        <v>0</v>
+      </c>
+      <c r="M70" s="12">
+        <v>0</v>
+      </c>
+      <c r="N70" s="12">
+        <v>0</v>
+      </c>
+      <c r="O70" s="12">
+        <v>0</v>
+      </c>
+      <c r="P70" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="12">
+        <v>0</v>
+      </c>
+      <c r="R70" s="12">
+        <v>0</v>
+      </c>
+      <c r="S70" s="12">
+        <v>0</v>
+      </c>
+      <c r="T70" s="12">
+        <v>0</v>
+      </c>
+      <c r="U70" s="12">
+        <v>0</v>
+      </c>
+      <c r="V70" s="12">
+        <v>0</v>
+      </c>
+      <c r="W70" s="12">
+        <v>0</v>
+      </c>
+      <c r="X70" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF70" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG70" s="12"/>
+      <c r="AH70" s="12"/>
+      <c r="AI70" s="12"/>
+      <c r="AJ70" s="12"/>
+      <c r="AK70" s="12"/>
+      <c r="AL70" s="12"/>
+      <c r="AM70" s="12"/>
+      <c r="AN70" s="12"/>
+      <c r="AO70" s="12"/>
+      <c r="AP70" s="12"/>
+      <c r="AQ70" s="12"/>
+      <c r="AR70" s="12"/>
+      <c r="AS70" s="12"/>
+      <c r="AT70" s="12"/>
+      <c r="AU70" s="12"/>
+      <c r="AV70" s="12"/>
+      <c r="AW70" s="12"/>
+      <c r="AX70" s="12"/>
+      <c r="AY70" s="12"/>
+      <c r="AZ70" s="12"/>
+      <c r="BA70" s="12"/>
+      <c r="BB70" s="12"/>
+      <c r="BC70" s="12"/>
+      <c r="BD70" s="12"/>
+      <c r="BE70" s="12"/>
+      <c r="BF70" s="12"/>
+      <c r="BG70" s="12"/>
+      <c r="BH70" s="12"/>
+      <c r="BI70" s="12"/>
+      <c r="BJ70" s="12"/>
+      <c r="BK70" s="12"/>
+      <c r="BL70" s="12"/>
+    </row>
+    <row r="71" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A71" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B71" s="12">
+        <v>0</v>
+      </c>
+      <c r="C71" s="12">
+        <v>0</v>
+      </c>
+      <c r="D71" s="12">
+        <v>0</v>
+      </c>
+      <c r="E71" s="12">
+        <v>0</v>
+      </c>
+      <c r="F71" s="12">
+        <v>0</v>
+      </c>
+      <c r="G71" s="12">
+        <v>0</v>
+      </c>
+      <c r="H71" s="12">
+        <v>0</v>
+      </c>
+      <c r="I71" s="12">
+        <v>0</v>
+      </c>
+      <c r="J71" s="12">
+        <v>0</v>
+      </c>
+      <c r="K71" s="12">
+        <v>0</v>
+      </c>
+      <c r="L71" s="12">
+        <v>0</v>
+      </c>
+      <c r="M71" s="12">
+        <v>0</v>
+      </c>
+      <c r="N71" s="12">
+        <v>0</v>
+      </c>
+      <c r="O71" s="12">
+        <v>0</v>
+      </c>
+      <c r="P71" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="12">
+        <v>0</v>
+      </c>
+      <c r="R71" s="12">
+        <v>0</v>
+      </c>
+      <c r="S71" s="12">
+        <v>0</v>
+      </c>
+      <c r="T71" s="12">
+        <v>0</v>
+      </c>
+      <c r="U71" s="12">
+        <v>0</v>
+      </c>
+      <c r="V71" s="12">
+        <v>0</v>
+      </c>
+      <c r="W71" s="12">
+        <v>0</v>
+      </c>
+      <c r="X71" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF71" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG71" s="12"/>
+      <c r="AH71" s="12"/>
+      <c r="AI71" s="12"/>
+      <c r="AJ71" s="12"/>
+      <c r="AK71" s="12"/>
+      <c r="AL71" s="12"/>
+      <c r="AM71" s="12"/>
+      <c r="AN71" s="12"/>
+      <c r="AO71" s="12"/>
+      <c r="AP71" s="12"/>
+      <c r="AQ71" s="12"/>
+      <c r="AR71" s="12"/>
+      <c r="AS71" s="12"/>
+      <c r="AT71" s="12"/>
+      <c r="AU71" s="12"/>
+      <c r="AV71" s="12"/>
+      <c r="AW71" s="12"/>
+      <c r="AX71" s="12"/>
+      <c r="AY71" s="12"/>
+      <c r="AZ71" s="12"/>
+      <c r="BA71" s="12"/>
+      <c r="BB71" s="12"/>
+      <c r="BC71" s="12"/>
+      <c r="BD71" s="12"/>
+      <c r="BE71" s="12"/>
+      <c r="BF71" s="12"/>
+      <c r="BG71" s="12"/>
+      <c r="BH71" s="12"/>
+      <c r="BI71" s="12"/>
+      <c r="BJ71" s="12"/>
+      <c r="BK71" s="12"/>
+      <c r="BL71" s="12"/>
+    </row>
+    <row r="72" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A72" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B72" s="12">
+        <v>0</v>
+      </c>
+      <c r="C72" s="12">
+        <v>0</v>
+      </c>
+      <c r="D72" s="12">
+        <v>0</v>
+      </c>
+      <c r="E72" s="12">
+        <v>0</v>
+      </c>
+      <c r="F72" s="12">
+        <v>0</v>
+      </c>
+      <c r="G72" s="12">
+        <v>0</v>
+      </c>
+      <c r="H72" s="12">
+        <v>0</v>
+      </c>
+      <c r="I72" s="12">
+        <v>0</v>
+      </c>
+      <c r="J72" s="12">
+        <v>0</v>
+      </c>
+      <c r="K72" s="12">
+        <v>0</v>
+      </c>
+      <c r="L72" s="12">
+        <v>0</v>
+      </c>
+      <c r="M72" s="12">
+        <v>0</v>
+      </c>
+      <c r="N72" s="12">
+        <v>0</v>
+      </c>
+      <c r="O72" s="12">
+        <v>0</v>
+      </c>
+      <c r="P72" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="12">
+        <v>0</v>
+      </c>
+      <c r="R72" s="12">
+        <v>0</v>
+      </c>
+      <c r="S72" s="12">
+        <v>0</v>
+      </c>
+      <c r="T72" s="12">
+        <v>0</v>
+      </c>
+      <c r="U72" s="12">
+        <v>0</v>
+      </c>
+      <c r="V72" s="12">
+        <v>0</v>
+      </c>
+      <c r="W72" s="12">
+        <v>0</v>
+      </c>
+      <c r="X72" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB72" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC72" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD72" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE72" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF72" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG72" s="12"/>
+      <c r="AH72" s="12"/>
+      <c r="AI72" s="12"/>
+      <c r="AJ72" s="12"/>
+      <c r="AK72" s="12"/>
+      <c r="AL72" s="12"/>
+      <c r="AM72" s="12"/>
+      <c r="AN72" s="12"/>
+      <c r="AO72" s="12"/>
+      <c r="AP72" s="12"/>
+      <c r="AQ72" s="12"/>
+      <c r="AR72" s="12"/>
+      <c r="AS72" s="12"/>
+      <c r="AT72" s="12"/>
+      <c r="AU72" s="12"/>
+      <c r="AV72" s="12"/>
+      <c r="AW72" s="12"/>
+      <c r="AX72" s="12"/>
+      <c r="AY72" s="12"/>
+      <c r="AZ72" s="12"/>
+      <c r="BA72" s="12"/>
+      <c r="BB72" s="12"/>
+      <c r="BC72" s="12"/>
+      <c r="BD72" s="12"/>
+      <c r="BE72" s="12"/>
+      <c r="BF72" s="12"/>
+      <c r="BG72" s="12"/>
+      <c r="BH72" s="12"/>
+      <c r="BI72" s="12"/>
+      <c r="BJ72" s="12"/>
+      <c r="BK72" s="12"/>
+      <c r="BL72" s="12"/>
+    </row>
+    <row r="73" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A73" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B73" s="12">
+        <v>0</v>
+      </c>
+      <c r="C73" s="12">
+        <v>0</v>
+      </c>
+      <c r="D73" s="12">
+        <v>0</v>
+      </c>
+      <c r="E73" s="12">
+        <v>0</v>
+      </c>
+      <c r="F73" s="12">
+        <v>0</v>
+      </c>
+      <c r="G73" s="12">
+        <v>0</v>
+      </c>
+      <c r="H73" s="12">
+        <v>0</v>
+      </c>
+      <c r="I73" s="12">
+        <v>0</v>
+      </c>
+      <c r="J73" s="12">
+        <v>0</v>
+      </c>
+      <c r="K73" s="12">
+        <v>0</v>
+      </c>
+      <c r="L73" s="12">
+        <v>0</v>
+      </c>
+      <c r="M73" s="12">
+        <v>0</v>
+      </c>
+      <c r="N73" s="12">
+        <v>0</v>
+      </c>
+      <c r="O73" s="12">
+        <v>0</v>
+      </c>
+      <c r="P73" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="12">
+        <v>0</v>
+      </c>
+      <c r="R73" s="12">
+        <v>0</v>
+      </c>
+      <c r="S73" s="12">
+        <v>0</v>
+      </c>
+      <c r="T73" s="12">
+        <v>0</v>
+      </c>
+      <c r="U73" s="12">
+        <v>0</v>
+      </c>
+      <c r="V73" s="12">
+        <v>0</v>
+      </c>
+      <c r="W73" s="12">
+        <v>0</v>
+      </c>
+      <c r="X73" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF73" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG73" s="12"/>
+      <c r="AH73" s="12"/>
+      <c r="AI73" s="12"/>
+      <c r="AJ73" s="12"/>
+      <c r="AK73" s="12"/>
+      <c r="AL73" s="12"/>
+      <c r="AM73" s="12"/>
+      <c r="AN73" s="12"/>
+      <c r="AO73" s="12"/>
+      <c r="AP73" s="12"/>
+      <c r="AQ73" s="12"/>
+      <c r="AR73" s="12"/>
+      <c r="AS73" s="12"/>
+      <c r="AT73" s="12"/>
+      <c r="AU73" s="12"/>
+      <c r="AV73" s="12"/>
+      <c r="AW73" s="12"/>
+      <c r="AX73" s="12"/>
+      <c r="AY73" s="12"/>
+      <c r="AZ73" s="12"/>
+      <c r="BA73" s="12"/>
+      <c r="BB73" s="12"/>
+      <c r="BC73" s="12"/>
+      <c r="BD73" s="12"/>
+      <c r="BE73" s="12"/>
+      <c r="BF73" s="12"/>
+      <c r="BG73" s="12"/>
+      <c r="BH73" s="12"/>
+      <c r="BI73" s="12"/>
+      <c r="BJ73" s="12"/>
+      <c r="BK73" s="12"/>
+      <c r="BL73" s="12"/>
+    </row>
+    <row r="74" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A74" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B74" s="12">
+        <v>0</v>
+      </c>
+      <c r="C74" s="12">
+        <v>0</v>
+      </c>
+      <c r="D74" s="12">
+        <v>0</v>
+      </c>
+      <c r="E74" s="12">
+        <v>0</v>
+      </c>
+      <c r="F74" s="12">
+        <v>0</v>
+      </c>
+      <c r="G74" s="12">
+        <v>0</v>
+      </c>
+      <c r="H74" s="12">
+        <v>0</v>
+      </c>
+      <c r="I74" s="12">
+        <v>0</v>
+      </c>
+      <c r="J74" s="12">
+        <v>0</v>
+      </c>
+      <c r="K74" s="12">
+        <v>0</v>
+      </c>
+      <c r="L74" s="12">
+        <v>0</v>
+      </c>
+      <c r="M74" s="12">
+        <v>0</v>
+      </c>
+      <c r="N74" s="12">
+        <v>0</v>
+      </c>
+      <c r="O74" s="12">
+        <v>0</v>
+      </c>
+      <c r="P74" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="12">
+        <v>0</v>
+      </c>
+      <c r="R74" s="12">
+        <v>0</v>
+      </c>
+      <c r="S74" s="12">
+        <v>0</v>
+      </c>
+      <c r="T74" s="12">
+        <v>0</v>
+      </c>
+      <c r="U74" s="12">
+        <v>0</v>
+      </c>
+      <c r="V74" s="12">
+        <v>0</v>
+      </c>
+      <c r="W74" s="12">
+        <v>0</v>
+      </c>
+      <c r="X74" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF74" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG74" s="12"/>
+      <c r="AH74" s="12"/>
+      <c r="AI74" s="12"/>
+      <c r="AJ74" s="12"/>
+      <c r="AK74" s="12"/>
+      <c r="AL74" s="12"/>
+      <c r="AM74" s="12"/>
+      <c r="AN74" s="12"/>
+      <c r="AO74" s="12"/>
+      <c r="AP74" s="12"/>
+      <c r="AQ74" s="12"/>
+      <c r="AR74" s="12"/>
+      <c r="AS74" s="12"/>
+      <c r="AT74" s="12"/>
+      <c r="AU74" s="12"/>
+      <c r="AV74" s="12"/>
+      <c r="AW74" s="12"/>
+      <c r="AX74" s="12"/>
+      <c r="AY74" s="12"/>
+      <c r="AZ74" s="12"/>
+      <c r="BA74" s="12"/>
+      <c r="BB74" s="12"/>
+      <c r="BC74" s="12"/>
+      <c r="BD74" s="12"/>
+      <c r="BE74" s="12"/>
+      <c r="BF74" s="12"/>
+      <c r="BG74" s="12"/>
+      <c r="BH74" s="12"/>
+      <c r="BI74" s="12"/>
+      <c r="BJ74" s="12"/>
+      <c r="BK74" s="12"/>
+      <c r="BL74" s="12"/>
+    </row>
+    <row r="76" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A76" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B76" s="20">
+        <f>B43*B25*10^9</f>
+        <v>1177500000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A77" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B77" s="20">
+        <f>SUM(E66:M68)</f>
+        <v>1181064690</v>
+      </c>
+    </row>
+    <row r="79" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A79" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B79" s="21">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A81" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A82" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B82">
+        <v>2020</v>
+      </c>
+      <c r="C82">
+        <v>2021</v>
+      </c>
+      <c r="D82">
+        <v>2022</v>
+      </c>
+      <c r="E82">
+        <v>2023</v>
+      </c>
+      <c r="F82">
+        <v>2024</v>
+      </c>
+      <c r="G82">
+        <v>2025</v>
+      </c>
+      <c r="H82">
+        <v>2026</v>
+      </c>
+      <c r="I82">
+        <v>2027</v>
+      </c>
+      <c r="J82">
+        <v>2028</v>
+      </c>
+      <c r="K82">
+        <v>2029</v>
+      </c>
+      <c r="L82">
+        <v>2030</v>
+      </c>
+      <c r="M82">
+        <v>2031</v>
+      </c>
+      <c r="N82">
+        <v>2032</v>
+      </c>
+      <c r="O82">
+        <v>2033</v>
+      </c>
+      <c r="P82">
+        <v>2034</v>
+      </c>
+      <c r="Q82">
+        <v>2035</v>
+      </c>
+      <c r="R82">
+        <v>2036</v>
+      </c>
+      <c r="S82">
+        <v>2037</v>
+      </c>
+      <c r="T82">
+        <v>2038</v>
+      </c>
+      <c r="U82">
+        <v>2039</v>
+      </c>
+      <c r="V82">
+        <v>2040</v>
+      </c>
+      <c r="W82">
+        <v>2041</v>
+      </c>
+      <c r="X82">
+        <v>2042</v>
+      </c>
+      <c r="Y82">
+        <v>2043</v>
+      </c>
+      <c r="Z82">
+        <v>2044</v>
+      </c>
+      <c r="AA82">
+        <v>2045</v>
+      </c>
+      <c r="AB82">
+        <v>2046</v>
+      </c>
+      <c r="AC82">
+        <v>2047</v>
+      </c>
+      <c r="AD82">
+        <v>2048</v>
+      </c>
+      <c r="AE82">
+        <v>2049</v>
+      </c>
+      <c r="AF82">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>132</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>-4887040000000</v>
+      </c>
+      <c r="F83" s="3">
+        <v>-9774080000000</v>
+      </c>
+      <c r="G83" s="3">
+        <v>-14661100000000</v>
+      </c>
+      <c r="H83" s="3">
+        <v>-19548200000000</v>
+      </c>
+      <c r="I83" s="3">
+        <v>-24435200000000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>-29322200000000</v>
+      </c>
+      <c r="K83" s="3">
+        <v>-34209300000000</v>
+      </c>
+      <c r="L83" s="3">
+        <v>-39096300000000</v>
+      </c>
+      <c r="M83" s="3">
+        <v>-43983400000000</v>
+      </c>
+      <c r="N83" s="3">
+        <v>-39298600000000</v>
+      </c>
+      <c r="O83" s="3">
+        <v>-34613900000000</v>
+      </c>
+      <c r="P83" s="3">
+        <v>-29929200000000</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>-25244500000000</v>
+      </c>
+      <c r="R83" s="3">
+        <v>-25244500000000</v>
+      </c>
+      <c r="S83" s="3">
+        <v>-25244500000000</v>
+      </c>
+      <c r="T83" s="3">
+        <v>-25244500000000</v>
+      </c>
+      <c r="U83" s="3">
+        <v>-25244500000000</v>
+      </c>
+      <c r="V83" s="3">
+        <v>-25244500000000</v>
+      </c>
+      <c r="W83" s="3">
+        <v>-25244500000000</v>
+      </c>
+      <c r="X83" s="3">
+        <v>-25244500000000</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>-25244500000000</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>-25244500000000</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>-25244500000000</v>
+      </c>
+      <c r="AB83" s="3">
+        <v>-25244500000000</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>-25244500000000</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>-25244500000000</v>
+      </c>
+      <c r="AE83" s="3">
+        <v>-25244500000000</v>
+      </c>
+      <c r="AF83" s="3">
+        <v>-25244500000000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="20"/>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="20"/>
+      <c r="K84" s="20"/>
+      <c r="L84" s="20"/>
+      <c r="M84" s="20"/>
+      <c r="N84" s="20"/>
+      <c r="O84" s="20"/>
+      <c r="P84" s="20"/>
+      <c r="Q84" s="20"/>
+      <c r="R84" s="20"/>
+      <c r="S84" s="20"/>
+      <c r="T84" s="20"/>
+      <c r="U84" s="20"/>
+      <c r="V84" s="20"/>
+      <c r="W84" s="20"/>
+      <c r="X84" s="20"/>
+      <c r="Y84" s="20"/>
+      <c r="Z84" s="20"/>
+      <c r="AA84" s="20"/>
+      <c r="AB84" s="20"/>
+      <c r="AC84" s="20"/>
+      <c r="AD84" s="20"/>
+      <c r="AE84" s="20"/>
+      <c r="AF84" s="20"/>
+    </row>
+    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="D85" s="20"/>
+      <c r="E85" s="20"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="20"/>
+      <c r="K85" s="20"/>
+      <c r="L85" s="20"/>
+      <c r="M85" s="20"/>
+      <c r="N85" s="20"/>
+      <c r="O85" s="20"/>
+      <c r="P85" s="20"/>
+      <c r="Q85" s="20"/>
+      <c r="R85" s="20"/>
+      <c r="S85" s="20"/>
+      <c r="T85" s="20"/>
+      <c r="U85" s="20"/>
+      <c r="V85" s="20"/>
+      <c r="W85" s="20"/>
+      <c r="X85" s="20"/>
+      <c r="Y85" s="20"/>
+      <c r="Z85" s="20"/>
+      <c r="AA85" s="20"/>
+      <c r="AB85" s="20"/>
+      <c r="AC85" s="20"/>
+      <c r="AD85" s="20"/>
+      <c r="AE85" s="20"/>
+      <c r="AF85" s="20"/>
+    </row>
+    <row r="86" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="D86" s="20"/>
+      <c r="E86" s="20"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="20"/>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="20"/>
+      <c r="K86" s="20"/>
+      <c r="L86" s="20"/>
+      <c r="M86" s="20"/>
+      <c r="N86" s="20"/>
+      <c r="O86" s="20"/>
+      <c r="P86" s="20"/>
+      <c r="Q86" s="20"/>
+      <c r="R86" s="20"/>
+      <c r="S86" s="20"/>
+      <c r="T86" s="20"/>
+      <c r="U86" s="20"/>
+      <c r="V86" s="20"/>
+      <c r="W86" s="20"/>
+      <c r="X86" s="20"/>
+      <c r="Y86" s="20"/>
+      <c r="Z86" s="20"/>
+      <c r="AA86" s="20"/>
+      <c r="AB86" s="20"/>
+      <c r="AC86" s="20"/>
+      <c r="AD86" s="20"/>
+      <c r="AE86" s="20"/>
+      <c r="AF86" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AF13"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:AF12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:AF2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7265625" customWidth="1"/>
-    <col min="2" max="17" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -7087,136 +11896,136 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="3">
-        <f>Calcs!B4*10^12</f>
+        <f>Calcs!B4*10^12+'Inflation Reduction Act'!B83</f>
         <v>-812200000000000</v>
       </c>
       <c r="C2" s="3">
-        <f>Calcs!C4*10^12</f>
+        <f>Calcs!C4*10^12+'Inflation Reduction Act'!C83</f>
         <v>-782855483870967.88</v>
       </c>
       <c r="D2" s="3">
-        <f>Calcs!D4*10^12</f>
+        <f>Calcs!D4*10^12+'Inflation Reduction Act'!D83</f>
         <v>-779471250000000.5</v>
       </c>
       <c r="E2" s="3">
-        <f>Calcs!E4*10^12</f>
-        <v>-776087016129032.25</v>
+        <f>Calcs!E4*10^12+'Inflation Reduction Act'!E83</f>
+        <v>-780974056129032.25</v>
       </c>
       <c r="F2" s="3">
-        <f>Calcs!F4*10^12</f>
-        <v>-772702782258064.88</v>
+        <f>Calcs!F4*10^12+'Inflation Reduction Act'!F83</f>
+        <v>-782476862258064.88</v>
       </c>
       <c r="G2" s="3">
-        <f>Calcs!G4*10^12</f>
-        <v>-769318548387097.5</v>
+        <f>Calcs!G4*10^12+'Inflation Reduction Act'!G83</f>
+        <v>-783979648387097.5</v>
       </c>
       <c r="H2" s="3">
-        <f>Calcs!H4*10^12</f>
-        <v>-765934314516129.25</v>
+        <f>Calcs!H4*10^12+'Inflation Reduction Act'!H83</f>
+        <v>-785482514516129.25</v>
       </c>
       <c r="I2" s="3">
-        <f>Calcs!I4*10^12</f>
-        <v>-762550080645161.88</v>
+        <f>Calcs!I4*10^12+'Inflation Reduction Act'!I83</f>
+        <v>-786985280645161.88</v>
       </c>
       <c r="J2" s="3">
-        <f>Calcs!J4*10^12</f>
-        <v>-759165846774193.63</v>
+        <f>Calcs!J4*10^12+'Inflation Reduction Act'!J83</f>
+        <v>-788488046774193.63</v>
       </c>
       <c r="K2" s="3">
-        <f>Calcs!K4*10^12</f>
-        <v>-755781612903226.25</v>
+        <f>Calcs!K4*10^12+'Inflation Reduction Act'!K83</f>
+        <v>-789990912903226.25</v>
       </c>
       <c r="L2" s="3">
-        <f>Calcs!L4*10^12</f>
-        <v>-752397379032258</v>
+        <f>Calcs!L4*10^12+'Inflation Reduction Act'!L83</f>
+        <v>-791493679032258</v>
       </c>
       <c r="M2" s="3">
-        <f>Calcs!M4*10^12</f>
-        <v>-749013145161290.63</v>
+        <f>Calcs!M4*10^12+'Inflation Reduction Act'!M83</f>
+        <v>-792996545161290.63</v>
       </c>
       <c r="N2" s="3">
-        <f>Calcs!N4*10^12</f>
-        <v>-745628911290323.25</v>
+        <f>Calcs!N4*10^12+'Inflation Reduction Act'!N83</f>
+        <v>-784927511290323.25</v>
       </c>
       <c r="O2" s="3">
-        <f>Calcs!O4*10^12</f>
-        <v>-742244677419355</v>
+        <f>Calcs!O4*10^12+'Inflation Reduction Act'!O83</f>
+        <v>-776858577419355</v>
       </c>
       <c r="P2" s="3">
-        <f>Calcs!P4*10^12</f>
-        <v>-738860443548387.63</v>
+        <f>Calcs!P4*10^12+'Inflation Reduction Act'!P83</f>
+        <v>-768789643548387.63</v>
       </c>
       <c r="Q2" s="3">
-        <f>Calcs!Q4*10^12</f>
-        <v>-735476209677419.38</v>
+        <f>Calcs!Q4*10^12+'Inflation Reduction Act'!Q83</f>
+        <v>-760720709677419.38</v>
       </c>
       <c r="R2" s="3">
-        <f>Calcs!R4*10^12</f>
-        <v>-732091975806452</v>
+        <f>Calcs!R4*10^12+'Inflation Reduction Act'!R83</f>
+        <v>-757336475806452</v>
       </c>
       <c r="S2" s="3">
-        <f>Calcs!S4*10^12</f>
-        <v>-728707741935484.63</v>
+        <f>Calcs!S4*10^12+'Inflation Reduction Act'!S83</f>
+        <v>-753952241935484.63</v>
       </c>
       <c r="T2" s="3">
-        <f>Calcs!T4*10^12</f>
-        <v>-725323508064516.38</v>
+        <f>Calcs!T4*10^12+'Inflation Reduction Act'!T83</f>
+        <v>-750568008064516.38</v>
       </c>
       <c r="U2" s="3">
-        <f>Calcs!U4*10^12</f>
-        <v>-721939274193549</v>
+        <f>Calcs!U4*10^12+'Inflation Reduction Act'!U83</f>
+        <v>-747183774193549</v>
       </c>
       <c r="V2" s="3">
-        <f>Calcs!V4*10^12</f>
-        <v>-718555040322580.63</v>
+        <f>Calcs!V4*10^12+'Inflation Reduction Act'!V83</f>
+        <v>-743799540322580.63</v>
       </c>
       <c r="W2" s="3">
-        <f>Calcs!W4*10^12</f>
-        <v>-715170806451613.38</v>
+        <f>Calcs!W4*10^12+'Inflation Reduction Act'!W83</f>
+        <v>-740415306451613.38</v>
       </c>
       <c r="X2" s="3">
-        <f>Calcs!X4*10^12</f>
-        <v>-711786572580645</v>
+        <f>Calcs!X4*10^12+'Inflation Reduction Act'!X83</f>
+        <v>-737031072580645</v>
       </c>
       <c r="Y2" s="3">
-        <f>Calcs!Y4*10^12</f>
-        <v>-708402338709677.63</v>
+        <f>Calcs!Y4*10^12+'Inflation Reduction Act'!Y83</f>
+        <v>-733646838709677.63</v>
       </c>
       <c r="Z2" s="3">
-        <f>Calcs!Z4*10^12</f>
-        <v>-705018104838710.38</v>
+        <f>Calcs!Z4*10^12+'Inflation Reduction Act'!Z83</f>
+        <v>-730262604838710.38</v>
       </c>
       <c r="AA2" s="3">
-        <f>Calcs!AA4*10^12</f>
-        <v>-701633870967742</v>
+        <f>Calcs!AA4*10^12+'Inflation Reduction Act'!AA83</f>
+        <v>-726878370967742</v>
       </c>
       <c r="AB2" s="3">
-        <f>Calcs!AB4*10^12</f>
-        <v>-698249637096774.63</v>
+        <f>Calcs!AB4*10^12+'Inflation Reduction Act'!AB83</f>
+        <v>-723494137096774.63</v>
       </c>
       <c r="AC2" s="3">
-        <f>Calcs!AC4*10^12</f>
-        <v>-694865403225806.38</v>
+        <f>Calcs!AC4*10^12+'Inflation Reduction Act'!AC83</f>
+        <v>-720109903225806.38</v>
       </c>
       <c r="AD2" s="3">
-        <f>Calcs!AD4*10^12</f>
-        <v>-691481169354839</v>
+        <f>Calcs!AD4*10^12+'Inflation Reduction Act'!AD83</f>
+        <v>-716725669354839</v>
       </c>
       <c r="AE2" s="3">
-        <f>Calcs!AE4*10^12</f>
-        <v>-688096935483871.63</v>
+        <f>Calcs!AE4*10^12+'Inflation Reduction Act'!AE83</f>
+        <v>-713341435483871.63</v>
       </c>
       <c r="AF2" s="3">
-        <f>Calcs!AF4*10^12</f>
-        <v>-684712701612903.38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+        <f>Calcs!AF4*10^12+'Inflation Reduction Act'!AF83</f>
+        <v>-709957201612903.38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -7314,7 +12123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -7412,7 +12221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -7510,7 +12319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -7608,7 +12417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -7706,7 +12515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -7804,7 +12613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -7902,7 +12711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -8000,7 +12809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -8129,7 +12938,7 @@
         <v>1353917050691.2454</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -8258,7 +13067,7 @@
         <v>65281497261.107559</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>

--- a/InputData/land/BLAPE/BAU LULUCF Anthro Pollutant Emis.xlsx
+++ b/InputData/land/BLAPE/BAU LULUCF Anthro Pollutant Emis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\land\BLAPE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45043320-7D98-4F01-B7CB-25637269A096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8172489-1178-40D6-9760-E48C5F6A5BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1667,9 +1667,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1707,9 +1707,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1742,26 +1742,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1794,26 +1777,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1989,7 +1955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -7206,8 +7172,8 @@
   </sheetPr>
   <dimension ref="A1:BL86"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+    <sheetView tabSelected="1" topLeftCell="M78" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83:AF83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11597,89 +11563,89 @@
       <c r="D83">
         <v>0</v>
       </c>
-      <c r="E83" s="3">
-        <v>-4887040000000</v>
-      </c>
-      <c r="F83" s="3">
-        <v>-9774080000000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>-14661100000000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>-19548200000000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>-24435200000000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>-29322200000000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>-34209300000000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>-39096300000000</v>
-      </c>
-      <c r="M83" s="3">
-        <v>-43983400000000</v>
-      </c>
-      <c r="N83" s="3">
-        <v>-39298600000000</v>
-      </c>
-      <c r="O83" s="3">
-        <v>-34613900000000</v>
-      </c>
-      <c r="P83" s="3">
-        <v>-29929200000000</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>-25244500000000</v>
-      </c>
-      <c r="R83" s="3">
-        <v>-25244500000000</v>
-      </c>
-      <c r="S83" s="3">
-        <v>-25244500000000</v>
-      </c>
-      <c r="T83" s="3">
-        <v>-25244500000000</v>
-      </c>
-      <c r="U83" s="3">
-        <v>-25244500000000</v>
-      </c>
-      <c r="V83" s="3">
-        <v>-25244500000000</v>
-      </c>
-      <c r="W83" s="3">
-        <v>-25244500000000</v>
-      </c>
-      <c r="X83" s="3">
-        <v>-25244500000000</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>-25244500000000</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>-25244500000000</v>
-      </c>
-      <c r="AA83" s="3">
-        <v>-25244500000000</v>
-      </c>
-      <c r="AB83" s="3">
-        <v>-25244500000000</v>
-      </c>
-      <c r="AC83" s="3">
-        <v>-25244500000000</v>
-      </c>
-      <c r="AD83" s="3">
-        <v>-25244500000000</v>
-      </c>
-      <c r="AE83" s="3">
-        <v>-25244500000000</v>
-      </c>
-      <c r="AF83" s="3">
-        <v>-25244500000000</v>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <v>0</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <v>0</v>
+      </c>
+      <c r="X83">
+        <v>0</v>
+      </c>
+      <c r="Y83">
+        <v>0</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+      <c r="AA83">
+        <v>0</v>
+      </c>
+      <c r="AB83">
+        <v>0</v>
+      </c>
+      <c r="AC83">
+        <v>0</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
+      </c>
+      <c r="AF83">
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.25">
@@ -11914,115 +11880,115 @@
       </c>
       <c r="E2" s="3">
         <f>Calcs!E4*10^12+'Inflation Reduction Act'!E83</f>
-        <v>-780974056129032.25</v>
+        <v>-776087016129032.25</v>
       </c>
       <c r="F2" s="3">
         <f>Calcs!F4*10^12+'Inflation Reduction Act'!F83</f>
-        <v>-782476862258064.88</v>
+        <v>-772702782258064.88</v>
       </c>
       <c r="G2" s="3">
         <f>Calcs!G4*10^12+'Inflation Reduction Act'!G83</f>
-        <v>-783979648387097.5</v>
+        <v>-769318548387097.5</v>
       </c>
       <c r="H2" s="3">
         <f>Calcs!H4*10^12+'Inflation Reduction Act'!H83</f>
-        <v>-785482514516129.25</v>
+        <v>-765934314516129.25</v>
       </c>
       <c r="I2" s="3">
         <f>Calcs!I4*10^12+'Inflation Reduction Act'!I83</f>
-        <v>-786985280645161.88</v>
+        <v>-762550080645161.88</v>
       </c>
       <c r="J2" s="3">
         <f>Calcs!J4*10^12+'Inflation Reduction Act'!J83</f>
-        <v>-788488046774193.63</v>
+        <v>-759165846774193.63</v>
       </c>
       <c r="K2" s="3">
         <f>Calcs!K4*10^12+'Inflation Reduction Act'!K83</f>
-        <v>-789990912903226.25</v>
+        <v>-755781612903226.25</v>
       </c>
       <c r="L2" s="3">
         <f>Calcs!L4*10^12+'Inflation Reduction Act'!L83</f>
-        <v>-791493679032258</v>
+        <v>-752397379032258</v>
       </c>
       <c r="M2" s="3">
         <f>Calcs!M4*10^12+'Inflation Reduction Act'!M83</f>
-        <v>-792996545161290.63</v>
+        <v>-749013145161290.63</v>
       </c>
       <c r="N2" s="3">
         <f>Calcs!N4*10^12+'Inflation Reduction Act'!N83</f>
-        <v>-784927511290323.25</v>
+        <v>-745628911290323.25</v>
       </c>
       <c r="O2" s="3">
         <f>Calcs!O4*10^12+'Inflation Reduction Act'!O83</f>
-        <v>-776858577419355</v>
+        <v>-742244677419355</v>
       </c>
       <c r="P2" s="3">
         <f>Calcs!P4*10^12+'Inflation Reduction Act'!P83</f>
-        <v>-768789643548387.63</v>
+        <v>-738860443548387.63</v>
       </c>
       <c r="Q2" s="3">
         <f>Calcs!Q4*10^12+'Inflation Reduction Act'!Q83</f>
-        <v>-760720709677419.38</v>
+        <v>-735476209677419.38</v>
       </c>
       <c r="R2" s="3">
         <f>Calcs!R4*10^12+'Inflation Reduction Act'!R83</f>
-        <v>-757336475806452</v>
+        <v>-732091975806452</v>
       </c>
       <c r="S2" s="3">
         <f>Calcs!S4*10^12+'Inflation Reduction Act'!S83</f>
-        <v>-753952241935484.63</v>
+        <v>-728707741935484.63</v>
       </c>
       <c r="T2" s="3">
         <f>Calcs!T4*10^12+'Inflation Reduction Act'!T83</f>
-        <v>-750568008064516.38</v>
+        <v>-725323508064516.38</v>
       </c>
       <c r="U2" s="3">
         <f>Calcs!U4*10^12+'Inflation Reduction Act'!U83</f>
-        <v>-747183774193549</v>
+        <v>-721939274193549</v>
       </c>
       <c r="V2" s="3">
         <f>Calcs!V4*10^12+'Inflation Reduction Act'!V83</f>
-        <v>-743799540322580.63</v>
+        <v>-718555040322580.63</v>
       </c>
       <c r="W2" s="3">
         <f>Calcs!W4*10^12+'Inflation Reduction Act'!W83</f>
-        <v>-740415306451613.38</v>
+        <v>-715170806451613.38</v>
       </c>
       <c r="X2" s="3">
         <f>Calcs!X4*10^12+'Inflation Reduction Act'!X83</f>
-        <v>-737031072580645</v>
+        <v>-711786572580645</v>
       </c>
       <c r="Y2" s="3">
         <f>Calcs!Y4*10^12+'Inflation Reduction Act'!Y83</f>
-        <v>-733646838709677.63</v>
+        <v>-708402338709677.63</v>
       </c>
       <c r="Z2" s="3">
         <f>Calcs!Z4*10^12+'Inflation Reduction Act'!Z83</f>
-        <v>-730262604838710.38</v>
+        <v>-705018104838710.38</v>
       </c>
       <c r="AA2" s="3">
         <f>Calcs!AA4*10^12+'Inflation Reduction Act'!AA83</f>
-        <v>-726878370967742</v>
+        <v>-701633870967742</v>
       </c>
       <c r="AB2" s="3">
         <f>Calcs!AB4*10^12+'Inflation Reduction Act'!AB83</f>
-        <v>-723494137096774.63</v>
+        <v>-698249637096774.63</v>
       </c>
       <c r="AC2" s="3">
         <f>Calcs!AC4*10^12+'Inflation Reduction Act'!AC83</f>
-        <v>-720109903225806.38</v>
+        <v>-694865403225806.38</v>
       </c>
       <c r="AD2" s="3">
         <f>Calcs!AD4*10^12+'Inflation Reduction Act'!AD83</f>
-        <v>-716725669354839</v>
+        <v>-691481169354839</v>
       </c>
       <c r="AE2" s="3">
         <f>Calcs!AE4*10^12+'Inflation Reduction Act'!AE83</f>
-        <v>-713341435483871.63</v>
+        <v>-688096935483871.63</v>
       </c>
       <c r="AF2" s="3">
         <f>Calcs!AF4*10^12+'Inflation Reduction Act'!AF83</f>
-        <v>-709957201612903.38</v>
+        <v>-684712701612903.38</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">

--- a/InputData/land/BLAPE/BAU LULUCF Anthro Pollutant Emis.xlsx
+++ b/InputData/land/BLAPE/BAU LULUCF Anthro Pollutant Emis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\land\BLAPE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\land\BLAPE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45043320-7D98-4F01-B7CB-25637269A096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0829E5-BC6F-4DCC-B3B8-0390EF324B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="133">
   <si>
     <t>Source:</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>CO2, not other GHGs.</t>
-  </si>
-  <si>
-    <t>Year</t>
   </si>
   <si>
     <t>Notes</t>
@@ -138,15 +135,6 @@
     <t>US EPA</t>
   </si>
   <si>
-    <t>https://www.epa.gov/sites/production/files/2021-02/documents/us-ghg-inventory-2021-main-text.pdf</t>
-  </si>
-  <si>
-    <t>Draft Inventory of US Greenhouse Gas Emissions Emissions and Sinks</t>
-  </si>
-  <si>
-    <t>Table 6-1, page 6-3 (467)</t>
-  </si>
-  <si>
     <t>Table 6-1:  Emissions and Removals (Net Flux) from Land Use, Land-Use Change, and Forestry (MMT CO2 Eq.)</t>
   </si>
   <si>
@@ -204,9 +192,6 @@
     <t>Non-CO2 Emissions from Peatlands Remaining Peatlands</t>
   </si>
   <si>
-    <t xml:space="preserve">+ </t>
-  </si>
-  <si>
     <t>Changes in Biomass, DOM, and Soil Carbon Stocks in Coastal Wetlands</t>
   </si>
   <si>
@@ -223,9 +208,6 @@
   </si>
   <si>
     <t>Changes in Biomass, DOM, and Soil Carbon Stocks in Land Converted to Coastal Wetlands</t>
-  </si>
-  <si>
-    <t>(+)</t>
   </si>
   <si>
     <t>CH4 Emissions from Land Converted to Coastal Wetlands</t>
@@ -282,22 +264,10 @@
     <t>e Includes the net changes to carbon stocks stored in all forest ecosystem pools.</t>
   </si>
   <si>
-    <t>f Includes changes in mineral and organic soil carbon stocks for all land use conversions to cropland, grassland, and settlements. Also includes aboveground/belowground biomass, dead wood, and litter carbon stock changes for conversion of forest land to cropland, grassland, and settlements.</t>
-  </si>
-  <si>
     <t>g Estimates include CH4 and N2O emissions from fires on both Grassland Remaining Grassland and Land Converted to Grassland.</t>
   </si>
   <si>
     <t>h Estimates include N2O emissions from N fertilizer additions on both Settlements Remaining Settlements and Land Converted to Settlements because it is not possible to separate the activity data at this time.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">i LULUCF emissions include the CH4 and N2O emissions reported for Peatlands Remaining Peatlands, Forest Fires, Drained Organic Soils, Grassland Fires, and Coastal Wetlands Remaining Coastal Wetlands; CH4 emissions from Land Converted to Coastal Wetlands, Flooded Land Remaining Flooded Land, and Land Converted to Flooded Land; and N2O emissions from Forest Soils and Settlement Soils. </t>
-  </si>
-  <si>
-    <t>j LULUCF Carbon Stock Change includes any C stock gains and losses from all land use and land use conversion categories.</t>
-  </si>
-  <si>
-    <t>k The LULUCF Sector Net Total is the net sum of all LULUCF CH4 and N2O emissions to the atmosphere plus net carbon stock changes in units of MMT CO2 Eq.</t>
   </si>
   <si>
     <t>Notes: Totals may not sum due to independent rounding. Parentheses indicate net sequestration.</t>
@@ -464,6 +434,30 @@
   </si>
   <si>
     <t>of the Inflation Reduction Act (see tab for explanation of methodology).</t>
+  </si>
+  <si>
+    <t>f Includes changes in mineral and organic soil carbon stocks for all land-use conversions to cropland, grassland, and settlements. Also includes aboveground/belowground biomass, dead wood, and litter carbon stock changes for conversion of forest land to cropland, grassland, and settlements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i LULUCF emissions include the CH4 and N2O emissions reported for Peatlands Remaining Peatlands, Forest Fires, Drained Organic Soils, Grassland Fires, and Coastal Wetlands Remaining Coastal Wetlands; CH4 emissions from Land Converted to Coastal Wetlands, Flooded Land Remaining Flooded Land, and Land Converted to Flooded Land; and N2O emissions from forest soils and settlement soils. </t>
+  </si>
+  <si>
+    <t>j LULUCF Carbon Stock Change includes any C stock gains and losses from all land use and land-use conversion categories.</t>
+  </si>
+  <si>
+    <t>k The LULUCF Sector Net Total is the net sum of all LULUCF CH4 and N2O emissions to the atmosphere plus LULUCF net carbon stock changes in units of MMT CO2 Eq.</t>
+  </si>
+  <si>
+    <t>Inventory of US Greenhouse Gas Emissions Emissions and Sinks</t>
+  </si>
+  <si>
+    <t>https://www.epa.gov/system/files/documents/2023-04/US-GHG-Inventory-2023-Main-Text.pdf</t>
+  </si>
+  <si>
+    <t>Table 6-1</t>
+  </si>
+  <si>
+    <t>g pollutant</t>
   </si>
 </sst>
 </file>
@@ -796,97 +790,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>-892</c:v>
+                  <c:v>-938.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-900.6</c:v>
+                  <c:v>-944.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-891.2</c:v>
+                  <c:v>-936.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-873</c:v>
+                  <c:v>-917.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-889.6</c:v>
+                  <c:v>-931.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-860.3</c:v>
+                  <c:v>-902.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-883.3</c:v>
+                  <c:v>-923.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-861.5</c:v>
+                  <c:v>-903.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-863.9</c:v>
+                  <c:v>-904.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-860.6</c:v>
+                  <c:v>-900.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-862.6</c:v>
+                  <c:v>-902</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-860.4</c:v>
+                  <c:v>-899.9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-831.2</c:v>
+                  <c:v>-867.1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-857.3</c:v>
+                  <c:v>-891.4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-775.8</c:v>
+                  <c:v>-791.3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-831.1</c:v>
+                  <c:v>-853.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-855.1</c:v>
+                  <c:v>-882.6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-818.7</c:v>
+                  <c:v>-843.1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-802.5</c:v>
+                  <c:v>-824.7</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-772.5</c:v>
+                  <c:v>-787</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-791.4</c:v>
+                  <c:v>-807.4</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-836.3</c:v>
+                  <c:v>-853.8</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-837.7</c:v>
+                  <c:v>-849.4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-804.5</c:v>
+                  <c:v>-813.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-814.4</c:v>
+                  <c:v>-826.9</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-748.9</c:v>
+                  <c:v>-752.2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-862</c:v>
+                  <c:v>-874.2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-826.7</c:v>
+                  <c:v>-842.5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-809</c:v>
+                  <c:v>-829.5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-760.8</c:v>
+                  <c:v>-768.2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-812.2</c:v>
+                  <c:v>-852.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1667,9 +1661,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1707,9 +1701,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1742,26 +1736,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1794,26 +1771,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1989,8 +1949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2001,7 +1961,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2009,32 +1969,32 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="4">
-        <v>2021</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B9">
         <v>28</v>
@@ -2042,7 +2002,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B10">
         <v>265</v>
@@ -2050,22 +2010,22 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2076,10 +2036,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AF15"/>
+  <dimension ref="A1:AG15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="AG14" sqref="AG14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2087,21 +2047,21 @@
     <col min="1" max="1" width="63.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B3" s="6">
         <v>2020</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="6">
         <v>2021</v>
       </c>
       <c r="D3">
@@ -2192,417 +2152,417 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B4" s="6">
         <f>'EPA Table 6-1'!AF42</f>
-        <v>-812.2</v>
-      </c>
-      <c r="C4" cm="1">
-        <f t="array" ref="C4">TREND($B13:$AF13,$B$12:$AF$12,C$3)</f>
-        <v>-782.85548387096787</v>
+        <v>-852.5</v>
+      </c>
+      <c r="C4" s="6">
+        <f>'EPA Table 6-1'!AG42</f>
+        <v>-832</v>
       </c>
       <c r="D4" cm="1">
-        <f t="array" ref="D4">TREND($B13:$AF13,$B$12:$AF$12,D$3)</f>
-        <v>-779.47125000000051</v>
+        <f t="array" ref="D4">TREND($X13:$AG13,$X$12:$AG$12,D$3)</f>
+        <v>-824.86</v>
       </c>
       <c r="E4" cm="1">
-        <f t="array" ref="E4">TREND($B13:$AF13,$B$12:$AF$12,E$3)</f>
-        <v>-776.08701612903224</v>
+        <f t="array" ref="E4">TREND($X13:$AG13,$X$12:$AG$12,E$3)</f>
+        <v>-825</v>
       </c>
       <c r="F4" cm="1">
-        <f t="array" ref="F4">TREND($B13:$AF13,$B$12:$AF$12,F$3)</f>
-        <v>-772.70278225806487</v>
+        <f t="array" ref="F4">TREND($X13:$AG13,$X$12:$AG$12,F$3)</f>
+        <v>-825.14</v>
       </c>
       <c r="G4" cm="1">
-        <f t="array" ref="G4">TREND($B13:$AF13,$B$12:$AF$12,G$3)</f>
-        <v>-769.31854838709751</v>
+        <f t="array" ref="G4">TREND($X13:$AG13,$X$12:$AG$12,G$3)</f>
+        <v>-825.28</v>
       </c>
       <c r="H4" cm="1">
-        <f t="array" ref="H4">TREND($B13:$AF13,$B$12:$AF$12,H$3)</f>
-        <v>-765.93431451612923</v>
+        <f t="array" ref="H4">TREND($X13:$AG13,$X$12:$AG$12,H$3)</f>
+        <v>-825.42000000000007</v>
       </c>
       <c r="I4" cm="1">
-        <f t="array" ref="I4">TREND($B13:$AF13,$B$12:$AF$12,I$3)</f>
-        <v>-762.55008064516187</v>
+        <f t="array" ref="I4">TREND($X13:$AG13,$X$12:$AG$12,I$3)</f>
+        <v>-825.56</v>
       </c>
       <c r="J4" cm="1">
-        <f t="array" ref="J4">TREND($B13:$AF13,$B$12:$AF$12,J$3)</f>
-        <v>-759.1658467741936</v>
+        <f t="array" ref="J4">TREND($X13:$AG13,$X$12:$AG$12,J$3)</f>
+        <v>-825.7</v>
       </c>
       <c r="K4" cm="1">
-        <f t="array" ref="K4">TREND($B13:$AF13,$B$12:$AF$12,K$3)</f>
-        <v>-755.78161290322623</v>
+        <f t="array" ref="K4">TREND($X13:$AG13,$X$12:$AG$12,K$3)</f>
+        <v>-825.84</v>
       </c>
       <c r="L4" cm="1">
-        <f t="array" ref="L4">TREND($B13:$AF13,$B$12:$AF$12,L$3)</f>
-        <v>-752.39737903225796</v>
+        <f t="array" ref="L4">TREND($X13:$AG13,$X$12:$AG$12,L$3)</f>
+        <v>-825.98</v>
       </c>
       <c r="M4" cm="1">
-        <f t="array" ref="M4">TREND($B13:$AF13,$B$12:$AF$12,M$3)</f>
-        <v>-749.01314516129059</v>
+        <f t="array" ref="M4">TREND($X13:$AG13,$X$12:$AG$12,M$3)</f>
+        <v>-826.12</v>
       </c>
       <c r="N4" cm="1">
-        <f t="array" ref="N4">TREND($B13:$AF13,$B$12:$AF$12,N$3)</f>
-        <v>-745.62891129032323</v>
+        <f t="array" ref="N4">TREND($X13:$AG13,$X$12:$AG$12,N$3)</f>
+        <v>-826.26</v>
       </c>
       <c r="O4" cm="1">
-        <f t="array" ref="O4">TREND($B13:$AF13,$B$12:$AF$12,O$3)</f>
-        <v>-742.24467741935496</v>
+        <f t="array" ref="O4">TREND($X13:$AG13,$X$12:$AG$12,O$3)</f>
+        <v>-826.40000000000009</v>
       </c>
       <c r="P4" cm="1">
-        <f t="array" ref="P4">TREND($B13:$AF13,$B$12:$AF$12,P$3)</f>
-        <v>-738.86044354838759</v>
+        <f t="array" ref="P4">TREND($X13:$AG13,$X$12:$AG$12,P$3)</f>
+        <v>-826.54</v>
       </c>
       <c r="Q4" cm="1">
-        <f t="array" ref="Q4">TREND($B13:$AF13,$B$12:$AF$12,Q$3)</f>
-        <v>-735.47620967741932</v>
+        <f t="array" ref="Q4">TREND($X13:$AG13,$X$12:$AG$12,Q$3)</f>
+        <v>-826.68000000000006</v>
       </c>
       <c r="R4" cm="1">
-        <f t="array" ref="R4">TREND($B13:$AF13,$B$12:$AF$12,R$3)</f>
-        <v>-732.09197580645196</v>
+        <f t="array" ref="R4">TREND($X13:$AG13,$X$12:$AG$12,R$3)</f>
+        <v>-826.82</v>
       </c>
       <c r="S4" cm="1">
-        <f t="array" ref="S4">TREND($B13:$AF13,$B$12:$AF$12,S$3)</f>
-        <v>-728.70774193548459</v>
+        <f t="array" ref="S4">TREND($X13:$AG13,$X$12:$AG$12,S$3)</f>
+        <v>-826.96</v>
       </c>
       <c r="T4" cm="1">
-        <f t="array" ref="T4">TREND($B13:$AF13,$B$12:$AF$12,T$3)</f>
-        <v>-725.32350806451632</v>
+        <f t="array" ref="T4">TREND($X13:$AG13,$X$12:$AG$12,T$3)</f>
+        <v>-827.1</v>
       </c>
       <c r="U4" cm="1">
-        <f t="array" ref="U4">TREND($B13:$AF13,$B$12:$AF$12,U$3)</f>
-        <v>-721.93927419354895</v>
+        <f t="array" ref="U4">TREND($X13:$AG13,$X$12:$AG$12,U$3)</f>
+        <v>-827.24</v>
       </c>
       <c r="V4" cm="1">
-        <f t="array" ref="V4">TREND($B13:$AF13,$B$12:$AF$12,V$3)</f>
-        <v>-718.55504032258068</v>
+        <f t="array" ref="V4">TREND($X13:$AG13,$X$12:$AG$12,V$3)</f>
+        <v>-827.38000000000011</v>
       </c>
       <c r="W4" cm="1">
-        <f t="array" ref="W4">TREND($B13:$AF13,$B$12:$AF$12,W$3)</f>
-        <v>-715.17080645161332</v>
+        <f t="array" ref="W4">TREND($X13:$AG13,$X$12:$AG$12,W$3)</f>
+        <v>-827.52</v>
       </c>
       <c r="X4" cm="1">
-        <f t="array" ref="X4">TREND($B13:$AF13,$B$12:$AF$12,X$3)</f>
-        <v>-711.78657258064504</v>
+        <f t="array" ref="X4">TREND($X13:$AG13,$X$12:$AG$12,X$3)</f>
+        <v>-827.66000000000008</v>
       </c>
       <c r="Y4" cm="1">
-        <f t="array" ref="Y4">TREND($B13:$AF13,$B$12:$AF$12,Y$3)</f>
-        <v>-708.40233870967768</v>
+        <f t="array" ref="Y4">TREND($X13:$AG13,$X$12:$AG$12,Y$3)</f>
+        <v>-827.80000000000007</v>
       </c>
       <c r="Z4" cm="1">
-        <f t="array" ref="Z4">TREND($B13:$AF13,$B$12:$AF$12,Z$3)</f>
-        <v>-705.01810483871031</v>
+        <f t="array" ref="Z4">TREND($X13:$AG13,$X$12:$AG$12,Z$3)</f>
+        <v>-827.94</v>
       </c>
       <c r="AA4" cm="1">
-        <f t="array" ref="AA4">TREND($B13:$AF13,$B$12:$AF$12,AA$3)</f>
-        <v>-701.63387096774204</v>
+        <f t="array" ref="AA4">TREND($X13:$AG13,$X$12:$AG$12,AA$3)</f>
+        <v>-828.08</v>
       </c>
       <c r="AB4" cm="1">
-        <f t="array" ref="AB4">TREND($B13:$AF13,$B$12:$AF$12,AB$3)</f>
-        <v>-698.24963709677468</v>
+        <f t="array" ref="AB4">TREND($X13:$AG13,$X$12:$AG$12,AB$3)</f>
+        <v>-828.22</v>
       </c>
       <c r="AC4" cm="1">
-        <f t="array" ref="AC4">TREND($B13:$AF13,$B$12:$AF$12,AC$3)</f>
-        <v>-694.8654032258064</v>
+        <f t="array" ref="AC4">TREND($X13:$AG13,$X$12:$AG$12,AC$3)</f>
+        <v>-828.36000000000013</v>
       </c>
       <c r="AD4" cm="1">
-        <f t="array" ref="AD4">TREND($B13:$AF13,$B$12:$AF$12,AD$3)</f>
-        <v>-691.48116935483904</v>
+        <f t="array" ref="AD4">TREND($X13:$AG13,$X$12:$AG$12,AD$3)</f>
+        <v>-828.5</v>
       </c>
       <c r="AE4" cm="1">
-        <f t="array" ref="AE4">TREND($B13:$AF13,$B$12:$AF$12,AE$3)</f>
-        <v>-688.09693548387168</v>
+        <f t="array" ref="AE4">TREND($X13:$AG13,$X$12:$AG$12,AE$3)</f>
+        <v>-828.6400000000001</v>
       </c>
       <c r="AF4" cm="1">
-        <f t="array" ref="AF4">TREND($B13:$AF13,$B$12:$AF$12,AF$3)</f>
-        <v>-684.7127016129034</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+        <f t="array" ref="AF4">TREND($X13:$AG13,$X$12:$AG$12,AF$3)</f>
+        <v>-828.78000000000009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B5" s="6">
         <f>'EPA Table 6-1'!AF40</f>
-        <v>38.1</v>
-      </c>
-      <c r="C5" cm="1">
-        <f t="array" ref="C5">TREND($B14:$AF14,$B$12:$AF$12,C$3)</f>
-        <v>31.941290322580642</v>
+        <v>65.400000000000006</v>
+      </c>
+      <c r="C5" s="6">
+        <f>'EPA Table 6-1'!AG40</f>
+        <v>66</v>
       </c>
       <c r="D5" cm="1">
-        <f t="array" ref="D5">TREND($B14:$AF14,$B$12:$AF$12,D$3)</f>
-        <v>32.147096774193528</v>
+        <f t="array" ref="D5">TREND($X14:$AG14,$X$12:$AG$12,D$3)</f>
+        <v>63.866666666666788</v>
       </c>
       <c r="E5" cm="1">
-        <f t="array" ref="E5">TREND($B14:$AF14,$B$12:$AF$12,E$3)</f>
-        <v>32.352903225806472</v>
+        <f t="array" ref="E5">TREND($X14:$AG14,$X$12:$AG$12,E$3)</f>
+        <v>64.678787878787944</v>
       </c>
       <c r="F5" cm="1">
-        <f t="array" ref="F5">TREND($B14:$AF14,$B$12:$AF$12,F$3)</f>
-        <v>32.558709677419358</v>
+        <f t="array" ref="F5">TREND($X14:$AG14,$X$12:$AG$12,F$3)</f>
+        <v>65.490909090909099</v>
       </c>
       <c r="G5" cm="1">
-        <f t="array" ref="G5">TREND($B14:$AF14,$B$12:$AF$12,G$3)</f>
-        <v>32.764516129032245</v>
+        <f t="array" ref="G5">TREND($X14:$AG14,$X$12:$AG$12,G$3)</f>
+        <v>66.303030303030255</v>
       </c>
       <c r="H5" cm="1">
-        <f t="array" ref="H5">TREND($B14:$AF14,$B$12:$AF$12,H$3)</f>
-        <v>32.970322580645188</v>
+        <f t="array" ref="H5">TREND($X14:$AG14,$X$12:$AG$12,H$3)</f>
+        <v>67.115151515151638</v>
       </c>
       <c r="I5" cm="1">
-        <f t="array" ref="I5">TREND($B14:$AF14,$B$12:$AF$12,I$3)</f>
-        <v>33.176129032258075</v>
+        <f t="array" ref="I5">TREND($X14:$AG14,$X$12:$AG$12,I$3)</f>
+        <v>67.927272727272793</v>
       </c>
       <c r="J5" cm="1">
-        <f t="array" ref="J5">TREND($B14:$AF14,$B$12:$AF$12,J$3)</f>
-        <v>33.381935483870961</v>
+        <f t="array" ref="J5">TREND($X14:$AG14,$X$12:$AG$12,J$3)</f>
+        <v>68.739393939393949</v>
       </c>
       <c r="K5" cm="1">
-        <f t="array" ref="K5">TREND($B14:$AF14,$B$12:$AF$12,K$3)</f>
-        <v>33.587741935483848</v>
+        <f t="array" ref="K5">TREND($X14:$AG14,$X$12:$AG$12,K$3)</f>
+        <v>69.551515151515105</v>
       </c>
       <c r="L5" cm="1">
-        <f t="array" ref="L5">TREND($B14:$AF14,$B$12:$AF$12,L$3)</f>
-        <v>33.793548387096791</v>
+        <f t="array" ref="L5">TREND($X14:$AG14,$X$12:$AG$12,L$3)</f>
+        <v>70.363636363636488</v>
       </c>
       <c r="M5" cm="1">
-        <f t="array" ref="M5">TREND($B14:$AF14,$B$12:$AF$12,M$3)</f>
-        <v>33.999354838709678</v>
+        <f t="array" ref="M5">TREND($X14:$AG14,$X$12:$AG$12,M$3)</f>
+        <v>71.175757575757643</v>
       </c>
       <c r="N5" cm="1">
-        <f t="array" ref="N5">TREND($B14:$AF14,$B$12:$AF$12,N$3)</f>
-        <v>34.205161290322565</v>
+        <f t="array" ref="N5">TREND($X14:$AG14,$X$12:$AG$12,N$3)</f>
+        <v>71.987878787878799</v>
       </c>
       <c r="O5" cm="1">
-        <f t="array" ref="O5">TREND($B14:$AF14,$B$12:$AF$12,O$3)</f>
-        <v>34.410967741935508</v>
+        <f t="array" ref="O5">TREND($X14:$AG14,$X$12:$AG$12,O$3)</f>
+        <v>72.799999999999955</v>
       </c>
       <c r="P5" cm="1">
-        <f t="array" ref="P5">TREND($B14:$AF14,$B$12:$AF$12,P$3)</f>
-        <v>34.616774193548395</v>
+        <f t="array" ref="P5">TREND($X14:$AG14,$X$12:$AG$12,P$3)</f>
+        <v>73.612121212121338</v>
       </c>
       <c r="Q5" cm="1">
-        <f t="array" ref="Q5">TREND($B14:$AF14,$B$12:$AF$12,Q$3)</f>
-        <v>34.822580645161281</v>
+        <f t="array" ref="Q5">TREND($X14:$AG14,$X$12:$AG$12,Q$3)</f>
+        <v>74.424242424242493</v>
       </c>
       <c r="R5" cm="1">
-        <f t="array" ref="R5">TREND($B14:$AF14,$B$12:$AF$12,R$3)</f>
-        <v>35.028387096774168</v>
+        <f t="array" ref="R5">TREND($X14:$AG14,$X$12:$AG$12,R$3)</f>
+        <v>75.236363636363649</v>
       </c>
       <c r="S5" cm="1">
-        <f t="array" ref="S5">TREND($B14:$AF14,$B$12:$AF$12,S$3)</f>
-        <v>35.234193548387111</v>
+        <f t="array" ref="S5">TREND($X14:$AG14,$X$12:$AG$12,S$3)</f>
+        <v>76.048484848484804</v>
       </c>
       <c r="T5" cm="1">
-        <f t="array" ref="T5">TREND($B14:$AF14,$B$12:$AF$12,T$3)</f>
-        <v>35.44</v>
+        <f t="array" ref="T5">TREND($X14:$AG14,$X$12:$AG$12,T$3)</f>
+        <v>76.860606060606187</v>
       </c>
       <c r="U5" cm="1">
-        <f t="array" ref="U5">TREND($B14:$AF14,$B$12:$AF$12,U$3)</f>
-        <v>35.645806451612884</v>
+        <f t="array" ref="U5">TREND($X14:$AG14,$X$12:$AG$12,U$3)</f>
+        <v>77.672727272727343</v>
       </c>
       <c r="V5" cm="1">
-        <f t="array" ref="V5">TREND($B14:$AF14,$B$12:$AF$12,V$3)</f>
-        <v>35.851612903225828</v>
+        <f t="array" ref="V5">TREND($X14:$AG14,$X$12:$AG$12,V$3)</f>
+        <v>78.484848484848499</v>
       </c>
       <c r="W5" cm="1">
-        <f t="array" ref="W5">TREND($B14:$AF14,$B$12:$AF$12,W$3)</f>
-        <v>36.057419354838714</v>
+        <f t="array" ref="W5">TREND($X14:$AG14,$X$12:$AG$12,W$3)</f>
+        <v>79.296969696969654</v>
       </c>
       <c r="X5" cm="1">
-        <f t="array" ref="X5">TREND($B14:$AF14,$B$12:$AF$12,X$3)</f>
-        <v>36.263225806451601</v>
+        <f t="array" ref="X5">TREND($X14:$AG14,$X$12:$AG$12,X$3)</f>
+        <v>80.109090909091037</v>
       </c>
       <c r="Y5" cm="1">
-        <f t="array" ref="Y5">TREND($B14:$AF14,$B$12:$AF$12,Y$3)</f>
-        <v>36.469032258064544</v>
+        <f t="array" ref="Y5">TREND($X14:$AG14,$X$12:$AG$12,Y$3)</f>
+        <v>80.921212121212193</v>
       </c>
       <c r="Z5" cm="1">
-        <f t="array" ref="Z5">TREND($B14:$AF14,$B$12:$AF$12,Z$3)</f>
-        <v>36.674838709677431</v>
+        <f t="array" ref="Z5">TREND($X14:$AG14,$X$12:$AG$12,Z$3)</f>
+        <v>81.733333333333348</v>
       </c>
       <c r="AA5" cm="1">
-        <f t="array" ref="AA5">TREND($B14:$AF14,$B$12:$AF$12,AA$3)</f>
-        <v>36.880645161290317</v>
+        <f t="array" ref="AA5">TREND($X14:$AG14,$X$12:$AG$12,AA$3)</f>
+        <v>82.545454545454504</v>
       </c>
       <c r="AB5" cm="1">
-        <f t="array" ref="AB5">TREND($B14:$AF14,$B$12:$AF$12,AB$3)</f>
-        <v>37.086451612903204</v>
+        <f t="array" ref="AB5">TREND($X14:$AG14,$X$12:$AG$12,AB$3)</f>
+        <v>83.357575757575887</v>
       </c>
       <c r="AC5" cm="1">
-        <f t="array" ref="AC5">TREND($B14:$AF14,$B$12:$AF$12,AC$3)</f>
-        <v>37.292258064516147</v>
+        <f t="array" ref="AC5">TREND($X14:$AG14,$X$12:$AG$12,AC$3)</f>
+        <v>84.169696969697043</v>
       </c>
       <c r="AD5" cm="1">
-        <f t="array" ref="AD5">TREND($B14:$AF14,$B$12:$AF$12,AD$3)</f>
-        <v>37.498064516129034</v>
+        <f t="array" ref="AD5">TREND($X14:$AG14,$X$12:$AG$12,AD$3)</f>
+        <v>84.981818181818198</v>
       </c>
       <c r="AE5" cm="1">
-        <f t="array" ref="AE5">TREND($B14:$AF14,$B$12:$AF$12,AE$3)</f>
-        <v>37.703870967741921</v>
+        <f t="array" ref="AE5">TREND($X14:$AG14,$X$12:$AG$12,AE$3)</f>
+        <v>85.793939393939354</v>
       </c>
       <c r="AF5" cm="1">
-        <f t="array" ref="AF5">TREND($B14:$AF14,$B$12:$AF$12,AF$3)</f>
-        <v>37.909677419354864</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+        <f t="array" ref="AF5">TREND($X14:$AG14,$X$12:$AG$12,AF$3)</f>
+        <v>86.60606060606051</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B6" s="6">
         <f>'EPA Table 6-1'!AF41</f>
-        <v>15.2</v>
-      </c>
-      <c r="C6" cm="1">
-        <f t="array" ref="C6">TREND($B15:$AF15,$B$12:$AF$12,C$3)</f>
-        <v>10.884516129032193</v>
+        <v>11</v>
+      </c>
+      <c r="C6" s="6">
+        <f>'EPA Table 6-1'!AG41</f>
+        <v>11.8</v>
       </c>
       <c r="D6" cm="1">
-        <f t="array" ref="D6">TREND($B15:$AF15,$B$12:$AF$12,D$3)</f>
-        <v>11.105725806451574</v>
+        <f t="array" ref="D6">TREND($X15:$AG15,$X$12:$AG$12,D$3)</f>
+        <v>10.546666666666624</v>
       </c>
       <c r="E6" cm="1">
-        <f t="array" ref="E6">TREND($B15:$AF15,$B$12:$AF$12,E$3)</f>
-        <v>11.326935483870955</v>
+        <f t="array" ref="E6">TREND($X15:$AG15,$X$12:$AG$12,E$3)</f>
+        <v>10.964242424242343</v>
       </c>
       <c r="F6" cm="1">
-        <f t="array" ref="F6">TREND($B15:$AF15,$B$12:$AF$12,F$3)</f>
-        <v>11.548145161290279</v>
+        <f t="array" ref="F6">TREND($X15:$AG15,$X$12:$AG$12,F$3)</f>
+        <v>11.381818181818176</v>
       </c>
       <c r="G6" cm="1">
-        <f t="array" ref="G6">TREND($B15:$AF15,$B$12:$AF$12,G$3)</f>
-        <v>11.76935483870966</v>
+        <f t="array" ref="G6">TREND($X15:$AG15,$X$12:$AG$12,G$3)</f>
+        <v>11.799393939393894</v>
       </c>
       <c r="H6" cm="1">
-        <f t="array" ref="H6">TREND($B15:$AF15,$B$12:$AF$12,H$3)</f>
-        <v>11.990564516128984</v>
+        <f t="array" ref="H6">TREND($X15:$AG15,$X$12:$AG$12,H$3)</f>
+        <v>12.216969696969613</v>
       </c>
       <c r="I6" cm="1">
-        <f t="array" ref="I6">TREND($B15:$AF15,$B$12:$AF$12,I$3)</f>
-        <v>12.211774193548365</v>
+        <f t="array" ref="I6">TREND($X15:$AG15,$X$12:$AG$12,I$3)</f>
+        <v>12.634545454545446</v>
       </c>
       <c r="J6" cm="1">
-        <f t="array" ref="J6">TREND($B15:$AF15,$B$12:$AF$12,J$3)</f>
-        <v>12.432983870967689</v>
+        <f t="array" ref="J6">TREND($X15:$AG15,$X$12:$AG$12,J$3)</f>
+        <v>13.052121212121165</v>
       </c>
       <c r="K6" cm="1">
-        <f t="array" ref="K6">TREND($B15:$AF15,$B$12:$AF$12,K$3)</f>
-        <v>12.65419354838707</v>
+        <f t="array" ref="K6">TREND($X15:$AG15,$X$12:$AG$12,K$3)</f>
+        <v>13.469696969696997</v>
       </c>
       <c r="L6" cm="1">
-        <f t="array" ref="L6">TREND($B15:$AF15,$B$12:$AF$12,L$3)</f>
-        <v>12.875403225806394</v>
+        <f t="array" ref="L6">TREND($X15:$AG15,$X$12:$AG$12,L$3)</f>
+        <v>13.887272727272716</v>
       </c>
       <c r="M6" cm="1">
-        <f t="array" ref="M6">TREND($B15:$AF15,$B$12:$AF$12,M$3)</f>
-        <v>13.096612903225775</v>
+        <f t="array" ref="M6">TREND($X15:$AG15,$X$12:$AG$12,M$3)</f>
+        <v>14.304848484848435</v>
       </c>
       <c r="N6" cm="1">
-        <f t="array" ref="N6">TREND($B15:$AF15,$B$12:$AF$12,N$3)</f>
-        <v>13.3178225806451</v>
+        <f t="array" ref="N6">TREND($X15:$AG15,$X$12:$AG$12,N$3)</f>
+        <v>14.722424242424268</v>
       </c>
       <c r="O6" cm="1">
-        <f t="array" ref="O6">TREND($B15:$AF15,$B$12:$AF$12,O$3)</f>
-        <v>13.539032258064481</v>
+        <f t="array" ref="O6">TREND($X15:$AG15,$X$12:$AG$12,O$3)</f>
+        <v>15.139999999999986</v>
       </c>
       <c r="P6" cm="1">
-        <f t="array" ref="P6">TREND($B15:$AF15,$B$12:$AF$12,P$3)</f>
-        <v>13.760241935483805</v>
+        <f t="array" ref="P6">TREND($X15:$AG15,$X$12:$AG$12,P$3)</f>
+        <v>15.557575757575705</v>
       </c>
       <c r="Q6" cm="1">
-        <f t="array" ref="Q6">TREND($B15:$AF15,$B$12:$AF$12,Q$3)</f>
-        <v>13.981451612903186</v>
+        <f t="array" ref="Q6">TREND($X15:$AG15,$X$12:$AG$12,Q$3)</f>
+        <v>15.975151515151538</v>
       </c>
       <c r="R6" cm="1">
-        <f t="array" ref="R6">TREND($B15:$AF15,$B$12:$AF$12,R$3)</f>
-        <v>14.202661290322567</v>
+        <f t="array" ref="R6">TREND($X15:$AG15,$X$12:$AG$12,R$3)</f>
+        <v>16.392727272727257</v>
       </c>
       <c r="S6" cm="1">
-        <f t="array" ref="S6">TREND($B15:$AF15,$B$12:$AF$12,S$3)</f>
-        <v>14.423870967741891</v>
+        <f t="array" ref="S6">TREND($X15:$AG15,$X$12:$AG$12,S$3)</f>
+        <v>16.810303030302975</v>
       </c>
       <c r="T6" cm="1">
-        <f t="array" ref="T6">TREND($B15:$AF15,$B$12:$AF$12,T$3)</f>
-        <v>14.645080645161272</v>
+        <f t="array" ref="T6">TREND($X15:$AG15,$X$12:$AG$12,T$3)</f>
+        <v>17.227878787878808</v>
       </c>
       <c r="U6" cm="1">
-        <f t="array" ref="U6">TREND($B15:$AF15,$B$12:$AF$12,U$3)</f>
-        <v>14.866290322580596</v>
+        <f t="array" ref="U6">TREND($X15:$AG15,$X$12:$AG$12,U$3)</f>
+        <v>17.645454545454527</v>
       </c>
       <c r="V6" cm="1">
-        <f t="array" ref="V6">TREND($B15:$AF15,$B$12:$AF$12,V$3)</f>
-        <v>15.087499999999977</v>
+        <f t="array" ref="V6">TREND($X15:$AG15,$X$12:$AG$12,V$3)</f>
+        <v>18.063030303030246</v>
       </c>
       <c r="W6" cm="1">
-        <f t="array" ref="W6">TREND($B15:$AF15,$B$12:$AF$12,W$3)</f>
-        <v>15.308709677419301</v>
+        <f t="array" ref="W6">TREND($X15:$AG15,$X$12:$AG$12,W$3)</f>
+        <v>18.480606060606078</v>
       </c>
       <c r="X6" cm="1">
-        <f t="array" ref="X6">TREND($B15:$AF15,$B$12:$AF$12,X$3)</f>
-        <v>15.529919354838682</v>
+        <f t="array" ref="X6">TREND($X15:$AG15,$X$12:$AG$12,X$3)</f>
+        <v>18.898181818181797</v>
       </c>
       <c r="Y6" cm="1">
-        <f t="array" ref="Y6">TREND($B15:$AF15,$B$12:$AF$12,Y$3)</f>
-        <v>15.751129032258007</v>
+        <f t="array" ref="Y6">TREND($X15:$AG15,$X$12:$AG$12,Y$3)</f>
+        <v>19.315757575757516</v>
       </c>
       <c r="Z6" cm="1">
-        <f t="array" ref="Z6">TREND($B15:$AF15,$B$12:$AF$12,Z$3)</f>
-        <v>15.972338709677388</v>
+        <f t="array" ref="Z6">TREND($X15:$AG15,$X$12:$AG$12,Z$3)</f>
+        <v>19.733333333333348</v>
       </c>
       <c r="AA6" cm="1">
-        <f t="array" ref="AA6">TREND($B15:$AF15,$B$12:$AF$12,AA$3)</f>
-        <v>16.193548387096712</v>
+        <f t="array" ref="AA6">TREND($X15:$AG15,$X$12:$AG$12,AA$3)</f>
+        <v>20.150909090909067</v>
       </c>
       <c r="AB6" cm="1">
-        <f t="array" ref="AB6">TREND($B15:$AF15,$B$12:$AF$12,AB$3)</f>
-        <v>16.414758064516093</v>
+        <f t="array" ref="AB6">TREND($X15:$AG15,$X$12:$AG$12,AB$3)</f>
+        <v>20.568484848484786</v>
       </c>
       <c r="AC6" cm="1">
-        <f t="array" ref="AC6">TREND($B15:$AF15,$B$12:$AF$12,AC$3)</f>
-        <v>16.635967741935417</v>
+        <f t="array" ref="AC6">TREND($X15:$AG15,$X$12:$AG$12,AC$3)</f>
+        <v>20.986060606060619</v>
       </c>
       <c r="AD6" cm="1">
-        <f t="array" ref="AD6">TREND($B15:$AF15,$B$12:$AF$12,AD$3)</f>
-        <v>16.857177419354798</v>
+        <f t="array" ref="AD6">TREND($X15:$AG15,$X$12:$AG$12,AD$3)</f>
+        <v>21.403636363636338</v>
       </c>
       <c r="AE6" cm="1">
-        <f t="array" ref="AE6">TREND($B15:$AF15,$B$12:$AF$12,AE$3)</f>
-        <v>17.078387096774179</v>
+        <f t="array" ref="AE6">TREND($X15:$AG15,$X$12:$AG$12,AE$3)</f>
+        <v>21.821212121212056</v>
       </c>
       <c r="AF6" cm="1">
-        <f t="array" ref="AF6">TREND($B15:$AF15,$B$12:$AF$12,AF$3)</f>
-        <v>17.299596774193503</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+        <f t="array" ref="AF6">TREND($X15:$AG15,$X$12:$AG$12,AF$3)</f>
+        <v>22.238787878787889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="AF11" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG11" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <v>1990</v>
@@ -2694,275 +2654,286 @@
       <c r="AE12">
         <v>2019</v>
       </c>
-      <c r="AF12" s="6">
+      <c r="AF12">
         <v>2020</v>
       </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG12" s="6">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <f>'EPA Table 6-1'!B42</f>
-        <v>-892</v>
+        <v>-938.9</v>
       </c>
       <c r="C13">
         <f>'EPA Table 6-1'!C42</f>
-        <v>-900.6</v>
+        <v>-944.4</v>
       </c>
       <c r="D13">
         <f>'EPA Table 6-1'!D42</f>
-        <v>-891.2</v>
+        <v>-936.8</v>
       </c>
       <c r="E13">
         <f>'EPA Table 6-1'!E42</f>
-        <v>-873</v>
+        <v>-917.6</v>
       </c>
       <c r="F13">
         <f>'EPA Table 6-1'!F42</f>
-        <v>-889.6</v>
+        <v>-931.8</v>
       </c>
       <c r="G13">
         <f>'EPA Table 6-1'!G42</f>
-        <v>-860.3</v>
+        <v>-902.8</v>
       </c>
       <c r="H13">
         <f>'EPA Table 6-1'!H42</f>
-        <v>-883.3</v>
+        <v>-923.5</v>
       </c>
       <c r="I13">
         <f>'EPA Table 6-1'!I42</f>
-        <v>-861.5</v>
+        <v>-903.4</v>
       </c>
       <c r="J13">
         <f>'EPA Table 6-1'!J42</f>
-        <v>-863.9</v>
+        <v>-904.8</v>
       </c>
       <c r="K13">
         <f>'EPA Table 6-1'!K42</f>
-        <v>-860.6</v>
+        <v>-900.5</v>
       </c>
       <c r="L13">
         <f>'EPA Table 6-1'!L42</f>
-        <v>-862.6</v>
+        <v>-902</v>
       </c>
       <c r="M13">
         <f>'EPA Table 6-1'!M42</f>
-        <v>-860.4</v>
+        <v>-899.9</v>
       </c>
       <c r="N13">
         <f>'EPA Table 6-1'!N42</f>
-        <v>-831.2</v>
+        <v>-867.1</v>
       </c>
       <c r="O13">
         <f>'EPA Table 6-1'!O42</f>
-        <v>-857.3</v>
+        <v>-891.4</v>
       </c>
       <c r="P13">
         <f>'EPA Table 6-1'!P42</f>
-        <v>-775.8</v>
+        <v>-791.3</v>
       </c>
       <c r="Q13">
         <f>'EPA Table 6-1'!Q42</f>
-        <v>-831.1</v>
+        <v>-853.5</v>
       </c>
       <c r="R13">
         <f>'EPA Table 6-1'!R42</f>
-        <v>-855.1</v>
+        <v>-882.6</v>
       </c>
       <c r="S13">
         <f>'EPA Table 6-1'!S42</f>
-        <v>-818.7</v>
+        <v>-843.1</v>
       </c>
       <c r="T13">
         <f>'EPA Table 6-1'!T42</f>
-        <v>-802.5</v>
+        <v>-824.7</v>
       </c>
       <c r="U13">
         <f>'EPA Table 6-1'!U42</f>
-        <v>-772.5</v>
+        <v>-787</v>
       </c>
       <c r="V13">
         <f>'EPA Table 6-1'!V42</f>
-        <v>-791.4</v>
+        <v>-807.4</v>
       </c>
       <c r="W13">
         <f>'EPA Table 6-1'!W42</f>
-        <v>-836.3</v>
+        <v>-853.8</v>
       </c>
       <c r="X13">
         <f>'EPA Table 6-1'!X42</f>
-        <v>-837.7</v>
+        <v>-849.4</v>
       </c>
       <c r="Y13">
         <f>'EPA Table 6-1'!Y42</f>
-        <v>-804.5</v>
+        <v>-813.5</v>
       </c>
       <c r="Z13">
         <f>'EPA Table 6-1'!Z42</f>
-        <v>-814.4</v>
+        <v>-826.9</v>
       </c>
       <c r="AA13">
         <f>'EPA Table 6-1'!AA42</f>
-        <v>-748.9</v>
+        <v>-752.2</v>
       </c>
       <c r="AB13">
         <f>'EPA Table 6-1'!AB42</f>
-        <v>-862</v>
+        <v>-874.2</v>
       </c>
       <c r="AC13">
         <f>'EPA Table 6-1'!AC42</f>
-        <v>-826.7</v>
+        <v>-842.5</v>
       </c>
       <c r="AD13">
         <f>'EPA Table 6-1'!AD42</f>
-        <v>-809</v>
+        <v>-829.5</v>
       </c>
       <c r="AE13">
         <f>'EPA Table 6-1'!AE42</f>
-        <v>-760.8</v>
+        <v>-768.2</v>
       </c>
       <c r="AF13">
         <f>'EPA Table 6-1'!AF42</f>
-        <v>-812.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+        <v>-852.5</v>
+      </c>
+      <c r="AG13">
+        <f>'EPA Table 6-1'!AG42</f>
+        <v>-832</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <f>'EPA Table 6-1'!B40</f>
-        <v>27.2</v>
+        <v>53.5</v>
       </c>
       <c r="C14">
         <f>'EPA Table 6-1'!C40</f>
-        <v>26.5</v>
+        <v>53</v>
       </c>
       <c r="D14">
         <f>'EPA Table 6-1'!D40</f>
-        <v>25.4</v>
+        <v>51.2</v>
       </c>
       <c r="E14">
         <f>'EPA Table 6-1'!E40</f>
-        <v>25.3</v>
+        <v>51.2</v>
       </c>
       <c r="F14">
         <f>'EPA Table 6-1'!F40</f>
-        <v>26.8</v>
+        <v>53.6</v>
       </c>
       <c r="G14">
         <f>'EPA Table 6-1'!G40</f>
-        <v>25</v>
+        <v>50.8</v>
       </c>
       <c r="H14">
         <f>'EPA Table 6-1'!H40</f>
-        <v>26.2</v>
+        <v>52.6</v>
       </c>
       <c r="I14">
         <f>'EPA Table 6-1'!I40</f>
-        <v>24.7</v>
+        <v>50.5</v>
       </c>
       <c r="J14">
         <f>'EPA Table 6-1'!J40</f>
-        <v>25.1</v>
+        <v>51.4</v>
       </c>
       <c r="K14">
         <f>'EPA Table 6-1'!K40</f>
-        <v>27</v>
+        <v>54.1</v>
       </c>
       <c r="L14">
         <f>'EPA Table 6-1'!L40</f>
-        <v>29.4</v>
+        <v>58.2</v>
       </c>
       <c r="M14">
         <f>'EPA Table 6-1'!M40</f>
-        <v>26.2</v>
+        <v>52.7</v>
       </c>
       <c r="N14">
         <f>'EPA Table 6-1'!N40</f>
-        <v>31.2</v>
+        <v>60.9</v>
       </c>
       <c r="O14">
         <f>'EPA Table 6-1'!O40</f>
-        <v>28.9</v>
+        <v>56.6</v>
       </c>
       <c r="P14">
         <f>'EPA Table 6-1'!P40</f>
-        <v>33.200000000000003</v>
+        <v>66.8</v>
       </c>
       <c r="Q14">
         <f>'EPA Table 6-1'!Q40</f>
-        <v>30.9</v>
+        <v>61.3</v>
       </c>
       <c r="R14">
         <f>'EPA Table 6-1'!R40</f>
-        <v>29</v>
+        <v>56.5</v>
       </c>
       <c r="S14">
         <f>'EPA Table 6-1'!S40</f>
-        <v>31.6</v>
+        <v>59.6</v>
       </c>
       <c r="T14">
         <f>'EPA Table 6-1'!T40</f>
-        <v>28</v>
+        <v>54.8</v>
       </c>
       <c r="U14">
         <f>'EPA Table 6-1'!U40</f>
-        <v>29.1</v>
+        <v>57.9</v>
       </c>
       <c r="V14">
         <f>'EPA Table 6-1'!V40</f>
-        <v>25.4</v>
+        <v>52.2</v>
       </c>
       <c r="W14">
         <f>'EPA Table 6-1'!W40</f>
-        <v>27.9</v>
+        <v>55.7</v>
       </c>
       <c r="X14">
         <f>'EPA Table 6-1'!X40</f>
-        <v>29.3</v>
+        <v>57</v>
       </c>
       <c r="Y14">
         <f>'EPA Table 6-1'!Y40</f>
-        <v>29.3</v>
+        <v>57.2</v>
       </c>
       <c r="Z14">
         <f>'EPA Table 6-1'!Z40</f>
-        <v>26.9</v>
+        <v>53.2</v>
       </c>
       <c r="AA14">
         <f>'EPA Table 6-1'!AA40</f>
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="AB14">
         <f>'EPA Table 6-1'!AB40</f>
-        <v>28.3</v>
+        <v>53.9</v>
       </c>
       <c r="AC14">
         <f>'EPA Table 6-1'!AC40</f>
-        <v>34</v>
+        <v>60.1</v>
       </c>
       <c r="AD14">
         <f>'EPA Table 6-1'!AD40</f>
-        <v>30.7</v>
+        <v>57.3</v>
       </c>
       <c r="AE14">
         <f>'EPA Table 6-1'!AE40</f>
-        <v>25.5</v>
+        <v>56.9</v>
       </c>
       <c r="AF14">
         <f>'EPA Table 6-1'!AF40</f>
-        <v>38.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="AG14">
+        <f>'EPA Table 6-1'!AG40</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <f>'EPA Table 6-1'!B41</f>
-        <v>4.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C15">
         <f>'EPA Table 6-1'!C41</f>
@@ -2970,35 +2941,35 @@
       </c>
       <c r="D15">
         <f>'EPA Table 6-1'!D41</f>
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="E15">
         <f>'EPA Table 6-1'!E41</f>
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="F15">
         <f>'EPA Table 6-1'!F41</f>
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="G15">
         <f>'EPA Table 6-1'!G41</f>
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="H15">
         <f>'EPA Table 6-1'!H41</f>
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I15">
         <f>'EPA Table 6-1'!I41</f>
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="J15">
         <f>'EPA Table 6-1'!J41</f>
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K15">
         <f>'EPA Table 6-1'!K41</f>
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L15">
         <f>'EPA Table 6-1'!L41</f>
@@ -3006,83 +2977,87 @@
       </c>
       <c r="M15">
         <f>'EPA Table 6-1'!M41</f>
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="N15">
         <f>'EPA Table 6-1'!N41</f>
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="O15">
         <f>'EPA Table 6-1'!O41</f>
-        <v>7.6</v>
+        <v>6.7</v>
       </c>
       <c r="P15">
         <f>'EPA Table 6-1'!P41</f>
-        <v>13.2</v>
+        <v>14.9</v>
       </c>
       <c r="Q15">
         <f>'EPA Table 6-1'!Q41</f>
-        <v>10.5</v>
+        <v>11.1</v>
       </c>
       <c r="R15">
         <f>'EPA Table 6-1'!R41</f>
-        <v>8.8000000000000007</v>
+        <v>7.7</v>
       </c>
       <c r="S15">
         <f>'EPA Table 6-1'!S41</f>
-        <v>10.8</v>
+        <v>9.4</v>
       </c>
       <c r="T15">
         <f>'EPA Table 6-1'!T41</f>
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="U15">
         <f>'EPA Table 6-1'!U41</f>
-        <v>8.9</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="V15">
         <f>'EPA Table 6-1'!V41</f>
-        <v>5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W15">
         <f>'EPA Table 6-1'!W41</f>
-        <v>7.7</v>
+        <v>6.8</v>
       </c>
       <c r="X15">
         <f>'EPA Table 6-1'!X41</f>
-        <v>8.5</v>
+        <v>6.8</v>
       </c>
       <c r="Y15">
         <f>'EPA Table 6-1'!Y41</f>
-        <v>7.8</v>
+        <v>7.1</v>
       </c>
       <c r="Z15">
         <f>'EPA Table 6-1'!Z41</f>
-        <v>6.1</v>
+        <v>4.8</v>
       </c>
       <c r="AA15">
         <f>'EPA Table 6-1'!AA41</f>
-        <v>12.9</v>
+        <v>13.4</v>
       </c>
       <c r="AB15">
         <f>'EPA Table 6-1'!AB41</f>
-        <v>7.1</v>
+        <v>5</v>
       </c>
       <c r="AC15">
         <f>'EPA Table 6-1'!AC41</f>
-        <v>11.5</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="AD15">
         <f>'EPA Table 6-1'!AD41</f>
-        <v>9.1</v>
+        <v>7</v>
       </c>
       <c r="AE15">
         <f>'EPA Table 6-1'!AE41</f>
-        <v>4.8</v>
+        <v>7.3</v>
       </c>
       <c r="AF15">
         <f>'EPA Table 6-1'!AF41</f>
-        <v>15.2</v>
+        <v>11</v>
+      </c>
+      <c r="AG15">
+        <f>'EPA Table 6-1'!AG41</f>
+        <v>11.8</v>
       </c>
     </row>
   </sheetData>
@@ -3093,26 +3068,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AF56"/>
+  <dimension ref="A1:AG56"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3:AF43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="19" width="42.42578125" customWidth="1"/>
-    <col min="20" max="23" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="33" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>1990</v>
@@ -3207,304 +3182,316 @@
       <c r="AF3">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG3">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B4">
-        <v>-769.7</v>
+        <v>-815.8</v>
       </c>
       <c r="C4">
-        <v>-774.3</v>
+        <v>-817.8</v>
       </c>
       <c r="D4">
-        <v>-776.4</v>
+        <v>-822.9</v>
       </c>
       <c r="E4">
-        <v>-773.5</v>
+        <v>-819</v>
       </c>
       <c r="F4">
-        <v>-763.9</v>
+        <v>-807</v>
       </c>
       <c r="G4">
-        <v>-757.1</v>
+        <v>-801.3</v>
       </c>
       <c r="H4">
+        <v>-799.3</v>
+      </c>
+      <c r="I4">
+        <v>-797.6</v>
+      </c>
+      <c r="J4">
+        <v>-790.8</v>
+      </c>
+      <c r="K4">
+        <v>-773.9</v>
+      </c>
+      <c r="L4">
+        <v>-745.4</v>
+      </c>
+      <c r="M4">
         <v>-757.8</v>
       </c>
-      <c r="I4">
-        <v>-753.7</v>
-      </c>
-      <c r="J4">
-        <v>-748.1</v>
-      </c>
-      <c r="K4">
-        <v>-732.9</v>
-      </c>
-      <c r="L4">
-        <v>-706.8</v>
-      </c>
-      <c r="M4">
-        <v>-715</v>
-      </c>
       <c r="N4">
-        <v>-668.9</v>
+        <v>-704.6</v>
       </c>
       <c r="O4">
-        <v>-705</v>
+        <v>-742.2</v>
       </c>
       <c r="P4">
-        <v>-615.79999999999995</v>
+        <v>-625.9</v>
       </c>
       <c r="Q4">
-        <v>-674</v>
+        <v>-695.4</v>
       </c>
       <c r="R4">
-        <v>-699.3</v>
+        <v>-730.9</v>
       </c>
       <c r="S4">
-        <v>-668.3</v>
+        <v>-696.6</v>
       </c>
       <c r="T4">
-        <v>-658.8</v>
+        <v>-686.7</v>
       </c>
       <c r="U4">
-        <v>-635.5</v>
+        <v>-652.6</v>
       </c>
       <c r="V4">
-        <v>-672</v>
+        <v>-693.4</v>
       </c>
       <c r="W4">
-        <v>-683.1</v>
+        <v>-705.3</v>
       </c>
       <c r="X4">
-        <v>-674.2</v>
+        <v>-691.8</v>
       </c>
       <c r="Y4">
-        <v>-666.9</v>
+        <v>-681.1</v>
       </c>
       <c r="Z4">
+        <v>-712.9</v>
+      </c>
+      <c r="AA4">
+        <v>-611</v>
+      </c>
+      <c r="AB4">
+        <v>-739.2</v>
+      </c>
+      <c r="AC4">
+        <v>-695.2</v>
+      </c>
+      <c r="AD4">
+        <v>-692.9</v>
+      </c>
+      <c r="AE4">
+        <v>-638.1</v>
+      </c>
+      <c r="AF4">
+        <v>-684</v>
+      </c>
+      <c r="AG4">
+        <v>-670.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>-821.4</v>
+      </c>
+      <c r="C5">
+        <v>-822.8</v>
+      </c>
+      <c r="D5">
+        <v>-824.6</v>
+      </c>
+      <c r="E5">
+        <v>-820.9</v>
+      </c>
+      <c r="F5">
+        <v>-812.3</v>
+      </c>
+      <c r="G5">
+        <v>-802.6</v>
+      </c>
+      <c r="H5">
+        <v>-803</v>
+      </c>
+      <c r="I5">
+        <v>-798.6</v>
+      </c>
+      <c r="J5">
+        <v>-793.3</v>
+      </c>
+      <c r="K5">
+        <v>-780.5</v>
+      </c>
+      <c r="L5">
+        <v>-758.3</v>
+      </c>
+      <c r="M5">
+        <v>-762.2</v>
+      </c>
+      <c r="N5">
+        <v>-722.5</v>
+      </c>
+      <c r="O5">
+        <v>-752.7</v>
+      </c>
+      <c r="P5">
+        <v>-654.4</v>
+      </c>
+      <c r="Q5">
+        <v>-714.2</v>
+      </c>
+      <c r="R5">
+        <v>-740.4</v>
+      </c>
+      <c r="S5">
+        <v>-711.5</v>
+      </c>
+      <c r="T5">
+        <v>-694.4</v>
+      </c>
+      <c r="U5">
+        <v>-665.5</v>
+      </c>
+      <c r="V5">
+        <v>-697.3</v>
+      </c>
+      <c r="W5">
+        <v>-714</v>
+      </c>
+      <c r="X5">
+        <v>-702.4</v>
+      </c>
+      <c r="Y5">
         <v>-692.8</v>
       </c>
-      <c r="AA4">
-        <v>-606.6</v>
-      </c>
-      <c r="AB4">
-        <v>-717.3</v>
-      </c>
-      <c r="AC4">
-        <v>-670.1</v>
-      </c>
-      <c r="AD4">
-        <v>-664.6</v>
-      </c>
-      <c r="AE4">
-        <v>-631.79999999999995</v>
-      </c>
-      <c r="AF4">
-        <v>-642.20000000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5">
-        <v>-774</v>
-      </c>
-      <c r="C5">
-        <v>-778</v>
-      </c>
-      <c r="D5">
-        <v>-777.8</v>
-      </c>
-      <c r="E5">
-        <v>-774.9</v>
-      </c>
-      <c r="F5">
-        <v>-768.3</v>
-      </c>
-      <c r="G5">
-        <v>-758.2</v>
-      </c>
-      <c r="H5">
-        <v>-760.9</v>
-      </c>
-      <c r="I5">
-        <v>-754.6</v>
-      </c>
-      <c r="J5">
-        <v>-749.8</v>
-      </c>
-      <c r="K5">
-        <v>-737.9</v>
-      </c>
-      <c r="L5">
-        <v>-716.2</v>
-      </c>
-      <c r="M5">
-        <v>-719.2</v>
-      </c>
-      <c r="N5">
-        <v>-682.6</v>
-      </c>
-      <c r="O5">
-        <v>-714.4</v>
-      </c>
-      <c r="P5">
-        <v>-634.5</v>
-      </c>
-      <c r="Q5">
-        <v>-687.3</v>
-      </c>
-      <c r="R5">
-        <v>-708.1</v>
-      </c>
-      <c r="S5">
-        <v>-682.2</v>
-      </c>
-      <c r="T5">
-        <v>-667</v>
-      </c>
-      <c r="U5">
-        <v>-645.5</v>
-      </c>
-      <c r="V5">
-        <v>-675.7</v>
-      </c>
-      <c r="W5">
-        <v>-690.5</v>
-      </c>
-      <c r="X5">
-        <v>-684.5</v>
-      </c>
-      <c r="Y5">
-        <v>-677.2</v>
-      </c>
       <c r="Z5">
-        <v>-698.6</v>
+        <v>-717.9</v>
       </c>
       <c r="AA5">
-        <v>-628.4</v>
+        <v>-638.6</v>
       </c>
       <c r="AB5">
-        <v>-725.6</v>
+        <v>-745.3</v>
       </c>
       <c r="AC5">
-        <v>-688.3</v>
+        <v>-710.7</v>
       </c>
       <c r="AD5">
-        <v>-677.1</v>
+        <v>-704.4</v>
       </c>
       <c r="AE5">
-        <v>-634.79999999999995</v>
+        <v>-649.29999999999995</v>
       </c>
       <c r="AF5">
-        <v>-668.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+        <v>-707.4</v>
+      </c>
+      <c r="AG5">
+        <v>-695.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B6">
-        <v>4.0999999999999996</v>
+        <v>5.5</v>
       </c>
       <c r="C6">
-        <v>3.5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D6">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="E6">
-        <v>1.1000000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="F6">
-        <v>4.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="I6">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="J6">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="K6">
-        <v>4.4000000000000004</v>
+        <v>6</v>
       </c>
       <c r="L6">
-        <v>8.8000000000000007</v>
+        <v>12.3</v>
       </c>
       <c r="M6">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="N6">
-        <v>13.1</v>
+        <v>17.3</v>
       </c>
       <c r="O6">
-        <v>8.8000000000000007</v>
+        <v>9.9</v>
       </c>
       <c r="P6">
-        <v>18.2</v>
+        <v>28</v>
       </c>
       <c r="Q6">
-        <v>12.8</v>
+        <v>18.3</v>
       </c>
       <c r="R6">
-        <v>8.3000000000000007</v>
+        <v>9</v>
       </c>
       <c r="S6">
-        <v>13.3</v>
+        <v>14.4</v>
       </c>
       <c r="T6">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="U6">
-        <v>9.5</v>
+        <v>12.5</v>
       </c>
       <c r="V6">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="W6">
-        <v>6.9</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="X6">
-        <v>9.8000000000000007</v>
+        <v>10.1</v>
       </c>
       <c r="Y6">
-        <v>9.8000000000000007</v>
+        <v>11.3</v>
       </c>
       <c r="Z6">
-        <v>5.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AA6">
-        <v>21.3</v>
+        <v>27.2</v>
       </c>
       <c r="AB6">
-        <v>7.8</v>
+        <v>5.6</v>
       </c>
       <c r="AC6">
-        <v>17.7</v>
+        <v>15</v>
       </c>
       <c r="AD6">
-        <v>11.9</v>
+        <v>11</v>
       </c>
       <c r="AE6">
-        <v>2.5</v>
+        <v>10.8</v>
       </c>
       <c r="AF6">
-        <v>25.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="AG6">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>0.1</v>
@@ -3516,16 +3503,16 @@
         <v>0.1</v>
       </c>
       <c r="E7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F7">
         <v>0.2</v>
       </c>
       <c r="G7">
+        <v>0.2</v>
+      </c>
+      <c r="H7">
         <v>0.3</v>
-      </c>
-      <c r="H7">
-        <v>0.4</v>
       </c>
       <c r="I7">
         <v>0.4</v>
@@ -3534,7 +3521,7 @@
         <v>0.4</v>
       </c>
       <c r="K7">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="L7">
         <v>0.5</v>
@@ -3543,66 +3530,69 @@
         <v>0.5</v>
       </c>
       <c r="N7">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="O7">
         <v>0.5</v>
       </c>
       <c r="P7">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="Q7">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="R7">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="S7">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="T7">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="U7">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="V7">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="W7">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="X7">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="Y7">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="Z7">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AA7">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AB7">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AC7">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AD7">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AE7">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AF7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+        <v>0.4</v>
+      </c>
+      <c r="AG7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B8">
         <v>0.1</v>
@@ -3697,206 +3687,215 @@
       <c r="AF8">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B9">
-        <v>-98.6</v>
+        <v>-98.5</v>
       </c>
       <c r="C9">
-        <v>-98.6</v>
+        <v>-98.4</v>
       </c>
       <c r="D9">
-        <v>-98.6</v>
+        <v>-98.4</v>
       </c>
       <c r="E9">
-        <v>-98.6</v>
+        <v>-98.4</v>
       </c>
       <c r="F9">
-        <v>-98.7</v>
+        <v>-98.5</v>
       </c>
       <c r="G9">
-        <v>-98.7</v>
+        <v>-98.4</v>
       </c>
       <c r="H9">
-        <v>-98.7</v>
+        <v>-98.4</v>
       </c>
       <c r="I9">
-        <v>-98.7</v>
+        <v>-98.3</v>
       </c>
       <c r="J9">
-        <v>-98.8</v>
+        <v>-98.4</v>
       </c>
       <c r="K9">
-        <v>-98.8</v>
+        <v>-98.3</v>
       </c>
       <c r="L9">
-        <v>-98.8</v>
+        <v>-98.4</v>
       </c>
       <c r="M9">
-        <v>-98.9</v>
+        <v>-98.4</v>
       </c>
       <c r="N9">
-        <v>-98.9</v>
+        <v>-98.4</v>
       </c>
       <c r="O9">
-        <v>-99</v>
+        <v>-98.4</v>
       </c>
       <c r="P9">
-        <v>-99</v>
+        <v>-98.4</v>
       </c>
       <c r="Q9">
-        <v>-99.1</v>
+        <v>-98.4</v>
       </c>
       <c r="R9">
-        <v>-99.1</v>
+        <v>-98.4</v>
       </c>
       <c r="S9">
-        <v>-99.1</v>
+        <v>-98.4</v>
       </c>
       <c r="T9">
-        <v>-99.2</v>
+        <v>-98.4</v>
       </c>
       <c r="U9">
-        <v>-99.2</v>
+        <v>-98.4</v>
       </c>
       <c r="V9">
-        <v>-99.2</v>
+        <v>-98.4</v>
       </c>
       <c r="W9">
-        <v>-99.3</v>
+        <v>-98.4</v>
       </c>
       <c r="X9">
-        <v>-99.3</v>
+        <v>-98.3</v>
       </c>
       <c r="Y9">
-        <v>-99.3</v>
+        <v>-98.3</v>
       </c>
       <c r="Z9">
-        <v>-99.3</v>
+        <v>-98.3</v>
       </c>
       <c r="AA9">
-        <v>-99.4</v>
+        <v>-98.3</v>
       </c>
       <c r="AB9">
-        <v>-99.5</v>
+        <v>-98.3</v>
       </c>
       <c r="AC9">
-        <v>-99.5</v>
+        <v>-98.3</v>
       </c>
       <c r="AD9">
-        <v>-99.5</v>
+        <v>-98.3</v>
       </c>
       <c r="AE9">
-        <v>-99.5</v>
+        <v>-98.3</v>
       </c>
       <c r="AF9">
-        <v>-99.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+        <v>-98.3</v>
+      </c>
+      <c r="AG9">
+        <v>-98.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B10">
-        <v>-98.6</v>
+        <v>-98.5</v>
       </c>
       <c r="C10">
-        <v>-98.6</v>
+        <v>-98.4</v>
       </c>
       <c r="D10">
-        <v>-98.6</v>
+        <v>-98.4</v>
       </c>
       <c r="E10">
-        <v>-98.6</v>
+        <v>-98.4</v>
       </c>
       <c r="F10">
-        <v>-98.7</v>
+        <v>-98.5</v>
       </c>
       <c r="G10">
-        <v>-98.7</v>
+        <v>-98.4</v>
       </c>
       <c r="H10">
-        <v>-98.7</v>
+        <v>-98.4</v>
       </c>
       <c r="I10">
-        <v>-98.7</v>
+        <v>-98.3</v>
       </c>
       <c r="J10">
-        <v>-98.8</v>
+        <v>-98.4</v>
       </c>
       <c r="K10">
-        <v>-98.8</v>
+        <v>-98.3</v>
       </c>
       <c r="L10">
-        <v>-98.8</v>
+        <v>-98.4</v>
       </c>
       <c r="M10">
-        <v>-98.9</v>
+        <v>-98.4</v>
       </c>
       <c r="N10">
-        <v>-98.9</v>
+        <v>-98.4</v>
       </c>
       <c r="O10">
-        <v>-99</v>
+        <v>-98.4</v>
       </c>
       <c r="P10">
-        <v>-99</v>
+        <v>-98.4</v>
       </c>
       <c r="Q10">
-        <v>-99.1</v>
+        <v>-98.4</v>
       </c>
       <c r="R10">
-        <v>-99.1</v>
+        <v>-98.4</v>
       </c>
       <c r="S10">
-        <v>-99.1</v>
+        <v>-98.4</v>
       </c>
       <c r="T10">
-        <v>-99.2</v>
+        <v>-98.4</v>
       </c>
       <c r="U10">
-        <v>-99.2</v>
+        <v>-98.4</v>
       </c>
       <c r="V10">
-        <v>-99.2</v>
+        <v>-98.4</v>
       </c>
       <c r="W10">
-        <v>-99.3</v>
+        <v>-98.4</v>
       </c>
       <c r="X10">
-        <v>-99.3</v>
+        <v>-98.3</v>
       </c>
       <c r="Y10">
-        <v>-99.3</v>
+        <v>-98.3</v>
       </c>
       <c r="Z10">
-        <v>-99.3</v>
+        <v>-98.3</v>
       </c>
       <c r="AA10">
-        <v>-99.4</v>
+        <v>-98.3</v>
       </c>
       <c r="AB10">
-        <v>-99.5</v>
+        <v>-98.3</v>
       </c>
       <c r="AC10">
-        <v>-99.5</v>
+        <v>-98.3</v>
       </c>
       <c r="AD10">
-        <v>-99.5</v>
+        <v>-98.3</v>
       </c>
       <c r="AE10">
-        <v>-99.5</v>
+        <v>-98.3</v>
       </c>
       <c r="AF10">
-        <v>-99.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+        <v>-98.3</v>
+      </c>
+      <c r="AG10">
+        <v>-98.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B11">
         <v>-23.2</v>
@@ -3991,10 +3990,13 @@
       <c r="AF11">
         <v>-23.3</v>
       </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG11">
+        <v>-18.899999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B12">
         <v>-23.2</v>
@@ -4089,402 +4091,417 @@
       <c r="AF12">
         <v>-23.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG12">
+        <v>-18.899999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B13">
-        <v>51.8</v>
+        <v>54.8</v>
       </c>
       <c r="C13">
-        <v>52.6</v>
+        <v>55.6</v>
       </c>
       <c r="D13">
-        <v>53.2</v>
+        <v>56.1</v>
       </c>
       <c r="E13">
-        <v>52.5</v>
+        <v>55.4</v>
       </c>
       <c r="F13">
-        <v>52.8</v>
+        <v>55.7</v>
       </c>
       <c r="G13">
-        <v>57.1</v>
+        <v>59.9</v>
       </c>
       <c r="H13">
+        <v>59</v>
+      </c>
+      <c r="I13">
+        <v>62.1</v>
+      </c>
+      <c r="J13">
+        <v>58.7</v>
+      </c>
+      <c r="K13">
+        <v>58.9</v>
+      </c>
+      <c r="L13">
+        <v>58.1</v>
+      </c>
+      <c r="M13">
+        <v>58.5</v>
+      </c>
+      <c r="N13">
         <v>56.1</v>
       </c>
-      <c r="I13">
-        <v>59.2</v>
-      </c>
-      <c r="J13">
+      <c r="O13">
         <v>55.9</v>
       </c>
-      <c r="K13">
+      <c r="P13">
+        <v>54.6</v>
+      </c>
+      <c r="Q13">
+        <v>54.7</v>
+      </c>
+      <c r="R13">
+        <v>53.5</v>
+      </c>
+      <c r="S13">
+        <v>53.6</v>
+      </c>
+      <c r="T13">
+        <v>55.9</v>
+      </c>
+      <c r="U13">
+        <v>56</v>
+      </c>
+      <c r="V13">
+        <v>57.4</v>
+      </c>
+      <c r="W13">
+        <v>54.4</v>
+      </c>
+      <c r="X13">
+        <v>55.6</v>
+      </c>
+      <c r="Y13">
+        <v>56.4</v>
+      </c>
+      <c r="Z13">
+        <v>57.5</v>
+      </c>
+      <c r="AA13">
+        <v>58.1</v>
+      </c>
+      <c r="AB13">
+        <v>56.4</v>
+      </c>
+      <c r="AC13">
+        <v>56.6</v>
+      </c>
+      <c r="AD13">
+        <v>56.3</v>
+      </c>
+      <c r="AE13">
+        <v>56.3</v>
+      </c>
+      <c r="AF13">
+        <v>56.7</v>
+      </c>
+      <c r="AG13">
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14">
+        <v>54.8</v>
+      </c>
+      <c r="C14">
+        <v>55.6</v>
+      </c>
+      <c r="D14">
         <v>56.1</v>
       </c>
-      <c r="L13">
-        <v>55.3</v>
-      </c>
-      <c r="M13">
-        <v>55.8</v>
-      </c>
-      <c r="N13">
-        <v>53.4</v>
-      </c>
-      <c r="O13">
-        <v>53.2</v>
-      </c>
-      <c r="P13">
-        <v>52</v>
-      </c>
-      <c r="Q13">
-        <v>52</v>
-      </c>
-      <c r="R13">
-        <v>50.9</v>
-      </c>
-      <c r="S13">
-        <v>51.1</v>
-      </c>
-      <c r="T13">
-        <v>53.3</v>
-      </c>
-      <c r="U13">
+      <c r="E14">
+        <v>55.4</v>
+      </c>
+      <c r="F14">
+        <v>55.7</v>
+      </c>
+      <c r="G14">
+        <v>59.9</v>
+      </c>
+      <c r="H14">
+        <v>59</v>
+      </c>
+      <c r="I14">
+        <v>62.1</v>
+      </c>
+      <c r="J14">
+        <v>58.7</v>
+      </c>
+      <c r="K14">
+        <v>58.9</v>
+      </c>
+      <c r="L14">
+        <v>58.1</v>
+      </c>
+      <c r="M14">
+        <v>58.5</v>
+      </c>
+      <c r="N14">
+        <v>56.1</v>
+      </c>
+      <c r="O14">
+        <v>55.9</v>
+      </c>
+      <c r="P14">
+        <v>54.6</v>
+      </c>
+      <c r="Q14">
+        <v>54.7</v>
+      </c>
+      <c r="R14">
         <v>53.5</v>
       </c>
-      <c r="V13">
-        <v>54.9</v>
-      </c>
-      <c r="W13">
-        <v>52</v>
-      </c>
-      <c r="X13">
-        <v>53.2</v>
-      </c>
-      <c r="Y13">
-        <v>54.1</v>
-      </c>
-      <c r="Z13">
-        <v>55.2</v>
-      </c>
-      <c r="AA13">
-        <v>55.8</v>
-      </c>
-      <c r="AB13">
-        <v>54.1</v>
-      </c>
-      <c r="AC13">
-        <v>54.3</v>
-      </c>
-      <c r="AD13">
-        <v>54</v>
-      </c>
-      <c r="AE13">
-        <v>53.9</v>
-      </c>
-      <c r="AF13">
+      <c r="S14">
+        <v>53.6</v>
+      </c>
+      <c r="T14">
+        <v>55.9</v>
+      </c>
+      <c r="U14">
+        <v>56</v>
+      </c>
+      <c r="V14">
+        <v>57.4</v>
+      </c>
+      <c r="W14">
         <v>54.4</v>
       </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14">
-        <v>51.8</v>
-      </c>
-      <c r="C14">
-        <v>52.6</v>
-      </c>
-      <c r="D14">
-        <v>53.2</v>
-      </c>
-      <c r="E14">
-        <v>52.5</v>
-      </c>
-      <c r="F14">
-        <v>52.8</v>
-      </c>
-      <c r="G14">
-        <v>57.1</v>
-      </c>
-      <c r="H14">
-        <v>56.1</v>
-      </c>
-      <c r="I14">
-        <v>59.2</v>
-      </c>
-      <c r="J14">
-        <v>55.9</v>
-      </c>
-      <c r="K14">
-        <v>56.1</v>
-      </c>
-      <c r="L14">
-        <v>55.3</v>
-      </c>
-      <c r="M14">
-        <v>55.8</v>
-      </c>
-      <c r="N14">
-        <v>53.4</v>
-      </c>
-      <c r="O14">
-        <v>53.2</v>
-      </c>
-      <c r="P14">
-        <v>52</v>
-      </c>
-      <c r="Q14">
-        <v>52</v>
-      </c>
-      <c r="R14">
-        <v>50.9</v>
-      </c>
-      <c r="S14">
-        <v>51.1</v>
-      </c>
-      <c r="T14">
-        <v>53.3</v>
-      </c>
-      <c r="U14">
-        <v>53.5</v>
-      </c>
-      <c r="V14">
-        <v>54.9</v>
-      </c>
-      <c r="W14">
-        <v>52</v>
-      </c>
       <c r="X14">
-        <v>53.2</v>
+        <v>55.6</v>
       </c>
       <c r="Y14">
-        <v>54.1</v>
+        <v>56.4</v>
       </c>
       <c r="Z14">
-        <v>55.2</v>
+        <v>57.5</v>
       </c>
       <c r="AA14">
-        <v>55.8</v>
+        <v>58.1</v>
       </c>
       <c r="AB14">
-        <v>54.1</v>
+        <v>56.4</v>
       </c>
       <c r="AC14">
-        <v>54.3</v>
+        <v>56.6</v>
       </c>
       <c r="AD14">
-        <v>54</v>
+        <v>56.3</v>
       </c>
       <c r="AE14">
-        <v>53.9</v>
+        <v>56.3</v>
       </c>
       <c r="AF14">
-        <v>54.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+        <v>56.7</v>
+      </c>
+      <c r="AG14">
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B15">
-        <v>7.1</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="C15">
-        <v>7.1</v>
+        <v>8.9</v>
       </c>
       <c r="D15">
-        <v>8.8000000000000007</v>
+        <v>10.6</v>
       </c>
       <c r="E15">
-        <v>11.4</v>
+        <v>13.3</v>
       </c>
       <c r="F15">
-        <v>-1.3</v>
+        <v>0.6</v>
       </c>
       <c r="G15">
+        <v>8.5</v>
+      </c>
+      <c r="H15">
+        <v>8.1</v>
+      </c>
+      <c r="I15">
+        <v>11.3</v>
+      </c>
+      <c r="J15">
+        <v>5.3</v>
+      </c>
+      <c r="K15">
+        <v>10.1</v>
+      </c>
+      <c r="L15">
+        <v>-2.5</v>
+      </c>
+      <c r="M15">
+        <v>8.1</v>
+      </c>
+      <c r="N15">
         <v>6.6</v>
       </c>
-      <c r="H15">
+      <c r="O15">
+        <v>4.8</v>
+      </c>
+      <c r="P15">
+        <v>10.3</v>
+      </c>
+      <c r="Q15">
+        <v>11.7</v>
+      </c>
+      <c r="R15">
+        <v>-0.1</v>
+      </c>
+      <c r="S15">
+        <v>13.6</v>
+      </c>
+      <c r="T15">
+        <v>6</v>
+      </c>
+      <c r="U15">
+        <v>7.4</v>
+      </c>
+      <c r="V15">
+        <v>21.5</v>
+      </c>
+      <c r="W15">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="X15">
+        <v>5.5</v>
+      </c>
+      <c r="Y15">
+        <v>17.5</v>
+      </c>
+      <c r="Z15">
+        <v>21.7</v>
+      </c>
+      <c r="AA15">
+        <v>15.5</v>
+      </c>
+      <c r="AB15">
+        <v>11.5</v>
+      </c>
+      <c r="AC15">
+        <v>11.6</v>
+      </c>
+      <c r="AD15">
+        <v>11.9</v>
+      </c>
+      <c r="AE15">
+        <v>14.6</v>
+      </c>
+      <c r="AF15">
+        <v>6.7</v>
+      </c>
+      <c r="AG15">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C16">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D16">
+        <v>10.3</v>
+      </c>
+      <c r="E16">
+        <v>13</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H16">
+        <v>7.2</v>
+      </c>
+      <c r="I16">
+        <v>11.2</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="L16">
+        <v>-3.4</v>
+      </c>
+      <c r="M16">
+        <v>7.7</v>
+      </c>
+      <c r="N16">
         <v>6.2</v>
       </c>
-      <c r="I15">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="J15">
-        <v>3.3</v>
-      </c>
-      <c r="K15">
-        <v>8.1</v>
-      </c>
-      <c r="L15">
-        <v>-4.5999999999999996</v>
-      </c>
-      <c r="M15">
+      <c r="O16">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="P16">
+        <v>10.1</v>
+      </c>
+      <c r="Q16">
+        <v>11</v>
+      </c>
+      <c r="R16">
+        <v>-1.8</v>
+      </c>
+      <c r="S16">
+        <v>12.5</v>
+      </c>
+      <c r="T16">
+        <v>5.5</v>
+      </c>
+      <c r="U16">
+        <v>6.6</v>
+      </c>
+      <c r="V16">
+        <v>21.1</v>
+      </c>
+      <c r="W16">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="X16">
+        <v>4.3</v>
+      </c>
+      <c r="Y16">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="Z16">
+        <v>20.9</v>
+      </c>
+      <c r="AA16">
+        <v>14.8</v>
+      </c>
+      <c r="AB16">
+        <v>10.9</v>
+      </c>
+      <c r="AC16">
+        <v>10.9</v>
+      </c>
+      <c r="AD16">
+        <v>11.3</v>
+      </c>
+      <c r="AE16">
+        <v>14</v>
+      </c>
+      <c r="AF16">
         <v>6</v>
       </c>
-      <c r="N15">
-        <v>4.5</v>
-      </c>
-      <c r="O15">
-        <v>2.6</v>
-      </c>
-      <c r="P15">
-        <v>8</v>
-      </c>
-      <c r="Q15">
-        <v>9.4</v>
-      </c>
-      <c r="R15">
-        <v>-2.4</v>
-      </c>
-      <c r="S15">
-        <v>11.2</v>
-      </c>
-      <c r="T15">
-        <v>3.5</v>
-      </c>
-      <c r="U15">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="V15">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="W15">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="X15">
-        <v>2.8</v>
-      </c>
-      <c r="Y15">
-        <v>14.7</v>
-      </c>
-      <c r="Z15">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="AA15">
-        <v>12.6</v>
-      </c>
-      <c r="AB15">
-        <v>8.6</v>
-      </c>
-      <c r="AC15">
-        <v>9.9</v>
-      </c>
-      <c r="AD15">
-        <v>10.3</v>
-      </c>
-      <c r="AE15">
-        <v>13.1</v>
-      </c>
-      <c r="AF15">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="AG16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>39</v>
-      </c>
-      <c r="B16">
-        <v>6.9</v>
-      </c>
-      <c r="C16">
-        <v>6.9</v>
-      </c>
-      <c r="D16">
-        <v>8.5</v>
-      </c>
-      <c r="E16">
-        <v>11.2</v>
-      </c>
-      <c r="F16">
-        <v>-1.9</v>
-      </c>
-      <c r="G16">
-        <v>6.2</v>
-      </c>
-      <c r="H16">
-        <v>5.2</v>
-      </c>
-      <c r="I16">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="J16">
-        <v>3</v>
-      </c>
-      <c r="K16">
-        <v>7.2</v>
-      </c>
-      <c r="L16">
-        <v>-5.5</v>
-      </c>
-      <c r="M16">
-        <v>5.6</v>
-      </c>
-      <c r="N16">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="O16">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="P16">
-        <v>7.9</v>
-      </c>
-      <c r="Q16">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="R16">
-        <v>-4.0999999999999996</v>
-      </c>
-      <c r="S16">
-        <v>10.1</v>
-      </c>
-      <c r="T16">
-        <v>3</v>
-      </c>
-      <c r="U16">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="V16">
-        <v>18.5</v>
-      </c>
-      <c r="W16">
-        <v>15.8</v>
-      </c>
-      <c r="X16">
-        <v>1.6</v>
-      </c>
-      <c r="Y16">
-        <v>14.3</v>
-      </c>
-      <c r="Z16">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="AA16">
-        <v>12</v>
-      </c>
-      <c r="AB16">
-        <v>8</v>
-      </c>
-      <c r="AC16">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="AD16">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="AE16">
-        <v>12.4</v>
-      </c>
-      <c r="AF16">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>43</v>
       </c>
       <c r="B17">
         <v>0.2</v>
@@ -4579,304 +4596,316 @@
       <c r="AF17">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG17">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B18">
-        <v>-3.1</v>
+        <v>-6.7</v>
       </c>
       <c r="C18">
-        <v>-3</v>
+        <v>-6.5</v>
       </c>
       <c r="D18">
-        <v>-2.6</v>
+        <v>-6.2</v>
       </c>
       <c r="E18">
-        <v>-5.7</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="F18">
-        <v>-11.3</v>
+        <v>-14.8</v>
       </c>
       <c r="G18">
-        <v>-13.9</v>
+        <v>-17.399999999999999</v>
       </c>
       <c r="H18">
-        <v>-17.600000000000001</v>
+        <v>-21.1</v>
       </c>
       <c r="I18">
-        <v>-19.3</v>
+        <v>-22.8</v>
       </c>
       <c r="J18">
-        <v>-25.7</v>
+        <v>-29.2</v>
       </c>
       <c r="K18">
-        <v>-29.9</v>
+        <v>-33.299999999999997</v>
       </c>
       <c r="L18">
-        <v>-35.200000000000003</v>
+        <v>-38.5</v>
       </c>
       <c r="M18">
-        <v>-38.299999999999997</v>
+        <v>-41.7</v>
       </c>
       <c r="N18">
-        <v>-38.6</v>
+        <v>-41.8</v>
       </c>
       <c r="O18">
-        <v>-38</v>
+        <v>-41.3</v>
       </c>
       <c r="P18">
-        <v>-37.5</v>
+        <v>-40.700000000000003</v>
       </c>
       <c r="Q18">
-        <v>-37</v>
+        <v>-40.1</v>
       </c>
       <c r="R18">
-        <v>-38</v>
+        <v>-41.1</v>
       </c>
       <c r="S18">
-        <v>-37.1</v>
+        <v>-40.1</v>
       </c>
       <c r="T18">
-        <v>-34</v>
+        <v>-36.9</v>
       </c>
       <c r="U18">
-        <v>-33.799999999999997</v>
+        <v>-36.6</v>
       </c>
       <c r="V18">
-        <v>-32.6</v>
+        <v>-35.4</v>
       </c>
       <c r="W18">
-        <v>-32.1</v>
+        <v>-34.700000000000003</v>
       </c>
       <c r="X18">
-        <v>-31.2</v>
+        <v>-33.6</v>
       </c>
       <c r="Y18">
-        <v>-27.8</v>
+        <v>-30</v>
       </c>
       <c r="Z18">
-        <v>-22.4</v>
+        <v>-24.4</v>
       </c>
       <c r="AA18">
-        <v>-20.8</v>
+        <v>-22.7</v>
       </c>
       <c r="AB18">
-        <v>-22.6</v>
+        <v>-24.3</v>
       </c>
       <c r="AC18">
+        <v>-24.5</v>
+      </c>
+      <c r="AD18">
+        <v>-24.2</v>
+      </c>
+      <c r="AE18">
+        <v>-23.3</v>
+      </c>
+      <c r="AF18">
+        <v>-25.9</v>
+      </c>
+      <c r="AG18">
+        <v>-24.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19">
+        <v>-6.7</v>
+      </c>
+      <c r="C19">
+        <v>-6.5</v>
+      </c>
+      <c r="D19">
+        <v>-6.2</v>
+      </c>
+      <c r="E19">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="F19">
+        <v>-14.8</v>
+      </c>
+      <c r="G19">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="H19">
+        <v>-21.1</v>
+      </c>
+      <c r="I19">
+        <v>-22.8</v>
+      </c>
+      <c r="J19">
+        <v>-29.2</v>
+      </c>
+      <c r="K19">
+        <v>-33.299999999999997</v>
+      </c>
+      <c r="L19">
+        <v>-38.5</v>
+      </c>
+      <c r="M19">
+        <v>-41.7</v>
+      </c>
+      <c r="N19">
+        <v>-41.8</v>
+      </c>
+      <c r="O19">
+        <v>-41.3</v>
+      </c>
+      <c r="P19">
+        <v>-40.700000000000003</v>
+      </c>
+      <c r="Q19">
+        <v>-40.1</v>
+      </c>
+      <c r="R19">
+        <v>-41.1</v>
+      </c>
+      <c r="S19">
+        <v>-40.1</v>
+      </c>
+      <c r="T19">
+        <v>-36.9</v>
+      </c>
+      <c r="U19">
+        <v>-36.6</v>
+      </c>
+      <c r="V19">
+        <v>-35.4</v>
+      </c>
+      <c r="W19">
+        <v>-34.700000000000003</v>
+      </c>
+      <c r="X19">
+        <v>-33.6</v>
+      </c>
+      <c r="Y19">
+        <v>-30</v>
+      </c>
+      <c r="Z19">
+        <v>-24.4</v>
+      </c>
+      <c r="AA19">
         <v>-22.7</v>
       </c>
-      <c r="AD18">
-        <v>-22.4</v>
-      </c>
-      <c r="AE18">
-        <v>-21.5</v>
-      </c>
-      <c r="AF18">
-        <v>-24.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="AB19">
+        <v>-24.3</v>
+      </c>
+      <c r="AC19">
+        <v>-24.5</v>
+      </c>
+      <c r="AD19">
+        <v>-24.2</v>
+      </c>
+      <c r="AE19">
+        <v>-23.3</v>
+      </c>
+      <c r="AF19">
+        <v>-25.9</v>
+      </c>
+      <c r="AG19">
+        <v>-24.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>41</v>
       </c>
-      <c r="B19">
-        <v>-3.1</v>
-      </c>
-      <c r="C19">
-        <v>-3</v>
-      </c>
-      <c r="D19">
-        <v>-2.6</v>
-      </c>
-      <c r="E19">
-        <v>-5.7</v>
-      </c>
-      <c r="F19">
-        <v>-11.3</v>
-      </c>
-      <c r="G19">
-        <v>-13.9</v>
-      </c>
-      <c r="H19">
-        <v>-17.600000000000001</v>
-      </c>
-      <c r="I19">
-        <v>-19.3</v>
-      </c>
-      <c r="J19">
-        <v>-25.7</v>
-      </c>
-      <c r="K19">
-        <v>-29.9</v>
-      </c>
-      <c r="L19">
-        <v>-35.200000000000003</v>
-      </c>
-      <c r="M19">
-        <v>-38.299999999999997</v>
-      </c>
-      <c r="N19">
-        <v>-38.6</v>
-      </c>
-      <c r="O19">
-        <v>-38</v>
-      </c>
-      <c r="P19">
-        <v>-37.5</v>
-      </c>
-      <c r="Q19">
-        <v>-37</v>
-      </c>
-      <c r="R19">
-        <v>-38</v>
-      </c>
-      <c r="S19">
-        <v>-37.1</v>
-      </c>
-      <c r="T19">
-        <v>-34</v>
-      </c>
-      <c r="U19">
-        <v>-33.799999999999997</v>
-      </c>
-      <c r="V19">
-        <v>-32.6</v>
-      </c>
-      <c r="W19">
-        <v>-32.1</v>
-      </c>
-      <c r="X19">
-        <v>-31.2</v>
-      </c>
-      <c r="Y19">
-        <v>-27.8</v>
-      </c>
-      <c r="Z19">
-        <v>-22.4</v>
-      </c>
-      <c r="AA19">
-        <v>-20.8</v>
-      </c>
-      <c r="AB19">
-        <v>-22.6</v>
-      </c>
-      <c r="AC19">
-        <v>-22.7</v>
-      </c>
-      <c r="AD19">
-        <v>-22.4</v>
-      </c>
-      <c r="AE19">
-        <v>-21.5</v>
-      </c>
-      <c r="AF19">
-        <v>-24.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
       <c r="B20">
-        <v>14.7</v>
+        <v>41.5</v>
       </c>
       <c r="C20">
-        <v>14.8</v>
+        <v>41.5</v>
       </c>
       <c r="D20">
-        <v>14.9</v>
+        <v>41.6</v>
       </c>
       <c r="E20">
-        <v>15.1</v>
+        <v>41.7</v>
       </c>
       <c r="F20">
-        <v>15.2</v>
+        <v>41.7</v>
       </c>
       <c r="G20">
-        <v>15.4</v>
+        <v>41.9</v>
       </c>
       <c r="H20">
-        <v>15.3</v>
+        <v>41.8</v>
       </c>
       <c r="I20">
-        <v>15.5</v>
+        <v>42</v>
       </c>
       <c r="J20">
-        <v>15.8</v>
+        <v>42.2</v>
       </c>
       <c r="K20">
-        <v>16</v>
+        <v>42.3</v>
       </c>
       <c r="L20">
-        <v>16.100000000000001</v>
+        <v>42.4</v>
       </c>
       <c r="M20">
-        <v>17</v>
+        <v>43.1</v>
       </c>
       <c r="N20">
-        <v>17.100000000000001</v>
+        <v>43</v>
       </c>
       <c r="O20">
-        <v>17.100000000000001</v>
+        <v>43</v>
       </c>
       <c r="P20">
-        <v>17.3</v>
+        <v>43.1</v>
       </c>
       <c r="Q20">
-        <v>17.2</v>
+        <v>43.1</v>
       </c>
       <c r="R20">
-        <v>25.9</v>
+        <v>51.8</v>
       </c>
       <c r="S20">
-        <v>26.3</v>
+        <v>52.2</v>
       </c>
       <c r="T20">
-        <v>26.3</v>
+        <v>52.2</v>
       </c>
       <c r="U20">
-        <v>26.3</v>
+        <v>52.2</v>
       </c>
       <c r="V20">
-        <v>26.4</v>
+        <v>52.3</v>
       </c>
       <c r="W20">
-        <v>16.2</v>
+        <v>42.1</v>
       </c>
       <c r="X20">
-        <v>15.9</v>
+        <v>41.8</v>
       </c>
       <c r="Y20">
-        <v>15.9</v>
+        <v>41.7</v>
       </c>
       <c r="Z20">
-        <v>15.9</v>
+        <v>41.8</v>
       </c>
       <c r="AA20">
-        <v>15.9</v>
+        <v>41.7</v>
       </c>
       <c r="AB20">
-        <v>15.8</v>
+        <v>41.7</v>
       </c>
       <c r="AC20">
-        <v>15.9</v>
+        <v>41.8</v>
       </c>
       <c r="AD20">
-        <v>15.9</v>
+        <v>41.8</v>
       </c>
       <c r="AE20">
-        <v>15.9</v>
+        <v>41.8</v>
       </c>
       <c r="AF20">
-        <v>15.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+        <v>41.8</v>
+      </c>
+      <c r="AG20">
+        <v>41.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B21">
         <v>1.1000000000000001</v>
@@ -4971,126 +5000,132 @@
       <c r="AF21">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG21">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" t="s">
-        <v>48</v>
-      </c>
-      <c r="H22" t="s">
-        <v>48</v>
-      </c>
-      <c r="I22" t="s">
-        <v>48</v>
-      </c>
-      <c r="J22" t="s">
-        <v>48</v>
-      </c>
-      <c r="K22" t="s">
-        <v>48</v>
-      </c>
-      <c r="L22" t="s">
-        <v>48</v>
-      </c>
-      <c r="M22" t="s">
-        <v>48</v>
-      </c>
-      <c r="N22" t="s">
-        <v>48</v>
-      </c>
-      <c r="O22" t="s">
-        <v>48</v>
-      </c>
-      <c r="P22" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>48</v>
-      </c>
-      <c r="R22" t="s">
-        <v>48</v>
-      </c>
-      <c r="S22" t="s">
-        <v>48</v>
-      </c>
-      <c r="T22" t="s">
-        <v>48</v>
-      </c>
-      <c r="U22" t="s">
-        <v>48</v>
-      </c>
-      <c r="V22" t="s">
-        <v>48</v>
-      </c>
-      <c r="W22" t="s">
-        <v>48</v>
-      </c>
-      <c r="X22" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B23">
-        <v>-8.5</v>
+        <v>-8.4</v>
       </c>
       <c r="C23">
-        <v>-8.5</v>
+        <v>-8.4</v>
       </c>
       <c r="D23">
-        <v>-8.5</v>
+        <v>-8.4</v>
       </c>
       <c r="E23">
-        <v>-8.5</v>
+        <v>-8.4</v>
       </c>
       <c r="F23">
-        <v>-8.5</v>
+        <v>-8.4</v>
       </c>
       <c r="G23">
-        <v>-8.5</v>
+        <v>-8.4</v>
       </c>
       <c r="H23">
         <v>-8.5</v>
@@ -5120,10 +5155,10 @@
         <v>-7.7</v>
       </c>
       <c r="Q23">
-        <v>-7.6</v>
+        <v>-7.7</v>
       </c>
       <c r="R23">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="S23">
         <v>1.5</v>
@@ -5167,108 +5202,114 @@
       <c r="AF23">
         <v>-8.8000000000000007</v>
       </c>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG23">
+        <v>-8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B24">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="C24">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="D24">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="E24">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="F24">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="G24">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="H24">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="I24">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="J24">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="K24">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="L24">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="M24">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="N24">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="O24">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P24">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q24">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="R24">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="S24">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="T24">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="U24">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="V24">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="W24">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="X24">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Y24">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Z24">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="AA24">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="AB24">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="AC24">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="AD24">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="AE24">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="AF24">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+        <v>4.3</v>
+      </c>
+      <c r="AG24">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B25">
         <v>0.1</v>
@@ -5277,7 +5318,7 @@
         <v>0.1</v>
       </c>
       <c r="D25">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E25">
         <v>0.1</v>
@@ -5286,10 +5327,10 @@
         <v>0.1</v>
       </c>
       <c r="G25">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H25">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I25">
         <v>0.2</v>
@@ -5328,7 +5369,7 @@
         <v>0.2</v>
       </c>
       <c r="U25">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="V25">
         <v>0.2</v>
@@ -5355,164 +5396,170 @@
         <v>0.1</v>
       </c>
       <c r="AD25">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AE25">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AF25">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+      <c r="AG25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B26">
-        <v>18.2</v>
+        <v>44.6</v>
       </c>
       <c r="C26">
-        <v>18.399999999999999</v>
+        <v>44.7</v>
       </c>
       <c r="D26">
-        <v>18.5</v>
+        <v>44.7</v>
       </c>
       <c r="E26">
-        <v>18.600000000000001</v>
+        <v>44.8</v>
       </c>
       <c r="F26">
-        <v>18.8</v>
+        <v>44.9</v>
       </c>
       <c r="G26">
-        <v>18.899999999999999</v>
+        <v>45</v>
       </c>
       <c r="H26">
-        <v>18.899999999999999</v>
+        <v>45</v>
       </c>
       <c r="I26">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="J26">
-        <v>19.2</v>
+        <v>45.1</v>
       </c>
       <c r="K26">
-        <v>19.3</v>
+        <v>45.2</v>
       </c>
       <c r="L26">
-        <v>19.3</v>
+        <v>45.2</v>
       </c>
       <c r="M26">
-        <v>19.5</v>
+        <v>45.2</v>
       </c>
       <c r="N26">
-        <v>19.7</v>
+        <v>45.2</v>
       </c>
       <c r="O26">
-        <v>19.7</v>
+        <v>45.2</v>
       </c>
       <c r="P26">
-        <v>19.8</v>
+        <v>45.3</v>
       </c>
       <c r="Q26">
-        <v>19.8</v>
+        <v>45.3</v>
       </c>
       <c r="R26">
-        <v>19.8</v>
+        <v>45.3</v>
       </c>
       <c r="S26">
-        <v>19.8</v>
+        <v>45.3</v>
       </c>
       <c r="T26">
-        <v>19.899999999999999</v>
+        <v>45.3</v>
       </c>
       <c r="U26">
-        <v>19.899999999999999</v>
+        <v>45.3</v>
       </c>
       <c r="V26">
-        <v>19.899999999999999</v>
+        <v>45.3</v>
       </c>
       <c r="W26">
-        <v>19.899999999999999</v>
+        <v>45.3</v>
       </c>
       <c r="X26">
-        <v>19.899999999999999</v>
+        <v>45.4</v>
       </c>
       <c r="Y26">
-        <v>19.899999999999999</v>
+        <v>45.4</v>
       </c>
       <c r="Z26">
-        <v>19.899999999999999</v>
+        <v>45.4</v>
       </c>
       <c r="AA26">
-        <v>19.899999999999999</v>
+        <v>45.4</v>
       </c>
       <c r="AB26">
-        <v>19.899999999999999</v>
+        <v>45.4</v>
       </c>
       <c r="AC26">
-        <v>19.899999999999999</v>
+        <v>45.4</v>
       </c>
       <c r="AD26">
-        <v>19.899999999999999</v>
+        <v>45.4</v>
       </c>
       <c r="AE26">
-        <v>19.899999999999999</v>
+        <v>45.4</v>
       </c>
       <c r="AF26">
-        <v>19.899999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+        <v>45.4</v>
+      </c>
+      <c r="AG26">
+        <v>45.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B27">
-        <v>7.2</v>
+        <v>3.3</v>
       </c>
       <c r="C27">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="D27">
-        <v>6.1</v>
+        <v>2.9</v>
       </c>
       <c r="E27">
-        <v>5.7</v>
+        <v>2.7</v>
       </c>
       <c r="F27">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="G27">
-        <v>4.7</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H27">
-        <v>4.5999999999999996</v>
+        <v>2.1</v>
       </c>
       <c r="I27">
-        <v>4.3</v>
+        <v>2</v>
       </c>
       <c r="J27">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="K27">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="L27">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="M27">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="N27">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="O27">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="P27">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="Q27">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="R27">
         <v>1.2</v>
@@ -5521,48 +5568,51 @@
         <v>1.2</v>
       </c>
       <c r="T27">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="U27">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="V27">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="W27">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="X27">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="Y27">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="Z27">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AA27">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AB27">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AC27">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AD27">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AE27">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AF27">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG27">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B28">
         <v>0.5</v>
@@ -5642,82 +5692,85 @@
       <c r="AA28">
         <v>-0.1</v>
       </c>
-      <c r="AB28" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B29">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C29">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D29">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E29">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F29">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G29">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H29">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I29">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="J29">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="K29">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="L29">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="M29">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="N29">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="O29">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="P29">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="Q29">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="R29">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="S29">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="T29">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="U29">
         <v>0.3</v>
@@ -5726,13 +5779,13 @@
         <v>0.3</v>
       </c>
       <c r="W29">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="X29">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="Y29">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="Z29">
         <v>0.2</v>
@@ -5755,58 +5808,61 @@
       <c r="AF29">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG29">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B30">
-        <v>3.9</v>
+        <v>1.4</v>
       </c>
       <c r="C30">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="D30">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F30">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H30">
-        <v>2.2999999999999998</v>
+        <v>0.8</v>
       </c>
       <c r="I30">
-        <v>2.2000000000000002</v>
+        <v>0.7</v>
       </c>
       <c r="J30">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="K30">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="L30">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="N30">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="O30">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="P30">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="Q30">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="R30">
         <v>0.3</v>
@@ -5815,96 +5871,99 @@
         <v>0.3</v>
       </c>
       <c r="T30">
+        <v>0.3</v>
+      </c>
+      <c r="U30">
         <v>0.2</v>
       </c>
-      <c r="U30">
-        <v>0.1</v>
-      </c>
       <c r="V30">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="W30">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="X30">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="Y30">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="Z30">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AA30">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AB30">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AC30">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AD30">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AE30">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AF30">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG30">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B31">
-        <v>2.6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C31">
-        <v>2.2999999999999998</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="F31">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="G31">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H31">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="I31">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="J31">
-        <v>1.1000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="M31">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="N31">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="O31">
         <v>0.3</v>
       </c>
       <c r="P31">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="Q31">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="R31">
         <v>0.2</v>
@@ -5913,146 +5972,152 @@
         <v>0.2</v>
       </c>
       <c r="T31">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="U31">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="V31">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="W31">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="X31">
         <v>0.1</v>
       </c>
       <c r="Y31">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="Z31">
         <v>0.1</v>
       </c>
       <c r="AA31">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AB31">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AC31">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AD31">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AE31">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AF31">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG31">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B32">
-        <v>-107.6</v>
+        <v>-107.8</v>
       </c>
       <c r="C32">
-        <v>-108.2</v>
+        <v>-108.4</v>
       </c>
       <c r="D32">
-        <v>-106.1</v>
+        <v>-106.3</v>
       </c>
       <c r="E32">
-        <v>-105.1</v>
+        <v>-105.4</v>
       </c>
       <c r="F32">
+        <v>-103.8</v>
+      </c>
+      <c r="G32">
         <v>-103.5</v>
       </c>
-      <c r="G32">
-        <v>-103.2</v>
-      </c>
       <c r="H32">
-        <v>-104.1</v>
+        <v>-104.4</v>
       </c>
       <c r="I32">
-        <v>-104.5</v>
+        <v>-104.8</v>
       </c>
       <c r="J32">
-        <v>-106.7</v>
+        <v>-106.9</v>
       </c>
       <c r="K32">
-        <v>-109.1</v>
+        <v>-109.4</v>
       </c>
       <c r="L32">
-        <v>-110</v>
+        <v>-110.3</v>
       </c>
       <c r="M32">
-        <v>-111.3</v>
+        <v>-111.6</v>
       </c>
       <c r="N32">
-        <v>-110.7</v>
+        <v>-111</v>
       </c>
       <c r="O32">
-        <v>-111.5</v>
+        <v>-111.7</v>
       </c>
       <c r="P32">
-        <v>-112.2</v>
+        <v>-112.6</v>
       </c>
       <c r="Q32">
-        <v>-113.5</v>
+        <v>-113.9</v>
       </c>
       <c r="R32">
-        <v>-114</v>
+        <v>-114.3</v>
       </c>
       <c r="S32">
-        <v>-115.2</v>
+        <v>-115.5</v>
       </c>
       <c r="T32">
-        <v>-118.2</v>
+        <v>-118.6</v>
       </c>
       <c r="U32">
-        <v>-120.1</v>
+        <v>-120.4</v>
       </c>
       <c r="V32">
-        <v>-121.6</v>
+        <v>-121.8</v>
       </c>
       <c r="W32">
+        <v>-122.1</v>
+      </c>
+      <c r="X32">
+        <v>-122.2</v>
+      </c>
+      <c r="Y32">
+        <v>-123.4</v>
+      </c>
+      <c r="Z32">
+        <v>-124.6</v>
+      </c>
+      <c r="AA32">
+        <v>-123.9</v>
+      </c>
+      <c r="AB32">
         <v>-121.9</v>
       </c>
-      <c r="X32">
-        <v>-121.9</v>
-      </c>
-      <c r="Y32">
-        <v>-123.2</v>
-      </c>
-      <c r="Z32">
-        <v>-124.3</v>
-      </c>
-      <c r="AA32">
-        <v>-123.7</v>
-      </c>
-      <c r="AB32">
-        <v>-121.5</v>
-      </c>
       <c r="AC32">
-        <v>-125.3</v>
+        <v>-125.6</v>
       </c>
       <c r="AD32">
-        <v>-124.9</v>
+        <v>-125</v>
       </c>
       <c r="AE32">
         <v>-124.5</v>
       </c>
       <c r="AF32">
-        <v>-123.7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+        <v>-131.6</v>
+      </c>
+      <c r="AG32">
+        <v>-132.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B33">
         <v>11.3</v>
@@ -6147,10 +6212,13 @@
       <c r="AF33">
         <v>15.9</v>
       </c>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG33">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B34">
         <v>-96.4</v>
@@ -6234,119 +6302,125 @@
         <v>-129.80000000000001</v>
       </c>
       <c r="AC34">
-        <v>-129.80000000000001</v>
+        <v>-129.6</v>
       </c>
       <c r="AD34">
-        <v>-129.80000000000001</v>
+        <v>-129.5</v>
       </c>
       <c r="AE34">
-        <v>-129.80000000000001</v>
+        <v>-129.30000000000001</v>
       </c>
       <c r="AF34">
-        <v>-129.80000000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+        <v>-136.69999999999999</v>
+      </c>
+      <c r="AG34">
+        <v>-137.80000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B35">
+        <v>1.8</v>
+      </c>
+      <c r="C35">
+        <v>1.8</v>
+      </c>
+      <c r="D35">
         <v>2</v>
       </c>
-      <c r="C35">
+      <c r="E35">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F35">
+        <v>2.1</v>
+      </c>
+      <c r="G35">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H35">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I35">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J35">
+        <v>1.8</v>
+      </c>
+      <c r="K35">
+        <v>1.8</v>
+      </c>
+      <c r="L35">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M35">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N35">
         <v>2</v>
       </c>
-      <c r="D35">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E35">
-        <v>2.5</v>
-      </c>
-      <c r="F35">
-        <v>2.4</v>
-      </c>
-      <c r="G35">
-        <v>2.4</v>
-      </c>
-      <c r="H35">
-        <v>2.5</v>
-      </c>
-      <c r="I35">
-        <v>2.4</v>
-      </c>
-      <c r="J35">
+      <c r="O35">
+        <v>2.1</v>
+      </c>
+      <c r="P35">
+        <v>2.8</v>
+      </c>
+      <c r="Q35">
+        <v>2.8</v>
+      </c>
+      <c r="R35">
+        <v>2.8</v>
+      </c>
+      <c r="S35">
+        <v>2.9</v>
+      </c>
+      <c r="T35">
+        <v>2.8</v>
+      </c>
+      <c r="U35">
+        <v>2.7</v>
+      </c>
+      <c r="V35">
+        <v>1.9</v>
+      </c>
+      <c r="W35">
+        <v>2.1</v>
+      </c>
+      <c r="X35">
+        <v>1.9</v>
+      </c>
+      <c r="Y35">
         <v>2</v>
       </c>
-      <c r="K35">
+      <c r="Z35">
+        <v>2</v>
+      </c>
+      <c r="AA35">
+        <v>1.9</v>
+      </c>
+      <c r="AB35">
+        <v>1.9</v>
+      </c>
+      <c r="AC35">
+        <v>1.9</v>
+      </c>
+      <c r="AD35">
+        <v>2</v>
+      </c>
+      <c r="AE35">
+        <v>2</v>
+      </c>
+      <c r="AF35">
+        <v>2</v>
+      </c>
+      <c r="AG35">
         <v>2.1</v>
       </c>
-      <c r="L35">
-        <v>2.6</v>
-      </c>
-      <c r="M35">
-        <v>2.5</v>
-      </c>
-      <c r="N35">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="O35">
-        <v>2.4</v>
-      </c>
-      <c r="P35">
-        <v>3.1</v>
-      </c>
-      <c r="Q35">
-        <v>3.1</v>
-      </c>
-      <c r="R35">
-        <v>3.2</v>
-      </c>
-      <c r="S35">
-        <v>3.2</v>
-      </c>
-      <c r="T35">
-        <v>3.2</v>
-      </c>
-      <c r="U35">
-        <v>3</v>
-      </c>
-      <c r="V35">
-        <v>2.1</v>
-      </c>
-      <c r="W35">
-        <v>2.4</v>
-      </c>
-      <c r="X35">
-        <v>2.1</v>
-      </c>
-      <c r="Y35">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="Z35">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AA35">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AB35">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AC35">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AD35">
-        <v>2.4</v>
-      </c>
-      <c r="AE35">
-        <v>2.4</v>
-      </c>
-      <c r="AF35">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B36">
         <v>-24.5</v>
@@ -6439,758 +6513,782 @@
         <v>-13.1</v>
       </c>
       <c r="AF36">
-        <v>-12.2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+        <v>-12.8</v>
+      </c>
+      <c r="AG36">
+        <v>-12.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37">
+        <v>62.5</v>
+      </c>
+      <c r="C37">
         <v>64</v>
       </c>
-      <c r="B37">
-        <v>60.8</v>
-      </c>
-      <c r="C37">
-        <v>62.3</v>
-      </c>
       <c r="D37">
-        <v>63.9</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="E37">
-        <v>65.7</v>
+        <v>67.5</v>
       </c>
       <c r="F37">
+        <v>69.3</v>
+      </c>
+      <c r="G37">
+        <v>71.3</v>
+      </c>
+      <c r="H37">
+        <v>73.3</v>
+      </c>
+      <c r="I37">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="J37">
+        <v>77.3</v>
+      </c>
+      <c r="K37">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="L37">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="M37">
+        <v>82.7</v>
+      </c>
+      <c r="N37">
+        <v>83.9</v>
+      </c>
+      <c r="O37">
+        <v>84.4</v>
+      </c>
+      <c r="P37">
+        <v>84.6</v>
+      </c>
+      <c r="Q37">
+        <v>85</v>
+      </c>
+      <c r="R37">
+        <v>85.1</v>
+      </c>
+      <c r="S37">
+        <v>85.1</v>
+      </c>
+      <c r="T37">
+        <v>84.9</v>
+      </c>
+      <c r="U37">
+        <v>84.7</v>
+      </c>
+      <c r="V37">
+        <v>84.3</v>
+      </c>
+      <c r="W37">
+        <v>83.9</v>
+      </c>
+      <c r="X37">
+        <v>83.4</v>
+      </c>
+      <c r="Y37">
+        <v>82.8</v>
+      </c>
+      <c r="Z37">
+        <v>82</v>
+      </c>
+      <c r="AA37">
+        <v>81</v>
+      </c>
+      <c r="AB37">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="AC37">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="AD37">
+        <v>81</v>
+      </c>
+      <c r="AE37">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="AF37">
+        <v>81</v>
+      </c>
+      <c r="AG37">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>62.5</v>
+      </c>
+      <c r="C38">
+        <v>64</v>
+      </c>
+      <c r="D38">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="E38">
         <v>67.5</v>
       </c>
-      <c r="G37">
-        <v>69.5</v>
-      </c>
-      <c r="H37">
-        <v>71.400000000000006</v>
-      </c>
-      <c r="I37">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="J37">
+      <c r="F38">
+        <v>69.3</v>
+      </c>
+      <c r="G38">
+        <v>71.3</v>
+      </c>
+      <c r="H38">
+        <v>73.3</v>
+      </c>
+      <c r="I38">
         <v>75.400000000000006</v>
       </c>
-      <c r="K37">
-        <v>77.099999999999994</v>
-      </c>
-      <c r="L37">
+      <c r="J38">
+        <v>77.3</v>
+      </c>
+      <c r="K38">
         <v>79.099999999999994</v>
       </c>
-      <c r="M37">
-        <v>80.7</v>
-      </c>
-      <c r="N37">
-        <v>81.8</v>
-      </c>
-      <c r="O37">
-        <v>82.3</v>
-      </c>
-      <c r="P37">
-        <v>82.5</v>
-      </c>
-      <c r="Q37">
+      <c r="L38">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="M38">
+        <v>82.7</v>
+      </c>
+      <c r="N38">
+        <v>83.9</v>
+      </c>
+      <c r="O38">
+        <v>84.4</v>
+      </c>
+      <c r="P38">
+        <v>84.6</v>
+      </c>
+      <c r="Q38">
+        <v>85</v>
+      </c>
+      <c r="R38">
+        <v>85.1</v>
+      </c>
+      <c r="S38">
+        <v>85.1</v>
+      </c>
+      <c r="T38">
+        <v>84.9</v>
+      </c>
+      <c r="U38">
+        <v>84.7</v>
+      </c>
+      <c r="V38">
+        <v>84.3</v>
+      </c>
+      <c r="W38">
+        <v>83.9</v>
+      </c>
+      <c r="X38">
+        <v>83.4</v>
+      </c>
+      <c r="Y38">
         <v>82.8</v>
       </c>
-      <c r="R37">
-        <v>82.9</v>
-      </c>
-      <c r="S37">
-        <v>82.8</v>
-      </c>
-      <c r="T37">
-        <v>82.6</v>
-      </c>
-      <c r="U37">
-        <v>82.3</v>
-      </c>
-      <c r="V37">
-        <v>81.900000000000006</v>
-      </c>
-      <c r="W37">
-        <v>81.400000000000006</v>
-      </c>
-      <c r="X37">
+      <c r="Z38">
+        <v>82</v>
+      </c>
+      <c r="AA38">
+        <v>81</v>
+      </c>
+      <c r="AB38">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="AC38">
         <v>80.900000000000006</v>
       </c>
-      <c r="Y37">
-        <v>80.2</v>
-      </c>
-      <c r="Z37">
-        <v>79.400000000000006</v>
-      </c>
-      <c r="AA37">
-        <v>78.3</v>
-      </c>
-      <c r="AB37">
+      <c r="AD38">
+        <v>81</v>
+      </c>
+      <c r="AE38">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="AF38">
+        <v>81</v>
+      </c>
+      <c r="AG38">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39">
+        <v>57.9</v>
+      </c>
+      <c r="C39">
+        <v>57.2</v>
+      </c>
+      <c r="D39">
+        <v>54.3</v>
+      </c>
+      <c r="E39">
+        <v>54.6</v>
+      </c>
+      <c r="F39">
+        <v>58.3</v>
+      </c>
+      <c r="G39">
+        <v>54</v>
+      </c>
+      <c r="H39">
+        <v>57.1</v>
+      </c>
+      <c r="I39">
+        <v>53.5</v>
+      </c>
+      <c r="J39">
+        <v>54.8</v>
+      </c>
+      <c r="K39">
+        <v>59.5</v>
+      </c>
+      <c r="L39">
+        <v>66.2</v>
+      </c>
+      <c r="M39">
+        <v>57.4</v>
+      </c>
+      <c r="N39">
+        <v>70.5</v>
+      </c>
+      <c r="O39">
+        <v>63.3</v>
+      </c>
+      <c r="P39">
+        <v>81.7</v>
+      </c>
+      <c r="Q39">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="R39">
+        <v>64.2</v>
+      </c>
+      <c r="S39">
+        <v>69</v>
+      </c>
+      <c r="T39">
+        <v>61.2</v>
+      </c>
+      <c r="U39">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="V39">
+        <v>56.3</v>
+      </c>
+      <c r="W39">
+        <v>62.6</v>
+      </c>
+      <c r="X39">
+        <v>63.8</v>
+      </c>
+      <c r="Y39">
+        <v>64.3</v>
+      </c>
+      <c r="Z39">
+        <v>58</v>
+      </c>
+      <c r="AA39">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="AB39">
+        <v>58.9</v>
+      </c>
+      <c r="AC39">
+        <v>68.3</v>
+      </c>
+      <c r="AD39">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="AE39">
+        <v>64.2</v>
+      </c>
+      <c r="AF39">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="AG39">
         <v>77.8</v>
       </c>
-      <c r="AC37">
-        <v>77.900000000000006</v>
-      </c>
-      <c r="AD37">
-        <v>78</v>
-      </c>
-      <c r="AE37">
-        <v>77.900000000000006</v>
-      </c>
-      <c r="AF37">
-        <v>77.900000000000006</v>
-      </c>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38">
-        <v>60.8</v>
-      </c>
-      <c r="C38">
-        <v>62.3</v>
-      </c>
-      <c r="D38">
-        <v>63.9</v>
-      </c>
-      <c r="E38">
-        <v>65.7</v>
-      </c>
-      <c r="F38">
-        <v>67.5</v>
-      </c>
-      <c r="G38">
-        <v>69.5</v>
-      </c>
-      <c r="H38">
-        <v>71.400000000000006</v>
-      </c>
-      <c r="I38">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="J38">
-        <v>75.400000000000006</v>
-      </c>
-      <c r="K38">
-        <v>77.099999999999994</v>
-      </c>
-      <c r="L38">
-        <v>79.099999999999994</v>
-      </c>
-      <c r="M38">
-        <v>80.7</v>
-      </c>
-      <c r="N38">
-        <v>81.8</v>
-      </c>
-      <c r="O38">
-        <v>82.3</v>
-      </c>
-      <c r="P38">
-        <v>82.5</v>
-      </c>
-      <c r="Q38">
-        <v>82.8</v>
-      </c>
-      <c r="R38">
-        <v>82.9</v>
-      </c>
-      <c r="S38">
-        <v>82.8</v>
-      </c>
-      <c r="T38">
-        <v>82.6</v>
-      </c>
-      <c r="U38">
-        <v>82.3</v>
-      </c>
-      <c r="V38">
-        <v>81.900000000000006</v>
-      </c>
-      <c r="W38">
-        <v>81.400000000000006</v>
-      </c>
-      <c r="X38">
-        <v>80.900000000000006</v>
-      </c>
-      <c r="Y38">
-        <v>80.2</v>
-      </c>
-      <c r="Z38">
-        <v>79.400000000000006</v>
-      </c>
-      <c r="AA38">
-        <v>78.3</v>
-      </c>
-      <c r="AB38">
-        <v>77.8</v>
-      </c>
-      <c r="AC38">
-        <v>77.900000000000006</v>
-      </c>
-      <c r="AD38">
-        <v>78</v>
-      </c>
-      <c r="AE38">
-        <v>77.900000000000006</v>
-      </c>
-      <c r="AF38">
-        <v>77.900000000000006</v>
-      </c>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>65</v>
-      </c>
-      <c r="B39">
-        <v>31.4</v>
-      </c>
-      <c r="C39">
-        <v>30.7</v>
-      </c>
-      <c r="D39">
-        <v>28.8</v>
-      </c>
-      <c r="E39">
-        <v>28.8</v>
-      </c>
-      <c r="F39">
-        <v>32.1</v>
-      </c>
-      <c r="G39">
-        <v>28.5</v>
-      </c>
-      <c r="H39">
-        <v>31.2</v>
-      </c>
-      <c r="I39">
-        <v>28.1</v>
-      </c>
-      <c r="J39">
-        <v>28.6</v>
-      </c>
-      <c r="K39">
-        <v>32.5</v>
-      </c>
-      <c r="L39">
-        <v>37.4</v>
-      </c>
-      <c r="M39">
-        <v>31.6</v>
-      </c>
-      <c r="N39">
-        <v>40.700000000000003</v>
-      </c>
-      <c r="O39">
-        <v>36.5</v>
-      </c>
-      <c r="P39">
-        <v>46.3</v>
-      </c>
-      <c r="Q39">
-        <v>41.3</v>
-      </c>
-      <c r="R39">
-        <v>37.9</v>
-      </c>
-      <c r="S39">
-        <v>42.4</v>
-      </c>
-      <c r="T39">
-        <v>36</v>
-      </c>
-      <c r="U39">
-        <v>38</v>
-      </c>
-      <c r="V39">
-        <v>30.4</v>
-      </c>
-      <c r="W39">
-        <v>35.6</v>
-      </c>
-      <c r="X39">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="Y39">
-        <v>37.1</v>
-      </c>
-      <c r="Z39">
-        <v>33</v>
-      </c>
-      <c r="AA39">
-        <v>48.9</v>
-      </c>
-      <c r="AB39">
-        <v>35.4</v>
-      </c>
-      <c r="AC39">
-        <v>45.5</v>
-      </c>
-      <c r="AD39">
-        <v>39.799999999999997</v>
-      </c>
-      <c r="AE39">
-        <v>30.3</v>
-      </c>
-      <c r="AF39">
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40">
+        <v>53.5</v>
+      </c>
+      <c r="C40">
+        <v>53</v>
+      </c>
+      <c r="D40">
+        <v>51.2</v>
+      </c>
+      <c r="E40">
+        <v>51.2</v>
+      </c>
+      <c r="F40">
+        <v>53.6</v>
+      </c>
+      <c r="G40">
+        <v>50.8</v>
+      </c>
+      <c r="H40">
+        <v>52.6</v>
+      </c>
+      <c r="I40">
+        <v>50.5</v>
+      </c>
+      <c r="J40">
+        <v>51.4</v>
+      </c>
+      <c r="K40">
+        <v>54.1</v>
+      </c>
+      <c r="L40">
+        <v>58.2</v>
+      </c>
+      <c r="M40">
+        <v>52.7</v>
+      </c>
+      <c r="N40">
+        <v>60.9</v>
+      </c>
+      <c r="O40">
+        <v>56.6</v>
+      </c>
+      <c r="P40">
+        <v>66.8</v>
+      </c>
+      <c r="Q40">
+        <v>61.3</v>
+      </c>
+      <c r="R40">
+        <v>56.5</v>
+      </c>
+      <c r="S40">
+        <v>59.6</v>
+      </c>
+      <c r="T40">
+        <v>54.8</v>
+      </c>
+      <c r="U40">
+        <v>57.9</v>
+      </c>
+      <c r="V40">
+        <v>52.2</v>
+      </c>
+      <c r="W40">
+        <v>55.7</v>
+      </c>
+      <c r="X40">
+        <v>57</v>
+      </c>
+      <c r="Y40">
+        <v>57.2</v>
+      </c>
+      <c r="Z40">
         <v>53.2</v>
       </c>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="AA40">
+        <v>67</v>
+      </c>
+      <c r="AB40">
+        <v>53.9</v>
+      </c>
+      <c r="AC40">
+        <v>60.1</v>
+      </c>
+      <c r="AD40">
+        <v>57.3</v>
+      </c>
+      <c r="AE40">
+        <v>56.9</v>
+      </c>
+      <c r="AF40">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="AG40">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>21</v>
       </c>
-      <c r="B40">
-        <v>27.2</v>
-      </c>
-      <c r="C40">
-        <v>26.5</v>
-      </c>
-      <c r="D40">
-        <v>25.4</v>
-      </c>
-      <c r="E40">
-        <v>25.3</v>
-      </c>
-      <c r="F40">
-        <v>26.8</v>
-      </c>
-      <c r="G40">
-        <v>25</v>
-      </c>
-      <c r="H40">
-        <v>26.2</v>
-      </c>
-      <c r="I40">
-        <v>24.7</v>
-      </c>
-      <c r="J40">
-        <v>25.1</v>
-      </c>
-      <c r="K40">
-        <v>27</v>
-      </c>
-      <c r="L40">
-        <v>29.4</v>
-      </c>
-      <c r="M40">
-        <v>26.2</v>
-      </c>
-      <c r="N40">
-        <v>31.2</v>
-      </c>
-      <c r="O40">
-        <v>28.9</v>
-      </c>
-      <c r="P40">
-        <v>33.200000000000003</v>
-      </c>
-      <c r="Q40">
-        <v>30.9</v>
-      </c>
-      <c r="R40">
-        <v>29</v>
-      </c>
-      <c r="S40">
-        <v>31.6</v>
-      </c>
-      <c r="T40">
-        <v>28</v>
-      </c>
-      <c r="U40">
-        <v>29.1</v>
-      </c>
-      <c r="V40">
-        <v>25.4</v>
-      </c>
-      <c r="W40">
-        <v>27.9</v>
-      </c>
-      <c r="X40">
-        <v>29.3</v>
-      </c>
-      <c r="Y40">
-        <v>29.3</v>
-      </c>
-      <c r="Z40">
-        <v>26.9</v>
-      </c>
-      <c r="AA40">
-        <v>36</v>
-      </c>
-      <c r="AB40">
-        <v>28.3</v>
-      </c>
-      <c r="AC40">
-        <v>34</v>
-      </c>
-      <c r="AD40">
-        <v>30.7</v>
-      </c>
-      <c r="AE40">
-        <v>25.5</v>
-      </c>
-      <c r="AF40">
-        <v>38.1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>22</v>
-      </c>
       <c r="B41">
-        <v>4.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C41">
         <v>4.2</v>
       </c>
       <c r="D41">
+        <v>3.1</v>
+      </c>
+      <c r="E41">
+        <v>3.3</v>
+      </c>
+      <c r="F41">
+        <v>4.7</v>
+      </c>
+      <c r="G41">
+        <v>3.2</v>
+      </c>
+      <c r="H41">
+        <v>4.5</v>
+      </c>
+      <c r="I41">
+        <v>3</v>
+      </c>
+      <c r="J41">
         <v>3.4</v>
       </c>
-      <c r="E41">
-        <v>3.5</v>
-      </c>
-      <c r="F41">
-        <v>5.2</v>
-      </c>
-      <c r="G41">
-        <v>3.5</v>
-      </c>
-      <c r="H41">
-        <v>5</v>
-      </c>
-      <c r="I41">
-        <v>3.4</v>
-      </c>
-      <c r="J41">
-        <v>3.5</v>
-      </c>
       <c r="K41">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L41">
         <v>8</v>
       </c>
       <c r="M41">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="N41">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="O41">
-        <v>7.6</v>
+        <v>6.7</v>
       </c>
       <c r="P41">
-        <v>13.2</v>
+        <v>14.9</v>
       </c>
       <c r="Q41">
-        <v>10.5</v>
+        <v>11.1</v>
       </c>
       <c r="R41">
-        <v>8.8000000000000007</v>
+        <v>7.7</v>
       </c>
       <c r="S41">
-        <v>10.8</v>
+        <v>9.4</v>
       </c>
       <c r="T41">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="U41">
-        <v>8.9</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="V41">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="W41">
+        <v>6.8</v>
+      </c>
+      <c r="X41">
+        <v>6.8</v>
+      </c>
+      <c r="Y41">
+        <v>7.1</v>
+      </c>
+      <c r="Z41">
+        <v>4.8</v>
+      </c>
+      <c r="AA41">
+        <v>13.4</v>
+      </c>
+      <c r="AB41">
         <v>5</v>
       </c>
-      <c r="W41">
-        <v>7.7</v>
-      </c>
-      <c r="X41">
-        <v>8.5</v>
-      </c>
-      <c r="Y41">
-        <v>7.8</v>
-      </c>
-      <c r="Z41">
-        <v>6.1</v>
-      </c>
-      <c r="AA41">
-        <v>12.9</v>
-      </c>
-      <c r="AB41">
-        <v>7.1</v>
-      </c>
       <c r="AC41">
-        <v>11.5</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="AD41">
-        <v>9.1</v>
+        <v>7</v>
       </c>
       <c r="AE41">
-        <v>4.8</v>
+        <v>7.3</v>
       </c>
       <c r="AF41">
-        <v>15.2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="AG41">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42">
+        <v>-938.9</v>
+      </c>
+      <c r="C42">
+        <v>-944.4</v>
+      </c>
+      <c r="D42">
+        <v>-936.8</v>
+      </c>
+      <c r="E42">
+        <v>-917.6</v>
+      </c>
+      <c r="F42">
+        <v>-931.8</v>
+      </c>
+      <c r="G42">
+        <v>-902.8</v>
+      </c>
+      <c r="H42">
+        <v>-923.5</v>
+      </c>
+      <c r="I42">
+        <v>-903.4</v>
+      </c>
+      <c r="J42">
+        <v>-904.8</v>
+      </c>
+      <c r="K42">
+        <v>-900.5</v>
+      </c>
+      <c r="L42">
+        <v>-902</v>
+      </c>
+      <c r="M42">
+        <v>-899.9</v>
+      </c>
+      <c r="N42">
+        <v>-867.1</v>
+      </c>
+      <c r="O42">
+        <v>-891.4</v>
+      </c>
+      <c r="P42">
+        <v>-791.3</v>
+      </c>
+      <c r="Q42">
+        <v>-853.5</v>
+      </c>
+      <c r="R42">
+        <v>-882.6</v>
+      </c>
+      <c r="S42">
+        <v>-843.1</v>
+      </c>
+      <c r="T42">
+        <v>-824.7</v>
+      </c>
+      <c r="U42">
+        <v>-787</v>
+      </c>
+      <c r="V42">
+        <v>-807.4</v>
+      </c>
+      <c r="W42">
+        <v>-853.8</v>
+      </c>
+      <c r="X42">
+        <v>-849.4</v>
+      </c>
+      <c r="Y42">
+        <v>-813.5</v>
+      </c>
+      <c r="Z42">
+        <v>-826.9</v>
+      </c>
+      <c r="AA42">
+        <v>-752.2</v>
+      </c>
+      <c r="AB42">
+        <v>-874.2</v>
+      </c>
+      <c r="AC42">
+        <v>-842.5</v>
+      </c>
+      <c r="AD42">
+        <v>-829.5</v>
+      </c>
+      <c r="AE42">
+        <v>-768.2</v>
+      </c>
+      <c r="AF42">
+        <v>-852.5</v>
+      </c>
+      <c r="AG42">
+        <v>-832</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43">
+        <v>-881</v>
+      </c>
+      <c r="C43">
+        <v>-887.2</v>
+      </c>
+      <c r="D43">
+        <v>-882.5</v>
+      </c>
+      <c r="E43">
+        <v>-863.1</v>
+      </c>
+      <c r="F43">
+        <v>-873.6</v>
+      </c>
+      <c r="G43">
+        <v>-848.8</v>
+      </c>
+      <c r="H43">
+        <v>-866.4</v>
+      </c>
+      <c r="I43">
+        <v>-849.9</v>
+      </c>
+      <c r="J43">
+        <v>-850</v>
+      </c>
+      <c r="K43">
+        <v>-841</v>
+      </c>
+      <c r="L43">
+        <v>-835.8</v>
+      </c>
+      <c r="M43">
+        <v>-842.6</v>
+      </c>
+      <c r="N43">
+        <v>-796.6</v>
+      </c>
+      <c r="O43">
+        <v>-828.1</v>
+      </c>
+      <c r="P43">
+        <v>-709.6</v>
+      </c>
+      <c r="Q43">
+        <v>-781.1</v>
+      </c>
+      <c r="R43">
+        <v>-818.4</v>
+      </c>
+      <c r="S43">
+        <v>-774.1</v>
+      </c>
+      <c r="T43">
+        <v>-763.4</v>
+      </c>
+      <c r="U43">
+        <v>-720.5</v>
+      </c>
+      <c r="V43">
+        <v>-751</v>
+      </c>
+      <c r="W43">
+        <v>-791.2</v>
+      </c>
+      <c r="X43">
+        <v>-785.6</v>
+      </c>
+      <c r="Y43">
+        <v>-749.2</v>
+      </c>
+      <c r="Z43">
+        <v>-768.8</v>
+      </c>
+      <c r="AA43">
+        <v>-671.9</v>
+      </c>
+      <c r="AB43">
+        <v>-815.3</v>
+      </c>
+      <c r="AC43">
+        <v>-774.2</v>
+      </c>
+      <c r="AD43">
+        <v>-765.1</v>
+      </c>
+      <c r="AE43">
+        <v>-704</v>
+      </c>
+      <c r="AF43">
+        <v>-776.2</v>
+      </c>
+      <c r="AG43">
+        <v>-754.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>66</v>
-      </c>
-      <c r="B42">
-        <v>-892</v>
-      </c>
-      <c r="C42">
-        <v>-900.6</v>
-      </c>
-      <c r="D42">
-        <v>-891.2</v>
-      </c>
-      <c r="E42">
-        <v>-873</v>
-      </c>
-      <c r="F42">
-        <v>-889.6</v>
-      </c>
-      <c r="G42">
-        <v>-860.3</v>
-      </c>
-      <c r="H42">
-        <v>-883.3</v>
-      </c>
-      <c r="I42">
-        <v>-861.5</v>
-      </c>
-      <c r="J42">
-        <v>-863.9</v>
-      </c>
-      <c r="K42">
-        <v>-860.6</v>
-      </c>
-      <c r="L42">
-        <v>-862.6</v>
-      </c>
-      <c r="M42">
-        <v>-860.4</v>
-      </c>
-      <c r="N42">
-        <v>-831.2</v>
-      </c>
-      <c r="O42">
-        <v>-857.3</v>
-      </c>
-      <c r="P42">
-        <v>-775.8</v>
-      </c>
-      <c r="Q42">
-        <v>-831.1</v>
-      </c>
-      <c r="R42">
-        <v>-855.1</v>
-      </c>
-      <c r="S42">
-        <v>-818.7</v>
-      </c>
-      <c r="T42">
-        <v>-802.5</v>
-      </c>
-      <c r="U42">
-        <v>-772.5</v>
-      </c>
-      <c r="V42">
-        <v>-791.4</v>
-      </c>
-      <c r="W42">
-        <v>-836.3</v>
-      </c>
-      <c r="X42">
-        <v>-837.7</v>
-      </c>
-      <c r="Y42">
-        <v>-804.5</v>
-      </c>
-      <c r="Z42">
-        <v>-814.4</v>
-      </c>
-      <c r="AA42">
-        <v>-748.9</v>
-      </c>
-      <c r="AB42">
-        <v>-862</v>
-      </c>
-      <c r="AC42">
-        <v>-826.7</v>
-      </c>
-      <c r="AD42">
-        <v>-809</v>
-      </c>
-      <c r="AE42">
-        <v>-760.8</v>
-      </c>
-      <c r="AF42">
-        <v>-812.2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>67</v>
-      </c>
-      <c r="B43">
-        <v>-860.6</v>
-      </c>
-      <c r="C43">
-        <v>-869.9</v>
-      </c>
-      <c r="D43">
-        <v>-862.4</v>
-      </c>
-      <c r="E43">
-        <v>-844.2</v>
-      </c>
-      <c r="F43">
-        <v>-857.5</v>
-      </c>
-      <c r="G43">
-        <v>-831.8</v>
-      </c>
-      <c r="H43">
-        <v>-852.1</v>
-      </c>
-      <c r="I43">
-        <v>-833.4</v>
-      </c>
-      <c r="J43">
-        <v>-835.3</v>
-      </c>
-      <c r="K43">
-        <v>-828</v>
-      </c>
-      <c r="L43">
-        <v>-825.2</v>
-      </c>
-      <c r="M43">
-        <v>-828.8</v>
-      </c>
-      <c r="N43">
-        <v>-790.5</v>
-      </c>
-      <c r="O43">
-        <v>-820.8</v>
-      </c>
-      <c r="P43">
-        <v>-729.5</v>
-      </c>
-      <c r="Q43">
-        <v>-789.8</v>
-      </c>
-      <c r="R43">
-        <v>-817.2</v>
-      </c>
-      <c r="S43">
-        <v>-776.4</v>
-      </c>
-      <c r="T43">
-        <v>-766.5</v>
-      </c>
-      <c r="U43">
-        <v>-734.5</v>
-      </c>
-      <c r="V43">
-        <v>-761</v>
-      </c>
-      <c r="W43">
-        <v>-800.7</v>
-      </c>
-      <c r="X43">
-        <v>-799.9</v>
-      </c>
-      <c r="Y43">
-        <v>-767.4</v>
-      </c>
-      <c r="Z43">
-        <v>-781.4</v>
-      </c>
-      <c r="AA43">
-        <v>-700.1</v>
-      </c>
-      <c r="AB43">
-        <v>-826.6</v>
-      </c>
-      <c r="AC43">
-        <v>-781.2</v>
-      </c>
-      <c r="AD43">
-        <v>-769.3</v>
-      </c>
-      <c r="AE43">
-        <v>-730.5</v>
-      </c>
-      <c r="AF43">
-        <v>-758.9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -7206,8 +7304,8 @@
   </sheetPr>
   <dimension ref="A1:BL86"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7220,7 +7318,7 @@
   <sheetData>
     <row r="1" spans="1:64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -7288,7 +7386,7 @@
     </row>
     <row r="2" spans="1:64" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B2" s="12"/>
     </row>
@@ -7298,7 +7396,7 @@
     </row>
     <row r="4" spans="1:64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -7375,20 +7473,20 @@
     <row r="6" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="12" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="14"/>
     </row>
     <row r="7" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B7" s="12">
         <v>5.1999999999999998E-2</v>
@@ -7406,7 +7504,7 @@
     </row>
     <row r="8" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B8" s="12">
         <v>0.37</v>
@@ -7424,7 +7522,7 @@
     </row>
     <row r="9" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -7442,7 +7540,7 @@
     </row>
     <row r="11" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B11" s="14">
         <v>2020</v>
@@ -7548,7 +7646,7 @@
     </row>
     <row r="14" spans="1:64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B14" s="14">
         <v>2020</v>
@@ -7832,7 +7930,7 @@
     </row>
     <row r="18" spans="1:64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B18" s="16">
         <f>SUM(B42:B43)*10^3/9</f>
@@ -7969,7 +8067,7 @@
     </row>
     <row r="20" spans="1:64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -8368,7 +8466,7 @@
     </row>
     <row r="24" spans="1:64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -8436,7 +8534,7 @@
     </row>
     <row r="25" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B25" s="12">
         <v>0.78500000000000003</v>
@@ -8447,162 +8545,162 @@
     </row>
     <row r="27" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B28" s="14">
         <v>1.8</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B29" s="14">
         <v>0.2</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="17" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B30" s="14">
         <v>0.1</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="17" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B31" s="14">
         <v>0.05</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B32" s="14">
         <v>0.15</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B33" s="14">
         <v>0.15</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B34" s="14">
         <v>0.1</v>
       </c>
       <c r="C34" s="17"/>
       <c r="D34" s="17" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B35" s="14">
         <v>0.05</v>
       </c>
       <c r="C35" s="17"/>
       <c r="D35" s="17" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B36" s="14">
         <v>0.1</v>
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="17" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B37" s="14">
         <v>0.7</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B38" s="14">
         <v>1.5</v>
       </c>
       <c r="C38" s="17"/>
       <c r="D38" s="17" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B39" s="14">
         <v>0.1</v>
       </c>
       <c r="C39" s="17"/>
       <c r="D39" s="17" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B41" s="14"/>
     </row>
     <row r="42" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B42" s="14">
         <f>SUM(B31:B37)</f>
@@ -8611,7 +8709,7 @@
     </row>
     <row r="43" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B43" s="14">
         <f>B38</f>
@@ -8620,7 +8718,7 @@
     </row>
     <row r="45" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:64" x14ac:dyDescent="0.25">
@@ -8628,7 +8726,7 @@
     </row>
     <row r="47" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -8696,7 +8794,7 @@
     </row>
     <row r="48" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B48" s="12">
         <v>2020</v>
@@ -8826,7 +8924,7 @@
     </row>
     <row r="49" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B49" s="12">
         <v>0</v>
@@ -8956,7 +9054,7 @@
     </row>
     <row r="50" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B50" s="12">
         <v>0</v>
@@ -9086,7 +9184,7 @@
     </row>
     <row r="51" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B51" s="12">
         <v>0</v>
@@ -9216,7 +9314,7 @@
     </row>
     <row r="52" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B52" s="12">
         <v>0</v>
@@ -9346,7 +9444,7 @@
     </row>
     <row r="53" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B53" s="12">
         <v>0</v>
@@ -9476,7 +9574,7 @@
     </row>
     <row r="54" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B54" s="12">
         <v>0</v>
@@ -9606,7 +9704,7 @@
     </row>
     <row r="55" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B55" s="12">
         <v>0</v>
@@ -9736,7 +9834,7 @@
     </row>
     <row r="56" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B56" s="12">
         <v>0</v>
@@ -9866,7 +9964,7 @@
     </row>
     <row r="57" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B57" s="12">
         <v>0</v>
@@ -9996,7 +10094,7 @@
     </row>
     <row r="59" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B59" s="20">
         <f>B42*B25*10^9</f>
@@ -10005,7 +10103,7 @@
     </row>
     <row r="60" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B60" s="20">
         <f>SUM(E49:M51)</f>
@@ -10015,7 +10113,7 @@
     </row>
     <row r="62" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B62" s="22">
         <v>4.7E-2</v>
@@ -10089,7 +10187,7 @@
     </row>
     <row r="64" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
@@ -10157,7 +10255,7 @@
     </row>
     <row r="65" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B65" s="12">
         <v>2020</v>
@@ -10287,7 +10385,7 @@
     </row>
     <row r="66" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B66" s="12">
         <v>0</v>
@@ -10417,7 +10515,7 @@
     </row>
     <row r="67" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B67" s="12">
         <v>0</v>
@@ -10547,7 +10645,7 @@
     </row>
     <row r="68" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B68" s="12">
         <v>0</v>
@@ -10677,7 +10775,7 @@
     </row>
     <row r="69" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B69" s="12">
         <v>0</v>
@@ -10807,7 +10905,7 @@
     </row>
     <row r="70" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B70" s="12">
         <v>0</v>
@@ -10937,7 +11035,7 @@
     </row>
     <row r="71" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B71" s="12">
         <v>0</v>
@@ -11067,7 +11165,7 @@
     </row>
     <row r="72" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B72" s="12">
         <v>0</v>
@@ -11197,7 +11295,7 @@
     </row>
     <row r="73" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B73" s="12">
         <v>0</v>
@@ -11327,7 +11425,7 @@
     </row>
     <row r="74" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B74" s="12">
         <v>0</v>
@@ -11457,7 +11555,7 @@
     </row>
     <row r="76" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B76" s="20">
         <f>B43*B25*10^9</f>
@@ -11466,7 +11564,7 @@
     </row>
     <row r="77" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B77" s="20">
         <f>SUM(E66:M68)</f>
@@ -11475,7 +11573,7 @@
     </row>
     <row r="79" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B79" s="21">
         <v>0.4</v>
@@ -11483,12 +11581,12 @@
     </row>
     <row r="81" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="82" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B82">
         <v>2020</v>
@@ -11586,7 +11684,7 @@
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -11789,7 +11887,7 @@
   <dimension ref="A1:AF13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:AF2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11800,7 +11898,7 @@
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>132</v>
       </c>
       <c r="B1">
         <v>2020</v>
@@ -11898,136 +11996,136 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3">
         <f>Calcs!B4*10^12+'Inflation Reduction Act'!B83</f>
-        <v>-812200000000000</v>
+        <v>-852500000000000</v>
       </c>
       <c r="C2" s="3">
         <f>Calcs!C4*10^12+'Inflation Reduction Act'!C83</f>
-        <v>-782855483870967.88</v>
+        <v>-832000000000000</v>
       </c>
       <c r="D2" s="3">
         <f>Calcs!D4*10^12+'Inflation Reduction Act'!D83</f>
-        <v>-779471250000000.5</v>
+        <v>-824860000000000</v>
       </c>
       <c r="E2" s="3">
         <f>Calcs!E4*10^12+'Inflation Reduction Act'!E83</f>
-        <v>-780974056129032.25</v>
+        <v>-829887040000000</v>
       </c>
       <c r="F2" s="3">
         <f>Calcs!F4*10^12+'Inflation Reduction Act'!F83</f>
-        <v>-782476862258064.88</v>
+        <v>-834914080000000</v>
       </c>
       <c r="G2" s="3">
         <f>Calcs!G4*10^12+'Inflation Reduction Act'!G83</f>
-        <v>-783979648387097.5</v>
+        <v>-839941100000000</v>
       </c>
       <c r="H2" s="3">
         <f>Calcs!H4*10^12+'Inflation Reduction Act'!H83</f>
-        <v>-785482514516129.25</v>
+        <v>-844968200000000.13</v>
       </c>
       <c r="I2" s="3">
         <f>Calcs!I4*10^12+'Inflation Reduction Act'!I83</f>
-        <v>-786985280645161.88</v>
+        <v>-849995200000000</v>
       </c>
       <c r="J2" s="3">
         <f>Calcs!J4*10^12+'Inflation Reduction Act'!J83</f>
-        <v>-788488046774193.63</v>
+        <v>-855022200000000</v>
       </c>
       <c r="K2" s="3">
         <f>Calcs!K4*10^12+'Inflation Reduction Act'!K83</f>
-        <v>-789990912903226.25</v>
+        <v>-860049300000000</v>
       </c>
       <c r="L2" s="3">
         <f>Calcs!L4*10^12+'Inflation Reduction Act'!L83</f>
-        <v>-791493679032258</v>
+        <v>-865076300000000</v>
       </c>
       <c r="M2" s="3">
         <f>Calcs!M4*10^12+'Inflation Reduction Act'!M83</f>
-        <v>-792996545161290.63</v>
+        <v>-870103400000000</v>
       </c>
       <c r="N2" s="3">
         <f>Calcs!N4*10^12+'Inflation Reduction Act'!N83</f>
-        <v>-784927511290323.25</v>
+        <v>-865558600000000</v>
       </c>
       <c r="O2" s="3">
         <f>Calcs!O4*10^12+'Inflation Reduction Act'!O83</f>
-        <v>-776858577419355</v>
+        <v>-861013900000000.13</v>
       </c>
       <c r="P2" s="3">
         <f>Calcs!P4*10^12+'Inflation Reduction Act'!P83</f>
-        <v>-768789643548387.63</v>
+        <v>-856469200000000</v>
       </c>
       <c r="Q2" s="3">
         <f>Calcs!Q4*10^12+'Inflation Reduction Act'!Q83</f>
-        <v>-760720709677419.38</v>
+        <v>-851924500000000.13</v>
       </c>
       <c r="R2" s="3">
         <f>Calcs!R4*10^12+'Inflation Reduction Act'!R83</f>
-        <v>-757336475806452</v>
+        <v>-852064500000000</v>
       </c>
       <c r="S2" s="3">
         <f>Calcs!S4*10^12+'Inflation Reduction Act'!S83</f>
-        <v>-753952241935484.63</v>
+        <v>-852204500000000</v>
       </c>
       <c r="T2" s="3">
         <f>Calcs!T4*10^12+'Inflation Reduction Act'!T83</f>
-        <v>-750568008064516.38</v>
+        <v>-852344500000000</v>
       </c>
       <c r="U2" s="3">
         <f>Calcs!U4*10^12+'Inflation Reduction Act'!U83</f>
-        <v>-747183774193549</v>
+        <v>-852484500000000</v>
       </c>
       <c r="V2" s="3">
         <f>Calcs!V4*10^12+'Inflation Reduction Act'!V83</f>
-        <v>-743799540322580.63</v>
+        <v>-852624500000000.13</v>
       </c>
       <c r="W2" s="3">
         <f>Calcs!W4*10^12+'Inflation Reduction Act'!W83</f>
-        <v>-740415306451613.38</v>
+        <v>-852764500000000</v>
       </c>
       <c r="X2" s="3">
         <f>Calcs!X4*10^12+'Inflation Reduction Act'!X83</f>
-        <v>-737031072580645</v>
+        <v>-852904500000000.13</v>
       </c>
       <c r="Y2" s="3">
         <f>Calcs!Y4*10^12+'Inflation Reduction Act'!Y83</f>
-        <v>-733646838709677.63</v>
+        <v>-853044500000000.13</v>
       </c>
       <c r="Z2" s="3">
         <f>Calcs!Z4*10^12+'Inflation Reduction Act'!Z83</f>
-        <v>-730262604838710.38</v>
+        <v>-853184500000000</v>
       </c>
       <c r="AA2" s="3">
         <f>Calcs!AA4*10^12+'Inflation Reduction Act'!AA83</f>
-        <v>-726878370967742</v>
+        <v>-853324500000000</v>
       </c>
       <c r="AB2" s="3">
         <f>Calcs!AB4*10^12+'Inflation Reduction Act'!AB83</f>
-        <v>-723494137096774.63</v>
+        <v>-853464500000000</v>
       </c>
       <c r="AC2" s="3">
         <f>Calcs!AC4*10^12+'Inflation Reduction Act'!AC83</f>
-        <v>-720109903225806.38</v>
+        <v>-853604500000000.13</v>
       </c>
       <c r="AD2" s="3">
         <f>Calcs!AD4*10^12+'Inflation Reduction Act'!AD83</f>
-        <v>-716725669354839</v>
+        <v>-853744500000000</v>
       </c>
       <c r="AE2" s="3">
         <f>Calcs!AE4*10^12+'Inflation Reduction Act'!AE83</f>
-        <v>-713341435483871.63</v>
+        <v>-853884500000000.13</v>
       </c>
       <c r="AF2" s="3">
         <f>Calcs!AF4*10^12+'Inflation Reduction Act'!AF83</f>
-        <v>-709957201612903.38</v>
+        <v>-854024500000000.13</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -12125,7 +12223,7 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -12223,7 +12321,7 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -12321,7 +12419,7 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -12419,7 +12517,7 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -12517,7 +12615,7 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -12615,7 +12713,7 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -12713,7 +12811,7 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -12811,265 +12909,265 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="3">
         <f>Calcs!B5*10^12/About!$B$9</f>
-        <v>1360714285714.2856</v>
+        <v>2335714285714.2861</v>
       </c>
       <c r="C11" s="3">
         <f>Calcs!C5*10^12/About!$B$9</f>
-        <v>1140760368663.5942</v>
+        <v>2357142857142.8569</v>
       </c>
       <c r="D11" s="3">
         <f>Calcs!D5*10^12/About!$B$9</f>
-        <v>1148110599078.3403</v>
+        <v>2280952380952.3853</v>
       </c>
       <c r="E11" s="3">
         <f>Calcs!E5*10^12/About!$B$9</f>
-        <v>1155460829493.0884</v>
+        <v>2309956709956.7124</v>
       </c>
       <c r="F11" s="3">
         <f>Calcs!F5*10^12/About!$B$9</f>
-        <v>1162811059907.8342</v>
+        <v>2338961038961.0396</v>
       </c>
       <c r="G11" s="3">
         <f>Calcs!G5*10^12/About!$B$9</f>
-        <v>1170161290322.5803</v>
+        <v>2367965367965.3662</v>
       </c>
       <c r="H11" s="3">
         <f>Calcs!H5*10^12/About!$B$9</f>
-        <v>1177511520737.3281</v>
+        <v>2396969696969.7017</v>
       </c>
       <c r="I11" s="3">
         <f>Calcs!I5*10^12/About!$B$9</f>
-        <v>1184861751152.074</v>
+        <v>2425974025974.0283</v>
       </c>
       <c r="J11" s="3">
         <f>Calcs!J5*10^12/About!$B$9</f>
-        <v>1192211981566.8201</v>
+        <v>2454978354978.355</v>
       </c>
       <c r="K11" s="3">
         <f>Calcs!K5*10^12/About!$B$9</f>
-        <v>1199562211981.5659</v>
+        <v>2483982683982.6821</v>
       </c>
       <c r="L11" s="3">
         <f>Calcs!L5*10^12/About!$B$9</f>
-        <v>1206912442396.314</v>
+        <v>2512987012987.0171</v>
       </c>
       <c r="M11" s="3">
         <f>Calcs!M5*10^12/About!$B$9</f>
-        <v>1214262672811.0601</v>
+        <v>2541991341991.3442</v>
       </c>
       <c r="N11" s="3">
         <f>Calcs!N5*10^12/About!$B$9</f>
-        <v>1221612903225.8059</v>
+        <v>2570995670995.6714</v>
       </c>
       <c r="O11" s="3">
         <f>Calcs!O5*10^12/About!$B$9</f>
-        <v>1228963133640.554</v>
+        <v>2599999999999.9985</v>
       </c>
       <c r="P11" s="3">
         <f>Calcs!P5*10^12/About!$B$9</f>
-        <v>1236313364055.2998</v>
+        <v>2629004329004.3335</v>
       </c>
       <c r="Q11" s="3">
         <f>Calcs!Q5*10^12/About!$B$9</f>
-        <v>1243663594470.0457</v>
+        <v>2658008658008.6606</v>
       </c>
       <c r="R11" s="3">
         <f>Calcs!R5*10^12/About!$B$9</f>
-        <v>1251013824884.7917</v>
+        <v>2687012987012.9878</v>
       </c>
       <c r="S11" s="3">
         <f>Calcs!S5*10^12/About!$B$9</f>
-        <v>1258364055299.5396</v>
+        <v>2716017316017.314</v>
       </c>
       <c r="T11" s="3">
         <f>Calcs!T5*10^12/About!$B$9</f>
-        <v>1265714285714.2856</v>
+        <v>2745021645021.6494</v>
       </c>
       <c r="U11" s="3">
         <f>Calcs!U5*10^12/About!$B$9</f>
-        <v>1273064516129.0315</v>
+        <v>2774025974025.9766</v>
       </c>
       <c r="V11" s="3">
         <f>Calcs!V5*10^12/About!$B$9</f>
-        <v>1280414746543.7795</v>
+        <v>2803030303030.3037</v>
       </c>
       <c r="W11" s="3">
         <f>Calcs!W5*10^12/About!$B$9</f>
-        <v>1287764976958.5254</v>
+        <v>2832034632034.6304</v>
       </c>
       <c r="X11" s="3">
         <f>Calcs!X5*10^12/About!$B$9</f>
-        <v>1295115207373.2715</v>
+        <v>2861038961038.9653</v>
       </c>
       <c r="Y11" s="3">
         <f>Calcs!Y5*10^12/About!$B$9</f>
-        <v>1302465437788.0195</v>
+        <v>2890043290043.2925</v>
       </c>
       <c r="Z11" s="3">
         <f>Calcs!Z5*10^12/About!$B$9</f>
-        <v>1309815668202.7654</v>
+        <v>2919047619047.6196</v>
       </c>
       <c r="AA11" s="3">
         <f>Calcs!AA5*10^12/About!$B$9</f>
-        <v>1317165898617.5115</v>
+        <v>2948051948051.9463</v>
       </c>
       <c r="AB11" s="3">
         <f>Calcs!AB5*10^12/About!$B$9</f>
-        <v>1324516129032.2573</v>
+        <v>2977056277056.2817</v>
       </c>
       <c r="AC11" s="3">
         <f>Calcs!AC5*10^12/About!$B$9</f>
-        <v>1331866359447.0054</v>
+        <v>3006060606060.6089</v>
       </c>
       <c r="AD11" s="3">
         <f>Calcs!AD5*10^12/About!$B$9</f>
-        <v>1339216589861.7512</v>
+        <v>3035064935064.936</v>
       </c>
       <c r="AE11" s="3">
         <f>Calcs!AE5*10^12/About!$B$9</f>
-        <v>1346566820276.4973</v>
+        <v>3064069264069.2627</v>
       </c>
       <c r="AF11" s="3">
         <f>Calcs!AF5*10^12/About!$B$9</f>
-        <v>1353917050691.2454</v>
+        <v>3093073593073.5898</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="3">
         <f>Calcs!B6*10^12/About!$B$10</f>
-        <v>57358490566.037735</v>
+        <v>41509433962.264153</v>
       </c>
       <c r="C12" s="3">
         <f>Calcs!C6*10^12/About!$B$10</f>
-        <v>41073645769.932808</v>
+        <v>44528301886.79245</v>
       </c>
       <c r="D12" s="3">
         <f>Calcs!D6*10^12/About!$B$10</f>
-        <v>41908399269.628578</v>
+        <v>39798742138.364624</v>
       </c>
       <c r="E12" s="3">
         <f>Calcs!E6*10^12/About!$B$10</f>
-        <v>42743152769.324356</v>
+        <v>41374499714.122055</v>
       </c>
       <c r="F12" s="3">
         <f>Calcs!F6*10^12/About!$B$10</f>
-        <v>43577906269.01992</v>
+        <v>42950257289.879906</v>
       </c>
       <c r="G12" s="3">
         <f>Calcs!G6*10^12/About!$B$10</f>
-        <v>44412659768.715698</v>
+        <v>44526014865.637337</v>
       </c>
       <c r="H12" s="3">
         <f>Calcs!H6*10^12/About!$B$10</f>
-        <v>45247413268.411263</v>
+        <v>46101772441.394768</v>
       </c>
       <c r="I12" s="3">
         <f>Calcs!I6*10^12/About!$B$10</f>
-        <v>46082166768.10704</v>
+        <v>47677530017.152626</v>
       </c>
       <c r="J12" s="3">
         <f>Calcs!J6*10^12/About!$B$10</f>
-        <v>46916920267.802605</v>
+        <v>49253287592.910049</v>
       </c>
       <c r="K12" s="3">
         <f>Calcs!K6*10^12/About!$B$10</f>
-        <v>47751673767.498375</v>
+        <v>50829045168.667915</v>
       </c>
       <c r="L12" s="3">
         <f>Calcs!L6*10^12/About!$B$10</f>
-        <v>48586427267.193939</v>
+        <v>52404802744.425346</v>
       </c>
       <c r="M12" s="3">
         <f>Calcs!M6*10^12/About!$B$10</f>
-        <v>49421180766.889717</v>
+        <v>53980560320.182777</v>
       </c>
       <c r="N12" s="3">
         <f>Calcs!N6*10^12/About!$B$10</f>
-        <v>50255934266.585281</v>
+        <v>55556317895.940636</v>
       </c>
       <c r="O12" s="3">
         <f>Calcs!O6*10^12/About!$B$10</f>
-        <v>51090687766.281059</v>
+        <v>57132075471.698059</v>
       </c>
       <c r="P12" s="3">
         <f>Calcs!P6*10^12/About!$B$10</f>
-        <v>51925441265.976624</v>
+        <v>58707833047.45549</v>
       </c>
       <c r="Q12" s="3">
         <f>Calcs!Q6*10^12/About!$B$10</f>
-        <v>52760194765.672401</v>
+        <v>60283590623.213348</v>
       </c>
       <c r="R12" s="3">
         <f>Calcs!R6*10^12/About!$B$10</f>
-        <v>53594948265.368172</v>
+        <v>61859348198.970779</v>
       </c>
       <c r="S12" s="3">
         <f>Calcs!S6*10^12/About!$B$10</f>
-        <v>54429701765.063736</v>
+        <v>63435105774.728203</v>
       </c>
       <c r="T12" s="3">
         <f>Calcs!T6*10^12/About!$B$10</f>
-        <v>55264455264.759514</v>
+        <v>65010863350.486069</v>
       </c>
       <c r="U12" s="3">
         <f>Calcs!U6*10^12/About!$B$10</f>
-        <v>56099208764.455078</v>
+        <v>66586620926.2435</v>
       </c>
       <c r="V12" s="3">
         <f>Calcs!V6*10^12/About!$B$10</f>
-        <v>56933962264.150856</v>
+        <v>68162378502.000931</v>
       </c>
       <c r="W12" s="3">
         <f>Calcs!W6*10^12/About!$B$10</f>
-        <v>57768715763.84642</v>
+        <v>69738136077.758789</v>
       </c>
       <c r="X12" s="3">
         <f>Calcs!X6*10^12/About!$B$10</f>
-        <v>58603469263.542198</v>
+        <v>71313893653.51622</v>
       </c>
       <c r="Y12" s="3">
         <f>Calcs!Y6*10^12/About!$B$10</f>
-        <v>59438222763.237755</v>
+        <v>72889651229.273651</v>
       </c>
       <c r="Z12" s="3">
         <f>Calcs!Z6*10^12/About!$B$10</f>
-        <v>60272976262.933533</v>
+        <v>74465408805.031494</v>
       </c>
       <c r="AA12" s="3">
         <f>Calcs!AA6*10^12/About!$B$10</f>
-        <v>61107729762.629097</v>
+        <v>76041166380.788925</v>
       </c>
       <c r="AB12" s="3">
         <f>Calcs!AB6*10^12/About!$B$10</f>
-        <v>61942483262.324883</v>
+        <v>77616923956.546356</v>
       </c>
       <c r="AC12" s="3">
         <f>Calcs!AC6*10^12/About!$B$10</f>
-        <v>62777236762.020447</v>
+        <v>79192681532.304214</v>
       </c>
       <c r="AD12" s="3">
         <f>Calcs!AD6*10^12/About!$B$10</f>
-        <v>63611990261.716225</v>
+        <v>80768439108.061646</v>
       </c>
       <c r="AE12" s="3">
         <f>Calcs!AE6*10^12/About!$B$10</f>
-        <v>64446743761.412003</v>
+        <v>82344196683.819077</v>
       </c>
       <c r="AF12" s="3">
         <f>Calcs!AF6*10^12/About!$B$10</f>
-        <v>65281497261.107559</v>
+        <v>83919954259.57695</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13">
         <v>0</v>

--- a/InputData/land/BLAPE/BAU LULUCF Anthro Pollutant Emis.xlsx
+++ b/InputData/land/BLAPE/BAU LULUCF Anthro Pollutant Emis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\land\BLAPE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\land\BLAPE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0829E5-BC6F-4DCC-B3B8-0390EF324B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC6A39F-6C1D-4A10-BE9E-D022D52920C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1949,7 +1949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -7304,8 +7304,8 @@
   </sheetPr>
   <dimension ref="A1:BL86"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+    <sheetView topLeftCell="M53" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83:AF83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11695,89 +11695,89 @@
       <c r="D83">
         <v>0</v>
       </c>
-      <c r="E83" s="3">
-        <v>-4887040000000</v>
-      </c>
-      <c r="F83" s="3">
-        <v>-9774080000000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>-14661100000000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>-19548200000000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>-24435200000000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>-29322200000000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>-34209300000000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>-39096300000000</v>
-      </c>
-      <c r="M83" s="3">
-        <v>-43983400000000</v>
-      </c>
-      <c r="N83" s="3">
-        <v>-39298600000000</v>
-      </c>
-      <c r="O83" s="3">
-        <v>-34613900000000</v>
-      </c>
-      <c r="P83" s="3">
-        <v>-29929200000000</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>-25244500000000</v>
-      </c>
-      <c r="R83" s="3">
-        <v>-25244500000000</v>
-      </c>
-      <c r="S83" s="3">
-        <v>-25244500000000</v>
-      </c>
-      <c r="T83" s="3">
-        <v>-25244500000000</v>
-      </c>
-      <c r="U83" s="3">
-        <v>-25244500000000</v>
-      </c>
-      <c r="V83" s="3">
-        <v>-25244500000000</v>
-      </c>
-      <c r="W83" s="3">
-        <v>-25244500000000</v>
-      </c>
-      <c r="X83" s="3">
-        <v>-25244500000000</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>-25244500000000</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>-25244500000000</v>
-      </c>
-      <c r="AA83" s="3">
-        <v>-25244500000000</v>
-      </c>
-      <c r="AB83" s="3">
-        <v>-25244500000000</v>
-      </c>
-      <c r="AC83" s="3">
-        <v>-25244500000000</v>
-      </c>
-      <c r="AD83" s="3">
-        <v>-25244500000000</v>
-      </c>
-      <c r="AE83" s="3">
-        <v>-25244500000000</v>
-      </c>
-      <c r="AF83" s="3">
-        <v>-25244500000000</v>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <v>0</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <v>0</v>
+      </c>
+      <c r="X83">
+        <v>0</v>
+      </c>
+      <c r="Y83">
+        <v>0</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+      <c r="AA83">
+        <v>0</v>
+      </c>
+      <c r="AB83">
+        <v>0</v>
+      </c>
+      <c r="AC83">
+        <v>0</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
+      </c>
+      <c r="AF83">
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.25">
@@ -11886,8 +11886,8 @@
   </sheetPr>
   <dimension ref="A1:AF13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12012,115 +12012,115 @@
       </c>
       <c r="E2" s="3">
         <f>Calcs!E4*10^12+'Inflation Reduction Act'!E83</f>
-        <v>-829887040000000</v>
+        <v>-825000000000000</v>
       </c>
       <c r="F2" s="3">
         <f>Calcs!F4*10^12+'Inflation Reduction Act'!F83</f>
-        <v>-834914080000000</v>
+        <v>-825140000000000</v>
       </c>
       <c r="G2" s="3">
         <f>Calcs!G4*10^12+'Inflation Reduction Act'!G83</f>
-        <v>-839941100000000</v>
+        <v>-825280000000000</v>
       </c>
       <c r="H2" s="3">
         <f>Calcs!H4*10^12+'Inflation Reduction Act'!H83</f>
-        <v>-844968200000000.13</v>
+        <v>-825420000000000.13</v>
       </c>
       <c r="I2" s="3">
         <f>Calcs!I4*10^12+'Inflation Reduction Act'!I83</f>
-        <v>-849995200000000</v>
+        <v>-825560000000000</v>
       </c>
       <c r="J2" s="3">
         <f>Calcs!J4*10^12+'Inflation Reduction Act'!J83</f>
-        <v>-855022200000000</v>
+        <v>-825700000000000</v>
       </c>
       <c r="K2" s="3">
         <f>Calcs!K4*10^12+'Inflation Reduction Act'!K83</f>
-        <v>-860049300000000</v>
+        <v>-825840000000000</v>
       </c>
       <c r="L2" s="3">
         <f>Calcs!L4*10^12+'Inflation Reduction Act'!L83</f>
-        <v>-865076300000000</v>
+        <v>-825980000000000</v>
       </c>
       <c r="M2" s="3">
         <f>Calcs!M4*10^12+'Inflation Reduction Act'!M83</f>
-        <v>-870103400000000</v>
+        <v>-826120000000000</v>
       </c>
       <c r="N2" s="3">
         <f>Calcs!N4*10^12+'Inflation Reduction Act'!N83</f>
-        <v>-865558600000000</v>
+        <v>-826260000000000</v>
       </c>
       <c r="O2" s="3">
         <f>Calcs!O4*10^12+'Inflation Reduction Act'!O83</f>
-        <v>-861013900000000.13</v>
+        <v>-826400000000000.13</v>
       </c>
       <c r="P2" s="3">
         <f>Calcs!P4*10^12+'Inflation Reduction Act'!P83</f>
-        <v>-856469200000000</v>
+        <v>-826540000000000</v>
       </c>
       <c r="Q2" s="3">
         <f>Calcs!Q4*10^12+'Inflation Reduction Act'!Q83</f>
-        <v>-851924500000000.13</v>
+        <v>-826680000000000.13</v>
       </c>
       <c r="R2" s="3">
         <f>Calcs!R4*10^12+'Inflation Reduction Act'!R83</f>
-        <v>-852064500000000</v>
+        <v>-826820000000000</v>
       </c>
       <c r="S2" s="3">
         <f>Calcs!S4*10^12+'Inflation Reduction Act'!S83</f>
-        <v>-852204500000000</v>
+        <v>-826960000000000</v>
       </c>
       <c r="T2" s="3">
         <f>Calcs!T4*10^12+'Inflation Reduction Act'!T83</f>
-        <v>-852344500000000</v>
+        <v>-827100000000000</v>
       </c>
       <c r="U2" s="3">
         <f>Calcs!U4*10^12+'Inflation Reduction Act'!U83</f>
-        <v>-852484500000000</v>
+        <v>-827240000000000</v>
       </c>
       <c r="V2" s="3">
         <f>Calcs!V4*10^12+'Inflation Reduction Act'!V83</f>
-        <v>-852624500000000.13</v>
+        <v>-827380000000000.13</v>
       </c>
       <c r="W2" s="3">
         <f>Calcs!W4*10^12+'Inflation Reduction Act'!W83</f>
-        <v>-852764500000000</v>
+        <v>-827520000000000</v>
       </c>
       <c r="X2" s="3">
         <f>Calcs!X4*10^12+'Inflation Reduction Act'!X83</f>
-        <v>-852904500000000.13</v>
+        <v>-827660000000000.13</v>
       </c>
       <c r="Y2" s="3">
         <f>Calcs!Y4*10^12+'Inflation Reduction Act'!Y83</f>
-        <v>-853044500000000.13</v>
+        <v>-827800000000000.13</v>
       </c>
       <c r="Z2" s="3">
         <f>Calcs!Z4*10^12+'Inflation Reduction Act'!Z83</f>
-        <v>-853184500000000</v>
+        <v>-827940000000000</v>
       </c>
       <c r="AA2" s="3">
         <f>Calcs!AA4*10^12+'Inflation Reduction Act'!AA83</f>
-        <v>-853324500000000</v>
+        <v>-828080000000000</v>
       </c>
       <c r="AB2" s="3">
         <f>Calcs!AB4*10^12+'Inflation Reduction Act'!AB83</f>
-        <v>-853464500000000</v>
+        <v>-828220000000000</v>
       </c>
       <c r="AC2" s="3">
         <f>Calcs!AC4*10^12+'Inflation Reduction Act'!AC83</f>
-        <v>-853604500000000.13</v>
+        <v>-828360000000000.13</v>
       </c>
       <c r="AD2" s="3">
         <f>Calcs!AD4*10^12+'Inflation Reduction Act'!AD83</f>
-        <v>-853744500000000</v>
+        <v>-828500000000000</v>
       </c>
       <c r="AE2" s="3">
         <f>Calcs!AE4*10^12+'Inflation Reduction Act'!AE83</f>
-        <v>-853884500000000.13</v>
+        <v>-828640000000000.13</v>
       </c>
       <c r="AF2" s="3">
         <f>Calcs!AF4*10^12+'Inflation Reduction Act'!AF83</f>
-        <v>-854024500000000.13</v>
+        <v>-828780000000000.13</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">

--- a/InputData/land/BLAPE/BAU LULUCF Anthro Pollutant Emis.xlsx
+++ b/InputData/land/BLAPE/BAU LULUCF Anthro Pollutant Emis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\land\BLAPE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689CB8A2-7836-495D-A0EE-286285DE2D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A78EC5D-9081-450D-8FFB-1B527D472B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="19" r:id="rId14"/>
+    <pivotCache cacheId="48" r:id="rId14"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4431" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4476" uniqueCount="175">
   <si>
     <t>Source:</t>
   </si>
@@ -630,6 +630,12 @@
   <si>
     <t>*because afforestation results in permanent sequestration through the planting of trees, we hold emissions reductions constant at the maximum level achieved in 2039 for the remainder of the model run.</t>
   </si>
+  <si>
+    <t xml:space="preserve">+ </t>
+  </si>
+  <si>
+    <t>(+)</t>
+  </si>
 </sst>
 </file>
 
@@ -1019,97 +1025,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>-938.9</c:v>
+                  <c:v>-1034.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-944.4</c:v>
+                  <c:v>-1045.5999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-936.8</c:v>
+                  <c:v>-1061.0999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-917.6</c:v>
+                  <c:v>-1045.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-931.8</c:v>
+                  <c:v>-1062.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-902.8</c:v>
+                  <c:v>-1033.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-923.5</c:v>
+                  <c:v>-1067.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-903.4</c:v>
+                  <c:v>-1038.3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-904.8</c:v>
+                  <c:v>-1050.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-900.5</c:v>
+                  <c:v>-1026.3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-902</c:v>
+                  <c:v>-1046.8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-899.9</c:v>
+                  <c:v>-1036.0999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-867.1</c:v>
+                  <c:v>-991.8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-891.4</c:v>
+                  <c:v>-1019.8</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-791.3</c:v>
+                  <c:v>-936.9</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-853.5</c:v>
+                  <c:v>-976.6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-882.6</c:v>
+                  <c:v>-1013.9</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-843.1</c:v>
+                  <c:v>-966.3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-824.7</c:v>
+                  <c:v>-973.1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-787</c:v>
+                  <c:v>-915</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-807.4</c:v>
+                  <c:v>-941.6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-853.8</c:v>
+                  <c:v>-1001.9</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-849.4</c:v>
+                  <c:v>-991.3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-813.5</c:v>
+                  <c:v>-949.4</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-826.9</c:v>
+                  <c:v>-980.4</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-752.2</c:v>
+                  <c:v>-896.2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-874.2</c:v>
+                  <c:v>-973.8</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-842.5</c:v>
+                  <c:v>-991.9</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-829.5</c:v>
+                  <c:v>-978.3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-768.2</c:v>
+                  <c:v>-921.6</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-852.5</c:v>
+                  <c:v>-972.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9239,7 +9245,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9616E194-24DA-4C46-8097-71C6F2CA831B}" name="PivotTable2" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9616E194-24DA-4C46-8097-71C6F2CA831B}" name="PivotTable2" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:F16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -9664,7 +9670,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9693,7 +9699,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -9793,10 +9799,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AG15"/>
+  <dimension ref="A1:AH15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AG14" sqref="AG14"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:AF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9804,17 +9810,17 @@
     <col min="1" max="1" width="63.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B3" s="6">
         <v>2020</v>
       </c>
@@ -9909,415 +9915,416 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>71</v>
       </c>
       <c r="B4" s="6">
         <f>'EPA Table 6-1'!AF42</f>
-        <v>-852.5</v>
+        <v>-972.8</v>
       </c>
       <c r="C4" s="6">
         <f>'EPA Table 6-1'!AG42</f>
-        <v>-832</v>
-      </c>
-      <c r="D4" cm="1">
-        <f t="array" ref="D4">TREND($X13:$AG13,$X$12:$AG$12,D$3)</f>
-        <v>-824.86</v>
+        <v>-983.4</v>
+      </c>
+      <c r="D4" s="6">
+        <f>'EPA Table 6-1'!AH42</f>
+        <v>-921.8</v>
       </c>
       <c r="E4" cm="1">
-        <f t="array" ref="E4">TREND($X13:$AG13,$X$12:$AG$12,E$3)</f>
-        <v>-825</v>
+        <f t="array" ref="E4">TREND($Y13:$AH13,$Y$12:$AH$12,E$3)</f>
+        <v>-956.47333333333336</v>
       </c>
       <c r="F4" cm="1">
-        <f t="array" ref="F4">TREND($X13:$AG13,$X$12:$AG$12,F$3)</f>
-        <v>-825.14</v>
+        <f t="array" ref="F4">TREND($Y13:$AH13,$Y$12:$AH$12,F$3)</f>
+        <v>-956.38484848484848</v>
       </c>
       <c r="G4" cm="1">
-        <f t="array" ref="G4">TREND($X13:$AG13,$X$12:$AG$12,G$3)</f>
-        <v>-825.28</v>
+        <f t="array" ref="G4">TREND($Y13:$AH13,$Y$12:$AH$12,G$3)</f>
+        <v>-956.29636363636359</v>
       </c>
       <c r="H4" cm="1">
-        <f t="array" ref="H4">TREND($X13:$AG13,$X$12:$AG$12,H$3)</f>
-        <v>-825.42000000000007</v>
+        <f t="array" ref="H4">TREND($Y13:$AH13,$Y$12:$AH$12,H$3)</f>
+        <v>-956.20787878787883</v>
       </c>
       <c r="I4" cm="1">
-        <f t="array" ref="I4">TREND($X13:$AG13,$X$12:$AG$12,I$3)</f>
-        <v>-825.56</v>
+        <f t="array" ref="I4">TREND($Y13:$AH13,$Y$12:$AH$12,I$3)</f>
+        <v>-956.11939393939394</v>
       </c>
       <c r="J4" cm="1">
-        <f t="array" ref="J4">TREND($X13:$AG13,$X$12:$AG$12,J$3)</f>
-        <v>-825.7</v>
+        <f t="array" ref="J4">TREND($Y13:$AH13,$Y$12:$AH$12,J$3)</f>
+        <v>-956.03090909090906</v>
       </c>
       <c r="K4" cm="1">
-        <f t="array" ref="K4">TREND($X13:$AG13,$X$12:$AG$12,K$3)</f>
-        <v>-825.84</v>
+        <f t="array" ref="K4">TREND($Y13:$AH13,$Y$12:$AH$12,K$3)</f>
+        <v>-955.94242424242429</v>
       </c>
       <c r="L4" cm="1">
-        <f t="array" ref="L4">TREND($X13:$AG13,$X$12:$AG$12,L$3)</f>
-        <v>-825.98</v>
+        <f t="array" ref="L4">TREND($Y13:$AH13,$Y$12:$AH$12,L$3)</f>
+        <v>-955.85393939393941</v>
       </c>
       <c r="M4" cm="1">
-        <f t="array" ref="M4">TREND($X13:$AG13,$X$12:$AG$12,M$3)</f>
-        <v>-826.12</v>
+        <f t="array" ref="M4">TREND($Y13:$AH13,$Y$12:$AH$12,M$3)</f>
+        <v>-955.76545454545453</v>
       </c>
       <c r="N4" cm="1">
-        <f t="array" ref="N4">TREND($X13:$AG13,$X$12:$AG$12,N$3)</f>
-        <v>-826.26</v>
+        <f t="array" ref="N4">TREND($Y13:$AH13,$Y$12:$AH$12,N$3)</f>
+        <v>-955.67696969696965</v>
       </c>
       <c r="O4" cm="1">
-        <f t="array" ref="O4">TREND($X13:$AG13,$X$12:$AG$12,O$3)</f>
-        <v>-826.40000000000009</v>
+        <f t="array" ref="O4">TREND($Y13:$AH13,$Y$12:$AH$12,O$3)</f>
+        <v>-955.58848484848477</v>
       </c>
       <c r="P4" cm="1">
-        <f t="array" ref="P4">TREND($X13:$AG13,$X$12:$AG$12,P$3)</f>
-        <v>-826.54</v>
+        <f t="array" ref="P4">TREND($Y13:$AH13,$Y$12:$AH$12,P$3)</f>
+        <v>-955.5</v>
       </c>
       <c r="Q4" cm="1">
-        <f t="array" ref="Q4">TREND($X13:$AG13,$X$12:$AG$12,Q$3)</f>
-        <v>-826.68000000000006</v>
+        <f t="array" ref="Q4">TREND($Y13:$AH13,$Y$12:$AH$12,Q$3)</f>
+        <v>-955.41151515151512</v>
       </c>
       <c r="R4" cm="1">
-        <f t="array" ref="R4">TREND($X13:$AG13,$X$12:$AG$12,R$3)</f>
-        <v>-826.82</v>
+        <f t="array" ref="R4">TREND($Y13:$AH13,$Y$12:$AH$12,R$3)</f>
+        <v>-955.32303030303024</v>
       </c>
       <c r="S4" cm="1">
-        <f t="array" ref="S4">TREND($X13:$AG13,$X$12:$AG$12,S$3)</f>
-        <v>-826.96</v>
+        <f t="array" ref="S4">TREND($Y13:$AH13,$Y$12:$AH$12,S$3)</f>
+        <v>-955.23454545454547</v>
       </c>
       <c r="T4" cm="1">
-        <f t="array" ref="T4">TREND($X13:$AG13,$X$12:$AG$12,T$3)</f>
-        <v>-827.1</v>
+        <f t="array" ref="T4">TREND($Y13:$AH13,$Y$12:$AH$12,T$3)</f>
+        <v>-955.14606060606059</v>
       </c>
       <c r="U4" cm="1">
-        <f t="array" ref="U4">TREND($X13:$AG13,$X$12:$AG$12,U$3)</f>
-        <v>-827.24</v>
+        <f t="array" ref="U4">TREND($Y13:$AH13,$Y$12:$AH$12,U$3)</f>
+        <v>-955.05757575757571</v>
       </c>
       <c r="V4" cm="1">
-        <f t="array" ref="V4">TREND($X13:$AG13,$X$12:$AG$12,V$3)</f>
-        <v>-827.38000000000011</v>
+        <f t="array" ref="V4">TREND($Y13:$AH13,$Y$12:$AH$12,V$3)</f>
+        <v>-954.96909090909082</v>
       </c>
       <c r="W4" cm="1">
-        <f t="array" ref="W4">TREND($X13:$AG13,$X$12:$AG$12,W$3)</f>
-        <v>-827.52</v>
+        <f t="array" ref="W4">TREND($Y13:$AH13,$Y$12:$AH$12,W$3)</f>
+        <v>-954.88060606060606</v>
       </c>
       <c r="X4" cm="1">
-        <f t="array" ref="X4">TREND($X13:$AG13,$X$12:$AG$12,X$3)</f>
-        <v>-827.66000000000008</v>
+        <f t="array" ref="X4">TREND($Y13:$AH13,$Y$12:$AH$12,X$3)</f>
+        <v>-954.79212121212117</v>
       </c>
       <c r="Y4" cm="1">
-        <f t="array" ref="Y4">TREND($X13:$AG13,$X$12:$AG$12,Y$3)</f>
-        <v>-827.80000000000007</v>
+        <f t="array" ref="Y4">TREND($Y13:$AH13,$Y$12:$AH$12,Y$3)</f>
+        <v>-954.70363636363629</v>
       </c>
       <c r="Z4" cm="1">
-        <f t="array" ref="Z4">TREND($X13:$AG13,$X$12:$AG$12,Z$3)</f>
-        <v>-827.94</v>
+        <f t="array" ref="Z4">TREND($Y13:$AH13,$Y$12:$AH$12,Z$3)</f>
+        <v>-954.61515151515141</v>
       </c>
       <c r="AA4" cm="1">
-        <f t="array" ref="AA4">TREND($X13:$AG13,$X$12:$AG$12,AA$3)</f>
-        <v>-828.08</v>
+        <f t="array" ref="AA4">TREND($Y13:$AH13,$Y$12:$AH$12,AA$3)</f>
+        <v>-954.52666666666664</v>
       </c>
       <c r="AB4" cm="1">
-        <f t="array" ref="AB4">TREND($X13:$AG13,$X$12:$AG$12,AB$3)</f>
-        <v>-828.22</v>
+        <f t="array" ref="AB4">TREND($Y13:$AH13,$Y$12:$AH$12,AB$3)</f>
+        <v>-954.43818181818176</v>
       </c>
       <c r="AC4" cm="1">
-        <f t="array" ref="AC4">TREND($X13:$AG13,$X$12:$AG$12,AC$3)</f>
-        <v>-828.36000000000013</v>
+        <f t="array" ref="AC4">TREND($Y13:$AH13,$Y$12:$AH$12,AC$3)</f>
+        <v>-954.34969696969688</v>
       </c>
       <c r="AD4" cm="1">
-        <f t="array" ref="AD4">TREND($X13:$AG13,$X$12:$AG$12,AD$3)</f>
-        <v>-828.5</v>
+        <f t="array" ref="AD4">TREND($Y13:$AH13,$Y$12:$AH$12,AD$3)</f>
+        <v>-954.26121212121211</v>
       </c>
       <c r="AE4" cm="1">
-        <f t="array" ref="AE4">TREND($X13:$AG13,$X$12:$AG$12,AE$3)</f>
-        <v>-828.6400000000001</v>
+        <f t="array" ref="AE4">TREND($Y13:$AH13,$Y$12:$AH$12,AE$3)</f>
+        <v>-954.17272727272723</v>
       </c>
       <c r="AF4" cm="1">
-        <f t="array" ref="AF4">TREND($X13:$AG13,$X$12:$AG$12,AF$3)</f>
-        <v>-828.78000000000009</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+        <f t="array" ref="AF4">TREND($Y13:$AH13,$Y$12:$AH$12,AF$3)</f>
+        <v>-954.08424242424235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>72</v>
       </c>
       <c r="B5" s="6">
         <f>'EPA Table 6-1'!AF40</f>
-        <v>65.400000000000006</v>
+        <v>59.3</v>
       </c>
       <c r="C5" s="6">
         <f>'EPA Table 6-1'!AG40</f>
-        <v>66</v>
-      </c>
-      <c r="D5" cm="1">
-        <f t="array" ref="D5">TREND($X14:$AG14,$X$12:$AG$12,D$3)</f>
-        <v>63.866666666666788</v>
+        <v>62.1</v>
+      </c>
+      <c r="D5" s="6">
+        <f>'EPA Table 6-1'!AH40</f>
+        <v>58.4</v>
       </c>
       <c r="E5" cm="1">
         <f t="array" ref="E5">TREND($X14:$AG14,$X$12:$AG$12,E$3)</f>
-        <v>64.678787878787944</v>
+        <v>59.389696969696956</v>
       </c>
       <c r="F5" cm="1">
         <f t="array" ref="F5">TREND($X14:$AG14,$X$12:$AG$12,F$3)</f>
-        <v>65.490909090909099</v>
+        <v>59.832727272727311</v>
       </c>
       <c r="G5" cm="1">
         <f t="array" ref="G5">TREND($X14:$AG14,$X$12:$AG$12,G$3)</f>
-        <v>66.303030303030255</v>
+        <v>60.275757575757666</v>
       </c>
       <c r="H5" cm="1">
         <f t="array" ref="H5">TREND($X14:$AG14,$X$12:$AG$12,H$3)</f>
-        <v>67.115151515151638</v>
+        <v>60.718787878787907</v>
       </c>
       <c r="I5" cm="1">
         <f t="array" ref="I5">TREND($X14:$AG14,$X$12:$AG$12,I$3)</f>
-        <v>67.927272727272793</v>
+        <v>61.161818181818262</v>
       </c>
       <c r="J5" cm="1">
         <f t="array" ref="J5">TREND($X14:$AG14,$X$12:$AG$12,J$3)</f>
-        <v>68.739393939393949</v>
+        <v>61.604848484848503</v>
       </c>
       <c r="K5" cm="1">
         <f t="array" ref="K5">TREND($X14:$AG14,$X$12:$AG$12,K$3)</f>
-        <v>69.551515151515105</v>
+        <v>62.047878787878858</v>
       </c>
       <c r="L5" cm="1">
         <f t="array" ref="L5">TREND($X14:$AG14,$X$12:$AG$12,L$3)</f>
-        <v>70.363636363636488</v>
+        <v>62.490909090909099</v>
       </c>
       <c r="M5" cm="1">
         <f t="array" ref="M5">TREND($X14:$AG14,$X$12:$AG$12,M$3)</f>
-        <v>71.175757575757643</v>
+        <v>62.933939393939454</v>
       </c>
       <c r="N5" cm="1">
         <f t="array" ref="N5">TREND($X14:$AG14,$X$12:$AG$12,N$3)</f>
-        <v>71.987878787878799</v>
+        <v>63.376969696969695</v>
       </c>
       <c r="O5" cm="1">
         <f t="array" ref="O5">TREND($X14:$AG14,$X$12:$AG$12,O$3)</f>
-        <v>72.799999999999955</v>
+        <v>63.82000000000005</v>
       </c>
       <c r="P5" cm="1">
         <f t="array" ref="P5">TREND($X14:$AG14,$X$12:$AG$12,P$3)</f>
-        <v>73.612121212121338</v>
+        <v>64.263030303030291</v>
       </c>
       <c r="Q5" cm="1">
         <f t="array" ref="Q5">TREND($X14:$AG14,$X$12:$AG$12,Q$3)</f>
-        <v>74.424242424242493</v>
+        <v>64.706060606060646</v>
       </c>
       <c r="R5" cm="1">
         <f t="array" ref="R5">TREND($X14:$AG14,$X$12:$AG$12,R$3)</f>
-        <v>75.236363636363649</v>
+        <v>65.149090909091001</v>
       </c>
       <c r="S5" cm="1">
         <f t="array" ref="S5">TREND($X14:$AG14,$X$12:$AG$12,S$3)</f>
-        <v>76.048484848484804</v>
+        <v>65.592121212121242</v>
       </c>
       <c r="T5" cm="1">
         <f t="array" ref="T5">TREND($X14:$AG14,$X$12:$AG$12,T$3)</f>
-        <v>76.860606060606187</v>
+        <v>66.035151515151597</v>
       </c>
       <c r="U5" cm="1">
         <f t="array" ref="U5">TREND($X14:$AG14,$X$12:$AG$12,U$3)</f>
-        <v>77.672727272727343</v>
+        <v>66.478181818181838</v>
       </c>
       <c r="V5" cm="1">
         <f t="array" ref="V5">TREND($X14:$AG14,$X$12:$AG$12,V$3)</f>
-        <v>78.484848484848499</v>
+        <v>66.921212121212193</v>
       </c>
       <c r="W5" cm="1">
         <f t="array" ref="W5">TREND($X14:$AG14,$X$12:$AG$12,W$3)</f>
-        <v>79.296969696969654</v>
+        <v>67.364242424242434</v>
       </c>
       <c r="X5" cm="1">
         <f t="array" ref="X5">TREND($X14:$AG14,$X$12:$AG$12,X$3)</f>
-        <v>80.109090909091037</v>
+        <v>67.807272727272789</v>
       </c>
       <c r="Y5" cm="1">
         <f t="array" ref="Y5">TREND($X14:$AG14,$X$12:$AG$12,Y$3)</f>
-        <v>80.921212121212193</v>
+        <v>68.25030303030303</v>
       </c>
       <c r="Z5" cm="1">
         <f t="array" ref="Z5">TREND($X14:$AG14,$X$12:$AG$12,Z$3)</f>
-        <v>81.733333333333348</v>
+        <v>68.693333333333385</v>
       </c>
       <c r="AA5" cm="1">
         <f t="array" ref="AA5">TREND($X14:$AG14,$X$12:$AG$12,AA$3)</f>
-        <v>82.545454545454504</v>
+        <v>69.136363636363626</v>
       </c>
       <c r="AB5" cm="1">
         <f t="array" ref="AB5">TREND($X14:$AG14,$X$12:$AG$12,AB$3)</f>
-        <v>83.357575757575887</v>
+        <v>69.579393939393981</v>
       </c>
       <c r="AC5" cm="1">
         <f t="array" ref="AC5">TREND($X14:$AG14,$X$12:$AG$12,AC$3)</f>
-        <v>84.169696969697043</v>
+        <v>70.022424242424222</v>
       </c>
       <c r="AD5" cm="1">
         <f t="array" ref="AD5">TREND($X14:$AG14,$X$12:$AG$12,AD$3)</f>
-        <v>84.981818181818198</v>
+        <v>70.465454545454577</v>
       </c>
       <c r="AE5" cm="1">
         <f t="array" ref="AE5">TREND($X14:$AG14,$X$12:$AG$12,AE$3)</f>
-        <v>85.793939393939354</v>
+        <v>70.908484848484932</v>
       </c>
       <c r="AF5" cm="1">
         <f t="array" ref="AF5">TREND($X14:$AG14,$X$12:$AG$12,AF$3)</f>
-        <v>86.60606060606051</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+        <v>71.351515151515173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>73</v>
       </c>
       <c r="B6" s="6">
         <f>'EPA Table 6-1'!AF41</f>
-        <v>11</v>
+        <v>9.1</v>
       </c>
       <c r="C6" s="6">
         <f>'EPA Table 6-1'!AG41</f>
-        <v>11.8</v>
-      </c>
-      <c r="D6" cm="1">
-        <f t="array" ref="D6">TREND($X15:$AG15,$X$12:$AG$12,D$3)</f>
-        <v>10.546666666666624</v>
+        <v>10.7</v>
+      </c>
+      <c r="D6" s="6">
+        <f>'EPA Table 6-1'!AH41</f>
+        <v>9.1</v>
       </c>
       <c r="E6" cm="1">
         <f t="array" ref="E6">TREND($X15:$AG15,$X$12:$AG$12,E$3)</f>
-        <v>10.964242424242343</v>
+        <v>9.2248484848485077</v>
       </c>
       <c r="F6" cm="1">
         <f t="array" ref="F6">TREND($X15:$AG15,$X$12:$AG$12,F$3)</f>
-        <v>11.381818181818176</v>
+        <v>9.4563636363636761</v>
       </c>
       <c r="G6" cm="1">
         <f t="array" ref="G6">TREND($X15:$AG15,$X$12:$AG$12,G$3)</f>
-        <v>11.799393939393894</v>
+        <v>9.6878787878788444</v>
       </c>
       <c r="H6" cm="1">
         <f t="array" ref="H6">TREND($X15:$AG15,$X$12:$AG$12,H$3)</f>
-        <v>12.216969696969613</v>
+        <v>9.9193939393940127</v>
       </c>
       <c r="I6" cm="1">
         <f t="array" ref="I6">TREND($X15:$AG15,$X$12:$AG$12,I$3)</f>
-        <v>12.634545454545446</v>
+        <v>10.150909090909124</v>
       </c>
       <c r="J6" cm="1">
         <f t="array" ref="J6">TREND($X15:$AG15,$X$12:$AG$12,J$3)</f>
-        <v>13.052121212121165</v>
+        <v>10.382424242424293</v>
       </c>
       <c r="K6" cm="1">
         <f t="array" ref="K6">TREND($X15:$AG15,$X$12:$AG$12,K$3)</f>
-        <v>13.469696969696997</v>
+        <v>10.613939393939461</v>
       </c>
       <c r="L6" cm="1">
         <f t="array" ref="L6">TREND($X15:$AG15,$X$12:$AG$12,L$3)</f>
-        <v>13.887272727272716</v>
+        <v>10.845454545454572</v>
       </c>
       <c r="M6" cm="1">
         <f t="array" ref="M6">TREND($X15:$AG15,$X$12:$AG$12,M$3)</f>
-        <v>14.304848484848435</v>
+        <v>11.076969696969741</v>
       </c>
       <c r="N6" cm="1">
         <f t="array" ref="N6">TREND($X15:$AG15,$X$12:$AG$12,N$3)</f>
-        <v>14.722424242424268</v>
+        <v>11.308484848484909</v>
       </c>
       <c r="O6" cm="1">
         <f t="array" ref="O6">TREND($X15:$AG15,$X$12:$AG$12,O$3)</f>
-        <v>15.139999999999986</v>
+        <v>11.54000000000002</v>
       </c>
       <c r="P6" cm="1">
         <f t="array" ref="P6">TREND($X15:$AG15,$X$12:$AG$12,P$3)</f>
-        <v>15.557575757575705</v>
+        <v>11.771515151515189</v>
       </c>
       <c r="Q6" cm="1">
         <f t="array" ref="Q6">TREND($X15:$AG15,$X$12:$AG$12,Q$3)</f>
-        <v>15.975151515151538</v>
+        <v>12.003030303030357</v>
       </c>
       <c r="R6" cm="1">
         <f t="array" ref="R6">TREND($X15:$AG15,$X$12:$AG$12,R$3)</f>
-        <v>16.392727272727257</v>
+        <v>12.234545454545525</v>
       </c>
       <c r="S6" cm="1">
         <f t="array" ref="S6">TREND($X15:$AG15,$X$12:$AG$12,S$3)</f>
-        <v>16.810303030302975</v>
+        <v>12.466060606060637</v>
       </c>
       <c r="T6" cm="1">
         <f t="array" ref="T6">TREND($X15:$AG15,$X$12:$AG$12,T$3)</f>
-        <v>17.227878787878808</v>
+        <v>12.697575757575805</v>
       </c>
       <c r="U6" cm="1">
         <f t="array" ref="U6">TREND($X15:$AG15,$X$12:$AG$12,U$3)</f>
-        <v>17.645454545454527</v>
+        <v>12.929090909090974</v>
       </c>
       <c r="V6" cm="1">
         <f t="array" ref="V6">TREND($X15:$AG15,$X$12:$AG$12,V$3)</f>
-        <v>18.063030303030246</v>
+        <v>13.160606060606085</v>
       </c>
       <c r="W6" cm="1">
         <f t="array" ref="W6">TREND($X15:$AG15,$X$12:$AG$12,W$3)</f>
-        <v>18.480606060606078</v>
+        <v>13.392121212121253</v>
       </c>
       <c r="X6" cm="1">
         <f t="array" ref="X6">TREND($X15:$AG15,$X$12:$AG$12,X$3)</f>
-        <v>18.898181818181797</v>
+        <v>13.623636363636422</v>
       </c>
       <c r="Y6" cm="1">
         <f t="array" ref="Y6">TREND($X15:$AG15,$X$12:$AG$12,Y$3)</f>
-        <v>19.315757575757516</v>
+        <v>13.855151515151533</v>
       </c>
       <c r="Z6" cm="1">
         <f t="array" ref="Z6">TREND($X15:$AG15,$X$12:$AG$12,Z$3)</f>
-        <v>19.733333333333348</v>
+        <v>14.086666666666702</v>
       </c>
       <c r="AA6" cm="1">
         <f t="array" ref="AA6">TREND($X15:$AG15,$X$12:$AG$12,AA$3)</f>
-        <v>20.150909090909067</v>
+        <v>14.31818181818187</v>
       </c>
       <c r="AB6" cm="1">
         <f t="array" ref="AB6">TREND($X15:$AG15,$X$12:$AG$12,AB$3)</f>
-        <v>20.568484848484786</v>
+        <v>14.549696969697038</v>
       </c>
       <c r="AC6" cm="1">
         <f t="array" ref="AC6">TREND($X15:$AG15,$X$12:$AG$12,AC$3)</f>
-        <v>20.986060606060619</v>
+        <v>14.78121212121215</v>
       </c>
       <c r="AD6" cm="1">
         <f t="array" ref="AD6">TREND($X15:$AG15,$X$12:$AG$12,AD$3)</f>
-        <v>21.403636363636338</v>
+        <v>15.012727272727318</v>
       </c>
       <c r="AE6" cm="1">
         <f t="array" ref="AE6">TREND($X15:$AG15,$X$12:$AG$12,AE$3)</f>
-        <v>21.821212121212056</v>
+        <v>15.244242424242486</v>
       </c>
       <c r="AF6" cm="1">
         <f t="array" ref="AF6">TREND($X15:$AG15,$X$12:$AG$12,AF$3)</f>
-        <v>22.238787878787889</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+        <v>15.475757575757598</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AG11" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH11" s="7"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -10417,380 +10424,391 @@
       <c r="AG12" s="6">
         <v>2021</v>
       </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH12" s="6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13">
         <f>'EPA Table 6-1'!B42</f>
-        <v>-938.9</v>
+        <v>-1034.7</v>
       </c>
       <c r="C13">
         <f>'EPA Table 6-1'!C42</f>
-        <v>-944.4</v>
+        <v>-1045.5999999999999</v>
       </c>
       <c r="D13">
         <f>'EPA Table 6-1'!D42</f>
-        <v>-936.8</v>
+        <v>-1061.0999999999999</v>
       </c>
       <c r="E13">
         <f>'EPA Table 6-1'!E42</f>
-        <v>-917.6</v>
+        <v>-1045.7</v>
       </c>
       <c r="F13">
         <f>'EPA Table 6-1'!F42</f>
-        <v>-931.8</v>
+        <v>-1062.7</v>
       </c>
       <c r="G13">
         <f>'EPA Table 6-1'!G42</f>
-        <v>-902.8</v>
+        <v>-1033.8</v>
       </c>
       <c r="H13">
         <f>'EPA Table 6-1'!H42</f>
-        <v>-923.5</v>
+        <v>-1067.8</v>
       </c>
       <c r="I13">
         <f>'EPA Table 6-1'!I42</f>
-        <v>-903.4</v>
+        <v>-1038.3</v>
       </c>
       <c r="J13">
         <f>'EPA Table 6-1'!J42</f>
-        <v>-904.8</v>
+        <v>-1050.5</v>
       </c>
       <c r="K13">
         <f>'EPA Table 6-1'!K42</f>
-        <v>-900.5</v>
+        <v>-1026.3</v>
       </c>
       <c r="L13">
         <f>'EPA Table 6-1'!L42</f>
-        <v>-902</v>
+        <v>-1046.8</v>
       </c>
       <c r="M13">
         <f>'EPA Table 6-1'!M42</f>
-        <v>-899.9</v>
+        <v>-1036.0999999999999</v>
       </c>
       <c r="N13">
         <f>'EPA Table 6-1'!N42</f>
-        <v>-867.1</v>
+        <v>-991.8</v>
       </c>
       <c r="O13">
         <f>'EPA Table 6-1'!O42</f>
-        <v>-891.4</v>
+        <v>-1019.8</v>
       </c>
       <c r="P13">
         <f>'EPA Table 6-1'!P42</f>
-        <v>-791.3</v>
+        <v>-936.9</v>
       </c>
       <c r="Q13">
         <f>'EPA Table 6-1'!Q42</f>
-        <v>-853.5</v>
+        <v>-976.6</v>
       </c>
       <c r="R13">
         <f>'EPA Table 6-1'!R42</f>
-        <v>-882.6</v>
+        <v>-1013.9</v>
       </c>
       <c r="S13">
         <f>'EPA Table 6-1'!S42</f>
-        <v>-843.1</v>
+        <v>-966.3</v>
       </c>
       <c r="T13">
         <f>'EPA Table 6-1'!T42</f>
-        <v>-824.7</v>
+        <v>-973.1</v>
       </c>
       <c r="U13">
         <f>'EPA Table 6-1'!U42</f>
-        <v>-787</v>
+        <v>-915</v>
       </c>
       <c r="V13">
         <f>'EPA Table 6-1'!V42</f>
-        <v>-807.4</v>
+        <v>-941.6</v>
       </c>
       <c r="W13">
         <f>'EPA Table 6-1'!W42</f>
-        <v>-853.8</v>
+        <v>-1001.9</v>
       </c>
       <c r="X13">
         <f>'EPA Table 6-1'!X42</f>
-        <v>-849.4</v>
+        <v>-991.3</v>
       </c>
       <c r="Y13">
         <f>'EPA Table 6-1'!Y42</f>
-        <v>-813.5</v>
+        <v>-949.4</v>
       </c>
       <c r="Z13">
         <f>'EPA Table 6-1'!Z42</f>
-        <v>-826.9</v>
+        <v>-980.4</v>
       </c>
       <c r="AA13">
         <f>'EPA Table 6-1'!AA42</f>
-        <v>-752.2</v>
+        <v>-896.2</v>
       </c>
       <c r="AB13">
         <f>'EPA Table 6-1'!AB42</f>
-        <v>-874.2</v>
+        <v>-973.8</v>
       </c>
       <c r="AC13">
         <f>'EPA Table 6-1'!AC42</f>
-        <v>-842.5</v>
+        <v>-991.9</v>
       </c>
       <c r="AD13">
         <f>'EPA Table 6-1'!AD42</f>
-        <v>-829.5</v>
+        <v>-978.3</v>
       </c>
       <c r="AE13">
         <f>'EPA Table 6-1'!AE42</f>
-        <v>-768.2</v>
+        <v>-921.6</v>
       </c>
       <c r="AF13">
         <f>'EPA Table 6-1'!AF42</f>
-        <v>-852.5</v>
+        <v>-972.8</v>
       </c>
       <c r="AG13">
         <f>'EPA Table 6-1'!AG42</f>
-        <v>-832</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+        <v>-983.4</v>
+      </c>
+      <c r="AH13">
+        <f>'EPA Table 6-1'!AH42</f>
+        <v>-921.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14">
         <f>'EPA Table 6-1'!B40</f>
-        <v>53.5</v>
+        <v>53.1</v>
       </c>
       <c r="C14">
         <f>'EPA Table 6-1'!C40</f>
-        <v>53</v>
+        <v>52.2</v>
       </c>
       <c r="D14">
         <f>'EPA Table 6-1'!D40</f>
-        <v>51.2</v>
+        <v>50.5</v>
       </c>
       <c r="E14">
         <f>'EPA Table 6-1'!E40</f>
-        <v>51.2</v>
+        <v>50.7</v>
       </c>
       <c r="F14">
         <f>'EPA Table 6-1'!F40</f>
-        <v>53.6</v>
+        <v>52.6</v>
       </c>
       <c r="G14">
         <f>'EPA Table 6-1'!G40</f>
-        <v>50.8</v>
+        <v>50.1</v>
       </c>
       <c r="H14">
         <f>'EPA Table 6-1'!H40</f>
-        <v>52.6</v>
+        <v>51.9</v>
       </c>
       <c r="I14">
         <f>'EPA Table 6-1'!I40</f>
-        <v>50.5</v>
+        <v>49.7</v>
       </c>
       <c r="J14">
         <f>'EPA Table 6-1'!J40</f>
-        <v>51.4</v>
+        <v>50.5</v>
       </c>
       <c r="K14">
         <f>'EPA Table 6-1'!K40</f>
-        <v>54.1</v>
+        <v>52.5</v>
       </c>
       <c r="L14">
         <f>'EPA Table 6-1'!L40</f>
-        <v>58.2</v>
+        <v>55.7</v>
       </c>
       <c r="M14">
         <f>'EPA Table 6-1'!M40</f>
-        <v>52.7</v>
+        <v>51.5</v>
       </c>
       <c r="N14">
         <f>'EPA Table 6-1'!N40</f>
-        <v>60.9</v>
+        <v>58.1</v>
       </c>
       <c r="O14">
         <f>'EPA Table 6-1'!O40</f>
-        <v>56.6</v>
+        <v>55.1</v>
       </c>
       <c r="P14">
         <f>'EPA Table 6-1'!P40</f>
-        <v>66.8</v>
+        <v>63.1</v>
       </c>
       <c r="Q14">
         <f>'EPA Table 6-1'!Q40</f>
-        <v>61.3</v>
+        <v>58.5</v>
       </c>
       <c r="R14">
         <f>'EPA Table 6-1'!R40</f>
-        <v>56.5</v>
+        <v>54.5</v>
       </c>
       <c r="S14">
         <f>'EPA Table 6-1'!S40</f>
-        <v>59.6</v>
+        <v>57</v>
       </c>
       <c r="T14">
         <f>'EPA Table 6-1'!T40</f>
-        <v>54.8</v>
+        <v>53.5</v>
       </c>
       <c r="U14">
         <f>'EPA Table 6-1'!U40</f>
-        <v>57.9</v>
+        <v>55.7</v>
       </c>
       <c r="V14">
         <f>'EPA Table 6-1'!V40</f>
-        <v>52.2</v>
+        <v>50.8</v>
       </c>
       <c r="W14">
         <f>'EPA Table 6-1'!W40</f>
-        <v>55.7</v>
+        <v>53.6</v>
       </c>
       <c r="X14">
         <f>'EPA Table 6-1'!X40</f>
-        <v>57</v>
+        <v>55.2</v>
       </c>
       <c r="Y14">
         <f>'EPA Table 6-1'!Y40</f>
-        <v>57.2</v>
+        <v>55.6</v>
       </c>
       <c r="Z14">
         <f>'EPA Table 6-1'!Z40</f>
-        <v>53.2</v>
+        <v>51.7</v>
       </c>
       <c r="AA14">
         <f>'EPA Table 6-1'!AA40</f>
-        <v>67</v>
+        <v>63.7</v>
       </c>
       <c r="AB14">
         <f>'EPA Table 6-1'!AB40</f>
-        <v>53.9</v>
+        <v>51.9</v>
       </c>
       <c r="AC14">
         <f>'EPA Table 6-1'!AC40</f>
-        <v>60.1</v>
+        <v>57.6</v>
       </c>
       <c r="AD14">
         <f>'EPA Table 6-1'!AD40</f>
-        <v>57.3</v>
+        <v>55.5</v>
       </c>
       <c r="AE14">
         <f>'EPA Table 6-1'!AE40</f>
-        <v>56.9</v>
+        <v>52.5</v>
       </c>
       <c r="AF14">
         <f>'EPA Table 6-1'!AF40</f>
-        <v>65.400000000000006</v>
+        <v>59.3</v>
       </c>
       <c r="AG14">
         <f>'EPA Table 6-1'!AG40</f>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+        <v>62.1</v>
+      </c>
+      <c r="AH14">
+        <f>'EPA Table 6-1'!AH40</f>
+        <v>58.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
       <c r="B15">
         <f>'EPA Table 6-1'!B41</f>
-        <v>4.4000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="C15">
         <f>'EPA Table 6-1'!C41</f>
-        <v>4.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D15">
         <f>'EPA Table 6-1'!D41</f>
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="E15">
         <f>'EPA Table 6-1'!E41</f>
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="F15">
         <f>'EPA Table 6-1'!F41</f>
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="G15">
         <f>'EPA Table 6-1'!G41</f>
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H15">
         <f>'EPA Table 6-1'!H41</f>
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="I15">
         <f>'EPA Table 6-1'!I41</f>
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="J15">
         <f>'EPA Table 6-1'!J41</f>
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K15">
         <f>'EPA Table 6-1'!K41</f>
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L15">
         <f>'EPA Table 6-1'!L41</f>
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="M15">
         <f>'EPA Table 6-1'!M41</f>
-        <v>4.7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="N15">
         <f>'EPA Table 6-1'!N41</f>
-        <v>9.6</v>
+        <v>8.9</v>
       </c>
       <c r="O15">
         <f>'EPA Table 6-1'!O41</f>
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="P15">
         <f>'EPA Table 6-1'!P41</f>
-        <v>14.9</v>
+        <v>13.6</v>
       </c>
       <c r="Q15">
         <f>'EPA Table 6-1'!Q41</f>
-        <v>11.1</v>
+        <v>10.3</v>
       </c>
       <c r="R15">
         <f>'EPA Table 6-1'!R41</f>
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="S15">
         <f>'EPA Table 6-1'!S41</f>
-        <v>9.4</v>
+        <v>8.9</v>
       </c>
       <c r="T15">
         <f>'EPA Table 6-1'!T41</f>
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="U15">
         <f>'EPA Table 6-1'!U41</f>
-        <v>8.6999999999999993</v>
+        <v>8.4</v>
       </c>
       <c r="V15">
         <f>'EPA Table 6-1'!V41</f>
-        <v>4.0999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="W15">
         <f>'EPA Table 6-1'!W41</f>
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="X15">
         <f>'EPA Table 6-1'!X41</f>
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="Y15">
         <f>'EPA Table 6-1'!Y41</f>
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="Z15">
         <f>'EPA Table 6-1'!Z41</f>
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="AA15">
         <f>'EPA Table 6-1'!AA41</f>
-        <v>13.4</v>
+        <v>12.3</v>
       </c>
       <c r="AB15">
         <f>'EPA Table 6-1'!AB41</f>
@@ -10798,23 +10816,27 @@
       </c>
       <c r="AC15">
         <f>'EPA Table 6-1'!AC41</f>
-        <v>8.3000000000000007</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AD15">
         <f>'EPA Table 6-1'!AD41</f>
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="AE15">
         <f>'EPA Table 6-1'!AE41</f>
-        <v>7.3</v>
+        <v>5.5</v>
       </c>
       <c r="AF15">
         <f>'EPA Table 6-1'!AF41</f>
-        <v>11</v>
+        <v>9.1</v>
       </c>
       <c r="AG15">
         <f>'EPA Table 6-1'!AG41</f>
-        <v>11.8</v>
+        <v>10.7</v>
+      </c>
+      <c r="AH15">
+        <f>'EPA Table 6-1'!AH41</f>
+        <v>9.1</v>
       </c>
     </row>
   </sheetData>
@@ -10825,10 +10847,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AG56"/>
+  <dimension ref="A1:AH56"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:AH43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10837,12 +10859,12 @@
     <col min="2" max="33" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -10942,227 +10964,236 @@
       <c r="AG3">
         <v>2021</v>
       </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
       <c r="B4">
-        <v>-815.8</v>
+        <v>-968.8</v>
       </c>
       <c r="C4">
-        <v>-817.8</v>
+        <v>-971.7</v>
       </c>
       <c r="D4">
-        <v>-822.9</v>
+        <v>-977.8</v>
       </c>
       <c r="E4">
-        <v>-819</v>
+        <v>-972.8</v>
       </c>
       <c r="F4">
+        <v>-963.1</v>
+      </c>
+      <c r="G4">
+        <v>-957.4</v>
+      </c>
+      <c r="H4">
+        <v>-956</v>
+      </c>
+      <c r="I4">
+        <v>-955.7</v>
+      </c>
+      <c r="J4">
+        <v>-950.4</v>
+      </c>
+      <c r="K4">
+        <v>-933.9</v>
+      </c>
+      <c r="L4">
+        <v>-908.4</v>
+      </c>
+      <c r="M4">
+        <v>-921.3</v>
+      </c>
+      <c r="N4">
+        <v>-868.1</v>
+      </c>
+      <c r="O4">
+        <v>-907.5</v>
+      </c>
+      <c r="P4">
+        <v>-805.6</v>
+      </c>
+      <c r="Q4">
+        <v>-860</v>
+      </c>
+      <c r="R4">
+        <v>-897.3</v>
+      </c>
+      <c r="S4">
+        <v>-863.6</v>
+      </c>
+      <c r="T4">
+        <v>-848.4</v>
+      </c>
+      <c r="U4">
+        <v>-807.9</v>
+      </c>
+      <c r="V4">
+        <v>-852.1</v>
+      </c>
+      <c r="W4">
+        <v>-860.9</v>
+      </c>
+      <c r="X4">
+        <v>-857.3</v>
+      </c>
+      <c r="Y4">
+        <v>-840.4</v>
+      </c>
+      <c r="Z4">
+        <v>-874.8</v>
+      </c>
+      <c r="AA4">
+        <v>-763</v>
+      </c>
+      <c r="AB4">
+        <v>-881.5</v>
+      </c>
+      <c r="AC4">
+        <v>-875</v>
+      </c>
+      <c r="AD4">
+        <v>-863.4</v>
+      </c>
+      <c r="AE4">
         <v>-807</v>
       </c>
-      <c r="G4">
-        <v>-801.3</v>
-      </c>
-      <c r="H4">
-        <v>-799.3</v>
-      </c>
-      <c r="I4">
-        <v>-797.6</v>
-      </c>
-      <c r="J4">
-        <v>-790.8</v>
-      </c>
-      <c r="K4">
-        <v>-773.9</v>
-      </c>
-      <c r="L4">
-        <v>-745.4</v>
-      </c>
-      <c r="M4">
-        <v>-757.8</v>
-      </c>
-      <c r="N4">
-        <v>-704.6</v>
-      </c>
-      <c r="O4">
-        <v>-742.2</v>
-      </c>
-      <c r="P4">
-        <v>-625.9</v>
-      </c>
-      <c r="Q4">
-        <v>-695.4</v>
-      </c>
-      <c r="R4">
-        <v>-730.9</v>
-      </c>
-      <c r="S4">
-        <v>-696.6</v>
-      </c>
-      <c r="T4">
-        <v>-686.7</v>
-      </c>
-      <c r="U4">
-        <v>-652.6</v>
-      </c>
-      <c r="V4">
-        <v>-693.4</v>
-      </c>
-      <c r="W4">
-        <v>-705.3</v>
-      </c>
-      <c r="X4">
-        <v>-691.8</v>
-      </c>
-      <c r="Y4">
-        <v>-681.1</v>
-      </c>
-      <c r="Z4">
-        <v>-712.9</v>
-      </c>
-      <c r="AA4">
-        <v>-611</v>
-      </c>
-      <c r="AB4">
-        <v>-739.2</v>
-      </c>
-      <c r="AC4">
-        <v>-695.2</v>
-      </c>
-      <c r="AD4">
-        <v>-692.9</v>
-      </c>
-      <c r="AE4">
-        <v>-638.1</v>
-      </c>
       <c r="AF4">
-        <v>-684</v>
+        <v>-846.3</v>
       </c>
       <c r="AG4">
-        <v>-670.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+        <v>-823.8</v>
+      </c>
+      <c r="AH4">
+        <v>-771.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
       <c r="B5">
-        <v>-821.4</v>
+        <v>-974.8</v>
       </c>
       <c r="C5">
-        <v>-822.8</v>
+        <v>-976.3</v>
       </c>
       <c r="D5">
-        <v>-824.6</v>
+        <v>-979.2</v>
       </c>
       <c r="E5">
-        <v>-820.9</v>
+        <v>-974.8</v>
       </c>
       <c r="F5">
-        <v>-812.3</v>
+        <v>-968</v>
       </c>
       <c r="G5">
-        <v>-802.6</v>
+        <v>-958.7</v>
       </c>
       <c r="H5">
-        <v>-803</v>
+        <v>-959.7</v>
       </c>
       <c r="I5">
-        <v>-798.6</v>
+        <v>-956.7</v>
       </c>
       <c r="J5">
-        <v>-793.3</v>
+        <v>-952.7</v>
       </c>
       <c r="K5">
-        <v>-780.5</v>
+        <v>-939.5</v>
       </c>
       <c r="L5">
-        <v>-758.3</v>
+        <v>-918.6</v>
       </c>
       <c r="M5">
-        <v>-762.2</v>
+        <v>-925.5</v>
       </c>
       <c r="N5">
-        <v>-722.5</v>
+        <v>-883.2</v>
       </c>
       <c r="O5">
-        <v>-752.7</v>
+        <v>-917.4</v>
       </c>
       <c r="P5">
-        <v>-654.4</v>
+        <v>-829.8</v>
       </c>
       <c r="Q5">
-        <v>-714.2</v>
+        <v>-876</v>
       </c>
       <c r="R5">
-        <v>-740.4</v>
+        <v>-905.6</v>
       </c>
       <c r="S5">
-        <v>-711.5</v>
+        <v>-876.2</v>
       </c>
       <c r="T5">
-        <v>-694.4</v>
+        <v>-855.7</v>
       </c>
       <c r="U5">
-        <v>-665.5</v>
+        <v>-819.1</v>
       </c>
       <c r="V5">
-        <v>-697.3</v>
+        <v>-855.7</v>
       </c>
       <c r="W5">
-        <v>-714</v>
+        <v>-867.9</v>
       </c>
       <c r="X5">
-        <v>-702.4</v>
+        <v>-866.8</v>
       </c>
       <c r="Y5">
-        <v>-692.8</v>
+        <v>-851.5</v>
       </c>
       <c r="Z5">
-        <v>-717.9</v>
+        <v>-879.4</v>
       </c>
       <c r="AA5">
-        <v>-638.6</v>
+        <v>-786.9</v>
       </c>
       <c r="AB5">
-        <v>-745.3</v>
+        <v>-886.1</v>
       </c>
       <c r="AC5">
-        <v>-710.7</v>
+        <v>-887.9</v>
       </c>
       <c r="AD5">
-        <v>-704.4</v>
+        <v>-873.5</v>
       </c>
       <c r="AE5">
-        <v>-649.29999999999995</v>
+        <v>-813.2</v>
       </c>
       <c r="AF5">
-        <v>-707.4</v>
+        <v>-862</v>
       </c>
       <c r="AG5">
-        <v>-695.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+        <v>-844.2</v>
+      </c>
+      <c r="AH5">
+        <v>-787</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
       <c r="B6">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="C6">
-        <v>4.9000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="D6">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="E6">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="F6">
-        <v>5.0999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -11174,79 +11205,82 @@
         <v>0.6</v>
       </c>
       <c r="J6">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="K6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L6">
-        <v>12.3</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="M6">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="N6">
-        <v>17.3</v>
+        <v>14.5</v>
       </c>
       <c r="O6">
-        <v>9.9</v>
+        <v>9.4</v>
       </c>
       <c r="P6">
-        <v>28</v>
+        <v>23.8</v>
       </c>
       <c r="Q6">
-        <v>18.3</v>
+        <v>15.5</v>
       </c>
       <c r="R6">
+        <v>7.8</v>
+      </c>
+      <c r="S6">
+        <v>12.1</v>
+      </c>
+      <c r="T6">
+        <v>6.9</v>
+      </c>
+      <c r="U6">
+        <v>10.8</v>
+      </c>
+      <c r="V6">
+        <v>3.1</v>
+      </c>
+      <c r="W6">
+        <v>6.5</v>
+      </c>
+      <c r="X6">
         <v>9</v>
       </c>
-      <c r="S6">
-        <v>14.4</v>
-      </c>
-      <c r="T6">
-        <v>7.2</v>
-      </c>
-      <c r="U6">
-        <v>12.5</v>
-      </c>
-      <c r="V6">
-        <v>3.4</v>
-      </c>
-      <c r="W6">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="X6">
-        <v>10.1</v>
-      </c>
       <c r="Y6">
-        <v>11.3</v>
+        <v>10.6</v>
       </c>
       <c r="Z6">
-        <v>4.5999999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AA6">
-        <v>27.2</v>
+        <v>23.3</v>
       </c>
       <c r="AB6">
-        <v>5.6</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AC6">
-        <v>15</v>
+        <v>12.4</v>
       </c>
       <c r="AD6">
-        <v>11</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="AE6">
-        <v>10.8</v>
+        <v>5.7</v>
       </c>
       <c r="AF6">
-        <v>23</v>
+        <v>15.3</v>
       </c>
       <c r="AG6">
-        <v>24.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="AH6">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -11346,8 +11380,11 @@
       <c r="AG7">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -11447,816 +11484,843 @@
       <c r="AG8">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
       <c r="B9">
-        <v>-98.5</v>
+        <v>-100.2</v>
       </c>
       <c r="C9">
-        <v>-98.4</v>
+        <v>-100.1</v>
       </c>
       <c r="D9">
-        <v>-98.4</v>
+        <v>-100</v>
       </c>
       <c r="E9">
-        <v>-98.4</v>
+        <v>-100</v>
       </c>
       <c r="F9">
-        <v>-98.5</v>
+        <v>-100</v>
       </c>
       <c r="G9">
-        <v>-98.4</v>
+        <v>-100.1</v>
       </c>
       <c r="H9">
-        <v>-98.4</v>
+        <v>-100.1</v>
       </c>
       <c r="I9">
-        <v>-98.3</v>
+        <v>-100</v>
       </c>
       <c r="J9">
-        <v>-98.4</v>
+        <v>-100.1</v>
       </c>
       <c r="K9">
-        <v>-98.3</v>
+        <v>-100.1</v>
       </c>
       <c r="L9">
-        <v>-98.4</v>
+        <v>-100.1</v>
       </c>
       <c r="M9">
-        <v>-98.4</v>
+        <v>-100.1</v>
       </c>
       <c r="N9">
-        <v>-98.4</v>
+        <v>-100.1</v>
       </c>
       <c r="O9">
-        <v>-98.4</v>
+        <v>-100.1</v>
       </c>
       <c r="P9">
-        <v>-98.4</v>
+        <v>-100.1</v>
       </c>
       <c r="Q9">
-        <v>-98.4</v>
+        <v>-100.2</v>
       </c>
       <c r="R9">
-        <v>-98.4</v>
+        <v>-100.2</v>
       </c>
       <c r="S9">
-        <v>-98.4</v>
+        <v>-100.2</v>
       </c>
       <c r="T9">
-        <v>-98.4</v>
+        <v>-100.2</v>
       </c>
       <c r="U9">
-        <v>-98.4</v>
+        <v>-100.2</v>
       </c>
       <c r="V9">
-        <v>-98.4</v>
+        <v>-100.2</v>
       </c>
       <c r="W9">
-        <v>-98.4</v>
+        <v>-100.2</v>
       </c>
       <c r="X9">
-        <v>-98.3</v>
+        <v>-100.2</v>
       </c>
       <c r="Y9">
-        <v>-98.3</v>
+        <v>-100.3</v>
       </c>
       <c r="Z9">
-        <v>-98.3</v>
+        <v>-100.3</v>
       </c>
       <c r="AA9">
-        <v>-98.3</v>
+        <v>-100.3</v>
       </c>
       <c r="AB9">
-        <v>-98.3</v>
+        <v>-100.4</v>
       </c>
       <c r="AC9">
-        <v>-98.3</v>
+        <v>-100.4</v>
       </c>
       <c r="AD9">
-        <v>-98.3</v>
+        <v>-100.4</v>
       </c>
       <c r="AE9">
-        <v>-98.3</v>
+        <v>-100.3</v>
       </c>
       <c r="AF9">
-        <v>-98.3</v>
+        <v>-100.3</v>
       </c>
       <c r="AG9">
-        <v>-98.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+        <v>-100.3</v>
+      </c>
+      <c r="AH9">
+        <v>-100.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
       <c r="B10">
-        <v>-98.5</v>
+        <v>-100.2</v>
       </c>
       <c r="C10">
-        <v>-98.4</v>
+        <v>-100.1</v>
       </c>
       <c r="D10">
-        <v>-98.4</v>
+        <v>-100</v>
       </c>
       <c r="E10">
-        <v>-98.4</v>
+        <v>-100</v>
       </c>
       <c r="F10">
-        <v>-98.5</v>
+        <v>-100</v>
       </c>
       <c r="G10">
-        <v>-98.4</v>
+        <v>-100.1</v>
       </c>
       <c r="H10">
-        <v>-98.4</v>
+        <v>-100.1</v>
       </c>
       <c r="I10">
-        <v>-98.3</v>
+        <v>-100</v>
       </c>
       <c r="J10">
-        <v>-98.4</v>
+        <v>-100.1</v>
       </c>
       <c r="K10">
-        <v>-98.3</v>
+        <v>-100.1</v>
       </c>
       <c r="L10">
-        <v>-98.4</v>
+        <v>-100.1</v>
       </c>
       <c r="M10">
-        <v>-98.4</v>
+        <v>-100.1</v>
       </c>
       <c r="N10">
-        <v>-98.4</v>
+        <v>-100.1</v>
       </c>
       <c r="O10">
-        <v>-98.4</v>
+        <v>-100.1</v>
       </c>
       <c r="P10">
-        <v>-98.4</v>
+        <v>-100.1</v>
       </c>
       <c r="Q10">
-        <v>-98.4</v>
+        <v>-100.2</v>
       </c>
       <c r="R10">
-        <v>-98.4</v>
+        <v>-100.2</v>
       </c>
       <c r="S10">
-        <v>-98.4</v>
+        <v>-100.2</v>
       </c>
       <c r="T10">
-        <v>-98.4</v>
+        <v>-100.2</v>
       </c>
       <c r="U10">
-        <v>-98.4</v>
+        <v>-100.2</v>
       </c>
       <c r="V10">
-        <v>-98.4</v>
+        <v>-100.2</v>
       </c>
       <c r="W10">
-        <v>-98.4</v>
+        <v>-100.2</v>
       </c>
       <c r="X10">
-        <v>-98.3</v>
+        <v>-100.2</v>
       </c>
       <c r="Y10">
-        <v>-98.3</v>
+        <v>-100.3</v>
       </c>
       <c r="Z10">
-        <v>-98.3</v>
+        <v>-100.3</v>
       </c>
       <c r="AA10">
-        <v>-98.3</v>
+        <v>-100.3</v>
       </c>
       <c r="AB10">
-        <v>-98.3</v>
+        <v>-100.4</v>
       </c>
       <c r="AC10">
-        <v>-98.3</v>
+        <v>-100.4</v>
       </c>
       <c r="AD10">
-        <v>-98.3</v>
+        <v>-100.4</v>
       </c>
       <c r="AE10">
-        <v>-98.3</v>
+        <v>-100.3</v>
       </c>
       <c r="AF10">
-        <v>-98.3</v>
+        <v>-100.3</v>
       </c>
       <c r="AG10">
-        <v>-98.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+        <v>-100.3</v>
+      </c>
+      <c r="AH10">
+        <v>-100.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>34</v>
       </c>
       <c r="B11">
-        <v>-23.2</v>
+        <v>-5</v>
       </c>
       <c r="C11">
+        <v>-18.600000000000001</v>
+      </c>
+      <c r="D11">
+        <v>-26.7</v>
+      </c>
+      <c r="E11">
+        <v>-13.6</v>
+      </c>
+      <c r="F11">
+        <v>-21.5</v>
+      </c>
+      <c r="G11">
+        <v>-18.2</v>
+      </c>
+      <c r="H11">
+        <v>-38.200000000000003</v>
+      </c>
+      <c r="I11">
+        <v>-35</v>
+      </c>
+      <c r="J11">
+        <v>-30.4</v>
+      </c>
+      <c r="K11">
+        <v>-32.200000000000003</v>
+      </c>
+      <c r="L11">
+        <v>-38</v>
+      </c>
+      <c r="M11">
+        <v>-35.799999999999997</v>
+      </c>
+      <c r="N11">
+        <v>-38.1</v>
+      </c>
+      <c r="O11">
         <v>-29</v>
       </c>
-      <c r="D11">
-        <v>-25.5</v>
-      </c>
-      <c r="E11">
-        <v>-11.6</v>
-      </c>
-      <c r="F11">
-        <v>-19.3</v>
-      </c>
-      <c r="G11">
-        <v>-12.1</v>
-      </c>
-      <c r="H11">
-        <v>-27.5</v>
-      </c>
-      <c r="I11">
-        <v>-19.100000000000001</v>
-      </c>
-      <c r="J11">
-        <v>-9.9</v>
-      </c>
-      <c r="K11">
-        <v>-18</v>
-      </c>
-      <c r="L11">
-        <v>-23.7</v>
-      </c>
-      <c r="M11">
-        <v>-27.2</v>
-      </c>
-      <c r="N11">
+      <c r="P11">
+        <v>-33.700000000000003</v>
+      </c>
+      <c r="Q11">
+        <v>-31.6</v>
+      </c>
+      <c r="R11">
+        <v>-28.3</v>
+      </c>
+      <c r="S11">
+        <v>-27</v>
+      </c>
+      <c r="T11">
+        <v>-33.799999999999997</v>
+      </c>
+      <c r="U11">
+        <v>-15.6</v>
+      </c>
+      <c r="V11">
+        <v>-19.899999999999999</v>
+      </c>
+      <c r="W11">
+        <v>-38.5</v>
+      </c>
+      <c r="X11">
+        <v>-27.1</v>
+      </c>
+      <c r="Y11">
+        <v>-16</v>
+      </c>
+      <c r="Z11">
+        <v>-22.4</v>
+      </c>
+      <c r="AA11">
+        <v>-24</v>
+      </c>
+      <c r="AB11">
+        <v>-22.5</v>
+      </c>
+      <c r="AC11">
+        <v>-18.8</v>
+      </c>
+      <c r="AD11">
+        <v>-17.8</v>
+      </c>
+      <c r="AE11">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="AF11">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="AG11">
         <v>-32</v>
       </c>
-      <c r="O11">
-        <v>-24.1</v>
-      </c>
-      <c r="P11">
-        <v>-26.2</v>
-      </c>
-      <c r="Q11">
-        <v>-29</v>
-      </c>
-      <c r="R11">
-        <v>-25.2</v>
-      </c>
-      <c r="S11">
-        <v>-29.2</v>
-      </c>
-      <c r="T11">
-        <v>-23</v>
-      </c>
-      <c r="U11">
-        <v>-14</v>
-      </c>
-      <c r="V11">
-        <v>-18.600000000000001</v>
-      </c>
-      <c r="W11">
-        <v>-31.8</v>
-      </c>
-      <c r="X11">
-        <v>-26.4</v>
-      </c>
-      <c r="Y11">
-        <v>-15.3</v>
-      </c>
-      <c r="Z11">
-        <v>-12.2</v>
-      </c>
-      <c r="AA11">
-        <v>-12.8</v>
-      </c>
-      <c r="AB11">
-        <v>-22.7</v>
-      </c>
-      <c r="AC11">
-        <v>-22.3</v>
-      </c>
-      <c r="AD11">
-        <v>-16.600000000000001</v>
-      </c>
-      <c r="AE11">
-        <v>-14.5</v>
-      </c>
-      <c r="AF11">
-        <v>-23.3</v>
-      </c>
-      <c r="AG11">
-        <v>-18.899999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH11">
+        <v>-31.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
       <c r="B12">
-        <v>-23.2</v>
+        <v>-5</v>
       </c>
       <c r="C12">
+        <v>-18.600000000000001</v>
+      </c>
+      <c r="D12">
+        <v>-26.7</v>
+      </c>
+      <c r="E12">
+        <v>-13.6</v>
+      </c>
+      <c r="F12">
+        <v>-21.5</v>
+      </c>
+      <c r="G12">
+        <v>-18.2</v>
+      </c>
+      <c r="H12">
+        <v>-38.200000000000003</v>
+      </c>
+      <c r="I12">
+        <v>-35</v>
+      </c>
+      <c r="J12">
+        <v>-30.4</v>
+      </c>
+      <c r="K12">
+        <v>-32.200000000000003</v>
+      </c>
+      <c r="L12">
+        <v>-38</v>
+      </c>
+      <c r="M12">
+        <v>-35.799999999999997</v>
+      </c>
+      <c r="N12">
+        <v>-38.1</v>
+      </c>
+      <c r="O12">
         <v>-29</v>
       </c>
-      <c r="D12">
-        <v>-25.5</v>
-      </c>
-      <c r="E12">
-        <v>-11.6</v>
-      </c>
-      <c r="F12">
-        <v>-19.3</v>
-      </c>
-      <c r="G12">
-        <v>-12.1</v>
-      </c>
-      <c r="H12">
-        <v>-27.5</v>
-      </c>
-      <c r="I12">
-        <v>-19.100000000000001</v>
-      </c>
-      <c r="J12">
-        <v>-9.9</v>
-      </c>
-      <c r="K12">
-        <v>-18</v>
-      </c>
-      <c r="L12">
-        <v>-23.7</v>
-      </c>
-      <c r="M12">
-        <v>-27.2</v>
-      </c>
-      <c r="N12">
+      <c r="P12">
+        <v>-33.700000000000003</v>
+      </c>
+      <c r="Q12">
+        <v>-31.6</v>
+      </c>
+      <c r="R12">
+        <v>-28.3</v>
+      </c>
+      <c r="S12">
+        <v>-27</v>
+      </c>
+      <c r="T12">
+        <v>-33.799999999999997</v>
+      </c>
+      <c r="U12">
+        <v>-15.6</v>
+      </c>
+      <c r="V12">
+        <v>-19.899999999999999</v>
+      </c>
+      <c r="W12">
+        <v>-38.5</v>
+      </c>
+      <c r="X12">
+        <v>-27.1</v>
+      </c>
+      <c r="Y12">
+        <v>-16</v>
+      </c>
+      <c r="Z12">
+        <v>-22.4</v>
+      </c>
+      <c r="AA12">
+        <v>-24</v>
+      </c>
+      <c r="AB12">
+        <v>-22.5</v>
+      </c>
+      <c r="AC12">
+        <v>-18.8</v>
+      </c>
+      <c r="AD12">
+        <v>-17.8</v>
+      </c>
+      <c r="AE12">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="AF12">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="AG12">
         <v>-32</v>
       </c>
-      <c r="O12">
-        <v>-24.1</v>
-      </c>
-      <c r="P12">
-        <v>-26.2</v>
-      </c>
-      <c r="Q12">
-        <v>-29</v>
-      </c>
-      <c r="R12">
-        <v>-25.2</v>
-      </c>
-      <c r="S12">
-        <v>-29.2</v>
-      </c>
-      <c r="T12">
-        <v>-23</v>
-      </c>
-      <c r="U12">
-        <v>-14</v>
-      </c>
-      <c r="V12">
-        <v>-18.600000000000001</v>
-      </c>
-      <c r="W12">
-        <v>-31.8</v>
-      </c>
-      <c r="X12">
-        <v>-26.4</v>
-      </c>
-      <c r="Y12">
-        <v>-15.3</v>
-      </c>
-      <c r="Z12">
-        <v>-12.2</v>
-      </c>
-      <c r="AA12">
-        <v>-12.8</v>
-      </c>
-      <c r="AB12">
-        <v>-22.7</v>
-      </c>
-      <c r="AC12">
-        <v>-22.3</v>
-      </c>
-      <c r="AD12">
-        <v>-16.600000000000001</v>
-      </c>
-      <c r="AE12">
-        <v>-14.5</v>
-      </c>
-      <c r="AF12">
-        <v>-23.3</v>
-      </c>
-      <c r="AG12">
-        <v>-18.899999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH12">
+        <v>-31.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>36</v>
       </c>
       <c r="B13">
-        <v>54.8</v>
+        <v>45.4</v>
       </c>
       <c r="C13">
-        <v>55.6</v>
+        <v>46.6</v>
       </c>
       <c r="D13">
-        <v>56.1</v>
+        <v>43.2</v>
       </c>
       <c r="E13">
-        <v>55.4</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="F13">
-        <v>55.7</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="G13">
-        <v>59.9</v>
+        <v>42.7</v>
       </c>
       <c r="H13">
-        <v>59</v>
+        <v>40.4</v>
       </c>
       <c r="I13">
-        <v>62.1</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="J13">
-        <v>58.7</v>
+        <v>38.5</v>
       </c>
       <c r="K13">
-        <v>58.9</v>
+        <v>40.9</v>
       </c>
       <c r="L13">
-        <v>58.1</v>
+        <v>37.4</v>
       </c>
       <c r="M13">
-        <v>58.5</v>
+        <v>36</v>
       </c>
       <c r="N13">
-        <v>56.1</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="O13">
-        <v>55.9</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="P13">
-        <v>54.6</v>
+        <v>34.6</v>
       </c>
       <c r="Q13">
-        <v>54.7</v>
+        <v>34.5</v>
       </c>
       <c r="R13">
-        <v>53.5</v>
+        <v>32.4</v>
       </c>
       <c r="S13">
-        <v>53.6</v>
+        <v>33.6</v>
       </c>
       <c r="T13">
-        <v>55.9</v>
+        <v>30.3</v>
       </c>
       <c r="U13">
-        <v>56</v>
+        <v>30.9</v>
       </c>
       <c r="V13">
-        <v>57.4</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="W13">
-        <v>54.4</v>
+        <v>29.6</v>
       </c>
       <c r="X13">
-        <v>55.6</v>
+        <v>32</v>
       </c>
       <c r="Y13">
-        <v>56.4</v>
+        <v>33.5</v>
       </c>
       <c r="Z13">
-        <v>57.5</v>
+        <v>32</v>
       </c>
       <c r="AA13">
-        <v>58.1</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="AB13">
-        <v>56.4</v>
+        <v>34.1</v>
       </c>
       <c r="AC13">
-        <v>56.6</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="AD13">
-        <v>56.3</v>
+        <v>31.9</v>
       </c>
       <c r="AE13">
-        <v>56.3</v>
+        <v>31.4</v>
       </c>
       <c r="AF13">
-        <v>56.7</v>
+        <v>29.3</v>
       </c>
       <c r="AG13">
-        <v>56.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+        <v>34.9</v>
+      </c>
+      <c r="AH13">
+        <v>35.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
       <c r="B14">
-        <v>54.8</v>
+        <v>45.4</v>
       </c>
       <c r="C14">
-        <v>55.6</v>
+        <v>46.6</v>
       </c>
       <c r="D14">
-        <v>56.1</v>
+        <v>43.2</v>
       </c>
       <c r="E14">
-        <v>55.4</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="F14">
-        <v>55.7</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="G14">
-        <v>59.9</v>
+        <v>42.7</v>
       </c>
       <c r="H14">
-        <v>59</v>
+        <v>40.4</v>
       </c>
       <c r="I14">
-        <v>62.1</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="J14">
-        <v>58.7</v>
+        <v>38.5</v>
       </c>
       <c r="K14">
-        <v>58.9</v>
+        <v>40.9</v>
       </c>
       <c r="L14">
-        <v>58.1</v>
+        <v>37.4</v>
       </c>
       <c r="M14">
-        <v>58.5</v>
+        <v>36</v>
       </c>
       <c r="N14">
-        <v>56.1</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="O14">
-        <v>55.9</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="P14">
-        <v>54.6</v>
+        <v>34.6</v>
       </c>
       <c r="Q14">
-        <v>54.7</v>
+        <v>34.5</v>
       </c>
       <c r="R14">
-        <v>53.5</v>
+        <v>32.4</v>
       </c>
       <c r="S14">
-        <v>53.6</v>
+        <v>33.6</v>
       </c>
       <c r="T14">
-        <v>55.9</v>
+        <v>30.3</v>
       </c>
       <c r="U14">
-        <v>56</v>
+        <v>30.9</v>
       </c>
       <c r="V14">
-        <v>57.4</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="W14">
-        <v>54.4</v>
+        <v>29.6</v>
       </c>
       <c r="X14">
-        <v>55.6</v>
+        <v>32</v>
       </c>
       <c r="Y14">
-        <v>56.4</v>
+        <v>33.5</v>
       </c>
       <c r="Z14">
-        <v>57.5</v>
+        <v>32</v>
       </c>
       <c r="AA14">
-        <v>58.1</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="AB14">
-        <v>56.4</v>
+        <v>34.1</v>
       </c>
       <c r="AC14">
-        <v>56.6</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="AD14">
-        <v>56.3</v>
+        <v>31.9</v>
       </c>
       <c r="AE14">
-        <v>56.3</v>
+        <v>31.4</v>
       </c>
       <c r="AF14">
-        <v>56.7</v>
+        <v>29.3</v>
       </c>
       <c r="AG14">
-        <v>56.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+        <v>34.9</v>
+      </c>
+      <c r="AH14">
+        <v>35.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>38</v>
       </c>
       <c r="B15">
-        <v>8.8000000000000007</v>
+        <v>24.6</v>
       </c>
       <c r="C15">
-        <v>8.9</v>
+        <v>27.3</v>
       </c>
       <c r="D15">
-        <v>10.6</v>
+        <v>23.8</v>
       </c>
       <c r="E15">
-        <v>13.3</v>
+        <v>23.7</v>
       </c>
       <c r="F15">
-        <v>0.6</v>
+        <v>7.6</v>
       </c>
       <c r="G15">
-        <v>8.5</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="H15">
-        <v>8.1</v>
+        <v>10.5</v>
       </c>
       <c r="I15">
-        <v>11.3</v>
+        <v>31.5</v>
       </c>
       <c r="J15">
-        <v>5.3</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="K15">
-        <v>10.1</v>
+        <v>28.6</v>
       </c>
       <c r="L15">
-        <v>-2.5</v>
+        <v>-0.7</v>
       </c>
       <c r="M15">
-        <v>8.1</v>
+        <v>15.8</v>
       </c>
       <c r="N15">
-        <v>6.6</v>
+        <v>19.3</v>
       </c>
       <c r="O15">
-        <v>4.8</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="P15">
-        <v>10.3</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="Q15">
+        <v>24.9</v>
+      </c>
+      <c r="R15">
+        <v>10</v>
+      </c>
+      <c r="S15">
+        <v>24.8</v>
+      </c>
+      <c r="T15">
+        <v>11</v>
+      </c>
+      <c r="U15">
+        <v>14.1</v>
+      </c>
+      <c r="V15">
+        <v>27.8</v>
+      </c>
+      <c r="W15">
+        <v>13.8</v>
+      </c>
+      <c r="X15">
         <v>11.7</v>
       </c>
-      <c r="R15">
-        <v>-0.1</v>
-      </c>
-      <c r="S15">
-        <v>13.6</v>
-      </c>
-      <c r="T15">
-        <v>6</v>
-      </c>
-      <c r="U15">
-        <v>7.4</v>
-      </c>
-      <c r="V15">
-        <v>21.5</v>
-      </c>
-      <c r="W15">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="X15">
-        <v>5.5</v>
-      </c>
       <c r="Y15">
-        <v>17.5</v>
+        <v>25.7</v>
       </c>
       <c r="Z15">
-        <v>21.7</v>
+        <v>30.5</v>
       </c>
       <c r="AA15">
-        <v>15.5</v>
+        <v>25.6</v>
       </c>
       <c r="AB15">
+        <v>43.5</v>
+      </c>
+      <c r="AC15">
+        <v>30.3</v>
+      </c>
+      <c r="AD15">
+        <v>29.7</v>
+      </c>
+      <c r="AE15">
+        <v>28.9</v>
+      </c>
+      <c r="AF15">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="AG15">
         <v>11.5</v>
       </c>
-      <c r="AC15">
-        <v>11.6</v>
-      </c>
-      <c r="AD15">
-        <v>11.9</v>
-      </c>
-      <c r="AE15">
-        <v>14.6</v>
-      </c>
-      <c r="AF15">
-        <v>6.7</v>
-      </c>
-      <c r="AG15">
-        <v>10.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
       <c r="B16">
-        <v>8.6999999999999993</v>
+        <v>24.4</v>
       </c>
       <c r="C16">
-        <v>8.6999999999999993</v>
+        <v>27.1</v>
       </c>
       <c r="D16">
+        <v>23.5</v>
+      </c>
+      <c r="E16">
+        <v>23.4</v>
+      </c>
+      <c r="F16">
+        <v>7</v>
+      </c>
+      <c r="G16">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="H16">
+        <v>9.5</v>
+      </c>
+      <c r="I16">
+        <v>31.3</v>
+      </c>
+      <c r="J16">
+        <v>16.7</v>
+      </c>
+      <c r="K16">
+        <v>27.7</v>
+      </c>
+      <c r="L16">
+        <v>-1.6</v>
+      </c>
+      <c r="M16">
+        <v>15.4</v>
+      </c>
+      <c r="N16">
+        <v>18.8</v>
+      </c>
+      <c r="O16">
+        <v>16.2</v>
+      </c>
+      <c r="P16">
+        <v>19.2</v>
+      </c>
+      <c r="Q16">
+        <v>24.1</v>
+      </c>
+      <c r="R16">
+        <v>8.5</v>
+      </c>
+      <c r="S16">
+        <v>23.7</v>
+      </c>
+      <c r="T16">
         <v>10.3</v>
       </c>
-      <c r="E16">
-        <v>13</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="H16">
-        <v>7.2</v>
-      </c>
-      <c r="I16">
-        <v>11.2</v>
-      </c>
-      <c r="J16">
-        <v>5</v>
-      </c>
-      <c r="K16">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="L16">
-        <v>-3.4</v>
-      </c>
-      <c r="M16">
-        <v>7.7</v>
-      </c>
-      <c r="N16">
-        <v>6.2</v>
-      </c>
-      <c r="O16">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="P16">
-        <v>10.1</v>
-      </c>
-      <c r="Q16">
-        <v>11</v>
-      </c>
-      <c r="R16">
-        <v>-1.8</v>
-      </c>
-      <c r="S16">
-        <v>12.5</v>
-      </c>
-      <c r="T16">
-        <v>5.5</v>
-      </c>
       <c r="U16">
-        <v>6.6</v>
+        <v>13.3</v>
       </c>
       <c r="V16">
-        <v>21.1</v>
+        <v>27.4</v>
       </c>
       <c r="W16">
-        <v>18.399999999999999</v>
+        <v>12.1</v>
       </c>
       <c r="X16">
-        <v>4.3</v>
+        <v>10.3</v>
       </c>
       <c r="Y16">
-        <v>17.100000000000001</v>
+        <v>25.4</v>
       </c>
       <c r="Z16">
-        <v>20.9</v>
+        <v>29.7</v>
       </c>
       <c r="AA16">
-        <v>14.8</v>
+        <v>24.8</v>
       </c>
       <c r="AB16">
-        <v>10.9</v>
+        <v>42.5</v>
       </c>
       <c r="AC16">
-        <v>10.9</v>
+        <v>28.8</v>
       </c>
       <c r="AD16">
-        <v>11.3</v>
+        <v>28.6</v>
       </c>
       <c r="AE16">
-        <v>14</v>
+        <v>28.5</v>
       </c>
       <c r="AF16">
-        <v>6</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="AG16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+        <v>10.6</v>
+      </c>
+      <c r="AH16">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -12270,10 +12334,10 @@
         <v>0.3</v>
       </c>
       <c r="E17">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F17">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="G17">
         <v>0.3</v>
@@ -12294,7 +12358,7 @@
         <v>0.9</v>
       </c>
       <c r="M17">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="N17">
         <v>0.4</v>
@@ -12306,16 +12370,16 @@
         <v>0.2</v>
       </c>
       <c r="Q17">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="R17">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="S17">
         <v>1.1000000000000001</v>
       </c>
       <c r="T17">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="U17">
         <v>0.8</v>
@@ -12327,340 +12391,352 @@
         <v>1.7</v>
       </c>
       <c r="X17">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="Y17">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="Z17">
         <v>0.8</v>
       </c>
       <c r="AA17">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AB17">
+        <v>1</v>
+      </c>
+      <c r="AC17">
+        <v>1.5</v>
+      </c>
+      <c r="AD17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AE17">
+        <v>0.3</v>
+      </c>
+      <c r="AF17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AG17">
+        <v>0.9</v>
+      </c>
+      <c r="AH17">
         <v>0.6</v>
       </c>
-      <c r="AC17">
-        <v>0.6</v>
-      </c>
-      <c r="AD17">
-        <v>0.6</v>
-      </c>
-      <c r="AE17">
-        <v>0.6</v>
-      </c>
-      <c r="AF17">
-        <v>0.6</v>
-      </c>
-      <c r="AG17">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
       <c r="B18">
-        <v>-6.7</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="C18">
-        <v>-6.5</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="D18">
-        <v>-6.2</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="E18">
-        <v>-9.1999999999999993</v>
+        <v>32.5</v>
       </c>
       <c r="F18">
-        <v>-14.8</v>
+        <v>30.1</v>
       </c>
       <c r="G18">
-        <v>-17.399999999999999</v>
+        <v>30.3</v>
       </c>
       <c r="H18">
-        <v>-21.1</v>
+        <v>28.7</v>
       </c>
       <c r="I18">
-        <v>-22.8</v>
+        <v>28.3</v>
       </c>
       <c r="J18">
-        <v>-29.2</v>
+        <v>24.6</v>
       </c>
       <c r="K18">
-        <v>-33.299999999999997</v>
+        <v>25.3</v>
       </c>
       <c r="L18">
-        <v>-38.5</v>
+        <v>22.1</v>
       </c>
       <c r="M18">
-        <v>-41.7</v>
+        <v>21.7</v>
       </c>
       <c r="N18">
-        <v>-41.8</v>
+        <v>21.3</v>
       </c>
       <c r="O18">
-        <v>-41.3</v>
+        <v>21.5</v>
       </c>
       <c r="P18">
-        <v>-40.700000000000003</v>
+        <v>21</v>
       </c>
       <c r="Q18">
-        <v>-40.1</v>
+        <v>21.8</v>
       </c>
       <c r="R18">
-        <v>-41.1</v>
+        <v>20.5</v>
       </c>
       <c r="S18">
-        <v>-40.1</v>
+        <v>21.6</v>
       </c>
       <c r="T18">
-        <v>-36.9</v>
+        <v>21.4</v>
       </c>
       <c r="U18">
-        <v>-36.6</v>
+        <v>23.1</v>
       </c>
       <c r="V18">
-        <v>-35.4</v>
+        <v>22.7</v>
       </c>
       <c r="W18">
-        <v>-34.700000000000003</v>
+        <v>22.8</v>
       </c>
       <c r="X18">
-        <v>-33.6</v>
+        <v>20.9</v>
       </c>
       <c r="Y18">
-        <v>-30</v>
+        <v>22.1</v>
       </c>
       <c r="Z18">
-        <v>-24.4</v>
+        <v>24</v>
       </c>
       <c r="AA18">
-        <v>-22.7</v>
+        <v>21.2</v>
       </c>
       <c r="AB18">
-        <v>-24.3</v>
+        <v>23.7</v>
       </c>
       <c r="AC18">
-        <v>-24.5</v>
+        <v>23.8</v>
       </c>
       <c r="AD18">
-        <v>-24.2</v>
+        <v>25.2</v>
       </c>
       <c r="AE18">
-        <v>-23.3</v>
+        <v>25.4</v>
       </c>
       <c r="AF18">
-        <v>-25.9</v>
+        <v>28.7</v>
       </c>
       <c r="AG18">
-        <v>-24.7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+        <v>24.5</v>
+      </c>
+      <c r="AH18">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>37</v>
       </c>
       <c r="B19">
-        <v>-6.7</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="C19">
-        <v>-6.5</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="D19">
-        <v>-6.2</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="E19">
-        <v>-9.1999999999999993</v>
+        <v>32.5</v>
       </c>
       <c r="F19">
-        <v>-14.8</v>
+        <v>30.1</v>
       </c>
       <c r="G19">
-        <v>-17.399999999999999</v>
+        <v>30.3</v>
       </c>
       <c r="H19">
-        <v>-21.1</v>
+        <v>28.7</v>
       </c>
       <c r="I19">
-        <v>-22.8</v>
+        <v>28.3</v>
       </c>
       <c r="J19">
-        <v>-29.2</v>
+        <v>24.6</v>
       </c>
       <c r="K19">
-        <v>-33.299999999999997</v>
+        <v>25.3</v>
       </c>
       <c r="L19">
-        <v>-38.5</v>
+        <v>22.1</v>
       </c>
       <c r="M19">
-        <v>-41.7</v>
+        <v>21.7</v>
       </c>
       <c r="N19">
-        <v>-41.8</v>
+        <v>21.3</v>
       </c>
       <c r="O19">
-        <v>-41.3</v>
+        <v>21.5</v>
       </c>
       <c r="P19">
-        <v>-40.700000000000003</v>
+        <v>21</v>
       </c>
       <c r="Q19">
-        <v>-40.1</v>
+        <v>21.8</v>
       </c>
       <c r="R19">
-        <v>-41.1</v>
+        <v>20.5</v>
       </c>
       <c r="S19">
-        <v>-40.1</v>
+        <v>21.6</v>
       </c>
       <c r="T19">
-        <v>-36.9</v>
+        <v>21.4</v>
       </c>
       <c r="U19">
-        <v>-36.6</v>
+        <v>23.1</v>
       </c>
       <c r="V19">
-        <v>-35.4</v>
+        <v>22.7</v>
       </c>
       <c r="W19">
-        <v>-34.700000000000003</v>
+        <v>22.8</v>
       </c>
       <c r="X19">
-        <v>-33.6</v>
+        <v>20.9</v>
       </c>
       <c r="Y19">
-        <v>-30</v>
+        <v>22.1</v>
       </c>
       <c r="Z19">
-        <v>-24.4</v>
+        <v>24</v>
       </c>
       <c r="AA19">
-        <v>-22.7</v>
+        <v>21.2</v>
       </c>
       <c r="AB19">
-        <v>-24.3</v>
+        <v>23.7</v>
       </c>
       <c r="AC19">
-        <v>-24.5</v>
+        <v>23.8</v>
       </c>
       <c r="AD19">
-        <v>-24.2</v>
+        <v>25.2</v>
       </c>
       <c r="AE19">
-        <v>-23.3</v>
+        <v>25.4</v>
       </c>
       <c r="AF19">
-        <v>-25.9</v>
+        <v>28.7</v>
       </c>
       <c r="AG19">
-        <v>-24.7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+        <v>24.5</v>
+      </c>
+      <c r="AH19">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>41</v>
       </c>
       <c r="B20">
-        <v>41.5</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="C20">
-        <v>41.5</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="D20">
-        <v>41.6</v>
+        <v>36.9</v>
       </c>
       <c r="E20">
-        <v>41.7</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="F20">
-        <v>41.7</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="G20">
-        <v>41.9</v>
+        <v>37.5</v>
       </c>
       <c r="H20">
-        <v>41.8</v>
+        <v>37.4</v>
       </c>
       <c r="I20">
-        <v>42</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="J20">
-        <v>42.2</v>
+        <v>38</v>
       </c>
       <c r="K20">
-        <v>42.3</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="L20">
-        <v>42.4</v>
+        <v>38.5</v>
       </c>
       <c r="M20">
-        <v>43.1</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="N20">
-        <v>43</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="O20">
-        <v>43</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="P20">
-        <v>43.1</v>
+        <v>39.4</v>
       </c>
       <c r="Q20">
-        <v>43.1</v>
+        <v>39.4</v>
       </c>
       <c r="R20">
-        <v>51.8</v>
+        <v>48.1</v>
       </c>
       <c r="S20">
-        <v>52.2</v>
+        <v>48.5</v>
       </c>
       <c r="T20">
-        <v>52.2</v>
+        <v>48.6</v>
       </c>
       <c r="U20">
-        <v>52.2</v>
+        <v>48.7</v>
       </c>
       <c r="V20">
-        <v>52.3</v>
+        <v>48.7</v>
       </c>
       <c r="W20">
-        <v>42.1</v>
+        <v>38.6</v>
       </c>
       <c r="X20">
-        <v>41.8</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="Y20">
-        <v>41.7</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="Z20">
-        <v>41.8</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="AA20">
-        <v>41.7</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="AB20">
-        <v>41.7</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="AC20">
-        <v>41.8</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="AD20">
-        <v>41.8</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="AE20">
-        <v>41.8</v>
+        <v>38.1</v>
       </c>
       <c r="AF20">
-        <v>41.8</v>
+        <v>38.1</v>
       </c>
       <c r="AG20">
-        <v>41.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+        <v>38.1</v>
+      </c>
+      <c r="AH20">
+        <v>38.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -12749,221 +12825,230 @@
         <v>0.8</v>
       </c>
       <c r="AD21">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AE21">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="AF21">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="AG21">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="AH21">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>43</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
-      <c r="Y22">
-        <v>0</v>
-      </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
-      <c r="AC22">
-        <v>0</v>
-      </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
-      <c r="AE22">
-        <v>0</v>
-      </c>
-      <c r="AF22">
-        <v>0</v>
-      </c>
-      <c r="AG22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22" t="s">
+        <v>173</v>
+      </c>
+      <c r="D22" t="s">
+        <v>173</v>
+      </c>
+      <c r="E22" t="s">
+        <v>173</v>
+      </c>
+      <c r="F22" t="s">
+        <v>173</v>
+      </c>
+      <c r="G22" t="s">
+        <v>173</v>
+      </c>
+      <c r="H22" t="s">
+        <v>173</v>
+      </c>
+      <c r="I22" t="s">
+        <v>173</v>
+      </c>
+      <c r="J22" t="s">
+        <v>173</v>
+      </c>
+      <c r="K22" t="s">
+        <v>173</v>
+      </c>
+      <c r="L22" t="s">
+        <v>173</v>
+      </c>
+      <c r="M22" t="s">
+        <v>173</v>
+      </c>
+      <c r="N22" t="s">
+        <v>173</v>
+      </c>
+      <c r="O22" t="s">
+        <v>173</v>
+      </c>
+      <c r="P22" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>173</v>
+      </c>
+      <c r="R22" t="s">
+        <v>173</v>
+      </c>
+      <c r="S22" t="s">
+        <v>173</v>
+      </c>
+      <c r="T22" t="s">
+        <v>173</v>
+      </c>
+      <c r="U22" t="s">
+        <v>173</v>
+      </c>
+      <c r="V22" t="s">
+        <v>173</v>
+      </c>
+      <c r="W22" t="s">
+        <v>173</v>
+      </c>
+      <c r="X22" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>173</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>173</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
       <c r="B23">
-        <v>-8.4</v>
+        <v>-10.8</v>
       </c>
       <c r="C23">
-        <v>-8.4</v>
+        <v>-10.8</v>
       </c>
       <c r="D23">
-        <v>-8.4</v>
+        <v>-10.8</v>
       </c>
       <c r="E23">
-        <v>-8.4</v>
+        <v>-10.8</v>
       </c>
       <c r="F23">
-        <v>-8.4</v>
+        <v>-10.8</v>
       </c>
       <c r="G23">
-        <v>-8.4</v>
+        <v>-10.8</v>
       </c>
       <c r="H23">
-        <v>-8.5</v>
+        <v>-10.8</v>
       </c>
       <c r="I23">
-        <v>-8.5</v>
+        <v>-10.8</v>
       </c>
       <c r="J23">
-        <v>-8.5</v>
+        <v>-10.8</v>
       </c>
       <c r="K23">
-        <v>-8.5</v>
+        <v>-10.8</v>
       </c>
       <c r="L23">
-        <v>-8.5</v>
+        <v>-10.8</v>
       </c>
       <c r="M23">
-        <v>-7.7</v>
+        <v>-10.1</v>
       </c>
       <c r="N23">
-        <v>-7.7</v>
+        <v>-10.1</v>
       </c>
       <c r="O23">
-        <v>-7.7</v>
+        <v>-10.1</v>
       </c>
       <c r="P23">
-        <v>-7.7</v>
+        <v>-10.1</v>
       </c>
       <c r="Q23">
-        <v>-7.7</v>
+        <v>-10.1</v>
       </c>
       <c r="R23">
-        <v>1.2</v>
+        <v>-1.2</v>
       </c>
       <c r="S23">
-        <v>1.5</v>
+        <v>-0.9</v>
       </c>
       <c r="T23">
-        <v>1.5</v>
+        <v>-0.9</v>
       </c>
       <c r="U23">
-        <v>1.5</v>
+        <v>-0.9</v>
       </c>
       <c r="V23">
-        <v>1.5</v>
+        <v>-0.8</v>
       </c>
       <c r="W23">
-        <v>-8.5</v>
+        <v>-10.8</v>
       </c>
       <c r="X23">
-        <v>-8.8000000000000007</v>
+        <v>-11.1</v>
       </c>
       <c r="Y23">
-        <v>-8.8000000000000007</v>
+        <v>-11.1</v>
       </c>
       <c r="Z23">
-        <v>-8.8000000000000007</v>
+        <v>-11.1</v>
       </c>
       <c r="AA23">
-        <v>-8.8000000000000007</v>
+        <v>-11.1</v>
       </c>
       <c r="AB23">
-        <v>-8.8000000000000007</v>
+        <v>-11.1</v>
       </c>
       <c r="AC23">
-        <v>-8.8000000000000007</v>
+        <v>-11.1</v>
       </c>
       <c r="AD23">
-        <v>-8.8000000000000007</v>
+        <v>-11.1</v>
       </c>
       <c r="AE23">
-        <v>-8.8000000000000007</v>
+        <v>-11.1</v>
       </c>
       <c r="AF23">
-        <v>-8.8000000000000007</v>
+        <v>-11.1</v>
       </c>
       <c r="AG23">
-        <v>-8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+        <v>-11.1</v>
+      </c>
+      <c r="AH23">
+        <v>-11.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -13063,8 +13148,11 @@
       <c r="AG24">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH24">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -13164,165 +13252,171 @@
       <c r="AG25">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>47</v>
       </c>
       <c r="B26">
-        <v>44.6</v>
+        <v>42.3</v>
       </c>
       <c r="C26">
-        <v>44.7</v>
+        <v>42.4</v>
       </c>
       <c r="D26">
-        <v>44.7</v>
+        <v>42.5</v>
       </c>
       <c r="E26">
-        <v>44.8</v>
+        <v>42.7</v>
       </c>
       <c r="F26">
-        <v>44.9</v>
+        <v>42.8</v>
       </c>
       <c r="G26">
-        <v>45</v>
+        <v>42.9</v>
       </c>
       <c r="H26">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I26">
-        <v>45</v>
+        <v>43.1</v>
       </c>
       <c r="J26">
-        <v>45.1</v>
+        <v>43.3</v>
       </c>
       <c r="K26">
-        <v>45.2</v>
+        <v>43.5</v>
       </c>
       <c r="L26">
-        <v>45.2</v>
+        <v>43.6</v>
       </c>
       <c r="M26">
-        <v>45.2</v>
+        <v>43.8</v>
       </c>
       <c r="N26">
-        <v>45.2</v>
+        <v>43.9</v>
       </c>
       <c r="O26">
-        <v>45.2</v>
+        <v>43.9</v>
       </c>
       <c r="P26">
-        <v>45.3</v>
+        <v>43.9</v>
       </c>
       <c r="Q26">
-        <v>45.3</v>
+        <v>44</v>
       </c>
       <c r="R26">
-        <v>45.3</v>
+        <v>44</v>
       </c>
       <c r="S26">
-        <v>45.3</v>
+        <v>44</v>
       </c>
       <c r="T26">
-        <v>45.3</v>
+        <v>44.1</v>
       </c>
       <c r="U26">
-        <v>45.3</v>
+        <v>44.1</v>
       </c>
       <c r="V26">
-        <v>45.3</v>
+        <v>44.1</v>
       </c>
       <c r="W26">
-        <v>45.3</v>
+        <v>44.2</v>
       </c>
       <c r="X26">
-        <v>45.4</v>
+        <v>44.2</v>
       </c>
       <c r="Y26">
-        <v>45.4</v>
+        <v>44.2</v>
       </c>
       <c r="Z26">
-        <v>45.4</v>
+        <v>44.2</v>
       </c>
       <c r="AA26">
-        <v>45.4</v>
+        <v>44.2</v>
       </c>
       <c r="AB26">
-        <v>45.4</v>
+        <v>44.2</v>
       </c>
       <c r="AC26">
-        <v>45.4</v>
+        <v>44.2</v>
       </c>
       <c r="AD26">
-        <v>45.4</v>
+        <v>44.2</v>
       </c>
       <c r="AE26">
-        <v>45.4</v>
+        <v>44.2</v>
       </c>
       <c r="AF26">
-        <v>45.4</v>
+        <v>44.2</v>
       </c>
       <c r="AG26">
-        <v>45.4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+        <v>44.2</v>
+      </c>
+      <c r="AH26">
+        <v>44.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>48</v>
       </c>
       <c r="B27">
-        <v>3.3</v>
+        <v>7.2</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>6.8</v>
       </c>
       <c r="D27">
+        <v>6.5</v>
+      </c>
+      <c r="E27">
+        <v>5.9</v>
+      </c>
+      <c r="F27">
+        <v>5.4</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+      <c r="H27">
+        <v>4.7</v>
+      </c>
+      <c r="I27">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J27">
+        <v>3.9</v>
+      </c>
+      <c r="K27">
+        <v>3.1</v>
+      </c>
+      <c r="L27">
         <v>2.9</v>
       </c>
-      <c r="E27">
-        <v>2.7</v>
-      </c>
-      <c r="F27">
-        <v>2.5</v>
-      </c>
-      <c r="G27">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H27">
-        <v>2.1</v>
-      </c>
-      <c r="I27">
+      <c r="M27">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N27">
         <v>2</v>
       </c>
-      <c r="J27">
+      <c r="O27">
+        <v>1.9</v>
+      </c>
+      <c r="P27">
+        <v>1.8</v>
+      </c>
+      <c r="Q27">
+        <v>1.8</v>
+      </c>
+      <c r="R27">
         <v>1.6</v>
       </c>
-      <c r="K27">
-        <v>1.5</v>
-      </c>
-      <c r="L27">
-        <v>1.4</v>
-      </c>
-      <c r="M27">
-        <v>1.5</v>
-      </c>
-      <c r="N27">
-        <v>1.5</v>
-      </c>
-      <c r="O27">
-        <v>1.5</v>
-      </c>
-      <c r="P27">
-        <v>1.4</v>
-      </c>
-      <c r="Q27">
-        <v>1.4</v>
-      </c>
-      <c r="R27">
-        <v>1.2</v>
-      </c>
       <c r="S27">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="T27">
         <v>1.2</v>
@@ -13331,22 +13425,22 @@
         <v>1.2</v>
       </c>
       <c r="V27">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="W27">
         <v>0.6</v>
       </c>
       <c r="X27">
+        <v>0.6</v>
+      </c>
+      <c r="Y27">
         <v>0.5</v>
-      </c>
-      <c r="Y27">
-        <v>0.6</v>
       </c>
       <c r="Z27">
         <v>0.5</v>
       </c>
       <c r="AA27">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB27">
         <v>0.8</v>
@@ -13355,19 +13449,22 @@
         <v>0.8</v>
       </c>
       <c r="AD27">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AE27">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AF27">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AG27">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+        <v>0.7</v>
+      </c>
+      <c r="AH27">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -13434,41 +13531,44 @@
       <c r="V28">
         <v>0.5</v>
       </c>
-      <c r="W28">
-        <v>-0.1</v>
-      </c>
-      <c r="X28">
-        <v>-0.1</v>
-      </c>
-      <c r="Y28">
-        <v>-0.1</v>
-      </c>
-      <c r="Z28">
-        <v>-0.1</v>
-      </c>
-      <c r="AA28">
-        <v>-0.1</v>
-      </c>
-      <c r="AB28">
-        <v>0</v>
-      </c>
-      <c r="AC28">
-        <v>0</v>
-      </c>
-      <c r="AD28">
-        <v>0</v>
-      </c>
-      <c r="AE28">
-        <v>0</v>
-      </c>
-      <c r="AF28">
-        <v>0</v>
-      </c>
-      <c r="AG28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="W28" t="s">
+        <v>174</v>
+      </c>
+      <c r="X28" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>174</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>174</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>174</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -13568,64 +13668,67 @@
       <c r="AG29">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH29">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>51</v>
       </c>
       <c r="B30">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="C30">
+        <v>3.4</v>
+      </c>
+      <c r="D30">
+        <v>3.2</v>
+      </c>
+      <c r="E30">
+        <v>2.8</v>
+      </c>
+      <c r="F30">
+        <v>2.6</v>
+      </c>
+      <c r="G30">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H30">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <v>1.8</v>
+      </c>
+      <c r="K30">
         <v>1.3</v>
       </c>
-      <c r="D30">
+      <c r="L30">
         <v>1.2</v>
       </c>
-      <c r="E30">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
+      <c r="M30">
         <v>0.8</v>
       </c>
-      <c r="H30">
-        <v>0.8</v>
-      </c>
-      <c r="I30">
+      <c r="N30">
         <v>0.7</v>
       </c>
-      <c r="J30">
+      <c r="O30">
+        <v>0.7</v>
+      </c>
+      <c r="P30">
+        <v>0.6</v>
+      </c>
+      <c r="Q30">
+        <v>0.6</v>
+      </c>
+      <c r="R30">
         <v>0.5</v>
       </c>
-      <c r="K30">
-        <v>0.4</v>
-      </c>
-      <c r="L30">
-        <v>0.4</v>
-      </c>
-      <c r="M30">
-        <v>0.4</v>
-      </c>
-      <c r="N30">
-        <v>0.4</v>
-      </c>
-      <c r="O30">
-        <v>0.4</v>
-      </c>
-      <c r="P30">
-        <v>0.4</v>
-      </c>
-      <c r="Q30">
-        <v>0.4</v>
-      </c>
-      <c r="R30">
-        <v>0.3</v>
-      </c>
       <c r="S30">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="T30">
         <v>0.3</v>
@@ -13649,19 +13752,19 @@
         <v>0.2</v>
       </c>
       <c r="AA30">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AB30">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AC30">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AD30">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AE30">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AF30">
         <v>0.3</v>
@@ -13669,64 +13772,67 @@
       <c r="AG30">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH30">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>52</v>
       </c>
       <c r="B31">
-        <v>1.1000000000000001</v>
+        <v>2.9</v>
       </c>
       <c r="C31">
+        <v>2.7</v>
+      </c>
+      <c r="D31">
+        <v>2.5</v>
+      </c>
+      <c r="E31">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F31">
+        <v>2.1</v>
+      </c>
+      <c r="G31">
+        <v>1.9</v>
+      </c>
+      <c r="H31">
+        <v>1.8</v>
+      </c>
+      <c r="I31">
+        <v>1.6</v>
+      </c>
+      <c r="J31">
+        <v>1.4</v>
+      </c>
+      <c r="K31">
         <v>1</v>
       </c>
-      <c r="D31">
+      <c r="L31">
         <v>0.9</v>
       </c>
-      <c r="E31">
-        <v>0.8</v>
-      </c>
-      <c r="F31">
-        <v>0.8</v>
-      </c>
-      <c r="G31">
-        <v>0.6</v>
-      </c>
-      <c r="H31">
-        <v>0.6</v>
-      </c>
-      <c r="I31">
+      <c r="M31">
+        <v>0.7</v>
+      </c>
+      <c r="N31">
         <v>0.5</v>
       </c>
-      <c r="J31">
+      <c r="O31">
+        <v>0.5</v>
+      </c>
+      <c r="P31">
         <v>0.4</v>
       </c>
-      <c r="K31">
-        <v>0.3</v>
-      </c>
-      <c r="L31">
-        <v>0.3</v>
-      </c>
-      <c r="M31">
-        <v>0.3</v>
-      </c>
-      <c r="N31">
-        <v>0.3</v>
-      </c>
-      <c r="O31">
-        <v>0.3</v>
-      </c>
-      <c r="P31">
-        <v>0.3</v>
-      </c>
       <c r="Q31">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="R31">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="S31">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="T31">
         <v>0.2</v>
@@ -13741,28 +13847,28 @@
         <v>0.2</v>
       </c>
       <c r="X31">
+        <v>0.2</v>
+      </c>
+      <c r="Y31">
         <v>0.1</v>
-      </c>
-      <c r="Y31">
-        <v>0.2</v>
       </c>
       <c r="Z31">
         <v>0.1</v>
       </c>
       <c r="AA31">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AB31">
         <v>0.3</v>
       </c>
       <c r="AC31">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AD31">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AE31">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AF31">
         <v>0.2</v>
@@ -13770,302 +13876,311 @@
       <c r="AG31">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH31">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>53</v>
       </c>
       <c r="B32">
+        <v>-109.1</v>
+      </c>
+      <c r="C32">
+        <v>-109.7</v>
+      </c>
+      <c r="D32">
+        <v>-107.6</v>
+      </c>
+      <c r="E32">
+        <v>-106.5</v>
+      </c>
+      <c r="F32">
+        <v>-104.8</v>
+      </c>
+      <c r="G32">
+        <v>-104.3</v>
+      </c>
+      <c r="H32">
+        <v>-105.3</v>
+      </c>
+      <c r="I32">
+        <v>-105.7</v>
+      </c>
+      <c r="J32">
         <v>-107.8</v>
       </c>
-      <c r="C32">
-        <v>-108.4</v>
-      </c>
-      <c r="D32">
-        <v>-106.3</v>
-      </c>
-      <c r="E32">
-        <v>-105.4</v>
-      </c>
-      <c r="F32">
-        <v>-103.8</v>
-      </c>
-      <c r="G32">
-        <v>-103.5</v>
-      </c>
-      <c r="H32">
-        <v>-104.4</v>
-      </c>
-      <c r="I32">
-        <v>-104.8</v>
-      </c>
-      <c r="J32">
-        <v>-106.9</v>
-      </c>
       <c r="K32">
-        <v>-109.4</v>
+        <v>-110.3</v>
       </c>
       <c r="L32">
-        <v>-110.3</v>
+        <v>-111.1</v>
       </c>
       <c r="M32">
-        <v>-111.6</v>
+        <v>-112.8</v>
       </c>
       <c r="N32">
-        <v>-111</v>
+        <v>-112.1</v>
       </c>
       <c r="O32">
-        <v>-111.7</v>
+        <v>-113</v>
       </c>
       <c r="P32">
-        <v>-112.6</v>
+        <v>-113.9</v>
       </c>
       <c r="Q32">
-        <v>-113.9</v>
+        <v>-115.2</v>
       </c>
       <c r="R32">
-        <v>-114.3</v>
+        <v>-115.8</v>
       </c>
       <c r="S32">
-        <v>-115.5</v>
+        <v>-117</v>
       </c>
       <c r="T32">
-        <v>-118.6</v>
+        <v>-120.2</v>
       </c>
       <c r="U32">
-        <v>-120.4</v>
+        <v>-122.2</v>
       </c>
       <c r="V32">
-        <v>-121.8</v>
+        <v>-123.5</v>
       </c>
       <c r="W32">
-        <v>-122.1</v>
+        <v>-123.8</v>
       </c>
       <c r="X32">
-        <v>-122.2</v>
+        <v>-123.9</v>
       </c>
       <c r="Y32">
-        <v>-123.4</v>
+        <v>-125.2</v>
       </c>
       <c r="Z32">
-        <v>-124.6</v>
+        <v>-126.2</v>
       </c>
       <c r="AA32">
-        <v>-123.9</v>
+        <v>-126</v>
       </c>
       <c r="AB32">
-        <v>-121.9</v>
+        <v>-125.6</v>
       </c>
       <c r="AC32">
-        <v>-125.6</v>
+        <v>-130.69999999999999</v>
       </c>
       <c r="AD32">
-        <v>-125</v>
+        <v>-131</v>
       </c>
       <c r="AE32">
-        <v>-124.5</v>
+        <v>-131.5</v>
       </c>
       <c r="AF32">
-        <v>-131.6</v>
+        <v>-131.80000000000001</v>
       </c>
       <c r="AG32">
-        <v>-132.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+        <v>-132.30000000000001</v>
+      </c>
+      <c r="AH32">
+        <v>-132.30000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>54</v>
       </c>
       <c r="B33">
-        <v>11.3</v>
+        <v>9.9</v>
       </c>
       <c r="C33">
-        <v>11.3</v>
+        <v>9.9</v>
       </c>
       <c r="D33">
-        <v>11.3</v>
+        <v>9.9</v>
       </c>
       <c r="E33">
-        <v>11.2</v>
+        <v>9.9</v>
       </c>
       <c r="F33">
-        <v>11.2</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="G33">
-        <v>11.2</v>
+        <v>9.9</v>
       </c>
       <c r="H33">
-        <v>11.2</v>
+        <v>9.9</v>
       </c>
       <c r="I33">
-        <v>11.2</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="J33">
-        <v>11.2</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="K33">
-        <v>11.2</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="L33">
-        <v>11.2</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="M33">
-        <v>11.2</v>
+        <v>9.4</v>
       </c>
       <c r="N33">
-        <v>11.2</v>
+        <v>9.4</v>
       </c>
       <c r="O33">
+        <v>9.6</v>
+      </c>
+      <c r="P33">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="Q33">
+        <v>10.1</v>
+      </c>
+      <c r="R33">
+        <v>10.3</v>
+      </c>
+      <c r="S33">
+        <v>10.6</v>
+      </c>
+      <c r="T33">
+        <v>10.8</v>
+      </c>
+      <c r="U33">
+        <v>11</v>
+      </c>
+      <c r="V33">
+        <v>11.4</v>
+      </c>
+      <c r="W33">
         <v>11.6</v>
       </c>
-      <c r="P33">
+      <c r="X33">
         <v>11.9</v>
       </c>
-      <c r="Q33">
-        <v>12.2</v>
-      </c>
-      <c r="R33">
-        <v>12.4</v>
-      </c>
-      <c r="S33">
-        <v>12.7</v>
-      </c>
-      <c r="T33">
+      <c r="Y33">
+        <v>12.3</v>
+      </c>
+      <c r="Z33">
+        <v>12.8</v>
+      </c>
+      <c r="AA33">
         <v>13.1</v>
       </c>
-      <c r="U33">
-        <v>13.4</v>
-      </c>
-      <c r="V33">
-        <v>13.7</v>
-      </c>
-      <c r="W33">
-        <v>14</v>
-      </c>
-      <c r="X33">
-        <v>14.3</v>
-      </c>
-      <c r="Y33">
-        <v>14.7</v>
-      </c>
-      <c r="Z33">
+      <c r="AB33">
+        <v>13.5</v>
+      </c>
+      <c r="AC33">
+        <v>13.9</v>
+      </c>
+      <c r="AD33">
+        <v>14.4</v>
+      </c>
+      <c r="AE33">
+        <v>14.6</v>
+      </c>
+      <c r="AF33">
         <v>15.1</v>
       </c>
-      <c r="AA33">
-        <v>15.7</v>
-      </c>
-      <c r="AB33">
-        <v>16</v>
-      </c>
-      <c r="AC33">
-        <v>16</v>
-      </c>
-      <c r="AD33">
-        <v>15.9</v>
-      </c>
-      <c r="AE33">
-        <v>15.9</v>
-      </c>
-      <c r="AF33">
-        <v>15.9</v>
-      </c>
       <c r="AG33">
-        <v>15.9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+        <v>15.4</v>
+      </c>
+      <c r="AH33">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>55</v>
       </c>
       <c r="B34">
-        <v>-96.4</v>
+        <v>-96.6</v>
       </c>
       <c r="C34">
-        <v>-97.6</v>
+        <v>-97.7</v>
       </c>
       <c r="D34">
-        <v>-98.6</v>
+        <v>-98.7</v>
       </c>
       <c r="E34">
         <v>-100.2</v>
       </c>
       <c r="F34">
-        <v>-101.7</v>
+        <v>-101.6</v>
       </c>
       <c r="G34">
-        <v>-103.3</v>
+        <v>-103.2</v>
       </c>
       <c r="H34">
         <v>-104.8</v>
       </c>
       <c r="I34">
-        <v>-106.4</v>
+        <v>-106.3</v>
       </c>
       <c r="J34">
-        <v>-107.7</v>
+        <v>-107.5</v>
       </c>
       <c r="K34">
-        <v>-109</v>
+        <v>-108.9</v>
       </c>
       <c r="L34">
-        <v>-110.4</v>
+        <v>-110.1</v>
       </c>
       <c r="M34">
-        <v>-111.4</v>
+        <v>-111.2</v>
       </c>
       <c r="N34">
-        <v>-112.3</v>
+        <v>-112.1</v>
       </c>
       <c r="O34">
-        <v>-114.1</v>
+        <v>-113.8</v>
       </c>
       <c r="P34">
-        <v>-115.8</v>
+        <v>-115.5</v>
       </c>
       <c r="Q34">
-        <v>-117.4</v>
+        <v>-117</v>
       </c>
       <c r="R34">
-        <v>-118.9</v>
+        <v>-118.5</v>
       </c>
       <c r="S34">
-        <v>-120.4</v>
+        <v>-120</v>
       </c>
       <c r="T34">
-        <v>-121.9</v>
+        <v>-121.6</v>
       </c>
       <c r="U34">
-        <v>-123.3</v>
+        <v>-123</v>
       </c>
       <c r="V34">
-        <v>-124.6</v>
+        <v>-124.4</v>
       </c>
       <c r="W34">
-        <v>-126</v>
+        <v>-125.6</v>
       </c>
       <c r="X34">
-        <v>-126.7</v>
+        <v>-126.4</v>
       </c>
       <c r="Y34">
-        <v>-128</v>
+        <v>-127.8</v>
       </c>
       <c r="Z34">
-        <v>-129.4</v>
+        <v>-129.1</v>
       </c>
       <c r="AA34">
-        <v>-130.4</v>
+        <v>-130.19999999999999</v>
       </c>
       <c r="AB34">
-        <v>-129.80000000000001</v>
+        <v>-131.4</v>
       </c>
       <c r="AC34">
-        <v>-129.6</v>
+        <v>-133.19999999999999</v>
       </c>
       <c r="AD34">
-        <v>-129.5</v>
+        <v>-134.4</v>
       </c>
       <c r="AE34">
-        <v>-129.30000000000001</v>
+        <v>-135.6</v>
       </c>
       <c r="AF34">
         <v>-136.69999999999999</v>
@@ -14073,109 +14188,115 @@
       <c r="AG34">
         <v>-137.80000000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH34">
+        <v>-138.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>56</v>
       </c>
       <c r="B35">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="C35">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E35">
+        <v>2.5</v>
+      </c>
+      <c r="F35">
+        <v>2.5</v>
+      </c>
+      <c r="G35">
+        <v>2.5</v>
+      </c>
+      <c r="H35">
+        <v>2.6</v>
+      </c>
+      <c r="I35">
+        <v>2.5</v>
+      </c>
+      <c r="J35">
+        <v>2.1</v>
+      </c>
+      <c r="K35">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F35">
-        <v>2.1</v>
-      </c>
-      <c r="G35">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H35">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="I35">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="J35">
-        <v>1.8</v>
-      </c>
-      <c r="K35">
-        <v>1.8</v>
-      </c>
       <c r="L35">
+        <v>2.6</v>
+      </c>
+      <c r="M35">
+        <v>2.6</v>
+      </c>
+      <c r="N35">
         <v>2.2999999999999998</v>
       </c>
-      <c r="M35">
+      <c r="O35">
+        <v>2.4</v>
+      </c>
+      <c r="P35">
+        <v>3.1</v>
+      </c>
+      <c r="Q35">
+        <v>3.1</v>
+      </c>
+      <c r="R35">
+        <v>3.2</v>
+      </c>
+      <c r="S35">
+        <v>3.2</v>
+      </c>
+      <c r="T35">
+        <v>3.2</v>
+      </c>
+      <c r="U35">
+        <v>3</v>
+      </c>
+      <c r="V35">
         <v>2.2999999999999998</v>
       </c>
-      <c r="N35">
-        <v>2</v>
-      </c>
-      <c r="O35">
-        <v>2.1</v>
-      </c>
-      <c r="P35">
-        <v>2.8</v>
-      </c>
-      <c r="Q35">
-        <v>2.8</v>
-      </c>
-      <c r="R35">
-        <v>2.8</v>
-      </c>
-      <c r="S35">
-        <v>2.9</v>
-      </c>
-      <c r="T35">
-        <v>2.8</v>
-      </c>
-      <c r="U35">
-        <v>2.7</v>
-      </c>
-      <c r="V35">
-        <v>1.9</v>
-      </c>
       <c r="W35">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="X35">
-        <v>1.9</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="Y35">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="Z35">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="AA35">
-        <v>1.9</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AB35">
-        <v>1.9</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AC35">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="AD35">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="AE35">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AF35">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AG35">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+        <v>2.5</v>
+      </c>
+      <c r="AH35">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>57</v>
       </c>
@@ -14273,737 +14394,761 @@
         <v>-12.8</v>
       </c>
       <c r="AG36">
-        <v>-12.6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+        <v>-12.5</v>
+      </c>
+      <c r="AH36">
+        <v>-11.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>58</v>
       </c>
       <c r="B37">
-        <v>62.5</v>
+        <v>57.2</v>
       </c>
       <c r="C37">
-        <v>64</v>
+        <v>58.6</v>
       </c>
       <c r="D37">
-        <v>65.599999999999994</v>
+        <v>59.9</v>
       </c>
       <c r="E37">
-        <v>67.5</v>
+        <v>61.6</v>
       </c>
       <c r="F37">
-        <v>69.3</v>
+        <v>63.2</v>
       </c>
       <c r="G37">
-        <v>71.3</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="H37">
-        <v>73.3</v>
+        <v>66.7</v>
       </c>
       <c r="I37">
-        <v>75.400000000000006</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="J37">
+        <v>70.3</v>
+      </c>
+      <c r="K37">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="L37">
+        <v>73.7</v>
+      </c>
+      <c r="M37">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="N37">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="O37">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="P37">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="Q37">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="R37">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="S37">
         <v>77.3</v>
       </c>
-      <c r="K37">
-        <v>79.099999999999994</v>
-      </c>
-      <c r="L37">
-        <v>81.099999999999994</v>
-      </c>
-      <c r="M37">
-        <v>82.7</v>
-      </c>
-      <c r="N37">
-        <v>83.9</v>
-      </c>
-      <c r="O37">
-        <v>84.4</v>
-      </c>
-      <c r="P37">
-        <v>84.6</v>
-      </c>
-      <c r="Q37">
-        <v>85</v>
-      </c>
-      <c r="R37">
-        <v>85.1</v>
-      </c>
-      <c r="S37">
-        <v>85.1</v>
-      </c>
       <c r="T37">
-        <v>84.9</v>
+        <v>77.2</v>
       </c>
       <c r="U37">
-        <v>84.7</v>
+        <v>77</v>
       </c>
       <c r="V37">
-        <v>84.3</v>
+        <v>76.7</v>
       </c>
       <c r="W37">
-        <v>83.9</v>
+        <v>76.3</v>
       </c>
       <c r="X37">
-        <v>83.4</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="Y37">
-        <v>82.8</v>
+        <v>75.3</v>
       </c>
       <c r="Z37">
-        <v>82</v>
+        <v>74.8</v>
       </c>
       <c r="AA37">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AB37">
-        <v>80.599999999999994</v>
+        <v>73</v>
       </c>
       <c r="AC37">
-        <v>80.900000000000006</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="AD37">
-        <v>81</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="AE37">
-        <v>81.099999999999994</v>
+        <v>70.2</v>
       </c>
       <c r="AF37">
-        <v>81</v>
+        <v>68.8</v>
       </c>
       <c r="AG37">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+        <v>68.2</v>
+      </c>
+      <c r="AH37">
+        <v>68.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>62.5</v>
+        <v>57.2</v>
       </c>
       <c r="C38">
-        <v>64</v>
+        <v>58.6</v>
       </c>
       <c r="D38">
-        <v>65.599999999999994</v>
+        <v>59.9</v>
       </c>
       <c r="E38">
-        <v>67.5</v>
+        <v>61.6</v>
       </c>
       <c r="F38">
-        <v>69.3</v>
+        <v>63.2</v>
       </c>
       <c r="G38">
-        <v>71.3</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="H38">
-        <v>73.3</v>
+        <v>66.7</v>
       </c>
       <c r="I38">
-        <v>75.400000000000006</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="J38">
+        <v>70.3</v>
+      </c>
+      <c r="K38">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="L38">
+        <v>73.7</v>
+      </c>
+      <c r="M38">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="N38">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="O38">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="P38">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="Q38">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="R38">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="S38">
         <v>77.3</v>
       </c>
-      <c r="K38">
-        <v>79.099999999999994</v>
-      </c>
-      <c r="L38">
-        <v>81.099999999999994</v>
-      </c>
-      <c r="M38">
-        <v>82.7</v>
-      </c>
-      <c r="N38">
-        <v>83.9</v>
-      </c>
-      <c r="O38">
-        <v>84.4</v>
-      </c>
-      <c r="P38">
-        <v>84.6</v>
-      </c>
-      <c r="Q38">
-        <v>85</v>
-      </c>
-      <c r="R38">
-        <v>85.1</v>
-      </c>
-      <c r="S38">
-        <v>85.1</v>
-      </c>
       <c r="T38">
-        <v>84.9</v>
+        <v>77.2</v>
       </c>
       <c r="U38">
-        <v>84.7</v>
+        <v>77</v>
       </c>
       <c r="V38">
-        <v>84.3</v>
+        <v>76.7</v>
       </c>
       <c r="W38">
-        <v>83.9</v>
+        <v>76.3</v>
       </c>
       <c r="X38">
-        <v>83.4</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="Y38">
-        <v>82.8</v>
+        <v>75.3</v>
       </c>
       <c r="Z38">
-        <v>82</v>
+        <v>74.8</v>
       </c>
       <c r="AA38">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AB38">
-        <v>80.599999999999994</v>
+        <v>73</v>
       </c>
       <c r="AC38">
-        <v>80.900000000000006</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="AD38">
-        <v>81</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="AE38">
-        <v>81.099999999999994</v>
+        <v>70.2</v>
       </c>
       <c r="AF38">
-        <v>81</v>
+        <v>68.8</v>
       </c>
       <c r="AG38">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+        <v>68.2</v>
+      </c>
+      <c r="AH38">
+        <v>68.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>59</v>
       </c>
       <c r="B39">
+        <v>58</v>
+      </c>
+      <c r="C39">
+        <v>56.6</v>
+      </c>
+      <c r="D39">
+        <v>53.7</v>
+      </c>
+      <c r="E39">
+        <v>54.4</v>
+      </c>
+      <c r="F39">
+        <v>57.4</v>
+      </c>
+      <c r="G39">
+        <v>53.5</v>
+      </c>
+      <c r="H39">
+        <v>56.6</v>
+      </c>
+      <c r="I39">
+        <v>53.1</v>
+      </c>
+      <c r="J39">
+        <v>54.1</v>
+      </c>
+      <c r="K39">
         <v>57.9</v>
       </c>
-      <c r="C39">
-        <v>57.2</v>
-      </c>
-      <c r="D39">
-        <v>54.3</v>
-      </c>
-      <c r="E39">
-        <v>54.6</v>
-      </c>
-      <c r="F39">
-        <v>58.3</v>
-      </c>
-      <c r="G39">
-        <v>54</v>
-      </c>
-      <c r="H39">
-        <v>57.1</v>
-      </c>
-      <c r="I39">
-        <v>53.5</v>
-      </c>
-      <c r="J39">
-        <v>54.8</v>
-      </c>
-      <c r="K39">
-        <v>59.5</v>
-      </c>
       <c r="L39">
-        <v>66.2</v>
+        <v>63.1</v>
       </c>
       <c r="M39">
-        <v>57.4</v>
+        <v>56.4</v>
       </c>
       <c r="N39">
-        <v>70.5</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="O39">
-        <v>63.3</v>
+        <v>61.9</v>
       </c>
       <c r="P39">
-        <v>81.7</v>
+        <v>76.7</v>
       </c>
       <c r="Q39">
-        <v>72.400000000000006</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="R39">
-        <v>64.2</v>
+        <v>61.9</v>
       </c>
       <c r="S39">
-        <v>69</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="T39">
-        <v>61.2</v>
+        <v>60.3</v>
       </c>
       <c r="U39">
-        <v>66.599999999999994</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="V39">
-        <v>56.3</v>
+        <v>55.2</v>
       </c>
       <c r="W39">
-        <v>62.6</v>
+        <v>60.1</v>
       </c>
       <c r="X39">
-        <v>63.8</v>
+        <v>62.1</v>
       </c>
       <c r="Y39">
-        <v>64.3</v>
+        <v>62.7</v>
       </c>
       <c r="Z39">
+        <v>56.7</v>
+      </c>
+      <c r="AA39">
+        <v>76</v>
+      </c>
+      <c r="AB39">
+        <v>57</v>
+      </c>
+      <c r="AC39">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="AD39">
+        <v>62.8</v>
+      </c>
+      <c r="AE39">
         <v>58</v>
       </c>
-      <c r="AA39">
-        <v>80.400000000000006</v>
-      </c>
-      <c r="AB39">
-        <v>58.9</v>
-      </c>
-      <c r="AC39">
-        <v>68.3</v>
-      </c>
-      <c r="AD39">
-        <v>64.400000000000006</v>
-      </c>
-      <c r="AE39">
-        <v>64.2</v>
-      </c>
       <c r="AF39">
-        <v>76.400000000000006</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="AG39">
-        <v>77.8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="AH39">
+        <v>67.599999999999994</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>20</v>
       </c>
       <c r="B40">
+        <v>53.1</v>
+      </c>
+      <c r="C40">
+        <v>52.2</v>
+      </c>
+      <c r="D40">
+        <v>50.5</v>
+      </c>
+      <c r="E40">
+        <v>50.7</v>
+      </c>
+      <c r="F40">
+        <v>52.6</v>
+      </c>
+      <c r="G40">
+        <v>50.1</v>
+      </c>
+      <c r="H40">
+        <v>51.9</v>
+      </c>
+      <c r="I40">
+        <v>49.7</v>
+      </c>
+      <c r="J40">
+        <v>50.5</v>
+      </c>
+      <c r="K40">
+        <v>52.5</v>
+      </c>
+      <c r="L40">
+        <v>55.7</v>
+      </c>
+      <c r="M40">
+        <v>51.5</v>
+      </c>
+      <c r="N40">
+        <v>58.1</v>
+      </c>
+      <c r="O40">
+        <v>55.1</v>
+      </c>
+      <c r="P40">
+        <v>63.1</v>
+      </c>
+      <c r="Q40">
+        <v>58.5</v>
+      </c>
+      <c r="R40">
+        <v>54.5</v>
+      </c>
+      <c r="S40">
+        <v>57</v>
+      </c>
+      <c r="T40">
         <v>53.5</v>
       </c>
-      <c r="C40">
-        <v>53</v>
-      </c>
-      <c r="D40">
-        <v>51.2</v>
-      </c>
-      <c r="E40">
-        <v>51.2</v>
-      </c>
-      <c r="F40">
+      <c r="U40">
+        <v>55.7</v>
+      </c>
+      <c r="V40">
+        <v>50.8</v>
+      </c>
+      <c r="W40">
         <v>53.6</v>
       </c>
-      <c r="G40">
-        <v>50.8</v>
-      </c>
-      <c r="H40">
-        <v>52.6</v>
-      </c>
-      <c r="I40">
-        <v>50.5</v>
-      </c>
-      <c r="J40">
-        <v>51.4</v>
-      </c>
-      <c r="K40">
-        <v>54.1</v>
-      </c>
-      <c r="L40">
-        <v>58.2</v>
-      </c>
-      <c r="M40">
-        <v>52.7</v>
-      </c>
-      <c r="N40">
-        <v>60.9</v>
-      </c>
-      <c r="O40">
-        <v>56.6</v>
-      </c>
-      <c r="P40">
-        <v>66.8</v>
-      </c>
-      <c r="Q40">
-        <v>61.3</v>
-      </c>
-      <c r="R40">
-        <v>56.5</v>
-      </c>
-      <c r="S40">
-        <v>59.6</v>
-      </c>
-      <c r="T40">
-        <v>54.8</v>
-      </c>
-      <c r="U40">
-        <v>57.9</v>
-      </c>
-      <c r="V40">
-        <v>52.2</v>
-      </c>
-      <c r="W40">
-        <v>55.7</v>
-      </c>
       <c r="X40">
-        <v>57</v>
+        <v>55.2</v>
       </c>
       <c r="Y40">
-        <v>57.2</v>
+        <v>55.6</v>
       </c>
       <c r="Z40">
-        <v>53.2</v>
+        <v>51.7</v>
       </c>
       <c r="AA40">
-        <v>67</v>
+        <v>63.7</v>
       </c>
       <c r="AB40">
-        <v>53.9</v>
+        <v>51.9</v>
       </c>
       <c r="AC40">
-        <v>60.1</v>
+        <v>57.6</v>
       </c>
       <c r="AD40">
-        <v>57.3</v>
+        <v>55.5</v>
       </c>
       <c r="AE40">
-        <v>56.9</v>
+        <v>52.5</v>
       </c>
       <c r="AF40">
-        <v>65.400000000000006</v>
+        <v>59.3</v>
       </c>
       <c r="AG40">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+        <v>62.1</v>
+      </c>
+      <c r="AH40">
+        <v>58.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>21</v>
       </c>
       <c r="B41">
+        <v>4.8</v>
+      </c>
+      <c r="C41">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C41">
-        <v>4.2</v>
-      </c>
       <c r="D41">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="E41">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="F41">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="G41">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H41">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="I41">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="J41">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K41">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L41">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="M41">
-        <v>4.7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="N41">
-        <v>9.6</v>
+        <v>8.9</v>
       </c>
       <c r="O41">
+        <v>6.8</v>
+      </c>
+      <c r="P41">
+        <v>13.6</v>
+      </c>
+      <c r="Q41">
+        <v>10.3</v>
+      </c>
+      <c r="R41">
+        <v>7.4</v>
+      </c>
+      <c r="S41">
+        <v>8.9</v>
+      </c>
+      <c r="T41">
         <v>6.7</v>
       </c>
-      <c r="P41">
-        <v>14.9</v>
-      </c>
-      <c r="Q41">
-        <v>11.1</v>
-      </c>
-      <c r="R41">
-        <v>7.7</v>
-      </c>
-      <c r="S41">
-        <v>9.4</v>
-      </c>
-      <c r="T41">
-        <v>6.4</v>
-      </c>
       <c r="U41">
-        <v>8.6999999999999993</v>
+        <v>8.4</v>
       </c>
       <c r="V41">
-        <v>4.0999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="W41">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="X41">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="Y41">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="Z41">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="AA41">
-        <v>13.4</v>
+        <v>12.3</v>
       </c>
       <c r="AB41">
         <v>5</v>
       </c>
       <c r="AC41">
-        <v>8.3000000000000007</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AD41">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="AE41">
-        <v>7.3</v>
+        <v>5.5</v>
       </c>
       <c r="AF41">
-        <v>11</v>
+        <v>9.1</v>
       </c>
       <c r="AG41">
-        <v>11.8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+        <v>10.7</v>
+      </c>
+      <c r="AH41">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>60</v>
       </c>
       <c r="B42">
-        <v>-938.9</v>
+        <v>-1034.7</v>
       </c>
       <c r="C42">
-        <v>-944.4</v>
+        <v>-1045.5999999999999</v>
       </c>
       <c r="D42">
-        <v>-936.8</v>
+        <v>-1061.0999999999999</v>
       </c>
       <c r="E42">
-        <v>-917.6</v>
+        <v>-1045.7</v>
       </c>
       <c r="F42">
-        <v>-931.8</v>
+        <v>-1062.7</v>
       </c>
       <c r="G42">
-        <v>-902.8</v>
+        <v>-1033.8</v>
       </c>
       <c r="H42">
-        <v>-923.5</v>
+        <v>-1067.8</v>
       </c>
       <c r="I42">
-        <v>-903.4</v>
+        <v>-1038.3</v>
       </c>
       <c r="J42">
-        <v>-904.8</v>
+        <v>-1050.5</v>
       </c>
       <c r="K42">
-        <v>-900.5</v>
+        <v>-1026.3</v>
       </c>
       <c r="L42">
-        <v>-902</v>
+        <v>-1046.8</v>
       </c>
       <c r="M42">
-        <v>-899.9</v>
+        <v>-1036.0999999999999</v>
       </c>
       <c r="N42">
-        <v>-867.1</v>
+        <v>-991.8</v>
       </c>
       <c r="O42">
-        <v>-891.4</v>
+        <v>-1019.8</v>
       </c>
       <c r="P42">
-        <v>-791.3</v>
+        <v>-936.9</v>
       </c>
       <c r="Q42">
-        <v>-853.5</v>
+        <v>-976.6</v>
       </c>
       <c r="R42">
-        <v>-882.6</v>
+        <v>-1013.9</v>
       </c>
       <c r="S42">
-        <v>-843.1</v>
+        <v>-966.3</v>
       </c>
       <c r="T42">
-        <v>-824.7</v>
+        <v>-973.1</v>
       </c>
       <c r="U42">
-        <v>-787</v>
+        <v>-915</v>
       </c>
       <c r="V42">
-        <v>-807.4</v>
+        <v>-941.6</v>
       </c>
       <c r="W42">
-        <v>-853.8</v>
+        <v>-1001.9</v>
       </c>
       <c r="X42">
-        <v>-849.4</v>
+        <v>-991.3</v>
       </c>
       <c r="Y42">
-        <v>-813.5</v>
+        <v>-949.4</v>
       </c>
       <c r="Z42">
-        <v>-826.9</v>
+        <v>-980.4</v>
       </c>
       <c r="AA42">
-        <v>-752.2</v>
+        <v>-896.2</v>
       </c>
       <c r="AB42">
-        <v>-874.2</v>
+        <v>-973.8</v>
       </c>
       <c r="AC42">
-        <v>-842.5</v>
+        <v>-991.9</v>
       </c>
       <c r="AD42">
-        <v>-829.5</v>
+        <v>-978.3</v>
       </c>
       <c r="AE42">
-        <v>-768.2</v>
+        <v>-921.6</v>
       </c>
       <c r="AF42">
-        <v>-852.5</v>
+        <v>-972.8</v>
       </c>
       <c r="AG42">
-        <v>-832</v>
-      </c>
-    </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+        <v>-983.4</v>
+      </c>
+      <c r="AH42">
+        <v>-921.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>61</v>
       </c>
       <c r="B43">
-        <v>-881</v>
+        <v>-976.7</v>
       </c>
       <c r="C43">
-        <v>-887.2</v>
+        <v>-989</v>
       </c>
       <c r="D43">
-        <v>-882.5</v>
+        <v>-1007.4</v>
       </c>
       <c r="E43">
-        <v>-863.1</v>
+        <v>-991.3</v>
       </c>
       <c r="F43">
-        <v>-873.6</v>
+        <v>-1005.2</v>
       </c>
       <c r="G43">
-        <v>-848.8</v>
+        <v>-980.2</v>
       </c>
       <c r="H43">
-        <v>-866.4</v>
+        <v>-1011.2</v>
       </c>
       <c r="I43">
-        <v>-849.9</v>
+        <v>-985.2</v>
       </c>
       <c r="J43">
-        <v>-850</v>
+        <v>-996.3</v>
       </c>
       <c r="K43">
-        <v>-841</v>
+        <v>-968.5</v>
       </c>
       <c r="L43">
-        <v>-835.8</v>
+        <v>-983.7</v>
       </c>
       <c r="M43">
-        <v>-842.6</v>
+        <v>-979.8</v>
       </c>
       <c r="N43">
-        <v>-796.6</v>
+        <v>-924.8</v>
       </c>
       <c r="O43">
-        <v>-828.1</v>
+        <v>-957.9</v>
       </c>
       <c r="P43">
-        <v>-709.6</v>
+        <v>-860.2</v>
       </c>
       <c r="Q43">
-        <v>-781.1</v>
+        <v>-907.7</v>
       </c>
       <c r="R43">
-        <v>-818.4</v>
+        <v>-951.9</v>
       </c>
       <c r="S43">
-        <v>-774.1</v>
+        <v>-900.3</v>
       </c>
       <c r="T43">
-        <v>-763.4</v>
+        <v>-912.8</v>
       </c>
       <c r="U43">
-        <v>-720.5</v>
+        <v>-850.9</v>
       </c>
       <c r="V43">
-        <v>-751</v>
+        <v>-886.3</v>
       </c>
       <c r="W43">
-        <v>-791.2</v>
+        <v>-941.7</v>
       </c>
       <c r="X43">
-        <v>-785.6</v>
+        <v>-929.2</v>
       </c>
       <c r="Y43">
-        <v>-749.2</v>
+        <v>-886.6</v>
       </c>
       <c r="Z43">
-        <v>-768.8</v>
+        <v>-923.7</v>
       </c>
       <c r="AA43">
-        <v>-671.9</v>
+        <v>-820.2</v>
       </c>
       <c r="AB43">
-        <v>-815.3</v>
+        <v>-916.8</v>
       </c>
       <c r="AC43">
-        <v>-774.2</v>
+        <v>-926</v>
       </c>
       <c r="AD43">
-        <v>-765.1</v>
+        <v>-915.5</v>
       </c>
       <c r="AE43">
-        <v>-704</v>
+        <v>-863.6</v>
       </c>
       <c r="AF43">
-        <v>-776.2</v>
+        <v>-904.4</v>
       </c>
       <c r="AG43">
-        <v>-754.2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+        <v>-910.6</v>
+      </c>
+      <c r="AH43">
+        <v>-854.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>66</v>
       </c>
@@ -39880,127 +40025,127 @@
       </c>
       <c r="B2" s="3">
         <f>Calcs!B4*10^12</f>
-        <v>-852500000000000</v>
+        <v>-972800000000000</v>
       </c>
       <c r="C2" s="3">
         <f>Calcs!C4*10^12-'Inflation Reduction Act'!B90</f>
-        <v>-832000000000000</v>
+        <v>-983400000000000</v>
       </c>
       <c r="D2" s="3">
         <f>Calcs!D4*10^12-'Inflation Reduction Act'!C90</f>
-        <v>-824860000000000</v>
+        <v>-921800000000000</v>
       </c>
       <c r="E2" s="3">
         <f>Calcs!E4*10^12-'Inflation Reduction Act'!D90</f>
-        <v>-825000000000000</v>
+        <v>-956473333333333.38</v>
       </c>
       <c r="F2" s="3">
         <f>Calcs!F4*10^12-'Inflation Reduction Act'!E90</f>
-        <v>-825140000000000</v>
+        <v>-956384848484848.5</v>
       </c>
       <c r="G2" s="3">
         <f>Calcs!G4*10^12-'Inflation Reduction Act'!F90</f>
-        <v>-825280000000000</v>
+        <v>-956296363636363.63</v>
       </c>
       <c r="H2" s="3">
         <f>Calcs!H4*10^12-'Inflation Reduction Act'!G90</f>
-        <v>-832993391846322.38</v>
+        <v>-963781270634201.13</v>
       </c>
       <c r="I2" s="3">
         <f>Calcs!I4*10^12-'Inflation Reduction Act'!H90</f>
-        <v>-843646491539265.13</v>
+        <v>-974205885478659.13</v>
       </c>
       <c r="J2" s="3">
         <f>Calcs!J4*10^12-'Inflation Reduction Act'!I90</f>
-        <v>-850212676548764</v>
+        <v>-980543585639673.13</v>
       </c>
       <c r="K2" s="3">
         <f>Calcs!K4*10^12-'Inflation Reduction Act'!J90</f>
-        <v>-851835423218465.13</v>
+        <v>-981937847460889.38</v>
       </c>
       <c r="L2" s="3">
         <f>Calcs!L4*10^12-'Inflation Reduction Act'!K90</f>
-        <v>-850955513836802</v>
+        <v>-980829453230741.38</v>
       </c>
       <c r="M2" s="3">
         <f>Calcs!M4*10^12-'Inflation Reduction Act'!L90</f>
-        <v>-848551084199275.25</v>
+        <v>-978196538744729.75</v>
       </c>
       <c r="N2" s="3">
         <f>Calcs!N4*10^12-'Inflation Reduction Act'!M90</f>
-        <v>-846418536224861.75</v>
+        <v>-975835505921831.25</v>
       </c>
       <c r="O2" s="3">
         <f>Calcs!O4*10^12-'Inflation Reduction Act'!N90</f>
-        <v>-843232310212068.63</v>
+        <v>-972420795060553.25</v>
       </c>
       <c r="P2" s="3">
         <f>Calcs!P4*10^12-'Inflation Reduction Act'!O90</f>
-        <v>-840046084199275.38</v>
+        <v>-969006084199275.38</v>
       </c>
       <c r="Q2" s="3">
         <f>Calcs!Q4*10^12-'Inflation Reduction Act'!P90</f>
-        <v>-836859858186482.25</v>
+        <v>-965591373337997.25</v>
       </c>
       <c r="R2" s="3">
         <f>Calcs!R4*10^12-'Inflation Reduction Act'!Q90</f>
-        <v>-836999858186482.13</v>
+        <v>-965502888489512.38</v>
       </c>
       <c r="S2" s="3">
         <f>Calcs!S4*10^12-'Inflation Reduction Act'!R90</f>
-        <v>-837139858186482.13</v>
+        <v>-965414403641027.63</v>
       </c>
       <c r="T2" s="3">
         <f>Calcs!T4*10^12-'Inflation Reduction Act'!S90</f>
-        <v>-837279858186482.13</v>
+        <v>-965325918792542.75</v>
       </c>
       <c r="U2" s="3">
         <f>Calcs!U4*10^12-'Inflation Reduction Act'!T90</f>
-        <v>-837419858186482.13</v>
+        <v>-965237433944057.88</v>
       </c>
       <c r="V2" s="3">
         <f>Calcs!V4*10^12-'Inflation Reduction Act'!U90</f>
-        <v>-837559858186482.25</v>
+        <v>-965148949095573</v>
       </c>
       <c r="W2" s="3">
         <f>Calcs!W4*10^12-'Inflation Reduction Act'!V90</f>
-        <v>-837699858186482.13</v>
+        <v>-965060464247088.13</v>
       </c>
       <c r="X2" s="3">
         <f>Calcs!X4*10^12-'Inflation Reduction Act'!W90</f>
-        <v>-837839858186482.25</v>
+        <v>-964971979398603.25</v>
       </c>
       <c r="Y2" s="3">
         <f>Calcs!Y4*10^12-'Inflation Reduction Act'!X90</f>
-        <v>-837979858186482.25</v>
+        <v>-964883494550118.38</v>
       </c>
       <c r="Z2" s="3">
         <f>Calcs!Z4*10^12-'Inflation Reduction Act'!Y90</f>
-        <v>-838119858186482.13</v>
+        <v>-964795009701633.5</v>
       </c>
       <c r="AA2" s="3">
         <f>Calcs!AA4*10^12-'Inflation Reduction Act'!Z90</f>
-        <v>-838259858186482.13</v>
+        <v>-964706524853148.75</v>
       </c>
       <c r="AB2" s="3">
         <f>Calcs!AB4*10^12-'Inflation Reduction Act'!AA90</f>
-        <v>-838399858186482.13</v>
+        <v>-964618040004663.88</v>
       </c>
       <c r="AC2" s="3">
         <f>Calcs!AC4*10^12-'Inflation Reduction Act'!AB90</f>
-        <v>-838539858186482.25</v>
+        <v>-964529555156179</v>
       </c>
       <c r="AD2" s="3">
         <f>Calcs!AD4*10^12-'Inflation Reduction Act'!AC90</f>
-        <v>-838679858186482.13</v>
+        <v>-964441070307694.25</v>
       </c>
       <c r="AE2" s="3">
         <f>Calcs!AE4*10^12-'Inflation Reduction Act'!AD90</f>
-        <v>-838819858186482.25</v>
+        <v>-964352585459209.38</v>
       </c>
       <c r="AF2" s="3">
         <f>Calcs!AF4*10^12-'Inflation Reduction Act'!AE90</f>
-        <v>-838959858186482.25</v>
+        <v>-964264100610724.5</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
@@ -40793,127 +40938,127 @@
       </c>
       <c r="B11" s="3">
         <f>Calcs!B5*10^12/About!$B$17</f>
-        <v>2335714285714.2861</v>
+        <v>2117857142857.1428</v>
       </c>
       <c r="C11" s="3">
         <f>Calcs!C5*10^12/About!$B$17</f>
-        <v>2357142857142.8569</v>
+        <v>2217857142857.1431</v>
       </c>
       <c r="D11" s="3">
         <f>Calcs!D5*10^12/About!$B$17</f>
-        <v>2280952380952.3853</v>
+        <v>2085714285714.2856</v>
       </c>
       <c r="E11" s="3">
         <f>Calcs!E5*10^12/About!$B$17</f>
-        <v>2309956709956.7124</v>
+        <v>2121060606060.6055</v>
       </c>
       <c r="F11" s="3">
         <f>Calcs!F5*10^12/About!$B$17</f>
-        <v>2338961038961.0396</v>
+        <v>2136883116883.1184</v>
       </c>
       <c r="G11" s="3">
         <f>Calcs!G5*10^12/About!$B$17</f>
-        <v>2367965367965.3662</v>
+        <v>2152705627705.6309</v>
       </c>
       <c r="H11" s="3">
         <f>Calcs!H5*10^12/About!$B$17</f>
-        <v>2396969696969.7017</v>
+        <v>2168528138528.1394</v>
       </c>
       <c r="I11" s="3">
         <f>Calcs!I5*10^12/About!$B$17</f>
-        <v>2425974025974.0283</v>
+        <v>2184350649350.6523</v>
       </c>
       <c r="J11" s="3">
         <f>Calcs!J5*10^12/About!$B$17</f>
-        <v>2454978354978.355</v>
+        <v>2200173160173.1606</v>
       </c>
       <c r="K11" s="3">
         <f>Calcs!K5*10^12/About!$B$17</f>
-        <v>2483982683982.6821</v>
+        <v>2215995670995.6733</v>
       </c>
       <c r="L11" s="3">
         <f>Calcs!L5*10^12/About!$B$17</f>
-        <v>2512987012987.0171</v>
+        <v>2231818181818.1821</v>
       </c>
       <c r="M11" s="3">
         <f>Calcs!M5*10^12/About!$B$17</f>
-        <v>2541991341991.3442</v>
+        <v>2247640692640.6948</v>
       </c>
       <c r="N11" s="3">
         <f>Calcs!N5*10^12/About!$B$17</f>
-        <v>2570995670995.6714</v>
+        <v>2263463203463.2036</v>
       </c>
       <c r="O11" s="3">
         <f>Calcs!O5*10^12/About!$B$17</f>
-        <v>2599999999999.9985</v>
+        <v>2279285714285.7158</v>
       </c>
       <c r="P11" s="3">
         <f>Calcs!P5*10^12/About!$B$17</f>
-        <v>2629004329004.3335</v>
+        <v>2295108225108.2246</v>
       </c>
       <c r="Q11" s="3">
         <f>Calcs!Q5*10^12/About!$B$17</f>
-        <v>2658008658008.6606</v>
+        <v>2310930735930.7373</v>
       </c>
       <c r="R11" s="3">
         <f>Calcs!R5*10^12/About!$B$17</f>
-        <v>2687012987012.9878</v>
+        <v>2326753246753.25</v>
       </c>
       <c r="S11" s="3">
         <f>Calcs!S5*10^12/About!$B$17</f>
-        <v>2716017316017.314</v>
+        <v>2342575757575.7588</v>
       </c>
       <c r="T11" s="3">
         <f>Calcs!T5*10^12/About!$B$17</f>
-        <v>2745021645021.6494</v>
+        <v>2358398268398.271</v>
       </c>
       <c r="U11" s="3">
         <f>Calcs!U5*10^12/About!$B$17</f>
-        <v>2774025974025.9766</v>
+        <v>2374220779220.7798</v>
       </c>
       <c r="V11" s="3">
         <f>Calcs!V5*10^12/About!$B$17</f>
-        <v>2803030303030.3037</v>
+        <v>2390043290043.2925</v>
       </c>
       <c r="W11" s="3">
         <f>Calcs!W5*10^12/About!$B$17</f>
-        <v>2832034632034.6304</v>
+        <v>2405865800865.8013</v>
       </c>
       <c r="X11" s="3">
         <f>Calcs!X5*10^12/About!$B$17</f>
-        <v>2861038961038.9653</v>
+        <v>2421688311688.314</v>
       </c>
       <c r="Y11" s="3">
         <f>Calcs!Y5*10^12/About!$B$17</f>
-        <v>2890043290043.2925</v>
+        <v>2437510822510.8228</v>
       </c>
       <c r="Z11" s="3">
         <f>Calcs!Z5*10^12/About!$B$17</f>
-        <v>2919047619047.6196</v>
+        <v>2453333333333.335</v>
       </c>
       <c r="AA11" s="3">
         <f>Calcs!AA5*10^12/About!$B$17</f>
-        <v>2948051948051.9463</v>
+        <v>2469155844155.8438</v>
       </c>
       <c r="AB11" s="3">
         <f>Calcs!AB5*10^12/About!$B$17</f>
-        <v>2977056277056.2817</v>
+        <v>2484978354978.3564</v>
       </c>
       <c r="AC11" s="3">
         <f>Calcs!AC5*10^12/About!$B$17</f>
-        <v>3006060606060.6089</v>
+        <v>2500800865800.8647</v>
       </c>
       <c r="AD11" s="3">
         <f>Calcs!AD5*10^12/About!$B$17</f>
-        <v>3035064935064.936</v>
+        <v>2516623376623.3779</v>
       </c>
       <c r="AE11" s="3">
         <f>Calcs!AE5*10^12/About!$B$17</f>
-        <v>3064069264069.2627</v>
+        <v>2532445887445.8906</v>
       </c>
       <c r="AF11" s="3">
         <f>Calcs!AF5*10^12/About!$B$17</f>
-        <v>3093073593073.5898</v>
+        <v>2548268398268.3989</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
@@ -40922,127 +41067,127 @@
       </c>
       <c r="B12" s="3">
         <f>Calcs!B6*10^12/About!$B$18</f>
-        <v>41509433962.264153</v>
+        <v>34339622641.509434</v>
       </c>
       <c r="C12" s="3">
         <f>Calcs!C6*10^12/About!$B$18</f>
-        <v>44528301886.79245</v>
+        <v>40377358490.56604</v>
       </c>
       <c r="D12" s="3">
         <f>Calcs!D6*10^12/About!$B$18</f>
-        <v>39798742138.364624</v>
+        <v>34339622641.509434</v>
       </c>
       <c r="E12" s="3">
         <f>Calcs!E6*10^12/About!$B$18</f>
-        <v>41374499714.122055</v>
+        <v>34810748999.428329</v>
       </c>
       <c r="F12" s="3">
         <f>Calcs!F6*10^12/About!$B$18</f>
-        <v>42950257289.879906</v>
+        <v>35684391080.617645</v>
       </c>
       <c r="G12" s="3">
         <f>Calcs!G6*10^12/About!$B$18</f>
-        <v>44526014865.637337</v>
+        <v>36558033161.806961</v>
       </c>
       <c r="H12" s="3">
         <f>Calcs!H6*10^12/About!$B$18</f>
-        <v>46101772441.394768</v>
+        <v>37431675242.996277</v>
       </c>
       <c r="I12" s="3">
         <f>Calcs!I6*10^12/About!$B$18</f>
-        <v>47677530017.152626</v>
+        <v>38305317324.185379</v>
       </c>
       <c r="J12" s="3">
         <f>Calcs!J6*10^12/About!$B$18</f>
-        <v>49253287592.910049</v>
+        <v>39178959405.374687</v>
       </c>
       <c r="K12" s="3">
         <f>Calcs!K6*10^12/About!$B$18</f>
-        <v>50829045168.667915</v>
+        <v>40052601486.564003</v>
       </c>
       <c r="L12" s="3">
         <f>Calcs!L6*10^12/About!$B$18</f>
-        <v>52404802744.425346</v>
+        <v>40926243567.753105</v>
       </c>
       <c r="M12" s="3">
         <f>Calcs!M6*10^12/About!$B$18</f>
-        <v>53980560320.182777</v>
+        <v>41799885648.942413</v>
       </c>
       <c r="N12" s="3">
         <f>Calcs!N6*10^12/About!$B$18</f>
-        <v>55556317895.940636</v>
+        <v>42673527730.131729</v>
       </c>
       <c r="O12" s="3">
         <f>Calcs!O6*10^12/About!$B$18</f>
-        <v>57132075471.698059</v>
+        <v>43547169811.320831</v>
       </c>
       <c r="P12" s="3">
         <f>Calcs!P6*10^12/About!$B$18</f>
-        <v>58707833047.45549</v>
+        <v>44420811892.510147</v>
       </c>
       <c r="Q12" s="3">
         <f>Calcs!Q6*10^12/About!$B$18</f>
-        <v>60283590623.213348</v>
+        <v>45294453973.699463</v>
       </c>
       <c r="R12" s="3">
         <f>Calcs!R6*10^12/About!$B$18</f>
-        <v>61859348198.970779</v>
+        <v>46168096054.888779</v>
       </c>
       <c r="S12" s="3">
         <f>Calcs!S6*10^12/About!$B$18</f>
-        <v>63435105774.728203</v>
+        <v>47041738136.077873</v>
       </c>
       <c r="T12" s="3">
         <f>Calcs!T6*10^12/About!$B$18</f>
-        <v>65010863350.486069</v>
+        <v>47915380217.267189</v>
       </c>
       <c r="U12" s="3">
         <f>Calcs!U6*10^12/About!$B$18</f>
-        <v>66586620926.2435</v>
+        <v>48789022298.456497</v>
       </c>
       <c r="V12" s="3">
         <f>Calcs!V6*10^12/About!$B$18</f>
-        <v>68162378502.000931</v>
+        <v>49662664379.645607</v>
       </c>
       <c r="W12" s="3">
         <f>Calcs!W6*10^12/About!$B$18</f>
-        <v>69738136077.758789</v>
+        <v>50536306460.834923</v>
       </c>
       <c r="X12" s="3">
         <f>Calcs!X6*10^12/About!$B$18</f>
-        <v>71313893653.51622</v>
+        <v>51409948542.024231</v>
       </c>
       <c r="Y12" s="3">
         <f>Calcs!Y6*10^12/About!$B$18</f>
-        <v>72889651229.273651</v>
+        <v>52283590623.213333</v>
       </c>
       <c r="Z12" s="3">
         <f>Calcs!Z6*10^12/About!$B$18</f>
-        <v>74465408805.031494</v>
+        <v>53157232704.402649</v>
       </c>
       <c r="AA12" s="3">
         <f>Calcs!AA6*10^12/About!$B$18</f>
-        <v>76041166380.788925</v>
+        <v>54030874785.591957</v>
       </c>
       <c r="AB12" s="3">
         <f>Calcs!AB6*10^12/About!$B$18</f>
-        <v>77616923956.546356</v>
+        <v>54904516866.781281</v>
       </c>
       <c r="AC12" s="3">
         <f>Calcs!AC6*10^12/About!$B$18</f>
-        <v>79192681532.304214</v>
+        <v>55778158947.970375</v>
       </c>
       <c r="AD12" s="3">
         <f>Calcs!AD6*10^12/About!$B$18</f>
-        <v>80768439108.061646</v>
+        <v>56651801029.159691</v>
       </c>
       <c r="AE12" s="3">
         <f>Calcs!AE6*10^12/About!$B$18</f>
-        <v>82344196683.819077</v>
+        <v>57525443110.349007</v>
       </c>
       <c r="AF12" s="3">
         <f>Calcs!AF6*10^12/About!$B$18</f>
-        <v>83919954259.57695</v>
+        <v>58399085191.538101</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
